--- a/locations.xlsx
+++ b/locations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43A59EC-EF93-418D-9BD4-94DBE4399DE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E252216-067F-47A4-95E7-34A9A9576EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -31,13 +31,7 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Point A</t>
-  </si>
-  <si>
-    <t>Point B</t>
-  </si>
-  <si>
-    <t>Point C</t>
+    <t>Gjuri bardhe</t>
   </si>
 </sst>
 </file>
@@ -369,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,37 +385,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>37.774900000000002</v>
+      <c r="B2">
+        <v>41.451930028626599</v>
       </c>
       <c r="C2" s="2">
-        <v>-122.4194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>51.507399999999997</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-0.1278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>40.712800000000001</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-74.006</v>
+        <v>20.0722199250377</v>
       </c>
     </row>
   </sheetData>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -1,48 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E252216-067F-47A4-95E7-34A9A9576EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geri\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D678392-0E6B-486C-9290-6A6FE9AEF36D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{987C4605-9353-46C9-9034-223AC9CA748A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ankete_FAO-2025-07-21" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Latitude</t>
   </si>
   <si>
     <t>Longitude</t>
   </si>
-  <si>
-    <t>Gjuri bardhe</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -50,20 +156,207 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -71,21 +364,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -111,39 +588,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -176,9 +653,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -211,6 +705,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -272,13 +783,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -287,6 +791,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -351,49 +862,2978 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47495CC-D0EF-4393-918A-F5695F1ECE82}">
+  <dimension ref="A1:B366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>41.451930028626599</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20.0722199250377</v>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>40.7176027</v>
+      </c>
+      <c r="B2" s="1">
+        <v>19.928751299999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>40.719552399999998</v>
+      </c>
+      <c r="B3" s="1">
+        <v>19.929415500000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>40.719831999999997</v>
+      </c>
+      <c r="B4" s="1">
+        <v>19.929725099999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>40.719562000000003</v>
+      </c>
+      <c r="B5" s="1">
+        <v>19.929419800000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>40.719827299999999</v>
+      </c>
+      <c r="B6" s="1">
+        <v>19.929644700000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>40.719628499999999</v>
+      </c>
+      <c r="B7" s="1">
+        <v>19.9293005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>40.719606499999998</v>
+      </c>
+      <c r="B8" s="1">
+        <v>19.929391500000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>40.719557299999998</v>
+      </c>
+      <c r="B9" s="1">
+        <v>19.929417300000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>40.719580399999998</v>
+      </c>
+      <c r="B10" s="1">
+        <v>19.929424300000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>42.277197200000003</v>
+      </c>
+      <c r="B11" s="1">
+        <v>19.5138845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>42.280515899999997</v>
+      </c>
+      <c r="B12" s="1">
+        <v>19.5225586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>42.278105400000001</v>
+      </c>
+      <c r="B13" s="1">
+        <v>19.519205199999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>42.281401099999997</v>
+      </c>
+      <c r="B14" s="1">
+        <v>19.5229967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>42.2772711</v>
+      </c>
+      <c r="B15" s="1">
+        <v>19.5165753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>42.281402300000003</v>
+      </c>
+      <c r="B16" s="1">
+        <v>19.522993199999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>42.281467300000003</v>
+      </c>
+      <c r="B17" s="1">
+        <v>19.523060099999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>42.277654499999997</v>
+      </c>
+      <c r="B18" s="1">
+        <v>19.518281200000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>42.281427899999997</v>
+      </c>
+      <c r="B19" s="1">
+        <v>19.523053399999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>42.277683500000002</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19.517837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>42.280393400000001</v>
+      </c>
+      <c r="B21" s="1">
+        <v>19.522840299999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>42.277751299999998</v>
+      </c>
+      <c r="B22" s="1">
+        <v>19.517457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>42.277492600000002</v>
+      </c>
+      <c r="B23" s="1">
+        <v>19.518242699999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>42.277285499999998</v>
+      </c>
+      <c r="B24" s="1">
+        <v>19.5167021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>42.277923800000003</v>
+      </c>
+      <c r="B25" s="1">
+        <v>19.517572699999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>42.276982799999999</v>
+      </c>
+      <c r="B26" s="1">
+        <v>19.516658100000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>40.831350700000002</v>
+      </c>
+      <c r="B27" s="1">
+        <v>19.9143708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>40.830765300000003</v>
+      </c>
+      <c r="B28" s="1">
+        <v>19.914642099999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>40.830768900000002</v>
+      </c>
+      <c r="B29" s="1">
+        <v>19.914750099999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>40.831157099999999</v>
+      </c>
+      <c r="B30" s="1">
+        <v>19.9144322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>40.750765199999996</v>
+      </c>
+      <c r="B31" s="1">
+        <v>20.832402299999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>40.831096199999998</v>
+      </c>
+      <c r="B32" s="1">
+        <v>19.914892399999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>40.8309292</v>
+      </c>
+      <c r="B33" s="1">
+        <v>19.915116999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>40.830769400000001</v>
+      </c>
+      <c r="B34" s="1">
+        <v>19.9147502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>40.831297599999999</v>
+      </c>
+      <c r="B35" s="1">
+        <v>19.914582800000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>40.751758700000003</v>
+      </c>
+      <c r="B36" s="1">
+        <v>20.831425400000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>40.832106899999999</v>
+      </c>
+      <c r="B37" s="1">
+        <v>19.9140172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>40.752531599999998</v>
+      </c>
+      <c r="B38" s="1">
+        <v>20.8312925</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>40.831263900000003</v>
+      </c>
+      <c r="B39" s="1">
+        <v>19.914763099999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>40.754839099999998</v>
+      </c>
+      <c r="B40" s="1">
+        <v>20.830075000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>40.753555400000003</v>
+      </c>
+      <c r="B41" s="1">
+        <v>20.830983700000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>40.753786900000001</v>
+      </c>
+      <c r="B42" s="1">
+        <v>20.8306401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>40.753895900000003</v>
+      </c>
+      <c r="B43" s="1">
+        <v>20.830523400000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>40.754075700000001</v>
+      </c>
+      <c r="B44" s="1">
+        <v>20.830336800000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>40.754475399999997</v>
+      </c>
+      <c r="B45" s="1">
+        <v>20.830290000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>40.753585999999999</v>
+      </c>
+      <c r="B46" s="1">
+        <v>20.830670699999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>40.753583399999997</v>
+      </c>
+      <c r="B47" s="1">
+        <v>20.830621900000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>40.753666799999998</v>
+      </c>
+      <c r="B48" s="1">
+        <v>20.830617799999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>40.754765200000001</v>
+      </c>
+      <c r="B49" s="1">
+        <v>20.8299974</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>40.755149799999998</v>
+      </c>
+      <c r="B50" s="1">
+        <v>20.829772599999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>40.755449900000002</v>
+      </c>
+      <c r="B51" s="1">
+        <v>20.829460000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>40.755571000000003</v>
+      </c>
+      <c r="B52" s="1">
+        <v>20.829272700000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>41.396787600000003</v>
+      </c>
+      <c r="B53" s="1">
+        <v>19.539857399999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>41.379489</v>
+      </c>
+      <c r="B54" s="1">
+        <v>19.542874300000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>41.388695599999998</v>
+      </c>
+      <c r="B55" s="1">
+        <v>19.550103199999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>41.365637800000002</v>
+      </c>
+      <c r="B56" s="1">
+        <v>19.549973300000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>40.560966800000003</v>
+      </c>
+      <c r="B57" s="1">
+        <v>20.741795100000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>40.560964800000001</v>
+      </c>
+      <c r="B58" s="1">
+        <v>20.7417707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>40.560974899999998</v>
+      </c>
+      <c r="B59" s="1">
+        <v>20.7418026</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>40.560964599999998</v>
+      </c>
+      <c r="B60" s="1">
+        <v>20.741803300000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>40.560952499999999</v>
+      </c>
+      <c r="B61" s="1">
+        <v>20.741803399999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>40.560913999999997</v>
+      </c>
+      <c r="B62" s="1">
+        <v>20.741698599999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>40.5609173</v>
+      </c>
+      <c r="B63" s="1">
+        <v>20.741696999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>40.5609131</v>
+      </c>
+      <c r="B64" s="1">
+        <v>20.741690599999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>40.560912799999997</v>
+      </c>
+      <c r="B65" s="1">
+        <v>20.741685700000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>40.560913300000003</v>
+      </c>
+      <c r="B66" s="1">
+        <v>20.741686600000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>41.427428800000001</v>
+      </c>
+      <c r="B67" s="1">
+        <v>19.5628137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>41.426992900000002</v>
+      </c>
+      <c r="B68" s="1">
+        <v>19.563263500000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>41.4230527</v>
+      </c>
+      <c r="B69" s="1">
+        <v>19.548993299999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>41.407758399999999</v>
+      </c>
+      <c r="B70" s="1">
+        <v>19.549752999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>40.560912899999998</v>
+      </c>
+      <c r="B71" s="1">
+        <v>20.7416795</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>40.560951600000003</v>
+      </c>
+      <c r="B72" s="1">
+        <v>20.741800900000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>40.560895899999998</v>
+      </c>
+      <c r="B73" s="1">
+        <v>20.741647199999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>40.560944200000002</v>
+      </c>
+      <c r="B74" s="1">
+        <v>20.741797500000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>40.560954199999998</v>
+      </c>
+      <c r="B75" s="1">
+        <v>20.741793000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>40.560938800000002</v>
+      </c>
+      <c r="B76" s="1">
+        <v>20.741807300000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>40.560957100000003</v>
+      </c>
+      <c r="B77" s="1">
+        <v>20.741800900000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>40.560913300000003</v>
+      </c>
+      <c r="B78" s="1">
+        <v>20.741778199999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>40.560971600000002</v>
+      </c>
+      <c r="B79" s="1">
+        <v>20.741804699999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>40.560976500000002</v>
+      </c>
+      <c r="B80" s="1">
+        <v>20.741814900000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>40.560958399999997</v>
+      </c>
+      <c r="B81" s="1">
+        <v>20.741810099999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>40.560943600000002</v>
+      </c>
+      <c r="B82" s="1">
+        <v>20.741804800000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>40.560890999999998</v>
+      </c>
+      <c r="B83" s="1">
+        <v>20.741639800000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>40.560895799999997</v>
+      </c>
+      <c r="B84" s="1">
+        <v>20.7416351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>40.560902499999997</v>
+      </c>
+      <c r="B85" s="1">
+        <v>20.741630799999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>40.560876</v>
+      </c>
+      <c r="B86" s="1">
+        <v>20.7416111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>40.5609155</v>
+      </c>
+      <c r="B87" s="1">
+        <v>20.741734999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>40.560920099999997</v>
+      </c>
+      <c r="B88" s="1">
+        <v>20.7417166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>40.560943000000002</v>
+      </c>
+      <c r="B89" s="1">
+        <v>20.741734000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>40.561030199999998</v>
+      </c>
+      <c r="B90" s="1">
+        <v>20.741820499999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>40.626757300000001</v>
+      </c>
+      <c r="B91" s="1">
+        <v>20.702181899999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>42.362380299999998</v>
+      </c>
+      <c r="B92" s="1">
+        <v>20.073043899999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>40.6267402</v>
+      </c>
+      <c r="B93" s="1">
+        <v>20.702174200000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>40.626693099999997</v>
+      </c>
+      <c r="B94" s="1">
+        <v>20.702165600000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>40.626756899999997</v>
+      </c>
+      <c r="B95" s="1">
+        <v>20.7021792</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>40.6266879</v>
+      </c>
+      <c r="B96" s="1">
+        <v>20.702141099999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>40.626729900000001</v>
+      </c>
+      <c r="B97" s="1">
+        <v>20.702078700000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>40.626732799999999</v>
+      </c>
+      <c r="B98" s="1">
+        <v>20.702138900000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>40.626760599999997</v>
+      </c>
+      <c r="B99" s="1">
+        <v>20.702173200000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>40.626660800000003</v>
+      </c>
+      <c r="B100" s="1">
+        <v>20.702097500000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>42.362389700000001</v>
+      </c>
+      <c r="B101" s="1">
+        <v>20.073061500000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>42.3625051</v>
+      </c>
+      <c r="B102" s="1">
+        <v>20.072873000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>42.362324800000003</v>
+      </c>
+      <c r="B103" s="1">
+        <v>20.073018999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>40.610097000000003</v>
+      </c>
+      <c r="B104" s="1">
+        <v>20.691711999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>40.609602500000001</v>
+      </c>
+      <c r="B105" s="1">
+        <v>20.691002099999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>40.6096109</v>
+      </c>
+      <c r="B106" s="1">
+        <v>20.691012700000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>40.610722099999997</v>
+      </c>
+      <c r="B107" s="1">
+        <v>20.692342499999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>40.611035399999999</v>
+      </c>
+      <c r="B108" s="1">
+        <v>20.693137100000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>40.6110173</v>
+      </c>
+      <c r="B109" s="1">
+        <v>20.693270999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>40.611177699999999</v>
+      </c>
+      <c r="B110" s="1">
+        <v>20.693513100000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>40.611255800000002</v>
+      </c>
+      <c r="B111" s="1">
+        <v>20.693622900000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>40.611256900000001</v>
+      </c>
+      <c r="B112" s="1">
+        <v>20.6936219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>40.611215199999997</v>
+      </c>
+      <c r="B113" s="1">
+        <v>20.693598900000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>40.611273199999999</v>
+      </c>
+      <c r="B114" s="1">
+        <v>20.6935851</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>40.611356299999997</v>
+      </c>
+      <c r="B115" s="1">
+        <v>20.693670900000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>40.610570299999999</v>
+      </c>
+      <c r="B116" s="1">
+        <v>20.6921496</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>40.611265699999997</v>
+      </c>
+      <c r="B117" s="1">
+        <v>20.693665299999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>40.611249700000002</v>
+      </c>
+      <c r="B118" s="1">
+        <v>20.693570399999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>40.611345100000001</v>
+      </c>
+      <c r="B119" s="1">
+        <v>20.693597400000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>40.611211599999997</v>
+      </c>
+      <c r="B120" s="1">
+        <v>20.693585500000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>40.611242799999999</v>
+      </c>
+      <c r="B121" s="1">
+        <v>20.693614400000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>40.611170700000002</v>
+      </c>
+      <c r="B122" s="1">
+        <v>20.6936283</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>40.611260600000001</v>
+      </c>
+      <c r="B123" s="1">
+        <v>20.6935775</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>40.706542399999996</v>
+      </c>
+      <c r="B124" s="1">
+        <v>20.792244100000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>40.703667600000003</v>
+      </c>
+      <c r="B125" s="1">
+        <v>20.792092100000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>40.884521100000001</v>
+      </c>
+      <c r="B126" s="1">
+        <v>19.589540100000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>40.884501999999998</v>
+      </c>
+      <c r="B127" s="1">
+        <v>19.589530700000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>40.706522499999998</v>
+      </c>
+      <c r="B128" s="1">
+        <v>20.792271899999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>40.7046469</v>
+      </c>
+      <c r="B129" s="1">
+        <v>20.7913256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>40.942221099999998</v>
+      </c>
+      <c r="B130" s="1">
+        <v>19.5372837</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>40.921858800000003</v>
+      </c>
+      <c r="B131" s="1">
+        <v>19.536833900000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>40.706364499999999</v>
+      </c>
+      <c r="B132" s="1">
+        <v>20.792159300000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>40.960527200000001</v>
+      </c>
+      <c r="B133" s="1">
+        <v>19.521292200000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>40.923311599999998</v>
+      </c>
+      <c r="B134" s="1">
+        <v>19.537331099999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>40.705325799999997</v>
+      </c>
+      <c r="B135" s="1">
+        <v>20.791675900000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>40.923311599999998</v>
+      </c>
+      <c r="B136" s="1">
+        <v>19.537331099999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>40.960527200000001</v>
+      </c>
+      <c r="B137" s="1">
+        <v>19.521292200000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>40.706411500000002</v>
+      </c>
+      <c r="B138" s="1">
+        <v>20.792268700000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>40.706332000000003</v>
+      </c>
+      <c r="B139" s="1">
+        <v>20.792128900000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>42.168859500000003</v>
+      </c>
+      <c r="B140" s="1">
+        <v>19.4817781</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>40.705536899999998</v>
+      </c>
+      <c r="B141" s="1">
+        <v>20.792016799999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>40.706282399999999</v>
+      </c>
+      <c r="B142" s="1">
+        <v>20.792267200000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>40.705341799999999</v>
+      </c>
+      <c r="B143" s="1">
+        <v>20.791884499999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>40.7061894</v>
+      </c>
+      <c r="B144" s="1">
+        <v>20.7921561</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>40.705005700000001</v>
+      </c>
+      <c r="B145" s="1">
+        <v>20.791491600000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>40.705502799999998</v>
+      </c>
+      <c r="B146" s="1">
+        <v>20.791700500000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
+        <v>40.704983800000001</v>
+      </c>
+      <c r="B147" s="1">
+        <v>20.791447999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
+        <v>40.617686800000001</v>
+      </c>
+      <c r="B148" s="1">
+        <v>20.7716612</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>40.704856100000001</v>
+      </c>
+      <c r="B149" s="1">
+        <v>20.791373499999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>40.7049685</v>
+      </c>
+      <c r="B150" s="1">
+        <v>20.7914374</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
+        <v>40.704788999999998</v>
+      </c>
+      <c r="B151" s="1">
+        <v>20.791447999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
+        <v>42.357349300000003</v>
+      </c>
+      <c r="B152" s="1">
+        <v>20.0740762</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>42.357340499999999</v>
+      </c>
+      <c r="B153" s="1">
+        <v>20.074083600000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
+        <v>40.704794900000003</v>
+      </c>
+      <c r="B154" s="1">
+        <v>20.7913055</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
+        <v>41.028359100000003</v>
+      </c>
+      <c r="B155" s="1">
+        <v>19.991171099999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
+        <v>40.7044158</v>
+      </c>
+      <c r="B156" s="1">
+        <v>20.791806900000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
+        <v>41.028087900000003</v>
+      </c>
+      <c r="B157" s="1">
+        <v>19.9908085</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
+        <v>40.713635799999999</v>
+      </c>
+      <c r="B158" s="1">
+        <v>19.619978799999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>40.713635600000003</v>
+      </c>
+      <c r="B159" s="1">
+        <v>19.619980099999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
+        <v>40.713628900000003</v>
+      </c>
+      <c r="B160" s="1">
+        <v>19.619981899999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
+        <v>40.713571999999999</v>
+      </c>
+      <c r="B161" s="1">
+        <v>19.620115500000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
+        <v>40.706701799999998</v>
+      </c>
+      <c r="B162" s="1">
+        <v>19.619714800000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>40.706772299999997</v>
+      </c>
+      <c r="B163" s="1">
+        <v>19.6196372</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>40.706692400000001</v>
+      </c>
+      <c r="B164" s="1">
+        <v>19.619727300000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>40.7068023</v>
+      </c>
+      <c r="B165" s="1">
+        <v>19.619588400000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>42.362310999999998</v>
+      </c>
+      <c r="B166" s="1">
+        <v>20.0729486</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>42.362290199999997</v>
+      </c>
+      <c r="B167" s="1">
+        <v>20.0729188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>42.362548599999997</v>
+      </c>
+      <c r="B168" s="1">
+        <v>20.0736709</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
+        <v>42.362232400000003</v>
+      </c>
+      <c r="B169" s="1">
+        <v>20.072844199999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
+        <v>40.123410100000001</v>
+      </c>
+      <c r="B170" s="1">
+        <v>20.1118554</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
+        <v>40.122214700000001</v>
+      </c>
+      <c r="B171" s="1">
+        <v>20.105774400000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
+        <v>40.122556799999998</v>
+      </c>
+      <c r="B172" s="1">
+        <v>20.110113599999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
+        <v>40.122549499999998</v>
+      </c>
+      <c r="B173" s="1">
+        <v>20.110094199999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
+        <v>40.122547599999997</v>
+      </c>
+      <c r="B174" s="1">
+        <v>20.1100882</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
+        <v>40.701578300000001</v>
+      </c>
+      <c r="B175" s="1">
+        <v>19.617272</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
+        <v>40.701530200000001</v>
+      </c>
+      <c r="B176" s="1">
+        <v>19.617308300000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
+        <v>40.707910900000002</v>
+      </c>
+      <c r="B177" s="1">
+        <v>19.639635800000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
+        <v>40.707915800000002</v>
+      </c>
+      <c r="B178" s="1">
+        <v>19.6395126</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
+        <v>40.707695800000003</v>
+      </c>
+      <c r="B179" s="1">
+        <v>19.639659000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
+        <v>40.706020799999997</v>
+      </c>
+      <c r="B180" s="1">
+        <v>19.639999100000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
+        <v>40.1240138</v>
+      </c>
+      <c r="B181" s="1">
+        <v>20.1357748</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
+        <v>40.699875400000003</v>
+      </c>
+      <c r="B182" s="1">
+        <v>19.6101435</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
+        <v>40.700781900000003</v>
+      </c>
+      <c r="B183" s="1">
+        <v>19.612272000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
+        <v>40.719981300000001</v>
+      </c>
+      <c r="B184" s="1">
+        <v>19.6205645</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
+        <v>40.721211199999999</v>
+      </c>
+      <c r="B185" s="1">
+        <v>19.621170599999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
+        <v>40.723165199999997</v>
+      </c>
+      <c r="B186" s="1">
+        <v>19.621562600000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
+        <v>42.163769799999997</v>
+      </c>
+      <c r="B187" s="1">
+        <v>19.4654448</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
+        <v>40.723148199999997</v>
+      </c>
+      <c r="B188" s="1">
+        <v>19.6215419</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1">
+        <v>40.085417300000003</v>
+      </c>
+      <c r="B189" s="1">
+        <v>20.1426938</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
+        <v>40.085411999999998</v>
+      </c>
+      <c r="B190" s="1">
+        <v>20.142689300000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1">
+        <v>40.085411999999998</v>
+      </c>
+      <c r="B191" s="1">
+        <v>20.142689300000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1">
+        <v>40.085411999999998</v>
+      </c>
+      <c r="B192" s="1">
+        <v>20.142689300000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1">
+        <v>40.0803966</v>
+      </c>
+      <c r="B193" s="1">
+        <v>20.138464599999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1">
+        <v>40.971039699999999</v>
+      </c>
+      <c r="B194" s="1">
+        <v>20.004928100000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1">
+        <v>40.983379999999997</v>
+      </c>
+      <c r="B195" s="1">
+        <v>20.0097433</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1">
+        <v>41.003016700000003</v>
+      </c>
+      <c r="B196" s="1">
+        <v>20.017828099999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1">
+        <v>41.015389999999996</v>
+      </c>
+      <c r="B197" s="1">
+        <v>20.0045033</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1">
+        <v>40.125408999999998</v>
+      </c>
+      <c r="B198" s="1">
+        <v>20.136428299999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1">
+        <v>40.125190500000002</v>
+      </c>
+      <c r="B199" s="1">
+        <v>20.136147699999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1">
+        <v>40.125254699999999</v>
+      </c>
+      <c r="B200" s="1">
+        <v>20.136188700000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1">
+        <v>40.125625300000003</v>
+      </c>
+      <c r="B201" s="1">
+        <v>20.136190599999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1">
+        <v>40.1256561</v>
+      </c>
+      <c r="B202" s="1">
+        <v>20.136201199999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1">
+        <v>40.847952599999999</v>
+      </c>
+      <c r="B203" s="1">
+        <v>19.6384829</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1">
+        <v>40.858810900000002</v>
+      </c>
+      <c r="B204" s="1">
+        <v>19.6468189</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1">
+        <v>40.146357500000001</v>
+      </c>
+      <c r="B205" s="1">
+        <v>20.0885335</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
+        <v>40.145546199999998</v>
+      </c>
+      <c r="B206" s="1">
+        <v>20.089397000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
+        <v>40.141613</v>
+      </c>
+      <c r="B207" s="1">
+        <v>20.088227100000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
+        <v>40.1443029</v>
+      </c>
+      <c r="B208" s="1">
+        <v>20.088320499999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
+        <v>40.144500399999998</v>
+      </c>
+      <c r="B209" s="1">
+        <v>20.089192499999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
+        <v>40.146357000000002</v>
+      </c>
+      <c r="B210" s="1">
+        <v>20.0885183</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>40.145260700000001</v>
+      </c>
+      <c r="B211" s="1">
+        <v>20.0883352</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
+        <v>40.832867899999997</v>
+      </c>
+      <c r="B212" s="1">
+        <v>19.5192318</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
+        <v>40.984084799999998</v>
+      </c>
+      <c r="B213" s="1">
+        <v>20.010112599999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
+        <v>40.968437899999998</v>
+      </c>
+      <c r="B214" s="1">
+        <v>20.004564200000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
+        <v>40.958093900000001</v>
+      </c>
+      <c r="B215" s="1">
+        <v>20.004059900000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>40.8251633</v>
+      </c>
+      <c r="B216" s="1">
+        <v>19.501712900000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>40.825159300000003</v>
+      </c>
+      <c r="B217" s="1">
+        <v>19.501710500000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1">
+        <v>40.819353700000001</v>
+      </c>
+      <c r="B218" s="1">
+        <v>19.501025800000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1">
+        <v>40.816021599999999</v>
+      </c>
+      <c r="B219" s="1">
+        <v>19.5005454</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1">
+        <v>40.816017700000003</v>
+      </c>
+      <c r="B220" s="1">
+        <v>19.500545200000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1">
+        <v>40.816024499999997</v>
+      </c>
+      <c r="B221" s="1">
+        <v>19.5004867</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1">
+        <v>40.815624300000003</v>
+      </c>
+      <c r="B222" s="1">
+        <v>19.500920399999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1">
+        <v>40.816299399999998</v>
+      </c>
+      <c r="B223" s="1">
+        <v>19.5016237</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1">
+        <v>40.815844400000003</v>
+      </c>
+      <c r="B224" s="1">
+        <v>19.499451499999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1">
+        <v>40.816145400000003</v>
+      </c>
+      <c r="B225" s="1">
+        <v>19.4993044</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1">
+        <v>40.816376900000002</v>
+      </c>
+      <c r="B226" s="1">
+        <v>19.499282099999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1">
+        <v>40.816374099999997</v>
+      </c>
+      <c r="B227" s="1">
+        <v>19.499950599999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1">
+        <v>40.145259699999997</v>
+      </c>
+      <c r="B228" s="1">
+        <v>20.0883316</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1">
+        <v>41.024334899999999</v>
+      </c>
+      <c r="B229" s="1">
+        <v>19.990079000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1">
+        <v>40.992705899999997</v>
+      </c>
+      <c r="B230" s="1">
+        <v>20.008908900000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1">
+        <v>40.993041300000002</v>
+      </c>
+      <c r="B231" s="1">
+        <v>20.009329900000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1">
+        <v>40.992775199999997</v>
+      </c>
+      <c r="B232" s="1">
+        <v>20.009053399999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1">
+        <v>40.992753100000002</v>
+      </c>
+      <c r="B233" s="1">
+        <v>20.008929500000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1">
+        <v>41.697348599999998</v>
+      </c>
+      <c r="B234" s="1">
+        <v>20.3652677</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1">
+        <v>41.6974752</v>
+      </c>
+      <c r="B235" s="1">
+        <v>20.365712200000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1">
+        <v>41.697344899999997</v>
+      </c>
+      <c r="B236" s="1">
+        <v>20.3652804</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1">
+        <v>41.028320399999998</v>
+      </c>
+      <c r="B237" s="1">
+        <v>19.991267400000002</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1">
+        <v>41.6494499</v>
+      </c>
+      <c r="B238" s="1">
+        <v>20.457481600000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1">
+        <v>41.6494097</v>
+      </c>
+      <c r="B239" s="1">
+        <v>20.457399500000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1">
+        <v>41.6560354</v>
+      </c>
+      <c r="B240" s="1">
+        <v>20.434201300000002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1">
+        <v>41.608505999999998</v>
+      </c>
+      <c r="B241" s="1">
+        <v>20.470987600000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1">
+        <v>41.654359100000001</v>
+      </c>
+      <c r="B242" s="1">
+        <v>20.436582000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1">
+        <v>41.654448299999999</v>
+      </c>
+      <c r="B243" s="1">
+        <v>20.43609</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1">
+        <v>41.654629999999997</v>
+      </c>
+      <c r="B244" s="1">
+        <v>20.435296699999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1">
+        <v>41.654047800000001</v>
+      </c>
+      <c r="B245" s="1">
+        <v>20.4345228</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1">
+        <v>41.654052999999998</v>
+      </c>
+      <c r="B246" s="1">
+        <v>20.434523800000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1">
+        <v>41.613504399999997</v>
+      </c>
+      <c r="B247" s="1">
+        <v>20.4782586</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1">
+        <v>41.5688575</v>
+      </c>
+      <c r="B248" s="1">
+        <v>20.4444029</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1">
+        <v>41.588593500000002</v>
+      </c>
+      <c r="B249" s="1">
+        <v>20.485208</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1">
+        <v>40.833285699999998</v>
+      </c>
+      <c r="B250" s="1">
+        <v>19.9020586</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1">
+        <v>40.833284999999997</v>
+      </c>
+      <c r="B251" s="1">
+        <v>19.9020449</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1">
+        <v>41.0583569</v>
+      </c>
+      <c r="B252" s="1">
+        <v>20.041430099999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1">
+        <v>41.053278300000002</v>
+      </c>
+      <c r="B253" s="1">
+        <v>20.0521733</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1">
+        <v>41.046672100000002</v>
+      </c>
+      <c r="B254" s="1">
+        <v>20.030432399999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1">
+        <v>41.048037000000001</v>
+      </c>
+      <c r="B255" s="1">
+        <v>20.027214399999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1">
+        <v>41.047044200000002</v>
+      </c>
+      <c r="B256" s="1">
+        <v>20.028777399999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1">
+        <v>41.0474107</v>
+      </c>
+      <c r="B257" s="1">
+        <v>20.028795899999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1">
+        <v>41.067193400000001</v>
+      </c>
+      <c r="B258" s="1">
+        <v>20.052333099999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1">
+        <v>41.052767099999997</v>
+      </c>
+      <c r="B259" s="1">
+        <v>20.051650599999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1">
+        <v>41.037975500000002</v>
+      </c>
+      <c r="B260" s="1">
+        <v>20.012066799999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1">
+        <v>41.046809400000001</v>
+      </c>
+      <c r="B261" s="1">
+        <v>20.0292767</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1">
+        <v>41.046804199999997</v>
+      </c>
+      <c r="B262" s="1">
+        <v>20.0292356</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1">
+        <v>41.047955600000002</v>
+      </c>
+      <c r="B263" s="1">
+        <v>20.027138000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1">
+        <v>41.047182499999998</v>
+      </c>
+      <c r="B264" s="1">
+        <v>20.027951099999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1">
+        <v>41.063969999999998</v>
+      </c>
+      <c r="B265" s="1">
+        <v>20.052781700000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1">
+        <v>42.003242399999998</v>
+      </c>
+      <c r="B266" s="1">
+        <v>19.613809100000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1">
+        <v>42.003361200000001</v>
+      </c>
+      <c r="B267" s="1">
+        <v>19.613809499999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1">
+        <v>42.003288699999999</v>
+      </c>
+      <c r="B268" s="1">
+        <v>19.613859699999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1">
+        <v>42.006986099999999</v>
+      </c>
+      <c r="B269" s="1">
+        <v>19.6378609</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1">
+        <v>42.007011400000003</v>
+      </c>
+      <c r="B270" s="1">
+        <v>19.637915899999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1">
+        <v>42.007016299999997</v>
+      </c>
+      <c r="B271" s="1">
+        <v>19.6378035</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
+        <v>41.997470800000002</v>
+      </c>
+      <c r="B272" s="1">
+        <v>19.549841600000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
+        <v>41.997435000000003</v>
+      </c>
+      <c r="B273" s="1">
+        <v>19.5499048</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
+        <v>41.997448200000001</v>
+      </c>
+      <c r="B274" s="1">
+        <v>19.549888800000002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1">
+        <v>41.997463400000001</v>
+      </c>
+      <c r="B275" s="1">
+        <v>19.549926500000002</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
+        <v>41.997457599999997</v>
+      </c>
+      <c r="B276" s="1">
+        <v>19.5498808</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
+        <v>41.997348100000004</v>
+      </c>
+      <c r="B277" s="1">
+        <v>19.549879000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
+        <v>41.997391100000002</v>
+      </c>
+      <c r="B278" s="1">
+        <v>19.5498838</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
+        <v>41.997440599999997</v>
+      </c>
+      <c r="B279" s="1">
+        <v>19.5498826</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
+        <v>41.978000899999998</v>
+      </c>
+      <c r="B280" s="1">
+        <v>19.6299104</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
+        <v>41.9780205</v>
+      </c>
+      <c r="B281" s="1">
+        <v>19.629951899999998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
+        <v>41.977950399999997</v>
+      </c>
+      <c r="B282" s="1">
+        <v>19.630051699999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1">
+        <v>41.977942400000003</v>
+      </c>
+      <c r="B283" s="1">
+        <v>19.6300211</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
+        <v>41.977897200000001</v>
+      </c>
+      <c r="B284" s="1">
+        <v>19.630003500000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
+        <v>41.977890600000002</v>
+      </c>
+      <c r="B285" s="1">
+        <v>19.630082699999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
+        <v>41.966019899999999</v>
+      </c>
+      <c r="B286" s="1">
+        <v>19.6371605</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
+        <v>41.960501399999998</v>
+      </c>
+      <c r="B287" s="1">
+        <v>19.636326100000002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1">
+        <v>41.960837699999999</v>
+      </c>
+      <c r="B288" s="1">
+        <v>19.6368799</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1">
+        <v>41.9610725</v>
+      </c>
+      <c r="B289" s="1">
+        <v>19.636762600000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1">
+        <v>41.960927499999997</v>
+      </c>
+      <c r="B290" s="1">
+        <v>19.636730700000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1">
+        <v>41.977901099999997</v>
+      </c>
+      <c r="B291" s="1">
+        <v>19.630028200000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1">
+        <v>41.977848100000003</v>
+      </c>
+      <c r="B292" s="1">
+        <v>19.6300536</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1">
+        <v>41.0634637</v>
+      </c>
+      <c r="B293" s="1">
+        <v>19.976870600000002</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1">
+        <v>41.063736900000002</v>
+      </c>
+      <c r="B294" s="1">
+        <v>19.976755600000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1">
+        <v>41.063870600000001</v>
+      </c>
+      <c r="B295" s="1">
+        <v>19.976452900000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1">
+        <v>41.066156399999997</v>
+      </c>
+      <c r="B296" s="1">
+        <v>19.978925700000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1">
+        <v>41.066741700000001</v>
+      </c>
+      <c r="B297" s="1">
+        <v>19.977825800000002</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1">
+        <v>41.065772199999998</v>
+      </c>
+      <c r="B298" s="1">
+        <v>19.978327</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1">
+        <v>41.064894299999999</v>
+      </c>
+      <c r="B299" s="1">
+        <v>19.978616299999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1">
+        <v>41.065923499999997</v>
+      </c>
+      <c r="B300" s="1">
+        <v>19.978878099999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1">
+        <v>41.065883599999999</v>
+      </c>
+      <c r="B301" s="1">
+        <v>19.978474800000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1">
+        <v>42.006983400000003</v>
+      </c>
+      <c r="B302" s="1">
+        <v>19.637996999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1">
+        <v>41.960529000000001</v>
+      </c>
+      <c r="B303" s="1">
+        <v>19.636325200000002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1">
+        <v>41.960741300000002</v>
+      </c>
+      <c r="B304" s="1">
+        <v>19.637025999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1">
+        <v>41.961001000000003</v>
+      </c>
+      <c r="B305" s="1">
+        <v>19.636742600000002</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1">
+        <v>41.9610603</v>
+      </c>
+      <c r="B306" s="1">
+        <v>19.6367856</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1">
+        <v>41.977593900000002</v>
+      </c>
+      <c r="B307" s="1">
+        <v>19.628239799999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1">
+        <v>41.977579400000003</v>
+      </c>
+      <c r="B308" s="1">
+        <v>19.628174900000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1">
+        <v>41.977645699999997</v>
+      </c>
+      <c r="B309" s="1">
+        <v>19.628126200000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1">
+        <v>41.977623800000003</v>
+      </c>
+      <c r="B310" s="1">
+        <v>19.628193199999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1">
+        <v>41.977569799999998</v>
+      </c>
+      <c r="B311" s="1">
+        <v>19.628201099999998</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1">
+        <v>41.977555799999998</v>
+      </c>
+      <c r="B312" s="1">
+        <v>19.6282277</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1">
+        <v>41.977525200000002</v>
+      </c>
+      <c r="B313" s="1">
+        <v>19.628163799999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1">
+        <v>41.977598800000003</v>
+      </c>
+      <c r="B314" s="1">
+        <v>19.628169499999998</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1">
+        <v>41.062847400000003</v>
+      </c>
+      <c r="B315" s="1">
+        <v>19.989694499999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1">
+        <v>41.066805700000003</v>
+      </c>
+      <c r="B316" s="1">
+        <v>19.982392000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1">
+        <v>41.069335000000002</v>
+      </c>
+      <c r="B317" s="1">
+        <v>19.984805000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1">
+        <v>41.069341999999999</v>
+      </c>
+      <c r="B318" s="1">
+        <v>19.984977300000001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1">
+        <v>41.0698966</v>
+      </c>
+      <c r="B319" s="1">
+        <v>19.985111199999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1">
+        <v>41.0710658</v>
+      </c>
+      <c r="B320" s="1">
+        <v>19.985009600000001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1">
+        <v>42.048915200000003</v>
+      </c>
+      <c r="B321" s="1">
+        <v>19.568248799999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1">
+        <v>42.048879900000003</v>
+      </c>
+      <c r="B322" s="1">
+        <v>19.5681832</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1">
+        <v>42.033742500000002</v>
+      </c>
+      <c r="B323" s="1">
+        <v>19.568710899999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1">
+        <v>42.048942599999997</v>
+      </c>
+      <c r="B324" s="1">
+        <v>19.568131399999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1">
+        <v>42.048980499999999</v>
+      </c>
+      <c r="B325" s="1">
+        <v>19.568137700000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1">
+        <v>42.033753400000002</v>
+      </c>
+      <c r="B326" s="1">
+        <v>19.568732600000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1">
+        <v>42.027567699999999</v>
+      </c>
+      <c r="B327" s="1">
+        <v>19.548205200000002</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1">
+        <v>42.027596099999997</v>
+      </c>
+      <c r="B328" s="1">
+        <v>19.548204399999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1">
+        <v>42.028405399999997</v>
+      </c>
+      <c r="B329" s="1">
+        <v>19.548815999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1">
+        <v>41.047564899999998</v>
+      </c>
+      <c r="B330" s="1">
+        <v>20.042275100000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1">
+        <v>41.047779499999997</v>
+      </c>
+      <c r="B331" s="1">
+        <v>20.042402899999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1">
+        <v>41.072875500000002</v>
+      </c>
+      <c r="B332" s="1">
+        <v>20.041034799999998</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1">
+        <v>41.074863299999997</v>
+      </c>
+      <c r="B333" s="1">
+        <v>20.0440881</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1">
+        <v>41.075422500000002</v>
+      </c>
+      <c r="B334" s="1">
+        <v>20.0454416</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1">
+        <v>41.075205500000003</v>
+      </c>
+      <c r="B335" s="1">
+        <v>20.044734600000002</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1">
+        <v>41.074826899999998</v>
+      </c>
+      <c r="B336" s="1">
+        <v>20.0449196</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1">
+        <v>41.047287599999997</v>
+      </c>
+      <c r="B337" s="1">
+        <v>20.041661399999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1">
+        <v>41.047760400000001</v>
+      </c>
+      <c r="B338" s="1">
+        <v>20.042171199999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1">
+        <v>41.072071700000002</v>
+      </c>
+      <c r="B339" s="1">
+        <v>20.041710699999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1">
+        <v>41.072356499999998</v>
+      </c>
+      <c r="B340" s="1">
+        <v>20.040371700000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1">
+        <v>41.075425500000001</v>
+      </c>
+      <c r="B341" s="1">
+        <v>20.045501000000002</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1">
+        <v>41.075346099999997</v>
+      </c>
+      <c r="B342" s="1">
+        <v>20.0453467</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1">
+        <v>41.074932799999999</v>
+      </c>
+      <c r="B343" s="1">
+        <v>20.044976500000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1">
+        <v>41.078218900000003</v>
+      </c>
+      <c r="B344" s="1">
+        <v>20.040419700000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1">
+        <v>41.077992700000003</v>
+      </c>
+      <c r="B345" s="1">
+        <v>20.038893300000002</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1">
+        <v>41.077283600000001</v>
+      </c>
+      <c r="B346" s="1">
+        <v>20.039661800000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1">
+        <v>41.077538199999999</v>
+      </c>
+      <c r="B347" s="1">
+        <v>20.040127900000002</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1">
+        <v>41.0788777</v>
+      </c>
+      <c r="B348" s="1">
+        <v>20.039146299999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1">
+        <v>41.077751599999999</v>
+      </c>
+      <c r="B349" s="1">
+        <v>20.039908</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1">
+        <v>41.0768676</v>
+      </c>
+      <c r="B350" s="1">
+        <v>20.038896000000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1">
+        <v>41.077204100000003</v>
+      </c>
+      <c r="B351" s="1">
+        <v>20.0395121</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1">
+        <v>41.077629700000003</v>
+      </c>
+      <c r="B352" s="1">
+        <v>20.040025199999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1">
+        <v>41.078769000000001</v>
+      </c>
+      <c r="B353" s="1">
+        <v>20.038345899999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1">
+        <v>42.027619700000002</v>
+      </c>
+      <c r="B354" s="1">
+        <v>19.548174299999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1">
+        <v>42.027496599999999</v>
+      </c>
+      <c r="B355" s="1">
+        <v>19.548194500000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1">
+        <v>42.0283807</v>
+      </c>
+      <c r="B356" s="1">
+        <v>19.548843000000002</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1">
+        <v>42.040329300000003</v>
+      </c>
+      <c r="B357" s="1">
+        <v>19.5258304</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1">
+        <v>42.039446900000002</v>
+      </c>
+      <c r="B358" s="1">
+        <v>19.5244815</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1">
+        <v>42.040169800000001</v>
+      </c>
+      <c r="B359" s="1">
+        <v>19.5228927</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1">
+        <v>42.040343300000004</v>
+      </c>
+      <c r="B360" s="1">
+        <v>19.522110000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1">
+        <v>42.040287399999997</v>
+      </c>
+      <c r="B361" s="1">
+        <v>19.525865799999998</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1">
+        <v>42.039496300000003</v>
+      </c>
+      <c r="B362" s="1">
+        <v>19.524458299999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1">
+        <v>42.040169499999998</v>
+      </c>
+      <c r="B363" s="1">
+        <v>19.523026600000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1">
+        <v>42.040445300000002</v>
+      </c>
+      <c r="B364" s="1">
+        <v>19.522058600000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1">
+        <v>41.360628800000001</v>
+      </c>
+      <c r="B365" s="1">
+        <v>19.5641301</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1">
+        <v>42.006993299999998</v>
+      </c>
+      <c r="B366" s="1">
+        <v>19.6379242</v>
       </c>
     </row>
   </sheetData>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -1,154 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geri\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D678392-0E6B-486C-9290-6A6FE9AEF36D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912D8EA1-2CE1-4910-9DBF-6A8CEA917689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{987C4605-9353-46C9-9034-223AC9CA748A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ankete_FAO-2025-07-21" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="4">
+  <si>
+    <t>Name</t>
+  </si>
   <si>
     <t>Latitude</t>
   </si>
   <si>
     <t>Longitude</t>
   </si>
+  <si>
+    <t>Point</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -156,207 +50,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -364,205 +78,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -588,39 +119,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -653,26 +184,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -705,23 +219,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -783,6 +280,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -791,13 +295,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -862,2977 +359,4053 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47495CC-D0EF-4393-918A-F5695F1ECE82}">
-  <dimension ref="A1:B366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
         <v>40.7176027</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="3">
         <v>19.928751299999998</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
         <v>40.719552399999998</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="3">
         <v>19.929415500000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
         <v>40.719831999999997</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="3">
         <v>19.929725099999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
         <v>40.719562000000003</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="3">
         <v>19.929419800000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
         <v>40.719827299999999</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="3">
         <v>19.929644700000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
         <v>40.719628499999999</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="3">
         <v>19.9293005</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
         <v>40.719606499999998</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="3">
         <v>19.929391500000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
         <v>40.719557299999998</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="3">
         <v>19.929417300000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3">
         <v>40.719580399999998</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="3">
         <v>19.929424300000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
         <v>42.277197200000003</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="3">
         <v>19.5138845</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
         <v>42.280515899999997</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="3">
         <v>19.5225586</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
         <v>42.278105400000001</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="3">
         <v>19.519205199999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
         <v>42.281401099999997</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="3">
         <v>19.5229967</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
         <v>42.2772711</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="3">
         <v>19.5165753</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3">
         <v>42.281402300000003</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="3">
         <v>19.522993199999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
         <v>42.281467300000003</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="3">
         <v>19.523060099999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
         <v>42.277654499999997</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="3">
         <v>19.518281200000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
         <v>42.281427899999997</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="3">
         <v>19.523053399999998</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
         <v>42.277683500000002</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="3">
         <v>19.517837</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3">
         <v>42.280393400000001</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="3">
         <v>19.522840299999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3">
         <v>42.277751299999998</v>
       </c>
-      <c r="B22" s="1">
+      <c r="C22" s="3">
         <v>19.517457</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3">
         <v>42.277492600000002</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C23" s="3">
         <v>19.518242699999998</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3">
         <v>42.277285499999998</v>
       </c>
-      <c r="B24" s="1">
+      <c r="C24" s="3">
         <v>19.5167021</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
         <v>42.277923800000003</v>
       </c>
-      <c r="B25" s="1">
+      <c r="C25" s="3">
         <v>19.517572699999999</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
         <v>42.276982799999999</v>
       </c>
-      <c r="B26" s="1">
+      <c r="C26" s="3">
         <v>19.516658100000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
         <v>40.831350700000002</v>
       </c>
-      <c r="B27" s="1">
+      <c r="C27" s="3">
         <v>19.9143708</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
         <v>40.830765300000003</v>
       </c>
-      <c r="B28" s="1">
+      <c r="C28" s="3">
         <v>19.914642099999998</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3">
         <v>40.830768900000002</v>
       </c>
-      <c r="B29" s="1">
+      <c r="C29" s="3">
         <v>19.914750099999999</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3">
         <v>40.831157099999999</v>
       </c>
-      <c r="B30" s="1">
+      <c r="C30" s="3">
         <v>19.9144322</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3">
         <v>40.750765199999996</v>
       </c>
-      <c r="B31" s="1">
+      <c r="C31" s="3">
         <v>20.832402299999998</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3">
         <v>40.831096199999998</v>
       </c>
-      <c r="B32" s="1">
+      <c r="C32" s="3">
         <v>19.914892399999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3">
         <v>40.8309292</v>
       </c>
-      <c r="B33" s="1">
+      <c r="C33" s="3">
         <v>19.915116999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3">
         <v>40.830769400000001</v>
       </c>
-      <c r="B34" s="1">
+      <c r="C34" s="3">
         <v>19.9147502</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="3">
         <v>40.831297599999999</v>
       </c>
-      <c r="B35" s="1">
+      <c r="C35" s="3">
         <v>19.914582800000002</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="3">
         <v>40.751758700000003</v>
       </c>
-      <c r="B36" s="1">
+      <c r="C36" s="3">
         <v>20.831425400000001</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="3">
         <v>40.832106899999999</v>
       </c>
-      <c r="B37" s="1">
+      <c r="C37" s="3">
         <v>19.9140172</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3">
         <v>40.752531599999998</v>
       </c>
-      <c r="B38" s="1">
+      <c r="C38" s="3">
         <v>20.8312925</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="3">
         <v>40.831263900000003</v>
       </c>
-      <c r="B39" s="1">
+      <c r="C39" s="3">
         <v>19.914763099999998</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="3">
         <v>40.754839099999998</v>
       </c>
-      <c r="B40" s="1">
+      <c r="C40" s="3">
         <v>20.830075000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3">
         <v>40.753555400000003</v>
       </c>
-      <c r="B41" s="1">
+      <c r="C41" s="3">
         <v>20.830983700000001</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3">
         <v>40.753786900000001</v>
       </c>
-      <c r="B42" s="1">
+      <c r="C42" s="3">
         <v>20.8306401</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3">
         <v>40.753895900000003</v>
       </c>
-      <c r="B43" s="1">
+      <c r="C43" s="3">
         <v>20.830523400000001</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="3">
         <v>40.754075700000001</v>
       </c>
-      <c r="B44" s="1">
+      <c r="C44" s="3">
         <v>20.830336800000001</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3">
         <v>40.754475399999997</v>
       </c>
-      <c r="B45" s="1">
+      <c r="C45" s="3">
         <v>20.830290000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3">
         <v>40.753585999999999</v>
       </c>
-      <c r="B46" s="1">
+      <c r="C46" s="3">
         <v>20.830670699999999</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="3">
         <v>40.753583399999997</v>
       </c>
-      <c r="B47" s="1">
+      <c r="C47" s="3">
         <v>20.830621900000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="3">
         <v>40.753666799999998</v>
       </c>
-      <c r="B48" s="1">
+      <c r="C48" s="3">
         <v>20.830617799999999</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="3">
         <v>40.754765200000001</v>
       </c>
-      <c r="B49" s="1">
+      <c r="C49" s="3">
         <v>20.8299974</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3">
         <v>40.755149799999998</v>
       </c>
-      <c r="B50" s="1">
+      <c r="C50" s="3">
         <v>20.829772599999998</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="3">
         <v>40.755449900000002</v>
       </c>
-      <c r="B51" s="1">
+      <c r="C51" s="3">
         <v>20.829460000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3">
         <v>40.755571000000003</v>
       </c>
-      <c r="B52" s="1">
+      <c r="C52" s="3">
         <v>20.829272700000001</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="3">
         <v>41.396787600000003</v>
       </c>
-      <c r="B53" s="1">
+      <c r="C53" s="3">
         <v>19.539857399999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="3">
         <v>41.379489</v>
       </c>
-      <c r="B54" s="1">
+      <c r="C54" s="3">
         <v>19.542874300000001</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="3">
         <v>41.388695599999998</v>
       </c>
-      <c r="B55" s="1">
+      <c r="C55" s="3">
         <v>19.550103199999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="3">
         <v>41.365637800000002</v>
       </c>
-      <c r="B56" s="1">
+      <c r="C56" s="3">
         <v>19.549973300000001</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="3">
         <v>40.560966800000003</v>
       </c>
-      <c r="B57" s="1">
+      <c r="C57" s="3">
         <v>20.741795100000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="3">
         <v>40.560964800000001</v>
       </c>
-      <c r="B58" s="1">
+      <c r="C58" s="3">
         <v>20.7417707</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="3">
         <v>40.560974899999998</v>
       </c>
-      <c r="B59" s="1">
+      <c r="C59" s="3">
         <v>20.7418026</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="3">
         <v>40.560964599999998</v>
       </c>
-      <c r="B60" s="1">
+      <c r="C60" s="3">
         <v>20.741803300000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="3">
         <v>40.560952499999999</v>
       </c>
-      <c r="B61" s="1">
+      <c r="C61" s="3">
         <v>20.741803399999998</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="3">
         <v>40.560913999999997</v>
       </c>
-      <c r="B62" s="1">
+      <c r="C62" s="3">
         <v>20.741698599999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3">
         <v>40.5609173</v>
       </c>
-      <c r="B63" s="1">
+      <c r="C63" s="3">
         <v>20.741696999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="3">
         <v>40.5609131</v>
       </c>
-      <c r="B64" s="1">
+      <c r="C64" s="3">
         <v>20.741690599999998</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="3">
         <v>40.560912799999997</v>
       </c>
-      <c r="B65" s="1">
+      <c r="C65" s="3">
         <v>20.741685700000001</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="3">
         <v>40.560913300000003</v>
       </c>
-      <c r="B66" s="1">
+      <c r="C66" s="3">
         <v>20.741686600000001</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="3">
         <v>41.427428800000001</v>
       </c>
-      <c r="B67" s="1">
+      <c r="C67" s="3">
         <v>19.5628137</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="3">
         <v>41.426992900000002</v>
       </c>
-      <c r="B68" s="1">
+      <c r="C68" s="3">
         <v>19.563263500000001</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3">
         <v>41.4230527</v>
       </c>
-      <c r="B69" s="1">
+      <c r="C69" s="3">
         <v>19.548993299999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="3">
         <v>41.407758399999999</v>
       </c>
-      <c r="B70" s="1">
+      <c r="C70" s="3">
         <v>19.549752999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3">
         <v>40.560912899999998</v>
       </c>
-      <c r="B71" s="1">
+      <c r="C71" s="3">
         <v>20.7416795</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="3">
         <v>40.560951600000003</v>
       </c>
-      <c r="B72" s="1">
+      <c r="C72" s="3">
         <v>20.741800900000001</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="3">
         <v>40.560895899999998</v>
       </c>
-      <c r="B73" s="1">
+      <c r="C73" s="3">
         <v>20.741647199999999</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="3">
         <v>40.560944200000002</v>
       </c>
-      <c r="B74" s="1">
+      <c r="C74" s="3">
         <v>20.741797500000001</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="3">
         <v>40.560954199999998</v>
       </c>
-      <c r="B75" s="1">
+      <c r="C75" s="3">
         <v>20.741793000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="3">
         <v>40.560938800000002</v>
       </c>
-      <c r="B76" s="1">
+      <c r="C76" s="3">
         <v>20.741807300000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="3">
         <v>40.560957100000003</v>
       </c>
-      <c r="B77" s="1">
+      <c r="C77" s="3">
         <v>20.741800900000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="3">
         <v>40.560913300000003</v>
       </c>
-      <c r="B78" s="1">
+      <c r="C78" s="3">
         <v>20.741778199999999</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="3">
         <v>40.560971600000002</v>
       </c>
-      <c r="B79" s="1">
+      <c r="C79" s="3">
         <v>20.741804699999999</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="3">
         <v>40.560976500000002</v>
       </c>
-      <c r="B80" s="1">
+      <c r="C80" s="3">
         <v>20.741814900000001</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="3">
         <v>40.560958399999997</v>
       </c>
-      <c r="B81" s="1">
+      <c r="C81" s="3">
         <v>20.741810099999999</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="3">
         <v>40.560943600000002</v>
       </c>
-      <c r="B82" s="1">
+      <c r="C82" s="3">
         <v>20.741804800000001</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="3">
         <v>40.560890999999998</v>
       </c>
-      <c r="B83" s="1">
+      <c r="C83" s="3">
         <v>20.741639800000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="3">
         <v>40.560895799999997</v>
       </c>
-      <c r="B84" s="1">
+      <c r="C84" s="3">
         <v>20.7416351</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="3">
         <v>40.560902499999997</v>
       </c>
-      <c r="B85" s="1">
+      <c r="C85" s="3">
         <v>20.741630799999999</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="3">
         <v>40.560876</v>
       </c>
-      <c r="B86" s="1">
+      <c r="C86" s="3">
         <v>20.7416111</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="3">
         <v>40.5609155</v>
       </c>
-      <c r="B87" s="1">
+      <c r="C87" s="3">
         <v>20.741734999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="3">
         <v>40.560920099999997</v>
       </c>
-      <c r="B88" s="1">
+      <c r="C88" s="3">
         <v>20.7417166</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="3">
         <v>40.560943000000002</v>
       </c>
-      <c r="B89" s="1">
+      <c r="C89" s="3">
         <v>20.741734000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="1">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="3">
         <v>40.561030199999998</v>
       </c>
-      <c r="B90" s="1">
+      <c r="C90" s="3">
         <v>20.741820499999999</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="1">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="3">
         <v>40.626757300000001</v>
       </c>
-      <c r="B91" s="1">
+      <c r="C91" s="3">
         <v>20.702181899999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="1">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="3">
         <v>42.362380299999998</v>
       </c>
-      <c r="B92" s="1">
+      <c r="C92" s="3">
         <v>20.073043899999998</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="1">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="3">
         <v>40.6267402</v>
       </c>
-      <c r="B93" s="1">
+      <c r="C93" s="3">
         <v>20.702174200000002</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="3">
         <v>40.626693099999997</v>
       </c>
-      <c r="B94" s="1">
+      <c r="C94" s="3">
         <v>20.702165600000001</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="1">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="3">
         <v>40.626756899999997</v>
       </c>
-      <c r="B95" s="1">
+      <c r="C95" s="3">
         <v>20.7021792</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="3">
         <v>40.6266879</v>
       </c>
-      <c r="B96" s="1">
+      <c r="C96" s="3">
         <v>20.702141099999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="3">
         <v>40.626729900000001</v>
       </c>
-      <c r="B97" s="1">
+      <c r="C97" s="3">
         <v>20.702078700000001</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="1">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="3">
         <v>40.626732799999999</v>
       </c>
-      <c r="B98" s="1">
+      <c r="C98" s="3">
         <v>20.702138900000001</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="1">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="3">
         <v>40.626760599999997</v>
       </c>
-      <c r="B99" s="1">
+      <c r="C99" s="3">
         <v>20.702173200000001</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="1">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="3">
         <v>40.626660800000003</v>
       </c>
-      <c r="B100" s="1">
+      <c r="C100" s="3">
         <v>20.702097500000001</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="1">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="3">
         <v>42.362389700000001</v>
       </c>
-      <c r="B101" s="1">
+      <c r="C101" s="3">
         <v>20.073061500000001</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="3">
         <v>42.3625051</v>
       </c>
-      <c r="B102" s="1">
+      <c r="C102" s="3">
         <v>20.072873000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="3">
         <v>42.362324800000003</v>
       </c>
-      <c r="B103" s="1">
+      <c r="C103" s="3">
         <v>20.073018999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="3">
         <v>40.610097000000003</v>
       </c>
-      <c r="B104" s="1">
+      <c r="C104" s="3">
         <v>20.691711999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="3">
         <v>40.609602500000001</v>
       </c>
-      <c r="B105" s="1">
+      <c r="C105" s="3">
         <v>20.691002099999999</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="3">
         <v>40.6096109</v>
       </c>
-      <c r="B106" s="1">
+      <c r="C106" s="3">
         <v>20.691012700000002</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="1">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="3">
         <v>40.610722099999997</v>
       </c>
-      <c r="B107" s="1">
+      <c r="C107" s="3">
         <v>20.692342499999999</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="3">
         <v>40.611035399999999</v>
       </c>
-      <c r="B108" s="1">
+      <c r="C108" s="3">
         <v>20.693137100000001</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="1">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="3">
         <v>40.6110173</v>
       </c>
-      <c r="B109" s="1">
+      <c r="C109" s="3">
         <v>20.693270999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="1">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="3">
         <v>40.611177699999999</v>
       </c>
-      <c r="B110" s="1">
+      <c r="C110" s="3">
         <v>20.693513100000001</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="1">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="3">
         <v>40.611255800000002</v>
       </c>
-      <c r="B111" s="1">
+      <c r="C111" s="3">
         <v>20.693622900000001</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="1">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="3">
         <v>40.611256900000001</v>
       </c>
-      <c r="B112" s="1">
+      <c r="C112" s="3">
         <v>20.6936219</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="3">
         <v>40.611215199999997</v>
       </c>
-      <c r="B113" s="1">
+      <c r="C113" s="3">
         <v>20.693598900000001</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="1">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="3">
         <v>40.611273199999999</v>
       </c>
-      <c r="B114" s="1">
+      <c r="C114" s="3">
         <v>20.6935851</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="3">
         <v>40.611356299999997</v>
       </c>
-      <c r="B115" s="1">
+      <c r="C115" s="3">
         <v>20.693670900000001</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="1">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="3">
         <v>40.610570299999999</v>
       </c>
-      <c r="B116" s="1">
+      <c r="C116" s="3">
         <v>20.6921496</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="1">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="3">
         <v>40.611265699999997</v>
       </c>
-      <c r="B117" s="1">
+      <c r="C117" s="3">
         <v>20.693665299999999</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="1">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="3">
         <v>40.611249700000002</v>
       </c>
-      <c r="B118" s="1">
+      <c r="C118" s="3">
         <v>20.693570399999999</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="3">
         <v>40.611345100000001</v>
       </c>
-      <c r="B119" s="1">
+      <c r="C119" s="3">
         <v>20.693597400000002</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="1">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="3">
         <v>40.611211599999997</v>
       </c>
-      <c r="B120" s="1">
+      <c r="C120" s="3">
         <v>20.693585500000001</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="1">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="3">
         <v>40.611242799999999</v>
       </c>
-      <c r="B121" s="1">
+      <c r="C121" s="3">
         <v>20.693614400000001</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="3">
         <v>40.611170700000002</v>
       </c>
-      <c r="B122" s="1">
+      <c r="C122" s="3">
         <v>20.6936283</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="3">
         <v>40.611260600000001</v>
       </c>
-      <c r="B123" s="1">
+      <c r="C123" s="3">
         <v>20.6935775</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="1">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" s="3">
         <v>40.706542399999996</v>
       </c>
-      <c r="B124" s="1">
+      <c r="C124" s="3">
         <v>20.792244100000001</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="1">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="3">
         <v>40.703667600000003</v>
       </c>
-      <c r="B125" s="1">
+      <c r="C125" s="3">
         <v>20.792092100000001</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="1">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="3">
         <v>40.884521100000001</v>
       </c>
-      <c r="B126" s="1">
+      <c r="C126" s="3">
         <v>19.589540100000001</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="1">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="3">
         <v>40.884501999999998</v>
       </c>
-      <c r="B127" s="1">
+      <c r="C127" s="3">
         <v>19.589530700000001</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="1">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="3">
         <v>40.706522499999998</v>
       </c>
-      <c r="B128" s="1">
+      <c r="C128" s="3">
         <v>20.792271899999999</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="1">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="3">
         <v>40.7046469</v>
       </c>
-      <c r="B129" s="1">
+      <c r="C129" s="3">
         <v>20.7913256</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="1">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="3">
         <v>40.942221099999998</v>
       </c>
-      <c r="B130" s="1">
+      <c r="C130" s="3">
         <v>19.5372837</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="1">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="3">
         <v>40.921858800000003</v>
       </c>
-      <c r="B131" s="1">
+      <c r="C131" s="3">
         <v>19.536833900000001</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="1">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="3">
         <v>40.706364499999999</v>
       </c>
-      <c r="B132" s="1">
+      <c r="C132" s="3">
         <v>20.792159300000002</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="1">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="3">
         <v>40.960527200000001</v>
       </c>
-      <c r="B133" s="1">
+      <c r="C133" s="3">
         <v>19.521292200000001</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="1">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="3">
         <v>40.923311599999998</v>
       </c>
-      <c r="B134" s="1">
+      <c r="C134" s="3">
         <v>19.537331099999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="1">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="3">
         <v>40.705325799999997</v>
       </c>
-      <c r="B135" s="1">
+      <c r="C135" s="3">
         <v>20.791675900000001</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="1">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="3">
         <v>40.923311599999998</v>
       </c>
-      <c r="B136" s="1">
+      <c r="C136" s="3">
         <v>19.537331099999999</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="1">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="3">
         <v>40.960527200000001</v>
       </c>
-      <c r="B137" s="1">
+      <c r="C137" s="3">
         <v>19.521292200000001</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="1">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="3">
         <v>40.706411500000002</v>
       </c>
-      <c r="B138" s="1">
+      <c r="C138" s="3">
         <v>20.792268700000001</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="1">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="3">
         <v>40.706332000000003</v>
       </c>
-      <c r="B139" s="1">
+      <c r="C139" s="3">
         <v>20.792128900000002</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="3">
         <v>42.168859500000003</v>
       </c>
-      <c r="B140" s="1">
+      <c r="C140" s="3">
         <v>19.4817781</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="1">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="3">
         <v>40.705536899999998</v>
       </c>
-      <c r="B141" s="1">
+      <c r="C141" s="3">
         <v>20.792016799999999</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="1">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="3">
         <v>40.706282399999999</v>
       </c>
-      <c r="B142" s="1">
+      <c r="C142" s="3">
         <v>20.792267200000001</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="3">
         <v>40.705341799999999</v>
       </c>
-      <c r="B143" s="1">
+      <c r="C143" s="3">
         <v>20.791884499999998</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="3">
         <v>40.7061894</v>
       </c>
-      <c r="B144" s="1">
+      <c r="C144" s="3">
         <v>20.7921561</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="1">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="3">
         <v>40.705005700000001</v>
       </c>
-      <c r="B145" s="1">
+      <c r="C145" s="3">
         <v>20.791491600000001</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="1">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="3">
         <v>40.705502799999998</v>
       </c>
-      <c r="B146" s="1">
+      <c r="C146" s="3">
         <v>20.791700500000001</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="3">
         <v>40.704983800000001</v>
       </c>
-      <c r="B147" s="1">
+      <c r="C147" s="3">
         <v>20.791447999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" s="3">
         <v>40.617686800000001</v>
       </c>
-      <c r="B148" s="1">
+      <c r="C148" s="3">
         <v>20.7716612</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="3">
         <v>40.704856100000001</v>
       </c>
-      <c r="B149" s="1">
+      <c r="C149" s="3">
         <v>20.791373499999999</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="3">
         <v>40.7049685</v>
       </c>
-      <c r="B150" s="1">
+      <c r="C150" s="3">
         <v>20.7914374</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151" s="3">
         <v>40.704788999999998</v>
       </c>
-      <c r="B151" s="1">
+      <c r="C151" s="3">
         <v>20.791447999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="3">
         <v>42.357349300000003</v>
       </c>
-      <c r="B152" s="1">
+      <c r="C152" s="3">
         <v>20.0740762</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="3">
         <v>42.357340499999999</v>
       </c>
-      <c r="B153" s="1">
+      <c r="C153" s="3">
         <v>20.074083600000002</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" s="3">
         <v>40.704794900000003</v>
       </c>
-      <c r="B154" s="1">
+      <c r="C154" s="3">
         <v>20.7913055</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="3">
         <v>41.028359100000003</v>
       </c>
-      <c r="B155" s="1">
+      <c r="C155" s="3">
         <v>19.991171099999999</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" s="3">
         <v>40.7044158</v>
       </c>
-      <c r="B156" s="1">
+      <c r="C156" s="3">
         <v>20.791806900000001</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="1">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="3">
         <v>41.028087900000003</v>
       </c>
-      <c r="B157" s="1">
+      <c r="C157" s="3">
         <v>19.9908085</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" s="3">
         <v>40.713635799999999</v>
       </c>
-      <c r="B158" s="1">
+      <c r="C158" s="3">
         <v>19.619978799999998</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" s="3">
         <v>40.713635600000003</v>
       </c>
-      <c r="B159" s="1">
+      <c r="C159" s="3">
         <v>19.619980099999999</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="1">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" s="3">
         <v>40.713628900000003</v>
       </c>
-      <c r="B160" s="1">
+      <c r="C160" s="3">
         <v>19.619981899999999</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" s="3">
         <v>40.713571999999999</v>
       </c>
-      <c r="B161" s="1">
+      <c r="C161" s="3">
         <v>19.620115500000001</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" s="3">
         <v>40.706701799999998</v>
       </c>
-      <c r="B162" s="1">
+      <c r="C162" s="3">
         <v>19.619714800000001</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="3">
         <v>40.706772299999997</v>
       </c>
-      <c r="B163" s="1">
+      <c r="C163" s="3">
         <v>19.6196372</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="1">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" s="3">
         <v>40.706692400000001</v>
       </c>
-      <c r="B164" s="1">
+      <c r="C164" s="3">
         <v>19.619727300000001</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="1">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" s="3">
         <v>40.7068023</v>
       </c>
-      <c r="B165" s="1">
+      <c r="C165" s="3">
         <v>19.619588400000001</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="1">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" s="3">
         <v>42.362310999999998</v>
       </c>
-      <c r="B166" s="1">
+      <c r="C166" s="3">
         <v>20.0729486</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="1">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167" s="3">
         <v>42.362290199999997</v>
       </c>
-      <c r="B167" s="1">
+      <c r="C167" s="3">
         <v>20.0729188</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="1">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168" s="3">
         <v>42.362548599999997</v>
       </c>
-      <c r="B168" s="1">
+      <c r="C168" s="3">
         <v>20.0736709</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169" s="3">
         <v>42.362232400000003</v>
       </c>
-      <c r="B169" s="1">
+      <c r="C169" s="3">
         <v>20.072844199999999</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" s="3">
         <v>40.123410100000001</v>
       </c>
-      <c r="B170" s="1">
+      <c r="C170" s="3">
         <v>20.1118554</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="1">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" s="3">
         <v>40.122214700000001</v>
       </c>
-      <c r="B171" s="1">
+      <c r="C171" s="3">
         <v>20.105774400000001</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="1">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B172" s="3">
         <v>40.122556799999998</v>
       </c>
-      <c r="B172" s="1">
+      <c r="C172" s="3">
         <v>20.110113599999998</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="1">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" s="3">
         <v>40.122549499999998</v>
       </c>
-      <c r="B173" s="1">
+      <c r="C173" s="3">
         <v>20.110094199999999</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="1">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174" s="3">
         <v>40.122547599999997</v>
       </c>
-      <c r="B174" s="1">
+      <c r="C174" s="3">
         <v>20.1100882</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="1">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" s="3">
         <v>40.701578300000001</v>
       </c>
-      <c r="B175" s="1">
+      <c r="C175" s="3">
         <v>19.617272</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="1">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" s="3">
         <v>40.701530200000001</v>
       </c>
-      <c r="B176" s="1">
+      <c r="C176" s="3">
         <v>19.617308300000001</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="1">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" s="3">
         <v>40.707910900000002</v>
       </c>
-      <c r="B177" s="1">
+      <c r="C177" s="3">
         <v>19.639635800000001</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="1">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" s="3">
         <v>40.707915800000002</v>
       </c>
-      <c r="B178" s="1">
+      <c r="C178" s="3">
         <v>19.6395126</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="1">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" s="3">
         <v>40.707695800000003</v>
       </c>
-      <c r="B179" s="1">
+      <c r="C179" s="3">
         <v>19.639659000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="1">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180" s="3">
         <v>40.706020799999997</v>
       </c>
-      <c r="B180" s="1">
+      <c r="C180" s="3">
         <v>19.639999100000001</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="1">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181" s="3">
         <v>40.1240138</v>
       </c>
-      <c r="B181" s="1">
+      <c r="C181" s="3">
         <v>20.1357748</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="1">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" s="3">
         <v>40.699875400000003</v>
       </c>
-      <c r="B182" s="1">
+      <c r="C182" s="3">
         <v>19.6101435</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="1">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" s="3">
         <v>40.700781900000003</v>
       </c>
-      <c r="B183" s="1">
+      <c r="C183" s="3">
         <v>19.612272000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="1">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B184" s="3">
         <v>40.719981300000001</v>
       </c>
-      <c r="B184" s="1">
+      <c r="C184" s="3">
         <v>19.6205645</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="1">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B185" s="3">
         <v>40.721211199999999</v>
       </c>
-      <c r="B185" s="1">
+      <c r="C185" s="3">
         <v>19.621170599999999</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="1">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186" s="3">
         <v>40.723165199999997</v>
       </c>
-      <c r="B186" s="1">
+      <c r="C186" s="3">
         <v>19.621562600000001</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="1">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B187" s="3">
         <v>42.163769799999997</v>
       </c>
-      <c r="B187" s="1">
+      <c r="C187" s="3">
         <v>19.4654448</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="1">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" s="3">
         <v>40.723148199999997</v>
       </c>
-      <c r="B188" s="1">
+      <c r="C188" s="3">
         <v>19.6215419</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="1">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B189" s="3">
         <v>40.085417300000003</v>
       </c>
-      <c r="B189" s="1">
+      <c r="C189" s="3">
         <v>20.1426938</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="1">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B190" s="3">
         <v>40.085411999999998</v>
       </c>
-      <c r="B190" s="1">
+      <c r="C190" s="3">
         <v>20.142689300000001</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="1">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B191" s="3">
         <v>40.085411999999998</v>
       </c>
-      <c r="B191" s="1">
+      <c r="C191" s="3">
         <v>20.142689300000001</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="1">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192" s="3">
         <v>40.085411999999998</v>
       </c>
-      <c r="B192" s="1">
+      <c r="C192" s="3">
         <v>20.142689300000001</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="1">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193" s="3">
         <v>40.0803966</v>
       </c>
-      <c r="B193" s="1">
+      <c r="C193" s="3">
         <v>20.138464599999999</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="1">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194" s="3">
         <v>40.971039699999999</v>
       </c>
-      <c r="B194" s="1">
+      <c r="C194" s="3">
         <v>20.004928100000001</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="1">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B195" s="3">
         <v>40.983379999999997</v>
       </c>
-      <c r="B195" s="1">
+      <c r="C195" s="3">
         <v>20.0097433</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="1">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B196" s="3">
         <v>41.003016700000003</v>
       </c>
-      <c r="B196" s="1">
+      <c r="C196" s="3">
         <v>20.017828099999999</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="1">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B197" s="3">
         <v>41.015389999999996</v>
       </c>
-      <c r="B197" s="1">
+      <c r="C197" s="3">
         <v>20.0045033</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="1">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B198" s="3">
         <v>40.125408999999998</v>
       </c>
-      <c r="B198" s="1">
+      <c r="C198" s="3">
         <v>20.136428299999999</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="1">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B199" s="3">
         <v>40.125190500000002</v>
       </c>
-      <c r="B199" s="1">
+      <c r="C199" s="3">
         <v>20.136147699999999</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="1">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B200" s="3">
         <v>40.125254699999999</v>
       </c>
-      <c r="B200" s="1">
+      <c r="C200" s="3">
         <v>20.136188700000002</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="1">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B201" s="3">
         <v>40.125625300000003</v>
       </c>
-      <c r="B201" s="1">
+      <c r="C201" s="3">
         <v>20.136190599999999</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="1">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B202" s="3">
         <v>40.1256561</v>
       </c>
-      <c r="B202" s="1">
+      <c r="C202" s="3">
         <v>20.136201199999999</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="1">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" s="3">
         <v>40.847952599999999</v>
       </c>
-      <c r="B203" s="1">
+      <c r="C203" s="3">
         <v>19.6384829</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="1">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B204" s="3">
         <v>40.858810900000002</v>
       </c>
-      <c r="B204" s="1">
+      <c r="C204" s="3">
         <v>19.6468189</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="1">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B205" s="3">
         <v>40.146357500000001</v>
       </c>
-      <c r="B205" s="1">
+      <c r="C205" s="3">
         <v>20.0885335</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="1">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B206" s="3">
         <v>40.145546199999998</v>
       </c>
-      <c r="B206" s="1">
+      <c r="C206" s="3">
         <v>20.089397000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="1">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B207" s="3">
         <v>40.141613</v>
       </c>
-      <c r="B207" s="1">
+      <c r="C207" s="3">
         <v>20.088227100000001</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="1">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B208" s="3">
         <v>40.1443029</v>
       </c>
-      <c r="B208" s="1">
+      <c r="C208" s="3">
         <v>20.088320499999998</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="1">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B209" s="3">
         <v>40.144500399999998</v>
       </c>
-      <c r="B209" s="1">
+      <c r="C209" s="3">
         <v>20.089192499999999</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="1">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" s="3">
         <v>40.146357000000002</v>
       </c>
-      <c r="B210" s="1">
+      <c r="C210" s="3">
         <v>20.0885183</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="1">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B211" s="3">
         <v>40.145260700000001</v>
       </c>
-      <c r="B211" s="1">
+      <c r="C211" s="3">
         <v>20.0883352</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="1">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B212" s="3">
         <v>40.832867899999997</v>
       </c>
-      <c r="B212" s="1">
+      <c r="C212" s="3">
         <v>19.5192318</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="1">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B213" s="3">
         <v>40.984084799999998</v>
       </c>
-      <c r="B213" s="1">
+      <c r="C213" s="3">
         <v>20.010112599999999</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="1">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B214" s="3">
         <v>40.968437899999998</v>
       </c>
-      <c r="B214" s="1">
+      <c r="C214" s="3">
         <v>20.004564200000001</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="1">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B215" s="3">
         <v>40.958093900000001</v>
       </c>
-      <c r="B215" s="1">
+      <c r="C215" s="3">
         <v>20.004059900000001</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="1">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B216" s="3">
         <v>40.8251633</v>
       </c>
-      <c r="B216" s="1">
+      <c r="C216" s="3">
         <v>19.501712900000001</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="1">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B217" s="3">
         <v>40.825159300000003</v>
       </c>
-      <c r="B217" s="1">
+      <c r="C217" s="3">
         <v>19.501710500000002</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="1">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B218" s="3">
         <v>40.819353700000001</v>
       </c>
-      <c r="B218" s="1">
+      <c r="C218" s="3">
         <v>19.501025800000001</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="1">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B219" s="3">
         <v>40.816021599999999</v>
       </c>
-      <c r="B219" s="1">
+      <c r="C219" s="3">
         <v>19.5005454</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="1">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B220" s="3">
         <v>40.816017700000003</v>
       </c>
-      <c r="B220" s="1">
+      <c r="C220" s="3">
         <v>19.500545200000001</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="1">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B221" s="3">
         <v>40.816024499999997</v>
       </c>
-      <c r="B221" s="1">
+      <c r="C221" s="3">
         <v>19.5004867</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="1">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B222" s="3">
         <v>40.815624300000003</v>
       </c>
-      <c r="B222" s="1">
+      <c r="C222" s="3">
         <v>19.500920399999998</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="1">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B223" s="3">
         <v>40.816299399999998</v>
       </c>
-      <c r="B223" s="1">
+      <c r="C223" s="3">
         <v>19.5016237</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="1">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" s="3">
         <v>40.815844400000003</v>
       </c>
-      <c r="B224" s="1">
+      <c r="C224" s="3">
         <v>19.499451499999999</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="1">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B225" s="3">
         <v>40.816145400000003</v>
       </c>
-      <c r="B225" s="1">
+      <c r="C225" s="3">
         <v>19.4993044</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="1">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B226" s="3">
         <v>40.816376900000002</v>
       </c>
-      <c r="B226" s="1">
+      <c r="C226" s="3">
         <v>19.499282099999999</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="1">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" s="3">
         <v>40.816374099999997</v>
       </c>
-      <c r="B227" s="1">
+      <c r="C227" s="3">
         <v>19.499950599999998</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="1">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B228" s="3">
         <v>40.145259699999997</v>
       </c>
-      <c r="B228" s="1">
+      <c r="C228" s="3">
         <v>20.0883316</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="1">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B229" s="3">
         <v>41.024334899999999</v>
       </c>
-      <c r="B229" s="1">
+      <c r="C229" s="3">
         <v>19.990079000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="1">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B230" s="3">
         <v>40.992705899999997</v>
       </c>
-      <c r="B230" s="1">
+      <c r="C230" s="3">
         <v>20.008908900000002</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="1">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B231" s="3">
         <v>40.993041300000002</v>
       </c>
-      <c r="B231" s="1">
+      <c r="C231" s="3">
         <v>20.009329900000001</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="1">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232" s="3">
         <v>40.992775199999997</v>
       </c>
-      <c r="B232" s="1">
+      <c r="C232" s="3">
         <v>20.009053399999999</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="1">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B233" s="3">
         <v>40.992753100000002</v>
       </c>
-      <c r="B233" s="1">
+      <c r="C233" s="3">
         <v>20.008929500000001</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="1">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B234" s="3">
         <v>41.697348599999998</v>
       </c>
-      <c r="B234" s="1">
+      <c r="C234" s="3">
         <v>20.3652677</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="1">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B235" s="3">
         <v>41.6974752</v>
       </c>
-      <c r="B235" s="1">
+      <c r="C235" s="3">
         <v>20.365712200000001</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="1">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236" s="3">
         <v>41.697344899999997</v>
       </c>
-      <c r="B236" s="1">
+      <c r="C236" s="3">
         <v>20.3652804</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="1">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B237" s="3">
         <v>41.028320399999998</v>
       </c>
-      <c r="B237" s="1">
+      <c r="C237" s="3">
         <v>19.991267400000002</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="1">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B238" s="3">
         <v>41.6494499</v>
       </c>
-      <c r="B238" s="1">
+      <c r="C238" s="3">
         <v>20.457481600000001</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="1">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B239" s="3">
         <v>41.6494097</v>
       </c>
-      <c r="B239" s="1">
+      <c r="C239" s="3">
         <v>20.457399500000001</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="1">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B240" s="3">
         <v>41.6560354</v>
       </c>
-      <c r="B240" s="1">
+      <c r="C240" s="3">
         <v>20.434201300000002</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="1">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B241" s="3">
         <v>41.608505999999998</v>
       </c>
-      <c r="B241" s="1">
+      <c r="C241" s="3">
         <v>20.470987600000001</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="1">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B242" s="3">
         <v>41.654359100000001</v>
       </c>
-      <c r="B242" s="1">
+      <c r="C242" s="3">
         <v>20.436582000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="1">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" s="3">
         <v>41.654448299999999</v>
       </c>
-      <c r="B243" s="1">
+      <c r="C243" s="3">
         <v>20.43609</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="1">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B244" s="3">
         <v>41.654629999999997</v>
       </c>
-      <c r="B244" s="1">
+      <c r="C244" s="3">
         <v>20.435296699999999</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="1">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B245" s="3">
         <v>41.654047800000001</v>
       </c>
-      <c r="B245" s="1">
+      <c r="C245" s="3">
         <v>20.4345228</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="1">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B246" s="3">
         <v>41.654052999999998</v>
       </c>
-      <c r="B246" s="1">
+      <c r="C246" s="3">
         <v>20.434523800000001</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="1">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B247" s="3">
         <v>41.613504399999997</v>
       </c>
-      <c r="B247" s="1">
+      <c r="C247" s="3">
         <v>20.4782586</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="1">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B248" s="3">
         <v>41.5688575</v>
       </c>
-      <c r="B248" s="1">
+      <c r="C248" s="3">
         <v>20.4444029</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="1">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249" s="3">
         <v>41.588593500000002</v>
       </c>
-      <c r="B249" s="1">
+      <c r="C249" s="3">
         <v>20.485208</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="1">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B250" s="3">
         <v>40.833285699999998</v>
       </c>
-      <c r="B250" s="1">
+      <c r="C250" s="3">
         <v>19.9020586</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="1">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B251" s="3">
         <v>40.833284999999997</v>
       </c>
-      <c r="B251" s="1">
+      <c r="C251" s="3">
         <v>19.9020449</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="1">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B252" s="3">
         <v>41.0583569</v>
       </c>
-      <c r="B252" s="1">
+      <c r="C252" s="3">
         <v>20.041430099999999</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="1">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B253" s="3">
         <v>41.053278300000002</v>
       </c>
-      <c r="B253" s="1">
+      <c r="C253" s="3">
         <v>20.0521733</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="1">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" s="3">
         <v>41.046672100000002</v>
       </c>
-      <c r="B254" s="1">
+      <c r="C254" s="3">
         <v>20.030432399999999</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="1">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B255" s="3">
         <v>41.048037000000001</v>
       </c>
-      <c r="B255" s="1">
+      <c r="C255" s="3">
         <v>20.027214399999998</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="1">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B256" s="3">
         <v>41.047044200000002</v>
       </c>
-      <c r="B256" s="1">
+      <c r="C256" s="3">
         <v>20.028777399999999</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="1">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B257" s="3">
         <v>41.0474107</v>
       </c>
-      <c r="B257" s="1">
+      <c r="C257" s="3">
         <v>20.028795899999999</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="1">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B258" s="3">
         <v>41.067193400000001</v>
       </c>
-      <c r="B258" s="1">
+      <c r="C258" s="3">
         <v>20.052333099999998</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="1">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B259" s="3">
         <v>41.052767099999997</v>
       </c>
-      <c r="B259" s="1">
+      <c r="C259" s="3">
         <v>20.051650599999999</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="1">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B260" s="3">
         <v>41.037975500000002</v>
       </c>
-      <c r="B260" s="1">
+      <c r="C260" s="3">
         <v>20.012066799999999</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="1">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B261" s="3">
         <v>41.046809400000001</v>
       </c>
-      <c r="B261" s="1">
+      <c r="C261" s="3">
         <v>20.0292767</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="1">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B262" s="3">
         <v>41.046804199999997</v>
       </c>
-      <c r="B262" s="1">
+      <c r="C262" s="3">
         <v>20.0292356</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="1">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B263" s="3">
         <v>41.047955600000002</v>
       </c>
-      <c r="B263" s="1">
+      <c r="C263" s="3">
         <v>20.027138000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="1">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B264" s="3">
         <v>41.047182499999998</v>
       </c>
-      <c r="B264" s="1">
+      <c r="C264" s="3">
         <v>20.027951099999999</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="1">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B265" s="3">
         <v>41.063969999999998</v>
       </c>
-      <c r="B265" s="1">
+      <c r="C265" s="3">
         <v>20.052781700000001</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="1">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B266" s="3">
         <v>42.003242399999998</v>
       </c>
-      <c r="B266" s="1">
+      <c r="C266" s="3">
         <v>19.613809100000001</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="1">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B267" s="3">
         <v>42.003361200000001</v>
       </c>
-      <c r="B267" s="1">
+      <c r="C267" s="3">
         <v>19.613809499999999</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="1">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B268" s="3">
         <v>42.003288699999999</v>
       </c>
-      <c r="B268" s="1">
+      <c r="C268" s="3">
         <v>19.613859699999999</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="1">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B269" s="3">
         <v>42.006986099999999</v>
       </c>
-      <c r="B269" s="1">
+      <c r="C269" s="3">
         <v>19.6378609</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="1">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B270" s="3">
         <v>42.007011400000003</v>
       </c>
-      <c r="B270" s="1">
+      <c r="C270" s="3">
         <v>19.637915899999999</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="1">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B271" s="3">
         <v>42.007016299999997</v>
       </c>
-      <c r="B271" s="1">
+      <c r="C271" s="3">
         <v>19.6378035</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="1">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B272" s="3">
         <v>41.997470800000002</v>
       </c>
-      <c r="B272" s="1">
+      <c r="C272" s="3">
         <v>19.549841600000001</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="1">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B273" s="3">
         <v>41.997435000000003</v>
       </c>
-      <c r="B273" s="1">
+      <c r="C273" s="3">
         <v>19.5499048</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="1">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B274" s="3">
         <v>41.997448200000001</v>
       </c>
-      <c r="B274" s="1">
+      <c r="C274" s="3">
         <v>19.549888800000002</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="1">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B275" s="3">
         <v>41.997463400000001</v>
       </c>
-      <c r="B275" s="1">
+      <c r="C275" s="3">
         <v>19.549926500000002</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="1">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B276" s="3">
         <v>41.997457599999997</v>
       </c>
-      <c r="B276" s="1">
+      <c r="C276" s="3">
         <v>19.5498808</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="1">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B277" s="3">
         <v>41.997348100000004</v>
       </c>
-      <c r="B277" s="1">
+      <c r="C277" s="3">
         <v>19.549879000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="1">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B278" s="3">
         <v>41.997391100000002</v>
       </c>
-      <c r="B278" s="1">
+      <c r="C278" s="3">
         <v>19.5498838</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="1">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B279" s="3">
         <v>41.997440599999997</v>
       </c>
-      <c r="B279" s="1">
+      <c r="C279" s="3">
         <v>19.5498826</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="1">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B280" s="3">
         <v>41.978000899999998</v>
       </c>
-      <c r="B280" s="1">
+      <c r="C280" s="3">
         <v>19.6299104</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="1">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B281" s="3">
         <v>41.9780205</v>
       </c>
-      <c r="B281" s="1">
+      <c r="C281" s="3">
         <v>19.629951899999998</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="1">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B282" s="3">
         <v>41.977950399999997</v>
       </c>
-      <c r="B282" s="1">
+      <c r="C282" s="3">
         <v>19.630051699999999</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="1">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" s="3">
         <v>41.977942400000003</v>
       </c>
-      <c r="B283" s="1">
+      <c r="C283" s="3">
         <v>19.6300211</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="1">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B284" s="3">
         <v>41.977897200000001</v>
       </c>
-      <c r="B284" s="1">
+      <c r="C284" s="3">
         <v>19.630003500000001</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="1">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B285" s="3">
         <v>41.977890600000002</v>
       </c>
-      <c r="B285" s="1">
+      <c r="C285" s="3">
         <v>19.630082699999999</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="1">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B286" s="3">
         <v>41.966019899999999</v>
       </c>
-      <c r="B286" s="1">
+      <c r="C286" s="3">
         <v>19.6371605</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="1">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B287" s="3">
         <v>41.960501399999998</v>
       </c>
-      <c r="B287" s="1">
+      <c r="C287" s="3">
         <v>19.636326100000002</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="1">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B288" s="3">
         <v>41.960837699999999</v>
       </c>
-      <c r="B288" s="1">
+      <c r="C288" s="3">
         <v>19.6368799</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="1">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B289" s="3">
         <v>41.9610725</v>
       </c>
-      <c r="B289" s="1">
+      <c r="C289" s="3">
         <v>19.636762600000001</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="1">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B290" s="3">
         <v>41.960927499999997</v>
       </c>
-      <c r="B290" s="1">
+      <c r="C290" s="3">
         <v>19.636730700000001</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="1">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B291" s="3">
         <v>41.977901099999997</v>
       </c>
-      <c r="B291" s="1">
+      <c r="C291" s="3">
         <v>19.630028200000002</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="1">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B292" s="3">
         <v>41.977848100000003</v>
       </c>
-      <c r="B292" s="1">
+      <c r="C292" s="3">
         <v>19.6300536</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="1">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B293" s="3">
         <v>41.0634637</v>
       </c>
-      <c r="B293" s="1">
+      <c r="C293" s="3">
         <v>19.976870600000002</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="1">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B294" s="3">
         <v>41.063736900000002</v>
       </c>
-      <c r="B294" s="1">
+      <c r="C294" s="3">
         <v>19.976755600000001</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="1">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B295" s="3">
         <v>41.063870600000001</v>
       </c>
-      <c r="B295" s="1">
+      <c r="C295" s="3">
         <v>19.976452900000002</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="1">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B296" s="3">
         <v>41.066156399999997</v>
       </c>
-      <c r="B296" s="1">
+      <c r="C296" s="3">
         <v>19.978925700000001</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="1">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B297" s="3">
         <v>41.066741700000001</v>
       </c>
-      <c r="B297" s="1">
+      <c r="C297" s="3">
         <v>19.977825800000002</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="1">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B298" s="3">
         <v>41.065772199999998</v>
       </c>
-      <c r="B298" s="1">
+      <c r="C298" s="3">
         <v>19.978327</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="1">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B299" s="3">
         <v>41.064894299999999</v>
       </c>
-      <c r="B299" s="1">
+      <c r="C299" s="3">
         <v>19.978616299999999</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="1">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B300" s="3">
         <v>41.065923499999997</v>
       </c>
-      <c r="B300" s="1">
+      <c r="C300" s="3">
         <v>19.978878099999999</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="1">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B301" s="3">
         <v>41.065883599999999</v>
       </c>
-      <c r="B301" s="1">
+      <c r="C301" s="3">
         <v>19.978474800000001</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="1">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B302" s="3">
         <v>42.006983400000003</v>
       </c>
-      <c r="B302" s="1">
+      <c r="C302" s="3">
         <v>19.637996999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="1">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B303" s="3">
         <v>41.960529000000001</v>
       </c>
-      <c r="B303" s="1">
+      <c r="C303" s="3">
         <v>19.636325200000002</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="1">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B304" s="3">
         <v>41.960741300000002</v>
       </c>
-      <c r="B304" s="1">
+      <c r="C304" s="3">
         <v>19.637025999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="1">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B305" s="3">
         <v>41.961001000000003</v>
       </c>
-      <c r="B305" s="1">
+      <c r="C305" s="3">
         <v>19.636742600000002</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="1">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B306" s="3">
         <v>41.9610603</v>
       </c>
-      <c r="B306" s="1">
+      <c r="C306" s="3">
         <v>19.6367856</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="1">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B307" s="3">
         <v>41.977593900000002</v>
       </c>
-      <c r="B307" s="1">
+      <c r="C307" s="3">
         <v>19.628239799999999</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="1">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B308" s="3">
         <v>41.977579400000003</v>
       </c>
-      <c r="B308" s="1">
+      <c r="C308" s="3">
         <v>19.628174900000001</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="1">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B309" s="3">
         <v>41.977645699999997</v>
       </c>
-      <c r="B309" s="1">
+      <c r="C309" s="3">
         <v>19.628126200000001</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="1">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B310" s="3">
         <v>41.977623800000003</v>
       </c>
-      <c r="B310" s="1">
+      <c r="C310" s="3">
         <v>19.628193199999998</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="1">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B311" s="3">
         <v>41.977569799999998</v>
       </c>
-      <c r="B311" s="1">
+      <c r="C311" s="3">
         <v>19.628201099999998</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="1">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B312" s="3">
         <v>41.977555799999998</v>
       </c>
-      <c r="B312" s="1">
+      <c r="C312" s="3">
         <v>19.6282277</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="1">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B313" s="3">
         <v>41.977525200000002</v>
       </c>
-      <c r="B313" s="1">
+      <c r="C313" s="3">
         <v>19.628163799999999</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="1">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B314" s="3">
         <v>41.977598800000003</v>
       </c>
-      <c r="B314" s="1">
+      <c r="C314" s="3">
         <v>19.628169499999998</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="1">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B315" s="3">
         <v>41.062847400000003</v>
       </c>
-      <c r="B315" s="1">
+      <c r="C315" s="3">
         <v>19.989694499999999</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="1">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B316" s="3">
         <v>41.066805700000003</v>
       </c>
-      <c r="B316" s="1">
+      <c r="C316" s="3">
         <v>19.982392000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="1">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B317" s="3">
         <v>41.069335000000002</v>
       </c>
-      <c r="B317" s="1">
+      <c r="C317" s="3">
         <v>19.984805000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="1">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B318" s="3">
         <v>41.069341999999999</v>
       </c>
-      <c r="B318" s="1">
+      <c r="C318" s="3">
         <v>19.984977300000001</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="1">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B319" s="3">
         <v>41.0698966</v>
       </c>
-      <c r="B319" s="1">
+      <c r="C319" s="3">
         <v>19.985111199999999</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="1">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B320" s="3">
         <v>41.0710658</v>
       </c>
-      <c r="B320" s="1">
+      <c r="C320" s="3">
         <v>19.985009600000001</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="1">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B321" s="3">
         <v>42.048915200000003</v>
       </c>
-      <c r="B321" s="1">
+      <c r="C321" s="3">
         <v>19.568248799999999</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="1">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B322" s="3">
         <v>42.048879900000003</v>
       </c>
-      <c r="B322" s="1">
+      <c r="C322" s="3">
         <v>19.5681832</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="1">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B323" s="3">
         <v>42.033742500000002</v>
       </c>
-      <c r="B323" s="1">
+      <c r="C323" s="3">
         <v>19.568710899999999</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="1">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B324" s="3">
         <v>42.048942599999997</v>
       </c>
-      <c r="B324" s="1">
+      <c r="C324" s="3">
         <v>19.568131399999999</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="1">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B325" s="3">
         <v>42.048980499999999</v>
       </c>
-      <c r="B325" s="1">
+      <c r="C325" s="3">
         <v>19.568137700000001</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="1">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B326" s="3">
         <v>42.033753400000002</v>
       </c>
-      <c r="B326" s="1">
+      <c r="C326" s="3">
         <v>19.568732600000001</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="1">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B327" s="3">
         <v>42.027567699999999</v>
       </c>
-      <c r="B327" s="1">
+      <c r="C327" s="3">
         <v>19.548205200000002</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="1">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B328" s="3">
         <v>42.027596099999997</v>
       </c>
-      <c r="B328" s="1">
+      <c r="C328" s="3">
         <v>19.548204399999999</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="1">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B329" s="3">
         <v>42.028405399999997</v>
       </c>
-      <c r="B329" s="1">
+      <c r="C329" s="3">
         <v>19.548815999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="1">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B330" s="3">
         <v>41.047564899999998</v>
       </c>
-      <c r="B330" s="1">
+      <c r="C330" s="3">
         <v>20.042275100000001</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="1">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B331" s="3">
         <v>41.047779499999997</v>
       </c>
-      <c r="B331" s="1">
+      <c r="C331" s="3">
         <v>20.042402899999999</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
-      <c r="A332" s="1">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B332" s="3">
         <v>41.072875500000002</v>
       </c>
-      <c r="B332" s="1">
+      <c r="C332" s="3">
         <v>20.041034799999998</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="1">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B333" s="3">
         <v>41.074863299999997</v>
       </c>
-      <c r="B333" s="1">
+      <c r="C333" s="3">
         <v>20.0440881</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="1">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B334" s="3">
         <v>41.075422500000002</v>
       </c>
-      <c r="B334" s="1">
+      <c r="C334" s="3">
         <v>20.0454416</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
-      <c r="A335" s="1">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B335" s="3">
         <v>41.075205500000003</v>
       </c>
-      <c r="B335" s="1">
+      <c r="C335" s="3">
         <v>20.044734600000002</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
-      <c r="A336" s="1">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B336" s="3">
         <v>41.074826899999998</v>
       </c>
-      <c r="B336" s="1">
+      <c r="C336" s="3">
         <v>20.0449196</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="1">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B337" s="3">
         <v>41.047287599999997</v>
       </c>
-      <c r="B337" s="1">
+      <c r="C337" s="3">
         <v>20.041661399999999</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
-      <c r="A338" s="1">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B338" s="3">
         <v>41.047760400000001</v>
       </c>
-      <c r="B338" s="1">
+      <c r="C338" s="3">
         <v>20.042171199999999</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
-      <c r="A339" s="1">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B339" s="3">
         <v>41.072071700000002</v>
       </c>
-      <c r="B339" s="1">
+      <c r="C339" s="3">
         <v>20.041710699999999</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
-      <c r="A340" s="1">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B340" s="3">
         <v>41.072356499999998</v>
       </c>
-      <c r="B340" s="1">
+      <c r="C340" s="3">
         <v>20.040371700000001</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
-      <c r="A341" s="1">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B341" s="3">
         <v>41.075425500000001</v>
       </c>
-      <c r="B341" s="1">
+      <c r="C341" s="3">
         <v>20.045501000000002</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
-      <c r="A342" s="1">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B342" s="3">
         <v>41.075346099999997</v>
       </c>
-      <c r="B342" s="1">
+      <c r="C342" s="3">
         <v>20.0453467</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
-      <c r="A343" s="1">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B343" s="3">
         <v>41.074932799999999</v>
       </c>
-      <c r="B343" s="1">
+      <c r="C343" s="3">
         <v>20.044976500000001</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
-      <c r="A344" s="1">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B344" s="3">
         <v>41.078218900000003</v>
       </c>
-      <c r="B344" s="1">
+      <c r="C344" s="3">
         <v>20.040419700000001</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
-      <c r="A345" s="1">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B345" s="3">
         <v>41.077992700000003</v>
       </c>
-      <c r="B345" s="1">
+      <c r="C345" s="3">
         <v>20.038893300000002</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
-      <c r="A346" s="1">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B346" s="3">
         <v>41.077283600000001</v>
       </c>
-      <c r="B346" s="1">
+      <c r="C346" s="3">
         <v>20.039661800000001</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
-      <c r="A347" s="1">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B347" s="3">
         <v>41.077538199999999</v>
       </c>
-      <c r="B347" s="1">
+      <c r="C347" s="3">
         <v>20.040127900000002</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
-      <c r="A348" s="1">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B348" s="3">
         <v>41.0788777</v>
       </c>
-      <c r="B348" s="1">
+      <c r="C348" s="3">
         <v>20.039146299999999</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
-      <c r="A349" s="1">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B349" s="3">
         <v>41.077751599999999</v>
       </c>
-      <c r="B349" s="1">
+      <c r="C349" s="3">
         <v>20.039908</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
-      <c r="A350" s="1">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B350" s="3">
         <v>41.0768676</v>
       </c>
-      <c r="B350" s="1">
+      <c r="C350" s="3">
         <v>20.038896000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
-      <c r="A351" s="1">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B351" s="3">
         <v>41.077204100000003</v>
       </c>
-      <c r="B351" s="1">
+      <c r="C351" s="3">
         <v>20.0395121</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
-      <c r="A352" s="1">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B352" s="3">
         <v>41.077629700000003</v>
       </c>
-      <c r="B352" s="1">
+      <c r="C352" s="3">
         <v>20.040025199999999</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
-      <c r="A353" s="1">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B353" s="3">
         <v>41.078769000000001</v>
       </c>
-      <c r="B353" s="1">
+      <c r="C353" s="3">
         <v>20.038345899999999</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
-      <c r="A354" s="1">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B354" s="3">
         <v>42.027619700000002</v>
       </c>
-      <c r="B354" s="1">
+      <c r="C354" s="3">
         <v>19.548174299999999</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
-      <c r="A355" s="1">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B355" s="3">
         <v>42.027496599999999</v>
       </c>
-      <c r="B355" s="1">
+      <c r="C355" s="3">
         <v>19.548194500000001</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
-      <c r="A356" s="1">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B356" s="3">
         <v>42.0283807</v>
       </c>
-      <c r="B356" s="1">
+      <c r="C356" s="3">
         <v>19.548843000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
-      <c r="A357" s="1">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B357" s="3">
         <v>42.040329300000003</v>
       </c>
-      <c r="B357" s="1">
+      <c r="C357" s="3">
         <v>19.5258304</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
-      <c r="A358" s="1">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B358" s="3">
         <v>42.039446900000002</v>
       </c>
-      <c r="B358" s="1">
+      <c r="C358" s="3">
         <v>19.5244815</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
-      <c r="A359" s="1">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B359" s="3">
         <v>42.040169800000001</v>
       </c>
-      <c r="B359" s="1">
+      <c r="C359" s="3">
         <v>19.5228927</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
-      <c r="A360" s="1">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B360" s="3">
         <v>42.040343300000004</v>
       </c>
-      <c r="B360" s="1">
+      <c r="C360" s="3">
         <v>19.522110000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
-      <c r="A361" s="1">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B361" s="3">
         <v>42.040287399999997</v>
       </c>
-      <c r="B361" s="1">
+      <c r="C361" s="3">
         <v>19.525865799999998</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
-      <c r="A362" s="1">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B362" s="3">
         <v>42.039496300000003</v>
       </c>
-      <c r="B362" s="1">
+      <c r="C362" s="3">
         <v>19.524458299999999</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
-      <c r="A363" s="1">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B363" s="3">
         <v>42.040169499999998</v>
       </c>
-      <c r="B363" s="1">
+      <c r="C363" s="3">
         <v>19.523026600000001</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
-      <c r="A364" s="1">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B364" s="3">
         <v>42.040445300000002</v>
       </c>
-      <c r="B364" s="1">
+      <c r="C364" s="3">
         <v>19.522058600000001</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
-      <c r="A365" s="1">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B365" s="3">
         <v>41.360628800000001</v>
       </c>
-      <c r="B365" s="1">
+      <c r="C365" s="3">
         <v>19.5641301</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
-      <c r="A366" s="1">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B366" s="3">
         <v>42.006993299999998</v>
       </c>
-      <c r="B366" s="1">
+      <c r="C366" s="3">
         <v>19.6379242</v>
       </c>
     </row>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912D8EA1-2CE1-4910-9DBF-6A8CEA917689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3D30C0-10CC-4EE1-8DC2-7472D4805D48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C366"/>
+  <dimension ref="A1:C469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="D453" sqref="D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,10 +399,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>40.7176027</v>
+        <v>39.708763400000002</v>
       </c>
       <c r="C2" s="3">
-        <v>19.928751299999998</v>
+        <v>20.077130499999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -410,10 +410,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>40.719552399999998</v>
+        <v>39.708398099999997</v>
       </c>
       <c r="C3" s="3">
-        <v>19.929415500000001</v>
+        <v>20.0777258</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -421,10 +421,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>40.719831999999997</v>
+        <v>39.7077217</v>
       </c>
       <c r="C4" s="3">
-        <v>19.929725099999999</v>
+        <v>20.079260000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>40.719562000000003</v>
+        <v>39.707712100000002</v>
       </c>
       <c r="C5" s="3">
-        <v>19.929419800000002</v>
+        <v>20.0789756</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -443,10 +443,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>40.719827299999999</v>
+        <v>39.707461500000001</v>
       </c>
       <c r="C6" s="3">
-        <v>19.929644700000001</v>
+        <v>20.079887599999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -454,10 +454,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>40.719628499999999</v>
+        <v>39.707455500000002</v>
       </c>
       <c r="C7" s="3">
-        <v>19.9293005</v>
+        <v>20.079796900000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3">
-        <v>40.719606499999998</v>
+        <v>39.707762199999998</v>
       </c>
       <c r="C8" s="3">
-        <v>19.929391500000001</v>
+        <v>20.0790495</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -476,10 +476,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="3">
-        <v>40.719557299999998</v>
+        <v>39.707901</v>
       </c>
       <c r="C9" s="3">
-        <v>19.929417300000001</v>
+        <v>20.079008600000002</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="3">
-        <v>40.719580399999998</v>
+        <v>39.724870699999997</v>
       </c>
       <c r="C10" s="3">
-        <v>19.929424300000001</v>
+        <v>20.060207500000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -498,10 +498,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3">
-        <v>42.277197200000003</v>
+        <v>39.724873700000003</v>
       </c>
       <c r="C11" s="3">
-        <v>19.5138845</v>
+        <v>20.060207399999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -509,10 +509,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3">
-        <v>42.280515899999997</v>
+        <v>39.724875699999998</v>
       </c>
       <c r="C12" s="3">
-        <v>19.5225586</v>
+        <v>20.0602135</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -520,10 +520,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="3">
-        <v>42.278105400000001</v>
+        <v>39.724868499999999</v>
       </c>
       <c r="C13" s="3">
-        <v>19.519205199999998</v>
+        <v>20.060166500000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -531,10 +531,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="3">
-        <v>42.281401099999997</v>
+        <v>39.7248132</v>
       </c>
       <c r="C14" s="3">
-        <v>19.5229967</v>
+        <v>20.060044099999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,10 +542,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="3">
-        <v>42.2772711</v>
+        <v>39.724826200000003</v>
       </c>
       <c r="C15" s="3">
-        <v>19.5165753</v>
+        <v>20.0600755</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,10 +553,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="3">
-        <v>42.281402300000003</v>
+        <v>39.724811799999998</v>
       </c>
       <c r="C16" s="3">
-        <v>19.522993199999998</v>
+        <v>20.060134999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,10 +564,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="3">
-        <v>42.281467300000003</v>
+        <v>39.724754500000003</v>
       </c>
       <c r="C17" s="3">
-        <v>19.523060099999999</v>
+        <v>20.060115499999998</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -575,10 +575,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="3">
-        <v>42.277654499999997</v>
+        <v>40.078309300000001</v>
       </c>
       <c r="C18" s="3">
-        <v>19.518281200000001</v>
+        <v>20.197348600000002</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -586,10 +586,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="3">
-        <v>42.281427899999997</v>
+        <v>40.078676700000003</v>
       </c>
       <c r="C19" s="3">
-        <v>19.523053399999998</v>
+        <v>20.1971685</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,10 +597,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="3">
-        <v>42.277683500000002</v>
+        <v>40.077355900000001</v>
       </c>
       <c r="C20" s="3">
-        <v>19.517837</v>
+        <v>20.197298700000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,10 +608,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="3">
-        <v>42.280393400000001</v>
+        <v>40.078662199999997</v>
       </c>
       <c r="C21" s="3">
-        <v>19.522840299999999</v>
+        <v>20.198665399999999</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,10 +619,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="3">
-        <v>42.277751299999998</v>
+        <v>39.724874</v>
       </c>
       <c r="C22" s="3">
-        <v>19.517457</v>
+        <v>20.060063800000002</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,10 +630,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="3">
-        <v>42.277492600000002</v>
+        <v>39.7247597</v>
       </c>
       <c r="C23" s="3">
-        <v>19.518242699999998</v>
+        <v>20.060221299999998</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -641,10 +641,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="3">
-        <v>42.277285499999998</v>
+        <v>39.724834799999996</v>
       </c>
       <c r="C24" s="3">
-        <v>19.5167021</v>
+        <v>20.060324900000001</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,10 +652,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="3">
-        <v>42.277923800000003</v>
+        <v>39.724755000000002</v>
       </c>
       <c r="C25" s="3">
-        <v>19.517572699999999</v>
+        <v>20.060296900000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -663,10 +663,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="3">
-        <v>42.276982799999999</v>
+        <v>39.724812300000004</v>
       </c>
       <c r="C26" s="3">
-        <v>19.516658100000001</v>
+        <v>20.0603418</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -674,10 +674,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="3">
-        <v>40.831350700000002</v>
+        <v>39.724794899999999</v>
       </c>
       <c r="C27" s="3">
-        <v>19.9143708</v>
+        <v>20.060378400000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,10 +685,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="3">
-        <v>40.830765300000003</v>
+        <v>39.724699200000003</v>
       </c>
       <c r="C28" s="3">
-        <v>19.914642099999998</v>
+        <v>20.060351199999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,10 +696,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="3">
-        <v>40.830768900000002</v>
+        <v>39.724715600000003</v>
       </c>
       <c r="C29" s="3">
-        <v>19.914750099999999</v>
+        <v>20.0603625</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -707,10 +707,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="3">
-        <v>40.831157099999999</v>
+        <v>39.72475</v>
       </c>
       <c r="C30" s="3">
-        <v>19.9144322</v>
+        <v>20.0604759</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,10 +718,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="3">
-        <v>40.750765199999996</v>
+        <v>39.724858599999997</v>
       </c>
       <c r="C31" s="3">
-        <v>20.832402299999998</v>
+        <v>20.060358399999998</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -729,10 +729,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="3">
-        <v>40.831096199999998</v>
+        <v>39.7247524</v>
       </c>
       <c r="C32" s="3">
-        <v>19.914892399999999</v>
+        <v>20.0605984</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,10 +740,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="3">
-        <v>40.8309292</v>
+        <v>39.724788699999998</v>
       </c>
       <c r="C33" s="3">
-        <v>19.915116999999999</v>
+        <v>20.060086500000001</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,10 +751,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="3">
-        <v>40.830769400000001</v>
+        <v>40.714485000000003</v>
       </c>
       <c r="C34" s="3">
-        <v>19.9147502</v>
+        <v>19.378269299999999</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,10 +762,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="3">
-        <v>40.831297599999999</v>
+        <v>40.715586799999997</v>
       </c>
       <c r="C35" s="3">
-        <v>19.914582800000002</v>
+        <v>19.364625499999999</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="3">
-        <v>40.751758700000003</v>
+        <v>40.079405999999999</v>
       </c>
       <c r="C36" s="3">
-        <v>20.831425400000001</v>
+        <v>20.198713300000001</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,10 +784,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="3">
-        <v>40.832106899999999</v>
+        <v>40.079405999999999</v>
       </c>
       <c r="C37" s="3">
-        <v>19.9140172</v>
+        <v>20.198710999999999</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,10 +795,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="3">
-        <v>40.752531599999998</v>
+        <v>40.715617899999998</v>
       </c>
       <c r="C38" s="3">
-        <v>20.8312925</v>
+        <v>19.378296500000001</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,10 +806,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="3">
-        <v>40.831263900000003</v>
+        <v>40.080606600000003</v>
       </c>
       <c r="C39" s="3">
-        <v>19.914763099999998</v>
+        <v>20.199174599999999</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,10 +817,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="3">
-        <v>40.754839099999998</v>
+        <v>40.079592099999999</v>
       </c>
       <c r="C40" s="3">
-        <v>20.830075000000001</v>
+        <v>20.1988606</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,10 +828,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="3">
-        <v>40.753555400000003</v>
+        <v>40.079382299999999</v>
       </c>
       <c r="C41" s="3">
-        <v>20.830983700000001</v>
+        <v>20.198820600000001</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,10 +839,10 @@
         <v>3</v>
       </c>
       <c r="B42" s="3">
-        <v>40.753786900000001</v>
+        <v>41.400360599999999</v>
       </c>
       <c r="C42" s="3">
-        <v>20.8306401</v>
+        <v>19.545108299999999</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,10 +850,10 @@
         <v>3</v>
       </c>
       <c r="B43" s="3">
-        <v>40.753895900000003</v>
+        <v>40.7069039</v>
       </c>
       <c r="C43" s="3">
-        <v>20.830523400000001</v>
+        <v>19.642846599999999</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,10 +861,10 @@
         <v>3</v>
       </c>
       <c r="B44" s="3">
-        <v>40.754075700000001</v>
+        <v>40.7069039</v>
       </c>
       <c r="C44" s="3">
-        <v>20.830336800000001</v>
+        <v>19.642846599999999</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,10 +872,10 @@
         <v>3</v>
       </c>
       <c r="B45" s="3">
-        <v>40.754475399999997</v>
+        <v>40.706901299999998</v>
       </c>
       <c r="C45" s="3">
-        <v>20.830290000000002</v>
+        <v>19.642845000000001</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,10 +883,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="3">
-        <v>40.753585999999999</v>
+        <v>40.706901600000002</v>
       </c>
       <c r="C46" s="3">
-        <v>20.830670699999999</v>
+        <v>19.642841900000001</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,10 +894,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="3">
-        <v>40.753583399999997</v>
+        <v>40.706902399999997</v>
       </c>
       <c r="C47" s="3">
-        <v>20.830621900000001</v>
+        <v>19.642841700000002</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,10 +905,10 @@
         <v>3</v>
       </c>
       <c r="B48" s="3">
-        <v>40.753666799999998</v>
+        <v>40.706904199999997</v>
       </c>
       <c r="C48" s="3">
-        <v>20.830617799999999</v>
+        <v>19.642844199999999</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,10 +916,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="3">
-        <v>40.754765200000001</v>
+        <v>40.706904199999997</v>
       </c>
       <c r="C49" s="3">
-        <v>20.8299974</v>
+        <v>19.642842099999999</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,10 +927,10 @@
         <v>3</v>
       </c>
       <c r="B50" s="3">
-        <v>40.755149799999998</v>
+        <v>40.7069039</v>
       </c>
       <c r="C50" s="3">
-        <v>20.829772599999998</v>
+        <v>19.642846599999999</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,10 +938,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="3">
-        <v>40.755449900000002</v>
+        <v>40.706903599999997</v>
       </c>
       <c r="C51" s="3">
-        <v>20.829460000000001</v>
+        <v>19.6428406</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,10 +949,10 @@
         <v>3</v>
       </c>
       <c r="B52" s="3">
-        <v>40.755571000000003</v>
+        <v>40.706987699999999</v>
       </c>
       <c r="C52" s="3">
-        <v>20.829272700000001</v>
+        <v>19.642986499999999</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>3</v>
       </c>
       <c r="B53" s="3">
-        <v>41.396787600000003</v>
+        <v>40.706903599999997</v>
       </c>
       <c r="C53" s="3">
-        <v>19.539857399999999</v>
+        <v>19.6428406</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>3</v>
       </c>
       <c r="B54" s="3">
-        <v>41.379489</v>
+        <v>40.7069276</v>
       </c>
       <c r="C54" s="3">
-        <v>19.542874300000001</v>
+        <v>19.642872400000002</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="B55" s="3">
-        <v>41.388695599999998</v>
+        <v>40.706904100000003</v>
       </c>
       <c r="C55" s="3">
-        <v>19.550103199999999</v>
+        <v>19.642840899999999</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="3">
-        <v>41.365637800000002</v>
+        <v>40.706902999999997</v>
       </c>
       <c r="C56" s="3">
-        <v>19.549973300000001</v>
+        <v>19.642841000000001</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,10 +1004,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="3">
-        <v>40.560966800000003</v>
+        <v>40.706904199999997</v>
       </c>
       <c r="C57" s="3">
-        <v>20.741795100000001</v>
+        <v>19.6428507</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,10 +1015,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="3">
-        <v>40.560964800000001</v>
+        <v>40.706902999999997</v>
       </c>
       <c r="C58" s="3">
-        <v>20.7417707</v>
+        <v>19.642841000000001</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,10 +1026,10 @@
         <v>3</v>
       </c>
       <c r="B59" s="3">
-        <v>40.560974899999998</v>
+        <v>40.706938000000001</v>
       </c>
       <c r="C59" s="3">
-        <v>20.7418026</v>
+        <v>19.642891299999999</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1037,10 +1037,10 @@
         <v>3</v>
       </c>
       <c r="B60" s="3">
-        <v>40.560964599999998</v>
+        <v>40.706901799999997</v>
       </c>
       <c r="C60" s="3">
-        <v>20.741803300000001</v>
+        <v>19.6428431</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1048,10 +1048,10 @@
         <v>3</v>
       </c>
       <c r="B61" s="3">
-        <v>40.560952499999999</v>
+        <v>40.706901899999998</v>
       </c>
       <c r="C61" s="3">
-        <v>20.741803399999998</v>
+        <v>19.642842399999999</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1059,10 +1059,10 @@
         <v>3</v>
       </c>
       <c r="B62" s="3">
-        <v>40.560913999999997</v>
+        <v>40.7069014</v>
       </c>
       <c r="C62" s="3">
-        <v>20.741698599999999</v>
+        <v>19.642845300000001</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,10 +1070,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="3">
-        <v>40.5609173</v>
+        <v>40.706893899999997</v>
       </c>
       <c r="C63" s="3">
-        <v>20.741696999999998</v>
+        <v>19.6428352</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1081,10 +1081,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="3">
-        <v>40.5609131</v>
+        <v>40.706900500000003</v>
       </c>
       <c r="C64" s="3">
-        <v>20.741690599999998</v>
+        <v>19.642841700000002</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1092,10 +1092,10 @@
         <v>3</v>
       </c>
       <c r="B65" s="3">
-        <v>40.560912799999997</v>
+        <v>40.706902999999997</v>
       </c>
       <c r="C65" s="3">
-        <v>20.741685700000001</v>
+        <v>19.6428498</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,10 +1103,10 @@
         <v>3</v>
       </c>
       <c r="B66" s="3">
-        <v>40.560913300000003</v>
+        <v>42.223769799999999</v>
       </c>
       <c r="C66" s="3">
-        <v>20.741686600000001</v>
+        <v>19.467558700000001</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1114,10 +1114,10 @@
         <v>3</v>
       </c>
       <c r="B67" s="3">
-        <v>41.427428800000001</v>
+        <v>42.224680999999997</v>
       </c>
       <c r="C67" s="3">
-        <v>19.5628137</v>
+        <v>19.454992300000001</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1125,10 +1125,10 @@
         <v>3</v>
       </c>
       <c r="B68" s="3">
-        <v>41.426992900000002</v>
+        <v>42.224658699999999</v>
       </c>
       <c r="C68" s="3">
-        <v>19.563263500000001</v>
+        <v>19.454990200000001</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1136,10 +1136,10 @@
         <v>3</v>
       </c>
       <c r="B69" s="3">
-        <v>41.4230527</v>
+        <v>42.212802199999999</v>
       </c>
       <c r="C69" s="3">
-        <v>19.548993299999999</v>
+        <v>19.433364900000001</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>3</v>
       </c>
       <c r="B70" s="3">
-        <v>41.407758399999999</v>
+        <v>42.197084799999999</v>
       </c>
       <c r="C70" s="3">
-        <v>19.549752999999999</v>
+        <v>19.451702999999998</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,10 +1158,10 @@
         <v>3</v>
       </c>
       <c r="B71" s="3">
-        <v>40.560912899999998</v>
+        <v>42.211848600000003</v>
       </c>
       <c r="C71" s="3">
-        <v>20.7416795</v>
+        <v>19.4321713</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,10 +1169,10 @@
         <v>3</v>
       </c>
       <c r="B72" s="3">
-        <v>40.560951600000003</v>
+        <v>42.218670099999997</v>
       </c>
       <c r="C72" s="3">
-        <v>20.741800900000001</v>
+        <v>19.4468459</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1180,10 +1180,10 @@
         <v>3</v>
       </c>
       <c r="B73" s="3">
-        <v>40.560895899999998</v>
+        <v>42.223892999999997</v>
       </c>
       <c r="C73" s="3">
-        <v>20.741647199999999</v>
+        <v>19.4676455</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1191,10 +1191,10 @@
         <v>3</v>
       </c>
       <c r="B74" s="3">
-        <v>40.560944200000002</v>
+        <v>42.224828000000002</v>
       </c>
       <c r="C74" s="3">
-        <v>20.741797500000001</v>
+        <v>19.455191299999999</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1202,10 +1202,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="3">
-        <v>40.560954199999998</v>
+        <v>42.211303399999998</v>
       </c>
       <c r="C75" s="3">
-        <v>20.741793000000001</v>
+        <v>19.430100299999999</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1213,10 +1213,10 @@
         <v>3</v>
       </c>
       <c r="B76" s="3">
-        <v>40.560938800000002</v>
+        <v>42.2123676</v>
       </c>
       <c r="C76" s="3">
-        <v>20.741807300000001</v>
+        <v>19.433116200000001</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1224,10 +1224,10 @@
         <v>3</v>
       </c>
       <c r="B77" s="3">
-        <v>40.560957100000003</v>
+        <v>42.277850600000001</v>
       </c>
       <c r="C77" s="3">
-        <v>20.741800900000001</v>
+        <v>19.517997699999999</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,10 +1235,10 @@
         <v>3</v>
       </c>
       <c r="B78" s="3">
-        <v>40.560913300000003</v>
+        <v>42.357396000000001</v>
       </c>
       <c r="C78" s="3">
-        <v>20.741778199999999</v>
+        <v>20.074011299999999</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1246,10 +1246,10 @@
         <v>3</v>
       </c>
       <c r="B79" s="3">
-        <v>40.560971600000002</v>
+        <v>42.356902699999999</v>
       </c>
       <c r="C79" s="3">
-        <v>20.741804699999999</v>
+        <v>20.0758039</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,10 +1257,10 @@
         <v>3</v>
       </c>
       <c r="B80" s="3">
-        <v>40.560976500000002</v>
+        <v>42.3545771</v>
       </c>
       <c r="C80" s="3">
-        <v>20.741814900000001</v>
+        <v>20.097271200000002</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1268,10 +1268,10 @@
         <v>3</v>
       </c>
       <c r="B81" s="3">
-        <v>40.560958399999997</v>
+        <v>42.361485600000002</v>
       </c>
       <c r="C81" s="3">
-        <v>20.741810099999999</v>
+        <v>20.076916300000001</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1279,10 +1279,10 @@
         <v>3</v>
       </c>
       <c r="B82" s="3">
-        <v>40.560943600000002</v>
+        <v>42.354520000000001</v>
       </c>
       <c r="C82" s="3">
-        <v>20.741804800000001</v>
+        <v>20.09741</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,10 +1290,10 @@
         <v>3</v>
       </c>
       <c r="B83" s="3">
-        <v>40.560890999999998</v>
+        <v>40.7097604</v>
       </c>
       <c r="C83" s="3">
-        <v>20.741639800000002</v>
+        <v>19.9223955</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1301,10 +1301,10 @@
         <v>3</v>
       </c>
       <c r="B84" s="3">
-        <v>40.560895799999997</v>
+        <v>40.7098473</v>
       </c>
       <c r="C84" s="3">
-        <v>20.7416351</v>
+        <v>19.922183700000001</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,10 +1312,10 @@
         <v>3</v>
       </c>
       <c r="B85" s="3">
-        <v>40.560902499999997</v>
+        <v>40.712713800000003</v>
       </c>
       <c r="C85" s="3">
-        <v>20.741630799999999</v>
+        <v>19.920248699999998</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1323,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="B86" s="3">
-        <v>40.560876</v>
+        <v>40.712850500000002</v>
       </c>
       <c r="C86" s="3">
-        <v>20.7416111</v>
+        <v>19.919983899999998</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1334,10 +1334,10 @@
         <v>3</v>
       </c>
       <c r="B87" s="3">
-        <v>40.5609155</v>
+        <v>40.716326299999999</v>
       </c>
       <c r="C87" s="3">
-        <v>20.741734999999998</v>
+        <v>19.920121099999999</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1345,10 +1345,10 @@
         <v>3</v>
       </c>
       <c r="B88" s="3">
-        <v>40.560920099999997</v>
+        <v>40.716296900000003</v>
       </c>
       <c r="C88" s="3">
-        <v>20.7417166</v>
+        <v>19.920071</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,10 +1356,10 @@
         <v>3</v>
       </c>
       <c r="B89" s="3">
-        <v>40.560943000000002</v>
+        <v>40.726563599999999</v>
       </c>
       <c r="C89" s="3">
-        <v>20.741734000000001</v>
+        <v>19.918086200000001</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1367,10 +1367,10 @@
         <v>3</v>
       </c>
       <c r="B90" s="3">
-        <v>40.561030199999998</v>
+        <v>40.726554700000001</v>
       </c>
       <c r="C90" s="3">
-        <v>20.741820499999999</v>
+        <v>19.918095600000001</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,10 +1378,10 @@
         <v>3</v>
       </c>
       <c r="B91" s="3">
-        <v>40.626757300000001</v>
+        <v>40.727244800000001</v>
       </c>
       <c r="C91" s="3">
-        <v>20.702181899999999</v>
+        <v>19.917643900000002</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1389,10 +1389,10 @@
         <v>3</v>
       </c>
       <c r="B92" s="3">
-        <v>42.362380299999998</v>
+        <v>40.727240000000002</v>
       </c>
       <c r="C92" s="3">
-        <v>20.073043899999998</v>
+        <v>19.917599599999999</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1400,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B93" s="3">
-        <v>40.6267402</v>
+        <v>40.715945499999997</v>
       </c>
       <c r="C93" s="3">
-        <v>20.702174200000002</v>
+        <v>19.936401100000001</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1411,10 +1411,10 @@
         <v>3</v>
       </c>
       <c r="B94" s="3">
-        <v>40.626693099999997</v>
+        <v>40.831462999999999</v>
       </c>
       <c r="C94" s="3">
-        <v>20.702165600000001</v>
+        <v>19.9050999</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,10 +1422,10 @@
         <v>3</v>
       </c>
       <c r="B95" s="3">
-        <v>40.626756899999997</v>
+        <v>40.834567</v>
       </c>
       <c r="C95" s="3">
-        <v>20.7021792</v>
+        <v>19.905859599999999</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1433,10 +1433,10 @@
         <v>3</v>
       </c>
       <c r="B96" s="3">
-        <v>40.6266879</v>
+        <v>40.833536799999997</v>
       </c>
       <c r="C96" s="3">
-        <v>20.702141099999999</v>
+        <v>19.905182100000001</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1444,10 +1444,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="3">
-        <v>40.626729900000001</v>
+        <v>40.833566300000001</v>
       </c>
       <c r="C97" s="3">
-        <v>20.702078700000001</v>
+        <v>19.905406899999999</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1455,10 +1455,10 @@
         <v>3</v>
       </c>
       <c r="B98" s="3">
-        <v>40.626732799999999</v>
+        <v>40.833481800000001</v>
       </c>
       <c r="C98" s="3">
-        <v>20.702138900000001</v>
+        <v>19.905455100000001</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,10 +1466,10 @@
         <v>3</v>
       </c>
       <c r="B99" s="3">
-        <v>40.626760599999997</v>
+        <v>40.831402300000001</v>
       </c>
       <c r="C99" s="3">
-        <v>20.702173200000001</v>
+        <v>19.905214300000001</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1477,10 +1477,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="3">
-        <v>40.626660800000003</v>
+        <v>40.834671499999999</v>
       </c>
       <c r="C100" s="3">
-        <v>20.702097500000001</v>
+        <v>19.905972599999998</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1488,10 +1488,10 @@
         <v>3</v>
       </c>
       <c r="B101" s="3">
-        <v>42.362389700000001</v>
+        <v>40.833434599999997</v>
       </c>
       <c r="C101" s="3">
-        <v>20.073061500000001</v>
+        <v>19.905183699999998</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1499,10 +1499,10 @@
         <v>3</v>
       </c>
       <c r="B102" s="3">
-        <v>42.3625051</v>
+        <v>41.001128399999999</v>
       </c>
       <c r="C102" s="3">
-        <v>20.072873000000001</v>
+        <v>20.020879900000001</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,10 +1510,10 @@
         <v>3</v>
       </c>
       <c r="B103" s="3">
-        <v>42.362324800000003</v>
+        <v>41.000934000000001</v>
       </c>
       <c r="C103" s="3">
-        <v>20.073018999999999</v>
+        <v>20.0213693</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,10 +1521,10 @@
         <v>3</v>
       </c>
       <c r="B104" s="3">
-        <v>40.610097000000003</v>
+        <v>40.8335103</v>
       </c>
       <c r="C104" s="3">
-        <v>20.691711999999999</v>
+        <v>19.905443500000001</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1532,10 +1532,10 @@
         <v>3</v>
       </c>
       <c r="B105" s="3">
-        <v>40.609602500000001</v>
+        <v>40.8335364</v>
       </c>
       <c r="C105" s="3">
-        <v>20.691002099999999</v>
+        <v>19.905429900000001</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1543,10 +1543,10 @@
         <v>3</v>
       </c>
       <c r="B106" s="3">
-        <v>40.6096109</v>
+        <v>40.7176027</v>
       </c>
       <c r="C106" s="3">
-        <v>20.691012700000002</v>
+        <v>19.928751299999998</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1554,10 +1554,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="3">
-        <v>40.610722099999997</v>
+        <v>40.719552399999998</v>
       </c>
       <c r="C107" s="3">
-        <v>20.692342499999999</v>
+        <v>19.929415500000001</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,10 +1565,10 @@
         <v>3</v>
       </c>
       <c r="B108" s="3">
-        <v>40.611035399999999</v>
+        <v>40.719831999999997</v>
       </c>
       <c r="C108" s="3">
-        <v>20.693137100000001</v>
+        <v>19.929725099999999</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1576,10 +1576,10 @@
         <v>3</v>
       </c>
       <c r="B109" s="3">
-        <v>40.6110173</v>
+        <v>40.719562000000003</v>
       </c>
       <c r="C109" s="3">
-        <v>20.693270999999999</v>
+        <v>19.929419800000002</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1587,10 +1587,10 @@
         <v>3</v>
       </c>
       <c r="B110" s="3">
-        <v>40.611177699999999</v>
+        <v>40.719827299999999</v>
       </c>
       <c r="C110" s="3">
-        <v>20.693513100000001</v>
+        <v>19.929644700000001</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,10 +1598,10 @@
         <v>3</v>
       </c>
       <c r="B111" s="3">
-        <v>40.611255800000002</v>
+        <v>40.719628499999999</v>
       </c>
       <c r="C111" s="3">
-        <v>20.693622900000001</v>
+        <v>19.9293005</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,10 +1609,10 @@
         <v>3</v>
       </c>
       <c r="B112" s="3">
-        <v>40.611256900000001</v>
+        <v>40.719606499999998</v>
       </c>
       <c r="C112" s="3">
-        <v>20.6936219</v>
+        <v>19.929391500000001</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,10 +1620,10 @@
         <v>3</v>
       </c>
       <c r="B113" s="3">
-        <v>40.611215199999997</v>
+        <v>40.719557299999998</v>
       </c>
       <c r="C113" s="3">
-        <v>20.693598900000001</v>
+        <v>19.929417300000001</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,10 +1631,10 @@
         <v>3</v>
       </c>
       <c r="B114" s="3">
-        <v>40.611273199999999</v>
+        <v>40.719580399999998</v>
       </c>
       <c r="C114" s="3">
-        <v>20.6935851</v>
+        <v>19.929424300000001</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -1642,10 +1642,10 @@
         <v>3</v>
       </c>
       <c r="B115" s="3">
-        <v>40.611356299999997</v>
+        <v>42.277197200000003</v>
       </c>
       <c r="C115" s="3">
-        <v>20.693670900000001</v>
+        <v>19.5138845</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,10 +1653,10 @@
         <v>3</v>
       </c>
       <c r="B116" s="3">
-        <v>40.610570299999999</v>
+        <v>42.280515899999997</v>
       </c>
       <c r="C116" s="3">
-        <v>20.6921496</v>
+        <v>19.5225586</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,10 +1664,10 @@
         <v>3</v>
       </c>
       <c r="B117" s="3">
-        <v>40.611265699999997</v>
+        <v>42.278105400000001</v>
       </c>
       <c r="C117" s="3">
-        <v>20.693665299999999</v>
+        <v>19.519205199999998</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,10 +1675,10 @@
         <v>3</v>
       </c>
       <c r="B118" s="3">
-        <v>40.611249700000002</v>
+        <v>42.281401099999997</v>
       </c>
       <c r="C118" s="3">
-        <v>20.693570399999999</v>
+        <v>19.5229967</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,10 +1686,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="3">
-        <v>40.611345100000001</v>
+        <v>42.2772711</v>
       </c>
       <c r="C119" s="3">
-        <v>20.693597400000002</v>
+        <v>19.5165753</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,10 +1697,10 @@
         <v>3</v>
       </c>
       <c r="B120" s="3">
-        <v>40.611211599999997</v>
+        <v>42.281402300000003</v>
       </c>
       <c r="C120" s="3">
-        <v>20.693585500000001</v>
+        <v>19.522993199999998</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,10 +1708,10 @@
         <v>3</v>
       </c>
       <c r="B121" s="3">
-        <v>40.611242799999999</v>
+        <v>42.281467300000003</v>
       </c>
       <c r="C121" s="3">
-        <v>20.693614400000001</v>
+        <v>19.523060099999999</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,10 +1719,10 @@
         <v>3</v>
       </c>
       <c r="B122" s="3">
-        <v>40.611170700000002</v>
+        <v>42.277654499999997</v>
       </c>
       <c r="C122" s="3">
-        <v>20.6936283</v>
+        <v>19.518281200000001</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,10 +1730,10 @@
         <v>3</v>
       </c>
       <c r="B123" s="3">
-        <v>40.611260600000001</v>
+        <v>42.281427899999997</v>
       </c>
       <c r="C123" s="3">
-        <v>20.6935775</v>
+        <v>19.523053399999998</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,10 +1741,10 @@
         <v>3</v>
       </c>
       <c r="B124" s="3">
-        <v>40.706542399999996</v>
+        <v>42.277683500000002</v>
       </c>
       <c r="C124" s="3">
-        <v>20.792244100000001</v>
+        <v>19.517837</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,10 +1752,10 @@
         <v>3</v>
       </c>
       <c r="B125" s="3">
-        <v>40.703667600000003</v>
+        <v>42.280393400000001</v>
       </c>
       <c r="C125" s="3">
-        <v>20.792092100000001</v>
+        <v>19.522840299999999</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,10 +1763,10 @@
         <v>3</v>
       </c>
       <c r="B126" s="3">
-        <v>40.884521100000001</v>
+        <v>42.277751299999998</v>
       </c>
       <c r="C126" s="3">
-        <v>19.589540100000001</v>
+        <v>19.517457</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="B127" s="3">
-        <v>40.884501999999998</v>
+        <v>42.277492600000002</v>
       </c>
       <c r="C127" s="3">
-        <v>19.589530700000001</v>
+        <v>19.518242699999998</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -1785,10 +1785,10 @@
         <v>3</v>
       </c>
       <c r="B128" s="3">
-        <v>40.706522499999998</v>
+        <v>42.277285499999998</v>
       </c>
       <c r="C128" s="3">
-        <v>20.792271899999999</v>
+        <v>19.5167021</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -1796,10 +1796,10 @@
         <v>3</v>
       </c>
       <c r="B129" s="3">
-        <v>40.7046469</v>
+        <v>42.277923800000003</v>
       </c>
       <c r="C129" s="3">
-        <v>20.7913256</v>
+        <v>19.517572699999999</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -1807,10 +1807,10 @@
         <v>3</v>
       </c>
       <c r="B130" s="3">
-        <v>40.942221099999998</v>
+        <v>42.276982799999999</v>
       </c>
       <c r="C130" s="3">
-        <v>19.5372837</v>
+        <v>19.516658100000001</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -1818,10 +1818,10 @@
         <v>3</v>
       </c>
       <c r="B131" s="3">
-        <v>40.921858800000003</v>
+        <v>40.831350700000002</v>
       </c>
       <c r="C131" s="3">
-        <v>19.536833900000001</v>
+        <v>19.9143708</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -1829,10 +1829,10 @@
         <v>3</v>
       </c>
       <c r="B132" s="3">
-        <v>40.706364499999999</v>
+        <v>40.830765300000003</v>
       </c>
       <c r="C132" s="3">
-        <v>20.792159300000002</v>
+        <v>19.914642099999998</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -1840,10 +1840,10 @@
         <v>3</v>
       </c>
       <c r="B133" s="3">
-        <v>40.960527200000001</v>
+        <v>40.830768900000002</v>
       </c>
       <c r="C133" s="3">
-        <v>19.521292200000001</v>
+        <v>19.914750099999999</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -1851,10 +1851,10 @@
         <v>3</v>
       </c>
       <c r="B134" s="3">
-        <v>40.923311599999998</v>
+        <v>40.831157099999999</v>
       </c>
       <c r="C134" s="3">
-        <v>19.537331099999999</v>
+        <v>19.9144322</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -1862,10 +1862,10 @@
         <v>3</v>
       </c>
       <c r="B135" s="3">
-        <v>40.705325799999997</v>
+        <v>40.750765199999996</v>
       </c>
       <c r="C135" s="3">
-        <v>20.791675900000001</v>
+        <v>20.832402299999998</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -1873,10 +1873,10 @@
         <v>3</v>
       </c>
       <c r="B136" s="3">
-        <v>40.923311599999998</v>
+        <v>40.831096199999998</v>
       </c>
       <c r="C136" s="3">
-        <v>19.537331099999999</v>
+        <v>19.914892399999999</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -1884,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="B137" s="3">
-        <v>40.960527200000001</v>
+        <v>40.8309292</v>
       </c>
       <c r="C137" s="3">
-        <v>19.521292200000001</v>
+        <v>19.915116999999999</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -1895,10 +1895,10 @@
         <v>3</v>
       </c>
       <c r="B138" s="3">
-        <v>40.706411500000002</v>
+        <v>40.830769400000001</v>
       </c>
       <c r="C138" s="3">
-        <v>20.792268700000001</v>
+        <v>19.9147502</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -1906,10 +1906,10 @@
         <v>3</v>
       </c>
       <c r="B139" s="3">
-        <v>40.706332000000003</v>
+        <v>40.831297599999999</v>
       </c>
       <c r="C139" s="3">
-        <v>20.792128900000002</v>
+        <v>19.914582800000002</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -1917,10 +1917,10 @@
         <v>3</v>
       </c>
       <c r="B140" s="3">
-        <v>42.168859500000003</v>
+        <v>40.751758700000003</v>
       </c>
       <c r="C140" s="3">
-        <v>19.4817781</v>
+        <v>20.831425400000001</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -1928,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="B141" s="3">
-        <v>40.705536899999998</v>
+        <v>40.832106899999999</v>
       </c>
       <c r="C141" s="3">
-        <v>20.792016799999999</v>
+        <v>19.9140172</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -1939,10 +1939,10 @@
         <v>3</v>
       </c>
       <c r="B142" s="3">
-        <v>40.706282399999999</v>
+        <v>40.752531599999998</v>
       </c>
       <c r="C142" s="3">
-        <v>20.792267200000001</v>
+        <v>20.8312925</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -1950,10 +1950,10 @@
         <v>3</v>
       </c>
       <c r="B143" s="3">
-        <v>40.705341799999999</v>
+        <v>40.831263900000003</v>
       </c>
       <c r="C143" s="3">
-        <v>20.791884499999998</v>
+        <v>19.914763099999998</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -1961,10 +1961,10 @@
         <v>3</v>
       </c>
       <c r="B144" s="3">
-        <v>40.7061894</v>
+        <v>40.754839099999998</v>
       </c>
       <c r="C144" s="3">
-        <v>20.7921561</v>
+        <v>20.830075000000001</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -1972,10 +1972,10 @@
         <v>3</v>
       </c>
       <c r="B145" s="3">
-        <v>40.705005700000001</v>
+        <v>40.753555400000003</v>
       </c>
       <c r="C145" s="3">
-        <v>20.791491600000001</v>
+        <v>20.830983700000001</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -1983,10 +1983,10 @@
         <v>3</v>
       </c>
       <c r="B146" s="3">
-        <v>40.705502799999998</v>
+        <v>40.753786900000001</v>
       </c>
       <c r="C146" s="3">
-        <v>20.791700500000001</v>
+        <v>20.8306401</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -1994,10 +1994,10 @@
         <v>3</v>
       </c>
       <c r="B147" s="3">
-        <v>40.704983800000001</v>
+        <v>40.753895900000003</v>
       </c>
       <c r="C147" s="3">
-        <v>20.791447999999999</v>
+        <v>20.830523400000001</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2005,10 +2005,10 @@
         <v>3</v>
       </c>
       <c r="B148" s="3">
-        <v>40.617686800000001</v>
+        <v>40.754075700000001</v>
       </c>
       <c r="C148" s="3">
-        <v>20.7716612</v>
+        <v>20.830336800000001</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2016,10 +2016,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="3">
-        <v>40.704856100000001</v>
+        <v>40.754475399999997</v>
       </c>
       <c r="C149" s="3">
-        <v>20.791373499999999</v>
+        <v>20.830290000000002</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2027,10 +2027,10 @@
         <v>3</v>
       </c>
       <c r="B150" s="3">
-        <v>40.7049685</v>
+        <v>40.753585999999999</v>
       </c>
       <c r="C150" s="3">
-        <v>20.7914374</v>
+        <v>20.830670699999999</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2038,10 +2038,10 @@
         <v>3</v>
       </c>
       <c r="B151" s="3">
-        <v>40.704788999999998</v>
+        <v>40.753583399999997</v>
       </c>
       <c r="C151" s="3">
-        <v>20.791447999999999</v>
+        <v>20.830621900000001</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2049,10 +2049,10 @@
         <v>3</v>
       </c>
       <c r="B152" s="3">
-        <v>42.357349300000003</v>
+        <v>40.753666799999998</v>
       </c>
       <c r="C152" s="3">
-        <v>20.0740762</v>
+        <v>20.830617799999999</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2060,10 +2060,10 @@
         <v>3</v>
       </c>
       <c r="B153" s="3">
-        <v>42.357340499999999</v>
+        <v>40.754765200000001</v>
       </c>
       <c r="C153" s="3">
-        <v>20.074083600000002</v>
+        <v>20.8299974</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2071,10 +2071,10 @@
         <v>3</v>
       </c>
       <c r="B154" s="3">
-        <v>40.704794900000003</v>
+        <v>40.755149799999998</v>
       </c>
       <c r="C154" s="3">
-        <v>20.7913055</v>
+        <v>20.829772599999998</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2082,10 +2082,10 @@
         <v>3</v>
       </c>
       <c r="B155" s="3">
-        <v>41.028359100000003</v>
+        <v>40.755449900000002</v>
       </c>
       <c r="C155" s="3">
-        <v>19.991171099999999</v>
+        <v>20.829460000000001</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2093,10 +2093,10 @@
         <v>3</v>
       </c>
       <c r="B156" s="3">
-        <v>40.7044158</v>
+        <v>40.755571000000003</v>
       </c>
       <c r="C156" s="3">
-        <v>20.791806900000001</v>
+        <v>20.829272700000001</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2104,10 +2104,10 @@
         <v>3</v>
       </c>
       <c r="B157" s="3">
-        <v>41.028087900000003</v>
+        <v>41.396787600000003</v>
       </c>
       <c r="C157" s="3">
-        <v>19.9908085</v>
+        <v>19.539857399999999</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2115,10 +2115,10 @@
         <v>3</v>
       </c>
       <c r="B158" s="3">
-        <v>40.713635799999999</v>
+        <v>41.379489</v>
       </c>
       <c r="C158" s="3">
-        <v>19.619978799999998</v>
+        <v>19.542874300000001</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2126,10 +2126,10 @@
         <v>3</v>
       </c>
       <c r="B159" s="3">
-        <v>40.713635600000003</v>
+        <v>41.388695599999998</v>
       </c>
       <c r="C159" s="3">
-        <v>19.619980099999999</v>
+        <v>19.550103199999999</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2137,10 +2137,10 @@
         <v>3</v>
       </c>
       <c r="B160" s="3">
-        <v>40.713628900000003</v>
+        <v>41.365637800000002</v>
       </c>
       <c r="C160" s="3">
-        <v>19.619981899999999</v>
+        <v>19.549973300000001</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2148,10 +2148,10 @@
         <v>3</v>
       </c>
       <c r="B161" s="3">
-        <v>40.713571999999999</v>
+        <v>40.560966800000003</v>
       </c>
       <c r="C161" s="3">
-        <v>19.620115500000001</v>
+        <v>20.741795100000001</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2159,10 +2159,10 @@
         <v>3</v>
       </c>
       <c r="B162" s="3">
-        <v>40.706701799999998</v>
+        <v>40.560964800000001</v>
       </c>
       <c r="C162" s="3">
-        <v>19.619714800000001</v>
+        <v>20.7417707</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2170,10 +2170,10 @@
         <v>3</v>
       </c>
       <c r="B163" s="3">
-        <v>40.706772299999997</v>
+        <v>40.560974899999998</v>
       </c>
       <c r="C163" s="3">
-        <v>19.6196372</v>
+        <v>20.7418026</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2181,10 +2181,10 @@
         <v>3</v>
       </c>
       <c r="B164" s="3">
-        <v>40.706692400000001</v>
+        <v>40.560964599999998</v>
       </c>
       <c r="C164" s="3">
-        <v>19.619727300000001</v>
+        <v>20.741803300000001</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2192,10 +2192,10 @@
         <v>3</v>
       </c>
       <c r="B165" s="3">
-        <v>40.7068023</v>
+        <v>40.560952499999999</v>
       </c>
       <c r="C165" s="3">
-        <v>19.619588400000001</v>
+        <v>20.741803399999998</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2203,10 +2203,10 @@
         <v>3</v>
       </c>
       <c r="B166" s="3">
-        <v>42.362310999999998</v>
+        <v>40.560913999999997</v>
       </c>
       <c r="C166" s="3">
-        <v>20.0729486</v>
+        <v>20.741698599999999</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2214,10 +2214,10 @@
         <v>3</v>
       </c>
       <c r="B167" s="3">
-        <v>42.362290199999997</v>
+        <v>40.5609173</v>
       </c>
       <c r="C167" s="3">
-        <v>20.0729188</v>
+        <v>20.741696999999998</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2225,10 +2225,10 @@
         <v>3</v>
       </c>
       <c r="B168" s="3">
-        <v>42.362548599999997</v>
+        <v>40.5609131</v>
       </c>
       <c r="C168" s="3">
-        <v>20.0736709</v>
+        <v>20.741690599999998</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2236,10 +2236,10 @@
         <v>3</v>
       </c>
       <c r="B169" s="3">
-        <v>42.362232400000003</v>
+        <v>40.560912799999997</v>
       </c>
       <c r="C169" s="3">
-        <v>20.072844199999999</v>
+        <v>20.741685700000001</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2247,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="B170" s="3">
-        <v>40.123410100000001</v>
+        <v>40.560913300000003</v>
       </c>
       <c r="C170" s="3">
-        <v>20.1118554</v>
+        <v>20.741686600000001</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2258,10 +2258,10 @@
         <v>3</v>
       </c>
       <c r="B171" s="3">
-        <v>40.122214700000001</v>
+        <v>41.427428800000001</v>
       </c>
       <c r="C171" s="3">
-        <v>20.105774400000001</v>
+        <v>19.5628137</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2269,10 +2269,10 @@
         <v>3</v>
       </c>
       <c r="B172" s="3">
-        <v>40.122556799999998</v>
+        <v>41.426992900000002</v>
       </c>
       <c r="C172" s="3">
-        <v>20.110113599999998</v>
+        <v>19.563263500000001</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2280,10 +2280,10 @@
         <v>3</v>
       </c>
       <c r="B173" s="3">
-        <v>40.122549499999998</v>
+        <v>41.4230527</v>
       </c>
       <c r="C173" s="3">
-        <v>20.110094199999999</v>
+        <v>19.548993299999999</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2291,10 +2291,10 @@
         <v>3</v>
       </c>
       <c r="B174" s="3">
-        <v>40.122547599999997</v>
+        <v>40.560912899999998</v>
       </c>
       <c r="C174" s="3">
-        <v>20.1100882</v>
+        <v>20.7416795</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2302,10 +2302,10 @@
         <v>3</v>
       </c>
       <c r="B175" s="3">
-        <v>40.701578300000001</v>
+        <v>40.560951600000003</v>
       </c>
       <c r="C175" s="3">
-        <v>19.617272</v>
+        <v>20.741800900000001</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2313,10 +2313,10 @@
         <v>3</v>
       </c>
       <c r="B176" s="3">
-        <v>40.701530200000001</v>
+        <v>40.560895899999998</v>
       </c>
       <c r="C176" s="3">
-        <v>19.617308300000001</v>
+        <v>20.741647199999999</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2324,10 +2324,10 @@
         <v>3</v>
       </c>
       <c r="B177" s="3">
-        <v>40.707910900000002</v>
+        <v>40.560944200000002</v>
       </c>
       <c r="C177" s="3">
-        <v>19.639635800000001</v>
+        <v>20.741797500000001</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2335,10 +2335,10 @@
         <v>3</v>
       </c>
       <c r="B178" s="3">
-        <v>40.707915800000002</v>
+        <v>40.560954199999998</v>
       </c>
       <c r="C178" s="3">
-        <v>19.6395126</v>
+        <v>20.741793000000001</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2346,10 +2346,10 @@
         <v>3</v>
       </c>
       <c r="B179" s="3">
-        <v>40.707695800000003</v>
+        <v>40.560938800000002</v>
       </c>
       <c r="C179" s="3">
-        <v>19.639659000000002</v>
+        <v>20.741807300000001</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2357,10 +2357,10 @@
         <v>3</v>
       </c>
       <c r="B180" s="3">
-        <v>40.706020799999997</v>
+        <v>40.560957100000003</v>
       </c>
       <c r="C180" s="3">
-        <v>19.639999100000001</v>
+        <v>20.741800900000001</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2368,10 +2368,10 @@
         <v>3</v>
       </c>
       <c r="B181" s="3">
-        <v>40.1240138</v>
+        <v>40.560913300000003</v>
       </c>
       <c r="C181" s="3">
-        <v>20.1357748</v>
+        <v>20.741778199999999</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2379,10 +2379,10 @@
         <v>3</v>
       </c>
       <c r="B182" s="3">
-        <v>40.699875400000003</v>
+        <v>40.560971600000002</v>
       </c>
       <c r="C182" s="3">
-        <v>19.6101435</v>
+        <v>20.741804699999999</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2390,10 +2390,10 @@
         <v>3</v>
       </c>
       <c r="B183" s="3">
-        <v>40.700781900000003</v>
+        <v>40.560976500000002</v>
       </c>
       <c r="C183" s="3">
-        <v>19.612272000000001</v>
+        <v>20.741814900000001</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2401,10 +2401,10 @@
         <v>3</v>
       </c>
       <c r="B184" s="3">
-        <v>40.719981300000001</v>
+        <v>40.560958399999997</v>
       </c>
       <c r="C184" s="3">
-        <v>19.6205645</v>
+        <v>20.741810099999999</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2412,10 +2412,10 @@
         <v>3</v>
       </c>
       <c r="B185" s="3">
-        <v>40.721211199999999</v>
+        <v>40.560943600000002</v>
       </c>
       <c r="C185" s="3">
-        <v>19.621170599999999</v>
+        <v>20.741804800000001</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2423,10 +2423,10 @@
         <v>3</v>
       </c>
       <c r="B186" s="3">
-        <v>40.723165199999997</v>
+        <v>40.560890999999998</v>
       </c>
       <c r="C186" s="3">
-        <v>19.621562600000001</v>
+        <v>20.741639800000002</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2434,10 +2434,10 @@
         <v>3</v>
       </c>
       <c r="B187" s="3">
-        <v>42.163769799999997</v>
+        <v>40.560895799999997</v>
       </c>
       <c r="C187" s="3">
-        <v>19.4654448</v>
+        <v>20.7416351</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2445,10 +2445,10 @@
         <v>3</v>
       </c>
       <c r="B188" s="3">
-        <v>40.723148199999997</v>
+        <v>40.560902499999997</v>
       </c>
       <c r="C188" s="3">
-        <v>19.6215419</v>
+        <v>20.741630799999999</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2456,10 +2456,10 @@
         <v>3</v>
       </c>
       <c r="B189" s="3">
-        <v>40.085417300000003</v>
+        <v>40.560876</v>
       </c>
       <c r="C189" s="3">
-        <v>20.1426938</v>
+        <v>20.7416111</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2467,10 +2467,10 @@
         <v>3</v>
       </c>
       <c r="B190" s="3">
-        <v>40.085411999999998</v>
+        <v>40.5609155</v>
       </c>
       <c r="C190" s="3">
-        <v>20.142689300000001</v>
+        <v>20.741734999999998</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2478,10 +2478,10 @@
         <v>3</v>
       </c>
       <c r="B191" s="3">
-        <v>40.085411999999998</v>
+        <v>40.560920099999997</v>
       </c>
       <c r="C191" s="3">
-        <v>20.142689300000001</v>
+        <v>20.7417166</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2489,10 +2489,10 @@
         <v>3</v>
       </c>
       <c r="B192" s="3">
-        <v>40.085411999999998</v>
+        <v>40.560943000000002</v>
       </c>
       <c r="C192" s="3">
-        <v>20.142689300000001</v>
+        <v>20.741734000000001</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2500,10 +2500,10 @@
         <v>3</v>
       </c>
       <c r="B193" s="3">
-        <v>40.0803966</v>
+        <v>40.561030199999998</v>
       </c>
       <c r="C193" s="3">
-        <v>20.138464599999999</v>
+        <v>20.741820499999999</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2511,10 +2511,10 @@
         <v>3</v>
       </c>
       <c r="B194" s="3">
-        <v>40.971039699999999</v>
+        <v>40.626757300000001</v>
       </c>
       <c r="C194" s="3">
-        <v>20.004928100000001</v>
+        <v>20.702181899999999</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2522,10 +2522,10 @@
         <v>3</v>
       </c>
       <c r="B195" s="3">
-        <v>40.983379999999997</v>
+        <v>42.362380299999998</v>
       </c>
       <c r="C195" s="3">
-        <v>20.0097433</v>
+        <v>20.073043899999998</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2533,10 +2533,10 @@
         <v>3</v>
       </c>
       <c r="B196" s="3">
-        <v>41.003016700000003</v>
+        <v>40.6267402</v>
       </c>
       <c r="C196" s="3">
-        <v>20.017828099999999</v>
+        <v>20.702174200000002</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2544,10 +2544,10 @@
         <v>3</v>
       </c>
       <c r="B197" s="3">
-        <v>41.015389999999996</v>
+        <v>40.626693099999997</v>
       </c>
       <c r="C197" s="3">
-        <v>20.0045033</v>
+        <v>20.702165600000001</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2555,10 +2555,10 @@
         <v>3</v>
       </c>
       <c r="B198" s="3">
-        <v>40.125408999999998</v>
+        <v>40.626756899999997</v>
       </c>
       <c r="C198" s="3">
-        <v>20.136428299999999</v>
+        <v>20.7021792</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2566,10 +2566,10 @@
         <v>3</v>
       </c>
       <c r="B199" s="3">
-        <v>40.125190500000002</v>
+        <v>40.6266879</v>
       </c>
       <c r="C199" s="3">
-        <v>20.136147699999999</v>
+        <v>20.702141099999999</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2577,10 +2577,10 @@
         <v>3</v>
       </c>
       <c r="B200" s="3">
-        <v>40.125254699999999</v>
+        <v>40.626729900000001</v>
       </c>
       <c r="C200" s="3">
-        <v>20.136188700000002</v>
+        <v>20.702078700000001</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -2588,10 +2588,10 @@
         <v>3</v>
       </c>
       <c r="B201" s="3">
-        <v>40.125625300000003</v>
+        <v>40.626732799999999</v>
       </c>
       <c r="C201" s="3">
-        <v>20.136190599999999</v>
+        <v>20.702138900000001</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -2599,10 +2599,10 @@
         <v>3</v>
       </c>
       <c r="B202" s="3">
-        <v>40.1256561</v>
+        <v>40.626760599999997</v>
       </c>
       <c r="C202" s="3">
-        <v>20.136201199999999</v>
+        <v>20.702173200000001</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -2610,10 +2610,10 @@
         <v>3</v>
       </c>
       <c r="B203" s="3">
-        <v>40.847952599999999</v>
+        <v>40.626660800000003</v>
       </c>
       <c r="C203" s="3">
-        <v>19.6384829</v>
+        <v>20.702097500000001</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -2621,10 +2621,10 @@
         <v>3</v>
       </c>
       <c r="B204" s="3">
-        <v>40.858810900000002</v>
+        <v>42.362389700000001</v>
       </c>
       <c r="C204" s="3">
-        <v>19.6468189</v>
+        <v>20.073061500000001</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -2632,10 +2632,10 @@
         <v>3</v>
       </c>
       <c r="B205" s="3">
-        <v>40.146357500000001</v>
+        <v>42.3625051</v>
       </c>
       <c r="C205" s="3">
-        <v>20.0885335</v>
+        <v>20.072873000000001</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -2643,10 +2643,10 @@
         <v>3</v>
       </c>
       <c r="B206" s="3">
-        <v>40.145546199999998</v>
+        <v>42.362324800000003</v>
       </c>
       <c r="C206" s="3">
-        <v>20.089397000000002</v>
+        <v>20.073018999999999</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -2654,10 +2654,10 @@
         <v>3</v>
       </c>
       <c r="B207" s="3">
-        <v>40.141613</v>
+        <v>40.610097000000003</v>
       </c>
       <c r="C207" s="3">
-        <v>20.088227100000001</v>
+        <v>20.691711999999999</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -2665,10 +2665,10 @@
         <v>3</v>
       </c>
       <c r="B208" s="3">
-        <v>40.1443029</v>
+        <v>40.609602500000001</v>
       </c>
       <c r="C208" s="3">
-        <v>20.088320499999998</v>
+        <v>20.691002099999999</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -2676,10 +2676,10 @@
         <v>3</v>
       </c>
       <c r="B209" s="3">
-        <v>40.144500399999998</v>
+        <v>40.6096109</v>
       </c>
       <c r="C209" s="3">
-        <v>20.089192499999999</v>
+        <v>20.691012700000002</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -2687,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="B210" s="3">
-        <v>40.146357000000002</v>
+        <v>40.610722099999997</v>
       </c>
       <c r="C210" s="3">
-        <v>20.0885183</v>
+        <v>20.692342499999999</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -2698,10 +2698,10 @@
         <v>3</v>
       </c>
       <c r="B211" s="3">
-        <v>40.145260700000001</v>
+        <v>40.611035399999999</v>
       </c>
       <c r="C211" s="3">
-        <v>20.0883352</v>
+        <v>20.693137100000001</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -2709,10 +2709,10 @@
         <v>3</v>
       </c>
       <c r="B212" s="3">
-        <v>40.832867899999997</v>
+        <v>40.6110173</v>
       </c>
       <c r="C212" s="3">
-        <v>19.5192318</v>
+        <v>20.693270999999999</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -2720,10 +2720,10 @@
         <v>3</v>
       </c>
       <c r="B213" s="3">
-        <v>40.984084799999998</v>
+        <v>40.611177699999999</v>
       </c>
       <c r="C213" s="3">
-        <v>20.010112599999999</v>
+        <v>20.693513100000001</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -2731,10 +2731,10 @@
         <v>3</v>
       </c>
       <c r="B214" s="3">
-        <v>40.968437899999998</v>
+        <v>40.611255800000002</v>
       </c>
       <c r="C214" s="3">
-        <v>20.004564200000001</v>
+        <v>20.693622900000001</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -2742,10 +2742,10 @@
         <v>3</v>
       </c>
       <c r="B215" s="3">
-        <v>40.958093900000001</v>
+        <v>40.611256900000001</v>
       </c>
       <c r="C215" s="3">
-        <v>20.004059900000001</v>
+        <v>20.6936219</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -2753,10 +2753,10 @@
         <v>3</v>
       </c>
       <c r="B216" s="3">
-        <v>40.8251633</v>
+        <v>40.611215199999997</v>
       </c>
       <c r="C216" s="3">
-        <v>19.501712900000001</v>
+        <v>20.693598900000001</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -2764,10 +2764,10 @@
         <v>3</v>
       </c>
       <c r="B217" s="3">
-        <v>40.825159300000003</v>
+        <v>40.611273199999999</v>
       </c>
       <c r="C217" s="3">
-        <v>19.501710500000002</v>
+        <v>20.6935851</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -2775,10 +2775,10 @@
         <v>3</v>
       </c>
       <c r="B218" s="3">
-        <v>40.819353700000001</v>
+        <v>40.611356299999997</v>
       </c>
       <c r="C218" s="3">
-        <v>19.501025800000001</v>
+        <v>20.693670900000001</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -2786,10 +2786,10 @@
         <v>3</v>
       </c>
       <c r="B219" s="3">
-        <v>40.816021599999999</v>
+        <v>40.610570299999999</v>
       </c>
       <c r="C219" s="3">
-        <v>19.5005454</v>
+        <v>20.6921496</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -2797,10 +2797,10 @@
         <v>3</v>
       </c>
       <c r="B220" s="3">
-        <v>40.816017700000003</v>
+        <v>40.611265699999997</v>
       </c>
       <c r="C220" s="3">
-        <v>19.500545200000001</v>
+        <v>20.693665299999999</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -2808,10 +2808,10 @@
         <v>3</v>
       </c>
       <c r="B221" s="3">
-        <v>40.816024499999997</v>
+        <v>40.611249700000002</v>
       </c>
       <c r="C221" s="3">
-        <v>19.5004867</v>
+        <v>20.693570399999999</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -2819,10 +2819,10 @@
         <v>3</v>
       </c>
       <c r="B222" s="3">
-        <v>40.815624300000003</v>
+        <v>40.611345100000001</v>
       </c>
       <c r="C222" s="3">
-        <v>19.500920399999998</v>
+        <v>20.693597400000002</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -2830,10 +2830,10 @@
         <v>3</v>
       </c>
       <c r="B223" s="3">
-        <v>40.816299399999998</v>
+        <v>40.611211599999997</v>
       </c>
       <c r="C223" s="3">
-        <v>19.5016237</v>
+        <v>20.693585500000001</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -2841,10 +2841,10 @@
         <v>3</v>
       </c>
       <c r="B224" s="3">
-        <v>40.815844400000003</v>
+        <v>40.611242799999999</v>
       </c>
       <c r="C224" s="3">
-        <v>19.499451499999999</v>
+        <v>20.693614400000001</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -2852,10 +2852,10 @@
         <v>3</v>
       </c>
       <c r="B225" s="3">
-        <v>40.816145400000003</v>
+        <v>40.611170700000002</v>
       </c>
       <c r="C225" s="3">
-        <v>19.4993044</v>
+        <v>20.6936283</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -2863,10 +2863,10 @@
         <v>3</v>
       </c>
       <c r="B226" s="3">
-        <v>40.816376900000002</v>
+        <v>40.611260600000001</v>
       </c>
       <c r="C226" s="3">
-        <v>19.499282099999999</v>
+        <v>20.6935775</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -2874,10 +2874,10 @@
         <v>3</v>
       </c>
       <c r="B227" s="3">
-        <v>40.816374099999997</v>
+        <v>40.706542399999996</v>
       </c>
       <c r="C227" s="3">
-        <v>19.499950599999998</v>
+        <v>20.792244100000001</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -2885,10 +2885,10 @@
         <v>3</v>
       </c>
       <c r="B228" s="3">
-        <v>40.145259699999997</v>
+        <v>40.703667600000003</v>
       </c>
       <c r="C228" s="3">
-        <v>20.0883316</v>
+        <v>20.792092100000001</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -2896,10 +2896,10 @@
         <v>3</v>
       </c>
       <c r="B229" s="3">
-        <v>41.024334899999999</v>
+        <v>40.884521100000001</v>
       </c>
       <c r="C229" s="3">
-        <v>19.990079000000001</v>
+        <v>19.589540100000001</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -2907,10 +2907,10 @@
         <v>3</v>
       </c>
       <c r="B230" s="3">
-        <v>40.992705899999997</v>
+        <v>40.884501999999998</v>
       </c>
       <c r="C230" s="3">
-        <v>20.008908900000002</v>
+        <v>19.589530700000001</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -2918,10 +2918,10 @@
         <v>3</v>
       </c>
       <c r="B231" s="3">
-        <v>40.993041300000002</v>
+        <v>40.706522499999998</v>
       </c>
       <c r="C231" s="3">
-        <v>20.009329900000001</v>
+        <v>20.792271899999999</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -2929,10 +2929,10 @@
         <v>3</v>
       </c>
       <c r="B232" s="3">
-        <v>40.992775199999997</v>
+        <v>40.7046469</v>
       </c>
       <c r="C232" s="3">
-        <v>20.009053399999999</v>
+        <v>20.7913256</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -2940,10 +2940,10 @@
         <v>3</v>
       </c>
       <c r="B233" s="3">
-        <v>40.992753100000002</v>
+        <v>40.942221099999998</v>
       </c>
       <c r="C233" s="3">
-        <v>20.008929500000001</v>
+        <v>19.5372837</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -2951,10 +2951,10 @@
         <v>3</v>
       </c>
       <c r="B234" s="3">
-        <v>41.697348599999998</v>
+        <v>40.921858800000003</v>
       </c>
       <c r="C234" s="3">
-        <v>20.3652677</v>
+        <v>19.536833900000001</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -2962,10 +2962,10 @@
         <v>3</v>
       </c>
       <c r="B235" s="3">
-        <v>41.6974752</v>
+        <v>40.706364499999999</v>
       </c>
       <c r="C235" s="3">
-        <v>20.365712200000001</v>
+        <v>20.792159300000002</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -2973,10 +2973,10 @@
         <v>3</v>
       </c>
       <c r="B236" s="3">
-        <v>41.697344899999997</v>
+        <v>40.960527200000001</v>
       </c>
       <c r="C236" s="3">
-        <v>20.3652804</v>
+        <v>19.521292200000001</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -2984,10 +2984,10 @@
         <v>3</v>
       </c>
       <c r="B237" s="3">
-        <v>41.028320399999998</v>
+        <v>40.923311599999998</v>
       </c>
       <c r="C237" s="3">
-        <v>19.991267400000002</v>
+        <v>19.537331099999999</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -2995,10 +2995,10 @@
         <v>3</v>
       </c>
       <c r="B238" s="3">
-        <v>41.6494499</v>
+        <v>40.705325799999997</v>
       </c>
       <c r="C238" s="3">
-        <v>20.457481600000001</v>
+        <v>20.791675900000001</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3006,10 +3006,10 @@
         <v>3</v>
       </c>
       <c r="B239" s="3">
-        <v>41.6494097</v>
+        <v>40.923311599999998</v>
       </c>
       <c r="C239" s="3">
-        <v>20.457399500000001</v>
+        <v>19.537331099999999</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3017,10 +3017,10 @@
         <v>3</v>
       </c>
       <c r="B240" s="3">
-        <v>41.6560354</v>
+        <v>40.960527200000001</v>
       </c>
       <c r="C240" s="3">
-        <v>20.434201300000002</v>
+        <v>19.521292200000001</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3028,10 +3028,10 @@
         <v>3</v>
       </c>
       <c r="B241" s="3">
-        <v>41.608505999999998</v>
+        <v>40.706411500000002</v>
       </c>
       <c r="C241" s="3">
-        <v>20.470987600000001</v>
+        <v>20.792268700000001</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3039,10 +3039,10 @@
         <v>3</v>
       </c>
       <c r="B242" s="3">
-        <v>41.654359100000001</v>
+        <v>40.706332000000003</v>
       </c>
       <c r="C242" s="3">
-        <v>20.436582000000001</v>
+        <v>20.792128900000002</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3050,10 +3050,10 @@
         <v>3</v>
       </c>
       <c r="B243" s="3">
-        <v>41.654448299999999</v>
+        <v>42.168859500000003</v>
       </c>
       <c r="C243" s="3">
-        <v>20.43609</v>
+        <v>19.4817781</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3061,10 +3061,10 @@
         <v>3</v>
       </c>
       <c r="B244" s="3">
-        <v>41.654629999999997</v>
+        <v>40.705536899999998</v>
       </c>
       <c r="C244" s="3">
-        <v>20.435296699999999</v>
+        <v>20.792016799999999</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3072,10 +3072,10 @@
         <v>3</v>
       </c>
       <c r="B245" s="3">
-        <v>41.654047800000001</v>
+        <v>40.706282399999999</v>
       </c>
       <c r="C245" s="3">
-        <v>20.4345228</v>
+        <v>20.792267200000001</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3083,10 +3083,10 @@
         <v>3</v>
       </c>
       <c r="B246" s="3">
-        <v>41.654052999999998</v>
+        <v>40.705341799999999</v>
       </c>
       <c r="C246" s="3">
-        <v>20.434523800000001</v>
+        <v>20.791884499999998</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3094,10 +3094,10 @@
         <v>3</v>
       </c>
       <c r="B247" s="3">
-        <v>41.613504399999997</v>
+        <v>40.7061894</v>
       </c>
       <c r="C247" s="3">
-        <v>20.4782586</v>
+        <v>20.7921561</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3105,10 +3105,10 @@
         <v>3</v>
       </c>
       <c r="B248" s="3">
-        <v>41.5688575</v>
+        <v>40.705005700000001</v>
       </c>
       <c r="C248" s="3">
-        <v>20.4444029</v>
+        <v>20.791491600000001</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3116,10 +3116,10 @@
         <v>3</v>
       </c>
       <c r="B249" s="3">
-        <v>41.588593500000002</v>
+        <v>40.705502799999998</v>
       </c>
       <c r="C249" s="3">
-        <v>20.485208</v>
+        <v>20.791700500000001</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3127,10 +3127,10 @@
         <v>3</v>
       </c>
       <c r="B250" s="3">
-        <v>40.833285699999998</v>
+        <v>40.704983800000001</v>
       </c>
       <c r="C250" s="3">
-        <v>19.9020586</v>
+        <v>20.791447999999999</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3138,10 +3138,10 @@
         <v>3</v>
       </c>
       <c r="B251" s="3">
-        <v>40.833284999999997</v>
+        <v>40.617686800000001</v>
       </c>
       <c r="C251" s="3">
-        <v>19.9020449</v>
+        <v>20.7716612</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3149,10 +3149,10 @@
         <v>3</v>
       </c>
       <c r="B252" s="3">
-        <v>41.0583569</v>
+        <v>40.704856100000001</v>
       </c>
       <c r="C252" s="3">
-        <v>20.041430099999999</v>
+        <v>20.791373499999999</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3160,10 +3160,10 @@
         <v>3</v>
       </c>
       <c r="B253" s="3">
-        <v>41.053278300000002</v>
+        <v>40.7049685</v>
       </c>
       <c r="C253" s="3">
-        <v>20.0521733</v>
+        <v>20.7914374</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3171,10 +3171,10 @@
         <v>3</v>
       </c>
       <c r="B254" s="3">
-        <v>41.046672100000002</v>
+        <v>40.704788999999998</v>
       </c>
       <c r="C254" s="3">
-        <v>20.030432399999999</v>
+        <v>20.791447999999999</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3182,10 +3182,10 @@
         <v>3</v>
       </c>
       <c r="B255" s="3">
-        <v>41.048037000000001</v>
+        <v>42.357349300000003</v>
       </c>
       <c r="C255" s="3">
-        <v>20.027214399999998</v>
+        <v>20.0740762</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3193,10 +3193,10 @@
         <v>3</v>
       </c>
       <c r="B256" s="3">
-        <v>41.047044200000002</v>
+        <v>42.357340499999999</v>
       </c>
       <c r="C256" s="3">
-        <v>20.028777399999999</v>
+        <v>20.074083600000002</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3204,10 +3204,10 @@
         <v>3</v>
       </c>
       <c r="B257" s="3">
-        <v>41.0474107</v>
+        <v>40.704794900000003</v>
       </c>
       <c r="C257" s="3">
-        <v>20.028795899999999</v>
+        <v>20.7913055</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3215,10 +3215,10 @@
         <v>3</v>
       </c>
       <c r="B258" s="3">
-        <v>41.067193400000001</v>
+        <v>41.028359100000003</v>
       </c>
       <c r="C258" s="3">
-        <v>20.052333099999998</v>
+        <v>19.991171099999999</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3226,10 +3226,10 @@
         <v>3</v>
       </c>
       <c r="B259" s="3">
-        <v>41.052767099999997</v>
+        <v>40.7044158</v>
       </c>
       <c r="C259" s="3">
-        <v>20.051650599999999</v>
+        <v>20.791806900000001</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3237,10 +3237,10 @@
         <v>3</v>
       </c>
       <c r="B260" s="3">
-        <v>41.037975500000002</v>
+        <v>41.028087900000003</v>
       </c>
       <c r="C260" s="3">
-        <v>20.012066799999999</v>
+        <v>19.9908085</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3248,10 +3248,10 @@
         <v>3</v>
       </c>
       <c r="B261" s="3">
-        <v>41.046809400000001</v>
+        <v>40.713635799999999</v>
       </c>
       <c r="C261" s="3">
-        <v>20.0292767</v>
+        <v>19.619978799999998</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3259,10 +3259,10 @@
         <v>3</v>
       </c>
       <c r="B262" s="3">
-        <v>41.046804199999997</v>
+        <v>40.713635600000003</v>
       </c>
       <c r="C262" s="3">
-        <v>20.0292356</v>
+        <v>19.619980099999999</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3270,10 +3270,10 @@
         <v>3</v>
       </c>
       <c r="B263" s="3">
-        <v>41.047955600000002</v>
+        <v>40.713628900000003</v>
       </c>
       <c r="C263" s="3">
-        <v>20.027138000000001</v>
+        <v>19.619981899999999</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3281,10 +3281,10 @@
         <v>3</v>
       </c>
       <c r="B264" s="3">
-        <v>41.047182499999998</v>
+        <v>40.713571999999999</v>
       </c>
       <c r="C264" s="3">
-        <v>20.027951099999999</v>
+        <v>19.620115500000001</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3292,10 +3292,10 @@
         <v>3</v>
       </c>
       <c r="B265" s="3">
-        <v>41.063969999999998</v>
+        <v>40.706701799999998</v>
       </c>
       <c r="C265" s="3">
-        <v>20.052781700000001</v>
+        <v>19.619714800000001</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -3303,10 +3303,10 @@
         <v>3</v>
       </c>
       <c r="B266" s="3">
-        <v>42.003242399999998</v>
+        <v>40.706772299999997</v>
       </c>
       <c r="C266" s="3">
-        <v>19.613809100000001</v>
+        <v>19.6196372</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3314,10 +3314,10 @@
         <v>3</v>
       </c>
       <c r="B267" s="3">
-        <v>42.003361200000001</v>
+        <v>40.706692400000001</v>
       </c>
       <c r="C267" s="3">
-        <v>19.613809499999999</v>
+        <v>19.619727300000001</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3325,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="B268" s="3">
-        <v>42.003288699999999</v>
+        <v>40.7068023</v>
       </c>
       <c r="C268" s="3">
-        <v>19.613859699999999</v>
+        <v>19.619588400000001</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -3336,10 +3336,10 @@
         <v>3</v>
       </c>
       <c r="B269" s="3">
-        <v>42.006986099999999</v>
+        <v>42.362310999999998</v>
       </c>
       <c r="C269" s="3">
-        <v>19.6378609</v>
+        <v>20.0729486</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3347,10 +3347,10 @@
         <v>3</v>
       </c>
       <c r="B270" s="3">
-        <v>42.007011400000003</v>
+        <v>42.362290199999997</v>
       </c>
       <c r="C270" s="3">
-        <v>19.637915899999999</v>
+        <v>20.0729188</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -3358,10 +3358,10 @@
         <v>3</v>
       </c>
       <c r="B271" s="3">
-        <v>42.007016299999997</v>
+        <v>42.362548599999997</v>
       </c>
       <c r="C271" s="3">
-        <v>19.6378035</v>
+        <v>20.0736709</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -3369,10 +3369,10 @@
         <v>3</v>
       </c>
       <c r="B272" s="3">
-        <v>41.997470800000002</v>
+        <v>42.362232400000003</v>
       </c>
       <c r="C272" s="3">
-        <v>19.549841600000001</v>
+        <v>20.072844199999999</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -3380,10 +3380,10 @@
         <v>3</v>
       </c>
       <c r="B273" s="3">
-        <v>41.997435000000003</v>
+        <v>40.123410100000001</v>
       </c>
       <c r="C273" s="3">
-        <v>19.5499048</v>
+        <v>20.1118554</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -3391,10 +3391,10 @@
         <v>3</v>
       </c>
       <c r="B274" s="3">
-        <v>41.997448200000001</v>
+        <v>40.122214700000001</v>
       </c>
       <c r="C274" s="3">
-        <v>19.549888800000002</v>
+        <v>20.105774400000001</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -3402,10 +3402,10 @@
         <v>3</v>
       </c>
       <c r="B275" s="3">
-        <v>41.997463400000001</v>
+        <v>40.122556799999998</v>
       </c>
       <c r="C275" s="3">
-        <v>19.549926500000002</v>
+        <v>20.110113599999998</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -3413,10 +3413,10 @@
         <v>3</v>
       </c>
       <c r="B276" s="3">
-        <v>41.997457599999997</v>
+        <v>40.122549499999998</v>
       </c>
       <c r="C276" s="3">
-        <v>19.5498808</v>
+        <v>20.110094199999999</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -3424,10 +3424,10 @@
         <v>3</v>
       </c>
       <c r="B277" s="3">
-        <v>41.997348100000004</v>
+        <v>40.122547599999997</v>
       </c>
       <c r="C277" s="3">
-        <v>19.549879000000001</v>
+        <v>20.1100882</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -3435,10 +3435,10 @@
         <v>3</v>
       </c>
       <c r="B278" s="3">
-        <v>41.997391100000002</v>
+        <v>40.701578300000001</v>
       </c>
       <c r="C278" s="3">
-        <v>19.5498838</v>
+        <v>19.617272</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -3446,10 +3446,10 @@
         <v>3</v>
       </c>
       <c r="B279" s="3">
-        <v>41.997440599999997</v>
+        <v>40.701530200000001</v>
       </c>
       <c r="C279" s="3">
-        <v>19.5498826</v>
+        <v>19.617308300000001</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -3457,10 +3457,10 @@
         <v>3</v>
       </c>
       <c r="B280" s="3">
-        <v>41.978000899999998</v>
+        <v>40.707910900000002</v>
       </c>
       <c r="C280" s="3">
-        <v>19.6299104</v>
+        <v>19.639635800000001</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -3468,10 +3468,10 @@
         <v>3</v>
       </c>
       <c r="B281" s="3">
-        <v>41.9780205</v>
+        <v>40.707915800000002</v>
       </c>
       <c r="C281" s="3">
-        <v>19.629951899999998</v>
+        <v>19.6395126</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -3479,10 +3479,10 @@
         <v>3</v>
       </c>
       <c r="B282" s="3">
-        <v>41.977950399999997</v>
+        <v>40.707695800000003</v>
       </c>
       <c r="C282" s="3">
-        <v>19.630051699999999</v>
+        <v>19.639659000000002</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -3490,10 +3490,10 @@
         <v>3</v>
       </c>
       <c r="B283" s="3">
-        <v>41.977942400000003</v>
+        <v>40.706020799999997</v>
       </c>
       <c r="C283" s="3">
-        <v>19.6300211</v>
+        <v>19.639999100000001</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -3501,10 +3501,10 @@
         <v>3</v>
       </c>
       <c r="B284" s="3">
-        <v>41.977897200000001</v>
+        <v>40.1240138</v>
       </c>
       <c r="C284" s="3">
-        <v>19.630003500000001</v>
+        <v>20.1357748</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -3512,10 +3512,10 @@
         <v>3</v>
       </c>
       <c r="B285" s="3">
-        <v>41.977890600000002</v>
+        <v>40.699875400000003</v>
       </c>
       <c r="C285" s="3">
-        <v>19.630082699999999</v>
+        <v>19.6101435</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -3523,10 +3523,10 @@
         <v>3</v>
       </c>
       <c r="B286" s="3">
-        <v>41.966019899999999</v>
+        <v>40.700781900000003</v>
       </c>
       <c r="C286" s="3">
-        <v>19.6371605</v>
+        <v>19.612272000000001</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -3534,10 +3534,10 @@
         <v>3</v>
       </c>
       <c r="B287" s="3">
-        <v>41.960501399999998</v>
+        <v>40.719981300000001</v>
       </c>
       <c r="C287" s="3">
-        <v>19.636326100000002</v>
+        <v>19.6205645</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -3545,10 +3545,10 @@
         <v>3</v>
       </c>
       <c r="B288" s="3">
-        <v>41.960837699999999</v>
+        <v>40.721211199999999</v>
       </c>
       <c r="C288" s="3">
-        <v>19.6368799</v>
+        <v>19.621170599999999</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -3556,10 +3556,10 @@
         <v>3</v>
       </c>
       <c r="B289" s="3">
-        <v>41.9610725</v>
+        <v>40.723165199999997</v>
       </c>
       <c r="C289" s="3">
-        <v>19.636762600000001</v>
+        <v>19.621562600000001</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -3567,10 +3567,10 @@
         <v>3</v>
       </c>
       <c r="B290" s="3">
-        <v>41.960927499999997</v>
+        <v>42.163769799999997</v>
       </c>
       <c r="C290" s="3">
-        <v>19.636730700000001</v>
+        <v>19.4654448</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -3578,10 +3578,10 @@
         <v>3</v>
       </c>
       <c r="B291" s="3">
-        <v>41.977901099999997</v>
+        <v>40.723148199999997</v>
       </c>
       <c r="C291" s="3">
-        <v>19.630028200000002</v>
+        <v>19.6215419</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -3589,10 +3589,10 @@
         <v>3</v>
       </c>
       <c r="B292" s="3">
-        <v>41.977848100000003</v>
+        <v>40.085417300000003</v>
       </c>
       <c r="C292" s="3">
-        <v>19.6300536</v>
+        <v>20.1426938</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -3600,10 +3600,10 @@
         <v>3</v>
       </c>
       <c r="B293" s="3">
-        <v>41.0634637</v>
+        <v>40.085411999999998</v>
       </c>
       <c r="C293" s="3">
-        <v>19.976870600000002</v>
+        <v>20.142689300000001</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -3611,10 +3611,10 @@
         <v>3</v>
       </c>
       <c r="B294" s="3">
-        <v>41.063736900000002</v>
+        <v>40.085411999999998</v>
       </c>
       <c r="C294" s="3">
-        <v>19.976755600000001</v>
+        <v>20.142689300000001</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -3622,10 +3622,10 @@
         <v>3</v>
       </c>
       <c r="B295" s="3">
-        <v>41.063870600000001</v>
+        <v>40.085411999999998</v>
       </c>
       <c r="C295" s="3">
-        <v>19.976452900000002</v>
+        <v>20.142689300000001</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -3633,10 +3633,10 @@
         <v>3</v>
       </c>
       <c r="B296" s="3">
-        <v>41.066156399999997</v>
+        <v>40.0803966</v>
       </c>
       <c r="C296" s="3">
-        <v>19.978925700000001</v>
+        <v>20.138464599999999</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -3644,10 +3644,10 @@
         <v>3</v>
       </c>
       <c r="B297" s="3">
-        <v>41.066741700000001</v>
+        <v>40.971039699999999</v>
       </c>
       <c r="C297" s="3">
-        <v>19.977825800000002</v>
+        <v>20.004928100000001</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -3655,10 +3655,10 @@
         <v>3</v>
       </c>
       <c r="B298" s="3">
-        <v>41.065772199999998</v>
+        <v>40.983379999999997</v>
       </c>
       <c r="C298" s="3">
-        <v>19.978327</v>
+        <v>20.0097433</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -3666,10 +3666,10 @@
         <v>3</v>
       </c>
       <c r="B299" s="3">
-        <v>41.064894299999999</v>
+        <v>41.003016700000003</v>
       </c>
       <c r="C299" s="3">
-        <v>19.978616299999999</v>
+        <v>20.017828099999999</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -3677,10 +3677,10 @@
         <v>3</v>
       </c>
       <c r="B300" s="3">
-        <v>41.065923499999997</v>
+        <v>41.015389999999996</v>
       </c>
       <c r="C300" s="3">
-        <v>19.978878099999999</v>
+        <v>20.0045033</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -3688,10 +3688,10 @@
         <v>3</v>
       </c>
       <c r="B301" s="3">
-        <v>41.065883599999999</v>
+        <v>40.125408999999998</v>
       </c>
       <c r="C301" s="3">
-        <v>19.978474800000001</v>
+        <v>20.136428299999999</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -3699,10 +3699,10 @@
         <v>3</v>
       </c>
       <c r="B302" s="3">
-        <v>42.006983400000003</v>
+        <v>40.125190500000002</v>
       </c>
       <c r="C302" s="3">
-        <v>19.637996999999999</v>
+        <v>20.136147699999999</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -3710,10 +3710,10 @@
         <v>3</v>
       </c>
       <c r="B303" s="3">
-        <v>41.960529000000001</v>
+        <v>40.125254699999999</v>
       </c>
       <c r="C303" s="3">
-        <v>19.636325200000002</v>
+        <v>20.136188700000002</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -3721,10 +3721,10 @@
         <v>3</v>
       </c>
       <c r="B304" s="3">
-        <v>41.960741300000002</v>
+        <v>40.125625300000003</v>
       </c>
       <c r="C304" s="3">
-        <v>19.637025999999999</v>
+        <v>20.136190599999999</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -3732,10 +3732,10 @@
         <v>3</v>
       </c>
       <c r="B305" s="3">
-        <v>41.961001000000003</v>
+        <v>40.1256561</v>
       </c>
       <c r="C305" s="3">
-        <v>19.636742600000002</v>
+        <v>20.136201199999999</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -3743,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="B306" s="3">
-        <v>41.9610603</v>
+        <v>40.847952599999999</v>
       </c>
       <c r="C306" s="3">
-        <v>19.6367856</v>
+        <v>19.6384829</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -3754,10 +3754,10 @@
         <v>3</v>
       </c>
       <c r="B307" s="3">
-        <v>41.977593900000002</v>
+        <v>40.858810900000002</v>
       </c>
       <c r="C307" s="3">
-        <v>19.628239799999999</v>
+        <v>19.6468189</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -3765,10 +3765,10 @@
         <v>3</v>
       </c>
       <c r="B308" s="3">
-        <v>41.977579400000003</v>
+        <v>40.146357500000001</v>
       </c>
       <c r="C308" s="3">
-        <v>19.628174900000001</v>
+        <v>20.0885335</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -3776,10 +3776,10 @@
         <v>3</v>
       </c>
       <c r="B309" s="3">
-        <v>41.977645699999997</v>
+        <v>40.145546199999998</v>
       </c>
       <c r="C309" s="3">
-        <v>19.628126200000001</v>
+        <v>20.089397000000002</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -3787,10 +3787,10 @@
         <v>3</v>
       </c>
       <c r="B310" s="3">
-        <v>41.977623800000003</v>
+        <v>40.141613</v>
       </c>
       <c r="C310" s="3">
-        <v>19.628193199999998</v>
+        <v>20.088227100000001</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -3798,10 +3798,10 @@
         <v>3</v>
       </c>
       <c r="B311" s="3">
-        <v>41.977569799999998</v>
+        <v>40.1443029</v>
       </c>
       <c r="C311" s="3">
-        <v>19.628201099999998</v>
+        <v>20.088320499999998</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -3809,10 +3809,10 @@
         <v>3</v>
       </c>
       <c r="B312" s="3">
-        <v>41.977555799999998</v>
+        <v>40.144500399999998</v>
       </c>
       <c r="C312" s="3">
-        <v>19.6282277</v>
+        <v>20.089192499999999</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -3820,10 +3820,10 @@
         <v>3</v>
       </c>
       <c r="B313" s="3">
-        <v>41.977525200000002</v>
+        <v>40.146357000000002</v>
       </c>
       <c r="C313" s="3">
-        <v>19.628163799999999</v>
+        <v>20.0885183</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -3831,10 +3831,10 @@
         <v>3</v>
       </c>
       <c r="B314" s="3">
-        <v>41.977598800000003</v>
+        <v>40.145260700000001</v>
       </c>
       <c r="C314" s="3">
-        <v>19.628169499999998</v>
+        <v>20.0883352</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -3842,10 +3842,10 @@
         <v>3</v>
       </c>
       <c r="B315" s="3">
-        <v>41.062847400000003</v>
+        <v>40.832867899999997</v>
       </c>
       <c r="C315" s="3">
-        <v>19.989694499999999</v>
+        <v>19.5192318</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -3853,10 +3853,10 @@
         <v>3</v>
       </c>
       <c r="B316" s="3">
-        <v>41.066805700000003</v>
+        <v>40.984084799999998</v>
       </c>
       <c r="C316" s="3">
-        <v>19.982392000000001</v>
+        <v>20.010112599999999</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -3864,10 +3864,10 @@
         <v>3</v>
       </c>
       <c r="B317" s="3">
-        <v>41.069335000000002</v>
+        <v>40.968437899999998</v>
       </c>
       <c r="C317" s="3">
-        <v>19.984805000000001</v>
+        <v>20.004564200000001</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -3875,10 +3875,10 @@
         <v>3</v>
       </c>
       <c r="B318" s="3">
-        <v>41.069341999999999</v>
+        <v>40.958093900000001</v>
       </c>
       <c r="C318" s="3">
-        <v>19.984977300000001</v>
+        <v>20.004059900000001</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -3886,10 +3886,10 @@
         <v>3</v>
       </c>
       <c r="B319" s="3">
-        <v>41.0698966</v>
+        <v>40.8251633</v>
       </c>
       <c r="C319" s="3">
-        <v>19.985111199999999</v>
+        <v>19.501712900000001</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -3897,10 +3897,10 @@
         <v>3</v>
       </c>
       <c r="B320" s="3">
-        <v>41.0710658</v>
+        <v>40.825159300000003</v>
       </c>
       <c r="C320" s="3">
-        <v>19.985009600000001</v>
+        <v>19.501710500000002</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -3908,10 +3908,10 @@
         <v>3</v>
       </c>
       <c r="B321" s="3">
-        <v>42.048915200000003</v>
+        <v>40.819353700000001</v>
       </c>
       <c r="C321" s="3">
-        <v>19.568248799999999</v>
+        <v>19.501025800000001</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -3919,10 +3919,10 @@
         <v>3</v>
       </c>
       <c r="B322" s="3">
-        <v>42.048879900000003</v>
+        <v>40.816021599999999</v>
       </c>
       <c r="C322" s="3">
-        <v>19.5681832</v>
+        <v>19.5005454</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -3930,10 +3930,10 @@
         <v>3</v>
       </c>
       <c r="B323" s="3">
-        <v>42.033742500000002</v>
+        <v>40.816017700000003</v>
       </c>
       <c r="C323" s="3">
-        <v>19.568710899999999</v>
+        <v>19.500545200000001</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -3941,10 +3941,10 @@
         <v>3</v>
       </c>
       <c r="B324" s="3">
-        <v>42.048942599999997</v>
+        <v>40.816024499999997</v>
       </c>
       <c r="C324" s="3">
-        <v>19.568131399999999</v>
+        <v>19.5004867</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -3952,10 +3952,10 @@
         <v>3</v>
       </c>
       <c r="B325" s="3">
-        <v>42.048980499999999</v>
+        <v>40.815624300000003</v>
       </c>
       <c r="C325" s="3">
-        <v>19.568137700000001</v>
+        <v>19.500920399999998</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -3963,10 +3963,10 @@
         <v>3</v>
       </c>
       <c r="B326" s="3">
-        <v>42.033753400000002</v>
+        <v>40.816299399999998</v>
       </c>
       <c r="C326" s="3">
-        <v>19.568732600000001</v>
+        <v>19.5016237</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -3974,10 +3974,10 @@
         <v>3</v>
       </c>
       <c r="B327" s="3">
-        <v>42.027567699999999</v>
+        <v>40.815844400000003</v>
       </c>
       <c r="C327" s="3">
-        <v>19.548205200000002</v>
+        <v>19.499451499999999</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -3985,10 +3985,10 @@
         <v>3</v>
       </c>
       <c r="B328" s="3">
-        <v>42.027596099999997</v>
+        <v>40.816145400000003</v>
       </c>
       <c r="C328" s="3">
-        <v>19.548204399999999</v>
+        <v>19.4993044</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -3996,10 +3996,10 @@
         <v>3</v>
       </c>
       <c r="B329" s="3">
-        <v>42.028405399999997</v>
+        <v>40.816376900000002</v>
       </c>
       <c r="C329" s="3">
-        <v>19.548815999999999</v>
+        <v>19.499282099999999</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4007,10 +4007,10 @@
         <v>3</v>
       </c>
       <c r="B330" s="3">
-        <v>41.047564899999998</v>
+        <v>40.816374099999997</v>
       </c>
       <c r="C330" s="3">
-        <v>20.042275100000001</v>
+        <v>19.499950599999998</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4018,10 +4018,10 @@
         <v>3</v>
       </c>
       <c r="B331" s="3">
-        <v>41.047779499999997</v>
+        <v>40.145259699999997</v>
       </c>
       <c r="C331" s="3">
-        <v>20.042402899999999</v>
+        <v>20.0883316</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4029,10 +4029,10 @@
         <v>3</v>
       </c>
       <c r="B332" s="3">
-        <v>41.072875500000002</v>
+        <v>41.024334899999999</v>
       </c>
       <c r="C332" s="3">
-        <v>20.041034799999998</v>
+        <v>19.990079000000001</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4040,10 +4040,10 @@
         <v>3</v>
       </c>
       <c r="B333" s="3">
-        <v>41.074863299999997</v>
+        <v>40.992705899999997</v>
       </c>
       <c r="C333" s="3">
-        <v>20.0440881</v>
+        <v>20.008908900000002</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4051,10 +4051,10 @@
         <v>3</v>
       </c>
       <c r="B334" s="3">
-        <v>41.075422500000002</v>
+        <v>40.993041300000002</v>
       </c>
       <c r="C334" s="3">
-        <v>20.0454416</v>
+        <v>20.009329900000001</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4062,10 +4062,10 @@
         <v>3</v>
       </c>
       <c r="B335" s="3">
-        <v>41.075205500000003</v>
+        <v>40.992775199999997</v>
       </c>
       <c r="C335" s="3">
-        <v>20.044734600000002</v>
+        <v>20.009053399999999</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4073,10 +4073,10 @@
         <v>3</v>
       </c>
       <c r="B336" s="3">
-        <v>41.074826899999998</v>
+        <v>40.992753100000002</v>
       </c>
       <c r="C336" s="3">
-        <v>20.0449196</v>
+        <v>20.008929500000001</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4084,10 +4084,10 @@
         <v>3</v>
       </c>
       <c r="B337" s="3">
-        <v>41.047287599999997</v>
+        <v>41.697348599999998</v>
       </c>
       <c r="C337" s="3">
-        <v>20.041661399999999</v>
+        <v>20.3652677</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4095,10 +4095,10 @@
         <v>3</v>
       </c>
       <c r="B338" s="3">
-        <v>41.047760400000001</v>
+        <v>41.6974752</v>
       </c>
       <c r="C338" s="3">
-        <v>20.042171199999999</v>
+        <v>20.365712200000001</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4106,10 +4106,10 @@
         <v>3</v>
       </c>
       <c r="B339" s="3">
-        <v>41.072071700000002</v>
+        <v>41.697344899999997</v>
       </c>
       <c r="C339" s="3">
-        <v>20.041710699999999</v>
+        <v>20.3652804</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4117,10 +4117,10 @@
         <v>3</v>
       </c>
       <c r="B340" s="3">
-        <v>41.072356499999998</v>
+        <v>41.028320399999998</v>
       </c>
       <c r="C340" s="3">
-        <v>20.040371700000001</v>
+        <v>19.991267400000002</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4128,10 +4128,10 @@
         <v>3</v>
       </c>
       <c r="B341" s="3">
-        <v>41.075425500000001</v>
+        <v>41.6494499</v>
       </c>
       <c r="C341" s="3">
-        <v>20.045501000000002</v>
+        <v>20.457481600000001</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4139,10 +4139,10 @@
         <v>3</v>
       </c>
       <c r="B342" s="3">
-        <v>41.075346099999997</v>
+        <v>41.6494097</v>
       </c>
       <c r="C342" s="3">
-        <v>20.0453467</v>
+        <v>20.457399500000001</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4150,10 +4150,10 @@
         <v>3</v>
       </c>
       <c r="B343" s="3">
-        <v>41.074932799999999</v>
+        <v>41.6560354</v>
       </c>
       <c r="C343" s="3">
-        <v>20.044976500000001</v>
+        <v>20.434201300000002</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4161,10 +4161,10 @@
         <v>3</v>
       </c>
       <c r="B344" s="3">
-        <v>41.078218900000003</v>
+        <v>41.608505999999998</v>
       </c>
       <c r="C344" s="3">
-        <v>20.040419700000001</v>
+        <v>20.470987600000001</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4172,10 +4172,10 @@
         <v>3</v>
       </c>
       <c r="B345" s="3">
-        <v>41.077992700000003</v>
+        <v>41.654359100000001</v>
       </c>
       <c r="C345" s="3">
-        <v>20.038893300000002</v>
+        <v>20.436582000000001</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4183,10 +4183,10 @@
         <v>3</v>
       </c>
       <c r="B346" s="3">
-        <v>41.077283600000001</v>
+        <v>41.654448299999999</v>
       </c>
       <c r="C346" s="3">
-        <v>20.039661800000001</v>
+        <v>20.43609</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4194,10 +4194,10 @@
         <v>3</v>
       </c>
       <c r="B347" s="3">
-        <v>41.077538199999999</v>
+        <v>41.654629999999997</v>
       </c>
       <c r="C347" s="3">
-        <v>20.040127900000002</v>
+        <v>20.435296699999999</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -4205,10 +4205,10 @@
         <v>3</v>
       </c>
       <c r="B348" s="3">
-        <v>41.0788777</v>
+        <v>41.654047800000001</v>
       </c>
       <c r="C348" s="3">
-        <v>20.039146299999999</v>
+        <v>20.4345228</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -4216,10 +4216,10 @@
         <v>3</v>
       </c>
       <c r="B349" s="3">
-        <v>41.077751599999999</v>
+        <v>41.654052999999998</v>
       </c>
       <c r="C349" s="3">
-        <v>20.039908</v>
+        <v>20.434523800000001</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4227,10 +4227,10 @@
         <v>3</v>
       </c>
       <c r="B350" s="3">
-        <v>41.0768676</v>
+        <v>41.613504399999997</v>
       </c>
       <c r="C350" s="3">
-        <v>20.038896000000001</v>
+        <v>20.4782586</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4238,10 +4238,10 @@
         <v>3</v>
       </c>
       <c r="B351" s="3">
-        <v>41.077204100000003</v>
+        <v>41.5688575</v>
       </c>
       <c r="C351" s="3">
-        <v>20.0395121</v>
+        <v>20.4444029</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4249,10 +4249,10 @@
         <v>3</v>
       </c>
       <c r="B352" s="3">
-        <v>41.077629700000003</v>
+        <v>41.588593500000002</v>
       </c>
       <c r="C352" s="3">
-        <v>20.040025199999999</v>
+        <v>20.485208</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4260,10 +4260,10 @@
         <v>3</v>
       </c>
       <c r="B353" s="3">
-        <v>41.078769000000001</v>
+        <v>40.833285699999998</v>
       </c>
       <c r="C353" s="3">
-        <v>20.038345899999999</v>
+        <v>19.9020586</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4271,10 +4271,10 @@
         <v>3</v>
       </c>
       <c r="B354" s="3">
-        <v>42.027619700000002</v>
+        <v>40.833284999999997</v>
       </c>
       <c r="C354" s="3">
-        <v>19.548174299999999</v>
+        <v>19.9020449</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -4282,10 +4282,10 @@
         <v>3</v>
       </c>
       <c r="B355" s="3">
-        <v>42.027496599999999</v>
+        <v>41.0583569</v>
       </c>
       <c r="C355" s="3">
-        <v>19.548194500000001</v>
+        <v>20.041430099999999</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -4293,10 +4293,10 @@
         <v>3</v>
       </c>
       <c r="B356" s="3">
-        <v>42.0283807</v>
+        <v>41.053278300000002</v>
       </c>
       <c r="C356" s="3">
-        <v>19.548843000000002</v>
+        <v>20.0521733</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -4304,10 +4304,10 @@
         <v>3</v>
       </c>
       <c r="B357" s="3">
-        <v>42.040329300000003</v>
+        <v>41.046672100000002</v>
       </c>
       <c r="C357" s="3">
-        <v>19.5258304</v>
+        <v>20.030432399999999</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -4315,10 +4315,10 @@
         <v>3</v>
       </c>
       <c r="B358" s="3">
-        <v>42.039446900000002</v>
+        <v>41.048037000000001</v>
       </c>
       <c r="C358" s="3">
-        <v>19.5244815</v>
+        <v>20.027214399999998</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -4326,10 +4326,10 @@
         <v>3</v>
       </c>
       <c r="B359" s="3">
-        <v>42.040169800000001</v>
+        <v>41.047044200000002</v>
       </c>
       <c r="C359" s="3">
-        <v>19.5228927</v>
+        <v>20.028777399999999</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4337,10 +4337,10 @@
         <v>3</v>
       </c>
       <c r="B360" s="3">
-        <v>42.040343300000004</v>
+        <v>41.0474107</v>
       </c>
       <c r="C360" s="3">
-        <v>19.522110000000001</v>
+        <v>20.028795899999999</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -4348,10 +4348,10 @@
         <v>3</v>
       </c>
       <c r="B361" s="3">
-        <v>42.040287399999997</v>
+        <v>41.067193400000001</v>
       </c>
       <c r="C361" s="3">
-        <v>19.525865799999998</v>
+        <v>20.052333099999998</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -4359,10 +4359,10 @@
         <v>3</v>
       </c>
       <c r="B362" s="3">
-        <v>42.039496300000003</v>
+        <v>41.052767099999997</v>
       </c>
       <c r="C362" s="3">
-        <v>19.524458299999999</v>
+        <v>20.051650599999999</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -4370,10 +4370,10 @@
         <v>3</v>
       </c>
       <c r="B363" s="3">
-        <v>42.040169499999998</v>
+        <v>41.037975500000002</v>
       </c>
       <c r="C363" s="3">
-        <v>19.523026600000001</v>
+        <v>20.012066799999999</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -4381,10 +4381,10 @@
         <v>3</v>
       </c>
       <c r="B364" s="3">
-        <v>42.040445300000002</v>
+        <v>41.046809400000001</v>
       </c>
       <c r="C364" s="3">
-        <v>19.522058600000001</v>
+        <v>20.0292767</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -4392,10 +4392,10 @@
         <v>3</v>
       </c>
       <c r="B365" s="3">
-        <v>41.360628800000001</v>
+        <v>41.046804199999997</v>
       </c>
       <c r="C365" s="3">
-        <v>19.5641301</v>
+        <v>20.0292356</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -4403,9 +4403,1142 @@
         <v>3</v>
       </c>
       <c r="B366" s="3">
+        <v>41.047955600000002</v>
+      </c>
+      <c r="C366" s="3">
+        <v>20.027138000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B367">
+        <v>41.047182499999998</v>
+      </c>
+      <c r="C367">
+        <v>20.027951099999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B368">
+        <v>41.063969999999998</v>
+      </c>
+      <c r="C368">
+        <v>20.052781700000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B369">
+        <v>42.003242399999998</v>
+      </c>
+      <c r="C369">
+        <v>19.613809100000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B370">
+        <v>42.003361200000001</v>
+      </c>
+      <c r="C370">
+        <v>19.613809499999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B371">
+        <v>42.003288699999999</v>
+      </c>
+      <c r="C371">
+        <v>19.613859699999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B372">
+        <v>42.006986099999999</v>
+      </c>
+      <c r="C372">
+        <v>19.6378609</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B373">
+        <v>42.007011400000003</v>
+      </c>
+      <c r="C373">
+        <v>19.637915899999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B374">
+        <v>42.007016299999997</v>
+      </c>
+      <c r="C374">
+        <v>19.6378035</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B375">
+        <v>41.997470800000002</v>
+      </c>
+      <c r="C375">
+        <v>19.549841600000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B376">
+        <v>41.997435000000003</v>
+      </c>
+      <c r="C376">
+        <v>19.5499048</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B377">
+        <v>41.997448200000001</v>
+      </c>
+      <c r="C377">
+        <v>19.549888800000002</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B378">
+        <v>41.997463400000001</v>
+      </c>
+      <c r="C378">
+        <v>19.549926500000002</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B379">
+        <v>41.997457599999997</v>
+      </c>
+      <c r="C379">
+        <v>19.5498808</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B380">
+        <v>41.997348100000004</v>
+      </c>
+      <c r="C380">
+        <v>19.549879000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B381">
+        <v>41.997391100000002</v>
+      </c>
+      <c r="C381">
+        <v>19.5498838</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B382">
+        <v>41.997440599999997</v>
+      </c>
+      <c r="C382">
+        <v>19.5498826</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B383">
+        <v>41.978000899999998</v>
+      </c>
+      <c r="C383">
+        <v>19.6299104</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B384">
+        <v>41.9780205</v>
+      </c>
+      <c r="C384">
+        <v>19.629951899999998</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B385">
+        <v>41.977950399999997</v>
+      </c>
+      <c r="C385">
+        <v>19.630051699999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B386">
+        <v>41.977942400000003</v>
+      </c>
+      <c r="C386">
+        <v>19.6300211</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B387">
+        <v>41.977897200000001</v>
+      </c>
+      <c r="C387">
+        <v>19.630003500000001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B388">
+        <v>41.977890600000002</v>
+      </c>
+      <c r="C388">
+        <v>19.630082699999999</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B389">
+        <v>41.966019899999999</v>
+      </c>
+      <c r="C389">
+        <v>19.6371605</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B390">
+        <v>41.960501399999998</v>
+      </c>
+      <c r="C390">
+        <v>19.636326100000002</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B391">
+        <v>41.960837699999999</v>
+      </c>
+      <c r="C391">
+        <v>19.6368799</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B392">
+        <v>41.9610725</v>
+      </c>
+      <c r="C392">
+        <v>19.636762600000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B393">
+        <v>41.960927499999997</v>
+      </c>
+      <c r="C393">
+        <v>19.636730700000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B394">
+        <v>41.977901099999997</v>
+      </c>
+      <c r="C394">
+        <v>19.630028200000002</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B395">
+        <v>41.977848100000003</v>
+      </c>
+      <c r="C395">
+        <v>19.6300536</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B396">
+        <v>41.0634637</v>
+      </c>
+      <c r="C396">
+        <v>19.976870600000002</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B397">
+        <v>41.063736900000002</v>
+      </c>
+      <c r="C397">
+        <v>19.976755600000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B398">
+        <v>41.063870600000001</v>
+      </c>
+      <c r="C398">
+        <v>19.976452900000002</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B399">
+        <v>41.066156399999997</v>
+      </c>
+      <c r="C399">
+        <v>19.978925700000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B400">
+        <v>41.066741700000001</v>
+      </c>
+      <c r="C400">
+        <v>19.977825800000002</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B401">
+        <v>41.065772199999998</v>
+      </c>
+      <c r="C401">
+        <v>19.978327</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B402">
+        <v>41.064894299999999</v>
+      </c>
+      <c r="C402">
+        <v>19.978616299999999</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B403">
+        <v>41.065923499999997</v>
+      </c>
+      <c r="C403">
+        <v>19.978878099999999</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B404">
+        <v>41.065883599999999</v>
+      </c>
+      <c r="C404">
+        <v>19.978474800000001</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B405">
+        <v>42.006983400000003</v>
+      </c>
+      <c r="C405">
+        <v>19.637996999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B406">
+        <v>41.960529000000001</v>
+      </c>
+      <c r="C406">
+        <v>19.636325200000002</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B407">
+        <v>41.960741300000002</v>
+      </c>
+      <c r="C407">
+        <v>19.637025999999999</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B408">
+        <v>41.961001000000003</v>
+      </c>
+      <c r="C408">
+        <v>19.636742600000002</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B409">
+        <v>41.9610603</v>
+      </c>
+      <c r="C409">
+        <v>19.6367856</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B410">
+        <v>41.977593900000002</v>
+      </c>
+      <c r="C410">
+        <v>19.628239799999999</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B411">
+        <v>41.977579400000003</v>
+      </c>
+      <c r="C411">
+        <v>19.628174900000001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B412">
+        <v>41.977645699999997</v>
+      </c>
+      <c r="C412">
+        <v>19.628126200000001</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B413">
+        <v>41.977623800000003</v>
+      </c>
+      <c r="C413">
+        <v>19.628193199999998</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B414">
+        <v>41.977569799999998</v>
+      </c>
+      <c r="C414">
+        <v>19.628201099999998</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B415">
+        <v>41.977555799999998</v>
+      </c>
+      <c r="C415">
+        <v>19.6282277</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B416">
+        <v>41.977525200000002</v>
+      </c>
+      <c r="C416">
+        <v>19.628163799999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B417">
+        <v>41.977598800000003</v>
+      </c>
+      <c r="C417">
+        <v>19.628169499999998</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B418">
+        <v>41.062847400000003</v>
+      </c>
+      <c r="C418">
+        <v>19.989694499999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B419">
+        <v>41.066805700000003</v>
+      </c>
+      <c r="C419">
+        <v>19.982392000000001</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B420">
+        <v>41.069335000000002</v>
+      </c>
+      <c r="C420">
+        <v>19.984805000000001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B421">
+        <v>41.069341999999999</v>
+      </c>
+      <c r="C421">
+        <v>19.984977300000001</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B422">
+        <v>41.0698966</v>
+      </c>
+      <c r="C422">
+        <v>19.985111199999999</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B423">
+        <v>41.0710658</v>
+      </c>
+      <c r="C423">
+        <v>19.985009600000001</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B424">
+        <v>42.048915200000003</v>
+      </c>
+      <c r="C424">
+        <v>19.568248799999999</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B425">
+        <v>42.048879900000003</v>
+      </c>
+      <c r="C425">
+        <v>19.5681832</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B426">
+        <v>42.033742500000002</v>
+      </c>
+      <c r="C426">
+        <v>19.568710899999999</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B427">
+        <v>42.048942599999997</v>
+      </c>
+      <c r="C427">
+        <v>19.568131399999999</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B428">
+        <v>42.048980499999999</v>
+      </c>
+      <c r="C428">
+        <v>19.568137700000001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B429">
+        <v>42.033753400000002</v>
+      </c>
+      <c r="C429">
+        <v>19.568732600000001</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B430">
+        <v>42.027567699999999</v>
+      </c>
+      <c r="C430">
+        <v>19.548205200000002</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B431">
+        <v>42.027596099999997</v>
+      </c>
+      <c r="C431">
+        <v>19.548204399999999</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B432">
+        <v>42.028405399999997</v>
+      </c>
+      <c r="C432">
+        <v>19.548815999999999</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B433">
+        <v>41.047564899999998</v>
+      </c>
+      <c r="C433">
+        <v>20.042275100000001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B434">
+        <v>41.047779499999997</v>
+      </c>
+      <c r="C434">
+        <v>20.042402899999999</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B435">
+        <v>41.072875500000002</v>
+      </c>
+      <c r="C435">
+        <v>20.041034799999998</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B436">
+        <v>41.074863299999997</v>
+      </c>
+      <c r="C436">
+        <v>20.0440881</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B437">
+        <v>41.075422500000002</v>
+      </c>
+      <c r="C437">
+        <v>20.0454416</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B438">
+        <v>41.075205500000003</v>
+      </c>
+      <c r="C438">
+        <v>20.044734600000002</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B439">
+        <v>41.074826899999998</v>
+      </c>
+      <c r="C439">
+        <v>20.0449196</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B440">
+        <v>41.047287599999997</v>
+      </c>
+      <c r="C440">
+        <v>20.041661399999999</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B441">
+        <v>41.047760400000001</v>
+      </c>
+      <c r="C441">
+        <v>20.042171199999999</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B442">
+        <v>41.072071700000002</v>
+      </c>
+      <c r="C442">
+        <v>20.041710699999999</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B443">
+        <v>41.072356499999998</v>
+      </c>
+      <c r="C443">
+        <v>20.040371700000001</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B444">
+        <v>41.075425500000001</v>
+      </c>
+      <c r="C444">
+        <v>20.045501000000002</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B445">
+        <v>41.075346099999997</v>
+      </c>
+      <c r="C445">
+        <v>20.0453467</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B446">
+        <v>41.074932799999999</v>
+      </c>
+      <c r="C446">
+        <v>20.044976500000001</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B447">
+        <v>41.078218900000003</v>
+      </c>
+      <c r="C447">
+        <v>20.040419700000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B448">
+        <v>41.077992700000003</v>
+      </c>
+      <c r="C448">
+        <v>20.038893300000002</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B449">
+        <v>41.077283600000001</v>
+      </c>
+      <c r="C449">
+        <v>20.039661800000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B450">
+        <v>41.077538199999999</v>
+      </c>
+      <c r="C450">
+        <v>20.040127900000002</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B451">
+        <v>41.0788777</v>
+      </c>
+      <c r="C451">
+        <v>20.039146299999999</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B452">
+        <v>41.077751599999999</v>
+      </c>
+      <c r="C452">
+        <v>20.039908</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B453">
+        <v>41.0768676</v>
+      </c>
+      <c r="C453">
+        <v>20.038896000000001</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B454">
+        <v>41.077204100000003</v>
+      </c>
+      <c r="C454">
+        <v>20.0395121</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B455">
+        <v>41.077629700000003</v>
+      </c>
+      <c r="C455">
+        <v>20.040025199999999</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B456">
+        <v>41.078769000000001</v>
+      </c>
+      <c r="C456">
+        <v>20.038345899999999</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B457">
+        <v>42.027619700000002</v>
+      </c>
+      <c r="C457">
+        <v>19.548174299999999</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B458">
+        <v>42.027496599999999</v>
+      </c>
+      <c r="C458">
+        <v>19.548194500000001</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B459">
+        <v>42.0283807</v>
+      </c>
+      <c r="C459">
+        <v>19.548843000000002</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B460">
+        <v>42.040329300000003</v>
+      </c>
+      <c r="C460">
+        <v>19.5258304</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B461">
+        <v>42.039446900000002</v>
+      </c>
+      <c r="C461">
+        <v>19.5244815</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B462">
+        <v>42.040169800000001</v>
+      </c>
+      <c r="C462">
+        <v>19.5228927</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B463">
+        <v>42.040343300000004</v>
+      </c>
+      <c r="C463">
+        <v>19.522110000000001</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B464">
+        <v>42.040287399999997</v>
+      </c>
+      <c r="C464">
+        <v>19.525865799999998</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B465">
+        <v>42.039496300000003</v>
+      </c>
+      <c r="C465">
+        <v>19.524458299999999</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B466">
+        <v>42.040169499999998</v>
+      </c>
+      <c r="C466">
+        <v>19.523026600000001</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B467">
+        <v>42.040445300000002</v>
+      </c>
+      <c r="C467">
+        <v>19.522058600000001</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B468">
+        <v>41.360628800000001</v>
+      </c>
+      <c r="C468">
+        <v>19.5641301</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B469">
         <v>42.006993299999998</v>
       </c>
-      <c r="C366" s="3">
+      <c r="C469">
         <v>19.6379242</v>
       </c>
     </row>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3D30C0-10CC-4EE1-8DC2-7472D4805D48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CFBF6F-64E3-4D43-A466-F67D3E64C542}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,13 +49,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -82,7 +75,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -90,7 +83,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C469"/>
+  <dimension ref="A1:C562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="D453" sqref="D453"/>
+    <sheetView tabSelected="1" topLeftCell="A549" workbookViewId="0">
+      <selection activeCell="E561" sqref="E561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,384 +390,384 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>39.708763400000002</v>
-      </c>
-      <c r="C2" s="3">
-        <v>20.077130499999999</v>
+      <c r="B2">
+        <v>39.707455500000002</v>
+      </c>
+      <c r="C2">
+        <v>20.079796900000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>39.708398099999997</v>
-      </c>
-      <c r="C3" s="3">
-        <v>20.0777258</v>
+      <c r="B3">
+        <v>39.707461500000001</v>
+      </c>
+      <c r="C3">
+        <v>20.079887599999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>39.7077217</v>
-      </c>
-      <c r="C4" s="3">
-        <v>20.079260000000001</v>
+      <c r="B4">
+        <v>39.707712100000002</v>
+      </c>
+      <c r="C4">
+        <v>20.0789756</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>39.707712100000002</v>
-      </c>
-      <c r="C5" s="3">
-        <v>20.0789756</v>
+      <c r="B5">
+        <v>39.7077217</v>
+      </c>
+      <c r="C5">
+        <v>20.079260000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
-        <v>39.707461500000001</v>
-      </c>
-      <c r="C6" s="3">
-        <v>20.079887599999999</v>
+      <c r="B6">
+        <v>39.707762199999998</v>
+      </c>
+      <c r="C6">
+        <v>20.0790495</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
-        <v>39.707455500000002</v>
-      </c>
-      <c r="C7" s="3">
-        <v>20.079796900000002</v>
+      <c r="B7">
+        <v>39.707901</v>
+      </c>
+      <c r="C7">
+        <v>20.079008600000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
-        <v>39.707762199999998</v>
-      </c>
-      <c r="C8" s="3">
-        <v>20.0790495</v>
+      <c r="B8">
+        <v>39.708398099999997</v>
+      </c>
+      <c r="C8">
+        <v>20.0777258</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="3">
-        <v>39.707901</v>
-      </c>
-      <c r="C9" s="3">
-        <v>20.079008600000002</v>
+      <c r="B9">
+        <v>39.708763400000002</v>
+      </c>
+      <c r="C9">
+        <v>20.077130499999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
-        <v>39.724870699999997</v>
-      </c>
-      <c r="C10" s="3">
-        <v>20.060207500000001</v>
+      <c r="B10">
+        <v>39.724699200000003</v>
+      </c>
+      <c r="C10">
+        <v>20.060351199999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3">
-        <v>39.724873700000003</v>
-      </c>
-      <c r="C11" s="3">
-        <v>20.060207399999999</v>
+      <c r="B11">
+        <v>39.724715600000003</v>
+      </c>
+      <c r="C11">
+        <v>20.0603625</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
-        <v>39.724875699999998</v>
-      </c>
-      <c r="C12" s="3">
-        <v>20.0602135</v>
+      <c r="B12">
+        <v>39.72475</v>
+      </c>
+      <c r="C12">
+        <v>20.0604759</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
-        <v>39.724868499999999</v>
-      </c>
-      <c r="C13" s="3">
-        <v>20.060166500000001</v>
+      <c r="B13">
+        <v>39.7247524</v>
+      </c>
+      <c r="C13">
+        <v>20.0605984</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3">
-        <v>39.7248132</v>
-      </c>
-      <c r="C14" s="3">
-        <v>20.060044099999999</v>
+      <c r="B14">
+        <v>39.724754500000003</v>
+      </c>
+      <c r="C14">
+        <v>20.060115499999998</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="3">
-        <v>39.724826200000003</v>
-      </c>
-      <c r="C15" s="3">
-        <v>20.0600755</v>
+      <c r="B15">
+        <v>39.724755000000002</v>
+      </c>
+      <c r="C15">
+        <v>20.060296900000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="3">
-        <v>39.724811799999998</v>
-      </c>
-      <c r="C16" s="3">
-        <v>20.060134999999999</v>
+      <c r="B16">
+        <v>39.7247597</v>
+      </c>
+      <c r="C16">
+        <v>20.060221299999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3">
-        <v>39.724754500000003</v>
-      </c>
-      <c r="C17" s="3">
-        <v>20.060115499999998</v>
+      <c r="B17">
+        <v>39.724788699999998</v>
+      </c>
+      <c r="C17">
+        <v>20.060086500000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="3">
-        <v>40.078309300000001</v>
-      </c>
-      <c r="C18" s="3">
-        <v>20.197348600000002</v>
+      <c r="B18">
+        <v>39.724794899999999</v>
+      </c>
+      <c r="C18">
+        <v>20.060378400000001</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="3">
-        <v>40.078676700000003</v>
-      </c>
-      <c r="C19" s="3">
-        <v>20.1971685</v>
+      <c r="B19">
+        <v>39.724811799999998</v>
+      </c>
+      <c r="C19">
+        <v>20.060134999999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="3">
-        <v>40.077355900000001</v>
-      </c>
-      <c r="C20" s="3">
-        <v>20.197298700000001</v>
+      <c r="B20">
+        <v>39.724812300000004</v>
+      </c>
+      <c r="C20">
+        <v>20.0603418</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="3">
-        <v>40.078662199999997</v>
-      </c>
-      <c r="C21" s="3">
-        <v>20.198665399999999</v>
+      <c r="B21">
+        <v>39.7248132</v>
+      </c>
+      <c r="C21">
+        <v>20.060044099999999</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="3">
-        <v>39.724874</v>
-      </c>
-      <c r="C22" s="3">
-        <v>20.060063800000002</v>
+      <c r="B22">
+        <v>39.724826200000003</v>
+      </c>
+      <c r="C22">
+        <v>20.0600755</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="3">
-        <v>39.7247597</v>
-      </c>
-      <c r="C23" s="3">
-        <v>20.060221299999998</v>
+      <c r="B23">
+        <v>39.724834799999996</v>
+      </c>
+      <c r="C23">
+        <v>20.060324900000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="3">
-        <v>39.724834799999996</v>
-      </c>
-      <c r="C24" s="3">
-        <v>20.060324900000001</v>
+      <c r="B24">
+        <v>39.724858599999997</v>
+      </c>
+      <c r="C24">
+        <v>20.060358399999998</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="3">
-        <v>39.724755000000002</v>
-      </c>
-      <c r="C25" s="3">
-        <v>20.060296900000001</v>
+      <c r="B25">
+        <v>39.724868499999999</v>
+      </c>
+      <c r="C25">
+        <v>20.060166500000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="3">
-        <v>39.724812300000004</v>
-      </c>
-      <c r="C26" s="3">
-        <v>20.0603418</v>
+      <c r="B26">
+        <v>39.724870699999997</v>
+      </c>
+      <c r="C26">
+        <v>20.060207500000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="3">
-        <v>39.724794899999999</v>
-      </c>
-      <c r="C27" s="3">
-        <v>20.060378400000001</v>
+      <c r="B27">
+        <v>39.724873700000003</v>
+      </c>
+      <c r="C27">
+        <v>20.060207399999999</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="3">
-        <v>39.724699200000003</v>
-      </c>
-      <c r="C28" s="3">
-        <v>20.060351199999999</v>
+      <c r="B28">
+        <v>39.724874</v>
+      </c>
+      <c r="C28">
+        <v>20.060063800000002</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="3">
-        <v>39.724715600000003</v>
-      </c>
-      <c r="C29" s="3">
-        <v>20.0603625</v>
+      <c r="B29">
+        <v>39.724875699999998</v>
+      </c>
+      <c r="C29">
+        <v>20.0602135</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="3">
-        <v>39.72475</v>
-      </c>
-      <c r="C30" s="3">
-        <v>20.0604759</v>
+      <c r="B30">
+        <v>40.077355900000001</v>
+      </c>
+      <c r="C30">
+        <v>20.197298700000001</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="3">
-        <v>39.724858599999997</v>
-      </c>
-      <c r="C31" s="3">
-        <v>20.060358399999998</v>
+      <c r="B31">
+        <v>40.078309300000001</v>
+      </c>
+      <c r="C31">
+        <v>20.197348600000002</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="3">
-        <v>39.7247524</v>
-      </c>
-      <c r="C32" s="3">
-        <v>20.0605984</v>
+      <c r="B32">
+        <v>40.078662199999997</v>
+      </c>
+      <c r="C32">
+        <v>20.198665399999999</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="3">
-        <v>39.724788699999998</v>
-      </c>
-      <c r="C33" s="3">
-        <v>20.060086500000001</v>
+      <c r="B33">
+        <v>40.078676700000003</v>
+      </c>
+      <c r="C33">
+        <v>20.1971685</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="3">
-        <v>40.714485000000003</v>
-      </c>
-      <c r="C34" s="3">
-        <v>19.378269299999999</v>
+      <c r="B34">
+        <v>40.079382299999999</v>
+      </c>
+      <c r="C34">
+        <v>20.198820600000001</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="3">
-        <v>40.715586799999997</v>
-      </c>
-      <c r="C35" s="3">
-        <v>19.364625499999999</v>
+      <c r="B35">
+        <v>40.079405999999999</v>
+      </c>
+      <c r="C35">
+        <v>20.198710999999999</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>40.079405999999999</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>20.198713300000001</v>
       </c>
     </row>
@@ -783,32 +775,32 @@
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="3">
-        <v>40.079405999999999</v>
-      </c>
-      <c r="C37" s="3">
-        <v>20.198710999999999</v>
+      <c r="B37">
+        <v>40.079592099999999</v>
+      </c>
+      <c r="C37">
+        <v>20.1988606</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="3">
-        <v>40.715617899999998</v>
-      </c>
-      <c r="C38" s="3">
-        <v>19.378296500000001</v>
+      <c r="B38">
+        <v>40.0803966</v>
+      </c>
+      <c r="C38">
+        <v>20.138464599999999</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>40.080606600000003</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>20.199174599999999</v>
       </c>
     </row>
@@ -816,3563 +808,3563 @@
       <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="3">
-        <v>40.079592099999999</v>
-      </c>
-      <c r="C40" s="3">
-        <v>20.1988606</v>
+      <c r="B40">
+        <v>40.081661699999998</v>
+      </c>
+      <c r="C40">
+        <v>20.141024900000001</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="3">
-        <v>40.079382299999999</v>
-      </c>
-      <c r="C41" s="3">
-        <v>20.198820600000001</v>
+      <c r="B41">
+        <v>40.085411999999998</v>
+      </c>
+      <c r="C41">
+        <v>20.142689300000001</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="3">
-        <v>41.400360599999999</v>
-      </c>
-      <c r="C42" s="3">
-        <v>19.545108299999999</v>
+      <c r="B42">
+        <v>40.085411999999998</v>
+      </c>
+      <c r="C42">
+        <v>20.142689300000001</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="3">
-        <v>40.7069039</v>
-      </c>
-      <c r="C43" s="3">
-        <v>19.642846599999999</v>
+      <c r="B43">
+        <v>40.085411999999998</v>
+      </c>
+      <c r="C43">
+        <v>20.142689300000001</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="3">
-        <v>40.7069039</v>
-      </c>
-      <c r="C44" s="3">
-        <v>19.642846599999999</v>
+      <c r="B44">
+        <v>40.085417300000003</v>
+      </c>
+      <c r="C44">
+        <v>20.1426938</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="3">
-        <v>40.706901299999998</v>
-      </c>
-      <c r="C45" s="3">
-        <v>19.642845000000001</v>
+      <c r="B45">
+        <v>40.087675099999998</v>
+      </c>
+      <c r="C45">
+        <v>20.146864000000001</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="3">
-        <v>40.706901600000002</v>
-      </c>
-      <c r="C46" s="3">
-        <v>19.642841900000001</v>
+      <c r="B46">
+        <v>40.122214700000001</v>
+      </c>
+      <c r="C46">
+        <v>20.105774400000001</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="3">
-        <v>40.706902399999997</v>
-      </c>
-      <c r="C47" s="3">
-        <v>19.642841700000002</v>
+      <c r="B47">
+        <v>40.122547599999997</v>
+      </c>
+      <c r="C47">
+        <v>20.1100882</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="3">
-        <v>40.706904199999997</v>
-      </c>
-      <c r="C48" s="3">
-        <v>19.642844199999999</v>
+      <c r="B48">
+        <v>40.122549499999998</v>
+      </c>
+      <c r="C48">
+        <v>20.110094199999999</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="3">
-        <v>40.706904199999997</v>
-      </c>
-      <c r="C49" s="3">
-        <v>19.642842099999999</v>
+      <c r="B49">
+        <v>40.122556799999998</v>
+      </c>
+      <c r="C49">
+        <v>20.110113599999998</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="3">
-        <v>40.7069039</v>
-      </c>
-      <c r="C50" s="3">
-        <v>19.642846599999999</v>
+      <c r="B50">
+        <v>40.123410100000001</v>
+      </c>
+      <c r="C50">
+        <v>20.1118554</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="3">
-        <v>40.706903599999997</v>
-      </c>
-      <c r="C51" s="3">
-        <v>19.6428406</v>
+      <c r="B51">
+        <v>40.1240138</v>
+      </c>
+      <c r="C51">
+        <v>20.1357748</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="3">
-        <v>40.706987699999999</v>
-      </c>
-      <c r="C52" s="3">
-        <v>19.642986499999999</v>
+      <c r="B52">
+        <v>40.125190500000002</v>
+      </c>
+      <c r="C52">
+        <v>20.136147699999999</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="3">
-        <v>40.706903599999997</v>
-      </c>
-      <c r="C53" s="3">
-        <v>19.6428406</v>
+      <c r="B53">
+        <v>40.125254699999999</v>
+      </c>
+      <c r="C53">
+        <v>20.136188700000002</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="3">
-        <v>40.7069276</v>
-      </c>
-      <c r="C54" s="3">
-        <v>19.642872400000002</v>
+      <c r="B54">
+        <v>40.125408999999998</v>
+      </c>
+      <c r="C54">
+        <v>20.136428299999999</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="3">
-        <v>40.706904100000003</v>
-      </c>
-      <c r="C55" s="3">
-        <v>19.642840899999999</v>
+      <c r="B55">
+        <v>40.125625300000003</v>
+      </c>
+      <c r="C55">
+        <v>20.136190599999999</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="3">
-        <v>40.706902999999997</v>
-      </c>
-      <c r="C56" s="3">
-        <v>19.642841000000001</v>
+      <c r="B56">
+        <v>40.1256561</v>
+      </c>
+      <c r="C56">
+        <v>20.136201199999999</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="3">
-        <v>40.706904199999997</v>
-      </c>
-      <c r="C57" s="3">
-        <v>19.6428507</v>
+      <c r="B57">
+        <v>40.141613</v>
+      </c>
+      <c r="C57">
+        <v>20.088227100000001</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="3">
-        <v>40.706902999999997</v>
-      </c>
-      <c r="C58" s="3">
-        <v>19.642841000000001</v>
+      <c r="B58">
+        <v>40.1443029</v>
+      </c>
+      <c r="C58">
+        <v>20.088320499999998</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="3">
-        <v>40.706938000000001</v>
-      </c>
-      <c r="C59" s="3">
-        <v>19.642891299999999</v>
+      <c r="B59">
+        <v>40.144500399999998</v>
+      </c>
+      <c r="C59">
+        <v>20.089192499999999</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="3">
-        <v>40.706901799999997</v>
-      </c>
-      <c r="C60" s="3">
-        <v>19.6428431</v>
+      <c r="B60">
+        <v>40.145259699999997</v>
+      </c>
+      <c r="C60">
+        <v>20.0883316</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="3">
-        <v>40.706901899999998</v>
-      </c>
-      <c r="C61" s="3">
-        <v>19.642842399999999</v>
+      <c r="B61">
+        <v>40.145260700000001</v>
+      </c>
+      <c r="C61">
+        <v>20.0883352</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="3">
-        <v>40.7069014</v>
-      </c>
-      <c r="C62" s="3">
-        <v>19.642845300000001</v>
+      <c r="B62">
+        <v>40.145546199999998</v>
+      </c>
+      <c r="C62">
+        <v>20.089397000000002</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="3">
-        <v>40.706893899999997</v>
-      </c>
-      <c r="C63" s="3">
-        <v>19.6428352</v>
+      <c r="B63">
+        <v>40.146357000000002</v>
+      </c>
+      <c r="C63">
+        <v>20.0885183</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="3">
-        <v>40.706900500000003</v>
-      </c>
-      <c r="C64" s="3">
-        <v>19.642841700000002</v>
+      <c r="B64">
+        <v>40.146357500000001</v>
+      </c>
+      <c r="C64">
+        <v>20.0885335</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="3">
-        <v>40.706902999999997</v>
-      </c>
-      <c r="C65" s="3">
-        <v>19.6428498</v>
+      <c r="B65">
+        <v>40.473079800000001</v>
+      </c>
+      <c r="C65">
+        <v>19.5857904</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="3">
-        <v>42.223769799999999</v>
-      </c>
-      <c r="C66" s="3">
-        <v>19.467558700000001</v>
+      <c r="B66">
+        <v>40.473109600000001</v>
+      </c>
+      <c r="C66">
+        <v>19.585835899999999</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="3">
-        <v>42.224680999999997</v>
-      </c>
-      <c r="C67" s="3">
-        <v>19.454992300000001</v>
+      <c r="B67">
+        <v>40.473110800000001</v>
+      </c>
+      <c r="C67">
+        <v>19.585873200000002</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="3">
-        <v>42.224658699999999</v>
-      </c>
-      <c r="C68" s="3">
-        <v>19.454990200000001</v>
+      <c r="B68">
+        <v>40.473116699999999</v>
+      </c>
+      <c r="C68">
+        <v>19.585831599999999</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="3">
-        <v>42.212802199999999</v>
-      </c>
-      <c r="C69" s="3">
-        <v>19.433364900000001</v>
+      <c r="B69">
+        <v>40.473118300000003</v>
+      </c>
+      <c r="C69">
+        <v>19.585835800000002</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="3">
-        <v>42.197084799999999</v>
-      </c>
-      <c r="C70" s="3">
-        <v>19.451702999999998</v>
+      <c r="B70">
+        <v>40.473130300000001</v>
+      </c>
+      <c r="C70">
+        <v>19.585894100000001</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="3">
-        <v>42.211848600000003</v>
-      </c>
-      <c r="C71" s="3">
-        <v>19.4321713</v>
+      <c r="B71">
+        <v>40.473141599999998</v>
+      </c>
+      <c r="C71">
+        <v>19.585715</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="3">
-        <v>42.218670099999997</v>
-      </c>
-      <c r="C72" s="3">
-        <v>19.4468459</v>
+      <c r="B72">
+        <v>40.473160499999999</v>
+      </c>
+      <c r="C72">
+        <v>19.585739700000001</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="3">
-        <v>42.223892999999997</v>
-      </c>
-      <c r="C73" s="3">
-        <v>19.4676455</v>
+      <c r="B73">
+        <v>40.473161300000001</v>
+      </c>
+      <c r="C73">
+        <v>19.585716300000001</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="3">
-        <v>42.224828000000002</v>
-      </c>
-      <c r="C74" s="3">
-        <v>19.455191299999999</v>
+      <c r="B74">
+        <v>40.473167500000002</v>
+      </c>
+      <c r="C74">
+        <v>19.585747999999999</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="3">
-        <v>42.211303399999998</v>
-      </c>
-      <c r="C75" s="3">
-        <v>19.430100299999999</v>
+      <c r="B75">
+        <v>40.473168100000002</v>
+      </c>
+      <c r="C75">
+        <v>19.5856186</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="3">
-        <v>42.2123676</v>
-      </c>
-      <c r="C76" s="3">
-        <v>19.433116200000001</v>
+      <c r="B76">
+        <v>40.473178900000001</v>
+      </c>
+      <c r="C76">
+        <v>19.5857241</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="3">
-        <v>42.277850600000001</v>
-      </c>
-      <c r="C77" s="3">
-        <v>19.517997699999999</v>
+      <c r="B77">
+        <v>40.473179000000002</v>
+      </c>
+      <c r="C77">
+        <v>19.585709099999999</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="3">
-        <v>42.357396000000001</v>
-      </c>
-      <c r="C78" s="3">
-        <v>20.074011299999999</v>
+      <c r="B78">
+        <v>40.473179100000003</v>
+      </c>
+      <c r="C78">
+        <v>19.585701799999999</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="3">
-        <v>42.356902699999999</v>
-      </c>
-      <c r="C79" s="3">
-        <v>20.0758039</v>
+      <c r="B79">
+        <v>40.473182799999996</v>
+      </c>
+      <c r="C79">
+        <v>19.5857198</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="3">
-        <v>42.3545771</v>
-      </c>
-      <c r="C80" s="3">
-        <v>20.097271200000002</v>
+      <c r="B80">
+        <v>40.473194300000003</v>
+      </c>
+      <c r="C80">
+        <v>19.5856602</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="3">
-        <v>42.361485600000002</v>
-      </c>
-      <c r="C81" s="3">
-        <v>20.076916300000001</v>
+      <c r="B81">
+        <v>40.497632199999998</v>
+      </c>
+      <c r="C81">
+        <v>19.5034046</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="3">
-        <v>42.354520000000001</v>
-      </c>
-      <c r="C82" s="3">
-        <v>20.09741</v>
+      <c r="B82">
+        <v>40.4983912</v>
+      </c>
+      <c r="C82">
+        <v>19.502630799999999</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="3">
-        <v>40.7097604</v>
-      </c>
-      <c r="C83" s="3">
-        <v>19.9223955</v>
+      <c r="B83">
+        <v>40.501772299999999</v>
+      </c>
+      <c r="C83">
+        <v>19.529599099999999</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="3">
-        <v>40.7098473</v>
-      </c>
-      <c r="C84" s="3">
-        <v>19.922183700000001</v>
+      <c r="B84">
+        <v>40.501944299999998</v>
+      </c>
+      <c r="C84">
+        <v>19.529445500000001</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="3">
-        <v>40.712713800000003</v>
-      </c>
-      <c r="C85" s="3">
-        <v>19.920248699999998</v>
+      <c r="B85">
+        <v>40.536762899999999</v>
+      </c>
+      <c r="C85">
+        <v>19.5339077</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="3">
-        <v>40.712850500000002</v>
-      </c>
-      <c r="C86" s="3">
-        <v>19.919983899999998</v>
+      <c r="B86">
+        <v>40.5368244</v>
+      </c>
+      <c r="C86">
+        <v>19.5338207</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="3">
-        <v>40.716326299999999</v>
-      </c>
-      <c r="C87" s="3">
-        <v>19.920121099999999</v>
+      <c r="B87">
+        <v>40.536845100000001</v>
+      </c>
+      <c r="C87">
+        <v>19.533787400000001</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="3">
-        <v>40.716296900000003</v>
-      </c>
-      <c r="C88" s="3">
-        <v>19.920071</v>
+      <c r="B88">
+        <v>40.536847100000003</v>
+      </c>
+      <c r="C88">
+        <v>19.533850300000001</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="3">
-        <v>40.726563599999999</v>
-      </c>
-      <c r="C89" s="3">
-        <v>19.918086200000001</v>
+      <c r="B89">
+        <v>40.536850800000003</v>
+      </c>
+      <c r="C89">
+        <v>19.533785399999999</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="3">
-        <v>40.726554700000001</v>
-      </c>
-      <c r="C90" s="3">
-        <v>19.918095600000001</v>
+      <c r="B90">
+        <v>40.5368529</v>
+      </c>
+      <c r="C90">
+        <v>19.533736399999999</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="3">
-        <v>40.727244800000001</v>
-      </c>
-      <c r="C91" s="3">
-        <v>19.917643900000002</v>
+      <c r="B91">
+        <v>40.536853200000003</v>
+      </c>
+      <c r="C91">
+        <v>19.533842</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="3">
-        <v>40.727240000000002</v>
-      </c>
-      <c r="C92" s="3">
-        <v>19.917599599999999</v>
+      <c r="B92">
+        <v>40.536853700000002</v>
+      </c>
+      <c r="C92">
+        <v>19.533787700000001</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="3">
-        <v>40.715945499999997</v>
-      </c>
-      <c r="C93" s="3">
-        <v>19.936401100000001</v>
+      <c r="B93">
+        <v>40.536855000000003</v>
+      </c>
+      <c r="C93">
+        <v>19.533770199999999</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="3">
-        <v>40.831462999999999</v>
-      </c>
-      <c r="C94" s="3">
-        <v>19.9050999</v>
+      <c r="B94">
+        <v>40.536856</v>
+      </c>
+      <c r="C94">
+        <v>19.5337836</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="3">
-        <v>40.834567</v>
-      </c>
-      <c r="C95" s="3">
-        <v>19.905859599999999</v>
+      <c r="B95">
+        <v>40.536857699999999</v>
+      </c>
+      <c r="C95">
+        <v>19.533792099999999</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="3">
-        <v>40.833536799999997</v>
-      </c>
-      <c r="C96" s="3">
-        <v>19.905182100000001</v>
+      <c r="B96">
+        <v>40.536864600000001</v>
+      </c>
+      <c r="C96">
+        <v>19.533805600000001</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="3">
-        <v>40.833566300000001</v>
-      </c>
-      <c r="C97" s="3">
-        <v>19.905406899999999</v>
+      <c r="B97">
+        <v>40.560876</v>
+      </c>
+      <c r="C97">
+        <v>20.7416111</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="3">
-        <v>40.833481800000001</v>
-      </c>
-      <c r="C98" s="3">
-        <v>19.905455100000001</v>
+      <c r="B98">
+        <v>40.560890999999998</v>
+      </c>
+      <c r="C98">
+        <v>20.741639800000002</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="3">
-        <v>40.831402300000001</v>
-      </c>
-      <c r="C99" s="3">
-        <v>19.905214300000001</v>
+      <c r="B99">
+        <v>40.560895799999997</v>
+      </c>
+      <c r="C99">
+        <v>20.7416351</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="3">
-        <v>40.834671499999999</v>
-      </c>
-      <c r="C100" s="3">
-        <v>19.905972599999998</v>
+      <c r="B100">
+        <v>40.560895899999998</v>
+      </c>
+      <c r="C100">
+        <v>20.741647199999999</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="3">
-        <v>40.833434599999997</v>
-      </c>
-      <c r="C101" s="3">
-        <v>19.905183699999998</v>
+      <c r="B101">
+        <v>40.560902499999997</v>
+      </c>
+      <c r="C101">
+        <v>20.741630799999999</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="3">
-        <v>41.001128399999999</v>
-      </c>
-      <c r="C102" s="3">
-        <v>20.020879900000001</v>
+      <c r="B102">
+        <v>40.560912799999997</v>
+      </c>
+      <c r="C102">
+        <v>20.741685700000001</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="3">
-        <v>41.000934000000001</v>
-      </c>
-      <c r="C103" s="3">
-        <v>20.0213693</v>
+      <c r="B103">
+        <v>40.560912899999998</v>
+      </c>
+      <c r="C103">
+        <v>20.7416795</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="3">
-        <v>40.8335103</v>
-      </c>
-      <c r="C104" s="3">
-        <v>19.905443500000001</v>
+      <c r="B104">
+        <v>40.5609131</v>
+      </c>
+      <c r="C104">
+        <v>20.741690599999998</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="3">
-        <v>40.8335364</v>
-      </c>
-      <c r="C105" s="3">
-        <v>19.905429900000001</v>
+      <c r="B105">
+        <v>40.560913300000003</v>
+      </c>
+      <c r="C105">
+        <v>20.741686600000001</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="3">
-        <v>40.7176027</v>
-      </c>
-      <c r="C106" s="3">
-        <v>19.928751299999998</v>
+      <c r="B106">
+        <v>40.560913300000003</v>
+      </c>
+      <c r="C106">
+        <v>20.741778199999999</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="3">
-        <v>40.719552399999998</v>
-      </c>
-      <c r="C107" s="3">
-        <v>19.929415500000001</v>
+      <c r="B107">
+        <v>40.560913999999997</v>
+      </c>
+      <c r="C107">
+        <v>20.741698599999999</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="3">
-        <v>40.719831999999997</v>
-      </c>
-      <c r="C108" s="3">
-        <v>19.929725099999999</v>
+      <c r="B108">
+        <v>40.5609155</v>
+      </c>
+      <c r="C108">
+        <v>20.741734999999998</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="3">
-        <v>40.719562000000003</v>
-      </c>
-      <c r="C109" s="3">
-        <v>19.929419800000002</v>
+      <c r="B109">
+        <v>40.5609173</v>
+      </c>
+      <c r="C109">
+        <v>20.741696999999998</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="3">
-        <v>40.719827299999999</v>
-      </c>
-      <c r="C110" s="3">
-        <v>19.929644700000001</v>
+      <c r="B110">
+        <v>40.560920099999997</v>
+      </c>
+      <c r="C110">
+        <v>20.7417166</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="3">
-        <v>40.719628499999999</v>
-      </c>
-      <c r="C111" s="3">
-        <v>19.9293005</v>
+      <c r="B111">
+        <v>40.560938800000002</v>
+      </c>
+      <c r="C111">
+        <v>20.741807300000001</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="3">
-        <v>40.719606499999998</v>
-      </c>
-      <c r="C112" s="3">
-        <v>19.929391500000001</v>
+      <c r="B112">
+        <v>40.560943000000002</v>
+      </c>
+      <c r="C112">
+        <v>20.741734000000001</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="3">
-        <v>40.719557299999998</v>
-      </c>
-      <c r="C113" s="3">
-        <v>19.929417300000001</v>
+      <c r="B113">
+        <v>40.560943600000002</v>
+      </c>
+      <c r="C113">
+        <v>20.741804800000001</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="3">
-        <v>40.719580399999998</v>
-      </c>
-      <c r="C114" s="3">
-        <v>19.929424300000001</v>
+      <c r="B114">
+        <v>40.560944200000002</v>
+      </c>
+      <c r="C114">
+        <v>20.741797500000001</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="3">
-        <v>42.277197200000003</v>
-      </c>
-      <c r="C115" s="3">
-        <v>19.5138845</v>
+      <c r="B115">
+        <v>40.560951600000003</v>
+      </c>
+      <c r="C115">
+        <v>20.741800900000001</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="3">
-        <v>42.280515899999997</v>
-      </c>
-      <c r="C116" s="3">
-        <v>19.5225586</v>
+      <c r="B116">
+        <v>40.560952499999999</v>
+      </c>
+      <c r="C116">
+        <v>20.741803399999998</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="3">
-        <v>42.278105400000001</v>
-      </c>
-      <c r="C117" s="3">
-        <v>19.519205199999998</v>
+      <c r="B117">
+        <v>40.560954199999998</v>
+      </c>
+      <c r="C117">
+        <v>20.741793000000001</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="3">
-        <v>42.281401099999997</v>
-      </c>
-      <c r="C118" s="3">
-        <v>19.5229967</v>
+      <c r="B118">
+        <v>40.560957100000003</v>
+      </c>
+      <c r="C118">
+        <v>20.741800900000001</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B119" s="3">
-        <v>42.2772711</v>
-      </c>
-      <c r="C119" s="3">
-        <v>19.5165753</v>
+      <c r="B119">
+        <v>40.560958399999997</v>
+      </c>
+      <c r="C119">
+        <v>20.741810099999999</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B120" s="3">
-        <v>42.281402300000003</v>
-      </c>
-      <c r="C120" s="3">
-        <v>19.522993199999998</v>
+      <c r="B120">
+        <v>40.560964599999998</v>
+      </c>
+      <c r="C120">
+        <v>20.741803300000001</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="3">
-        <v>42.281467300000003</v>
-      </c>
-      <c r="C121" s="3">
-        <v>19.523060099999999</v>
+      <c r="B121">
+        <v>40.560964800000001</v>
+      </c>
+      <c r="C121">
+        <v>20.7417707</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="3">
-        <v>42.277654499999997</v>
-      </c>
-      <c r="C122" s="3">
-        <v>19.518281200000001</v>
+      <c r="B122">
+        <v>40.560966800000003</v>
+      </c>
+      <c r="C122">
+        <v>20.741795100000001</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="3">
-        <v>42.281427899999997</v>
-      </c>
-      <c r="C123" s="3">
-        <v>19.523053399999998</v>
+      <c r="B123">
+        <v>40.560971600000002</v>
+      </c>
+      <c r="C123">
+        <v>20.741804699999999</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="3">
-        <v>42.277683500000002</v>
-      </c>
-      <c r="C124" s="3">
-        <v>19.517837</v>
+      <c r="B124">
+        <v>40.560974899999998</v>
+      </c>
+      <c r="C124">
+        <v>20.7418026</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="3">
-        <v>42.280393400000001</v>
-      </c>
-      <c r="C125" s="3">
-        <v>19.522840299999999</v>
+      <c r="B125">
+        <v>40.560976500000002</v>
+      </c>
+      <c r="C125">
+        <v>20.741814900000001</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="3">
-        <v>42.277751299999998</v>
-      </c>
-      <c r="C126" s="3">
-        <v>19.517457</v>
+      <c r="B126">
+        <v>40.561030199999998</v>
+      </c>
+      <c r="C126">
+        <v>20.741820499999999</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B127" s="3">
-        <v>42.277492600000002</v>
-      </c>
-      <c r="C127" s="3">
-        <v>19.518242699999998</v>
+      <c r="B127">
+        <v>40.609602500000001</v>
+      </c>
+      <c r="C127">
+        <v>20.691002099999999</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B128" s="3">
-        <v>42.277285499999998</v>
-      </c>
-      <c r="C128" s="3">
-        <v>19.5167021</v>
+      <c r="B128">
+        <v>40.6096109</v>
+      </c>
+      <c r="C128">
+        <v>20.691012700000002</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="3">
-        <v>42.277923800000003</v>
-      </c>
-      <c r="C129" s="3">
-        <v>19.517572699999999</v>
+      <c r="B129">
+        <v>40.610097000000003</v>
+      </c>
+      <c r="C129">
+        <v>20.691711999999999</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="3">
-        <v>42.276982799999999</v>
-      </c>
-      <c r="C130" s="3">
-        <v>19.516658100000001</v>
+      <c r="B130">
+        <v>40.610570299999999</v>
+      </c>
+      <c r="C130">
+        <v>20.6921496</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="3">
-        <v>40.831350700000002</v>
-      </c>
-      <c r="C131" s="3">
-        <v>19.9143708</v>
+      <c r="B131">
+        <v>40.610722099999997</v>
+      </c>
+      <c r="C131">
+        <v>20.692342499999999</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B132" s="3">
-        <v>40.830765300000003</v>
-      </c>
-      <c r="C132" s="3">
-        <v>19.914642099999998</v>
+      <c r="B132">
+        <v>40.6110173</v>
+      </c>
+      <c r="C132">
+        <v>20.693270999999999</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B133" s="3">
-        <v>40.830768900000002</v>
-      </c>
-      <c r="C133" s="3">
-        <v>19.914750099999999</v>
+      <c r="B133">
+        <v>40.611035399999999</v>
+      </c>
+      <c r="C133">
+        <v>20.693137100000001</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="3">
-        <v>40.831157099999999</v>
-      </c>
-      <c r="C134" s="3">
-        <v>19.9144322</v>
+      <c r="B134">
+        <v>40.611170700000002</v>
+      </c>
+      <c r="C134">
+        <v>20.6936283</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="3">
-        <v>40.750765199999996</v>
-      </c>
-      <c r="C135" s="3">
-        <v>20.832402299999998</v>
+      <c r="B135">
+        <v>40.611177699999999</v>
+      </c>
+      <c r="C135">
+        <v>20.693513100000001</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B136" s="3">
-        <v>40.831096199999998</v>
-      </c>
-      <c r="C136" s="3">
-        <v>19.914892399999999</v>
+      <c r="B136">
+        <v>40.611211599999997</v>
+      </c>
+      <c r="C136">
+        <v>20.693585500000001</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B137" s="3">
-        <v>40.8309292</v>
-      </c>
-      <c r="C137" s="3">
-        <v>19.915116999999999</v>
+      <c r="B137">
+        <v>40.611215199999997</v>
+      </c>
+      <c r="C137">
+        <v>20.693598900000001</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B138" s="3">
-        <v>40.830769400000001</v>
-      </c>
-      <c r="C138" s="3">
-        <v>19.9147502</v>
+      <c r="B138">
+        <v>40.611242799999999</v>
+      </c>
+      <c r="C138">
+        <v>20.693614400000001</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="3">
-        <v>40.831297599999999</v>
-      </c>
-      <c r="C139" s="3">
-        <v>19.914582800000002</v>
+      <c r="B139">
+        <v>40.611249700000002</v>
+      </c>
+      <c r="C139">
+        <v>20.693570399999999</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B140" s="3">
-        <v>40.751758700000003</v>
-      </c>
-      <c r="C140" s="3">
-        <v>20.831425400000001</v>
+      <c r="B140">
+        <v>40.611255800000002</v>
+      </c>
+      <c r="C140">
+        <v>20.693622900000001</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B141" s="3">
-        <v>40.832106899999999</v>
-      </c>
-      <c r="C141" s="3">
-        <v>19.9140172</v>
+      <c r="B141">
+        <v>40.611256900000001</v>
+      </c>
+      <c r="C141">
+        <v>20.6936219</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="3">
-        <v>40.752531599999998</v>
-      </c>
-      <c r="C142" s="3">
-        <v>20.8312925</v>
+      <c r="B142">
+        <v>40.611260600000001</v>
+      </c>
+      <c r="C142">
+        <v>20.6935775</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B143" s="3">
-        <v>40.831263900000003</v>
-      </c>
-      <c r="C143" s="3">
-        <v>19.914763099999998</v>
+      <c r="B143">
+        <v>40.611265699999997</v>
+      </c>
+      <c r="C143">
+        <v>20.693665299999999</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B144" s="3">
-        <v>40.754839099999998</v>
-      </c>
-      <c r="C144" s="3">
-        <v>20.830075000000001</v>
+      <c r="B144">
+        <v>40.611273199999999</v>
+      </c>
+      <c r="C144">
+        <v>20.6935851</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B145" s="3">
-        <v>40.753555400000003</v>
-      </c>
-      <c r="C145" s="3">
-        <v>20.830983700000001</v>
+      <c r="B145">
+        <v>40.611345100000001</v>
+      </c>
+      <c r="C145">
+        <v>20.693597400000002</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B146" s="3">
-        <v>40.753786900000001</v>
-      </c>
-      <c r="C146" s="3">
-        <v>20.8306401</v>
+      <c r="B146">
+        <v>40.611356299999997</v>
+      </c>
+      <c r="C146">
+        <v>20.693670900000001</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B147" s="3">
-        <v>40.753895900000003</v>
-      </c>
-      <c r="C147" s="3">
-        <v>20.830523400000001</v>
+      <c r="B147">
+        <v>40.617686800000001</v>
+      </c>
+      <c r="C147">
+        <v>20.7716612</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B148" s="3">
-        <v>40.754075700000001</v>
-      </c>
-      <c r="C148" s="3">
-        <v>20.830336800000001</v>
+      <c r="B148">
+        <v>40.626660800000003</v>
+      </c>
+      <c r="C148">
+        <v>20.702097500000001</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B149" s="3">
-        <v>40.754475399999997</v>
-      </c>
-      <c r="C149" s="3">
-        <v>20.830290000000002</v>
+      <c r="B149">
+        <v>40.6266879</v>
+      </c>
+      <c r="C149">
+        <v>20.702141099999999</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="3">
-        <v>40.753585999999999</v>
-      </c>
-      <c r="C150" s="3">
-        <v>20.830670699999999</v>
+      <c r="B150">
+        <v>40.626693099999997</v>
+      </c>
+      <c r="C150">
+        <v>20.702165600000001</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B151" s="3">
-        <v>40.753583399999997</v>
-      </c>
-      <c r="C151" s="3">
-        <v>20.830621900000001</v>
+      <c r="B151">
+        <v>40.626729900000001</v>
+      </c>
+      <c r="C151">
+        <v>20.702078700000001</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B152" s="3">
-        <v>40.753666799999998</v>
-      </c>
-      <c r="C152" s="3">
-        <v>20.830617799999999</v>
+      <c r="B152">
+        <v>40.626732799999999</v>
+      </c>
+      <c r="C152">
+        <v>20.702138900000001</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B153" s="3">
-        <v>40.754765200000001</v>
-      </c>
-      <c r="C153" s="3">
-        <v>20.8299974</v>
+      <c r="B153">
+        <v>40.6267402</v>
+      </c>
+      <c r="C153">
+        <v>20.702174200000002</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B154" s="3">
-        <v>40.755149799999998</v>
-      </c>
-      <c r="C154" s="3">
-        <v>20.829772599999998</v>
+      <c r="B154">
+        <v>40.626756899999997</v>
+      </c>
+      <c r="C154">
+        <v>20.7021792</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B155" s="3">
-        <v>40.755449900000002</v>
-      </c>
-      <c r="C155" s="3">
-        <v>20.829460000000001</v>
+      <c r="B155">
+        <v>40.626757300000001</v>
+      </c>
+      <c r="C155">
+        <v>20.702181899999999</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B156" s="3">
-        <v>40.755571000000003</v>
-      </c>
-      <c r="C156" s="3">
-        <v>20.829272700000001</v>
+      <c r="B156">
+        <v>40.626760599999997</v>
+      </c>
+      <c r="C156">
+        <v>20.702173200000001</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B157" s="3">
-        <v>41.396787600000003</v>
-      </c>
-      <c r="C157" s="3">
-        <v>19.539857399999999</v>
+      <c r="B157">
+        <v>40.699875400000003</v>
+      </c>
+      <c r="C157">
+        <v>19.6101435</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B158" s="3">
-        <v>41.379489</v>
-      </c>
-      <c r="C158" s="3">
-        <v>19.542874300000001</v>
+      <c r="B158">
+        <v>40.700781900000003</v>
+      </c>
+      <c r="C158">
+        <v>19.612272000000001</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B159" s="3">
-        <v>41.388695599999998</v>
-      </c>
-      <c r="C159" s="3">
-        <v>19.550103199999999</v>
+      <c r="B159">
+        <v>40.701530200000001</v>
+      </c>
+      <c r="C159">
+        <v>19.617308300000001</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B160" s="3">
-        <v>41.365637800000002</v>
-      </c>
-      <c r="C160" s="3">
-        <v>19.549973300000001</v>
+      <c r="B160">
+        <v>40.701578300000001</v>
+      </c>
+      <c r="C160">
+        <v>19.617272</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B161" s="3">
-        <v>40.560966800000003</v>
-      </c>
-      <c r="C161" s="3">
-        <v>20.741795100000001</v>
+      <c r="B161">
+        <v>40.703667600000003</v>
+      </c>
+      <c r="C161">
+        <v>20.792092100000001</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B162" s="3">
-        <v>40.560964800000001</v>
-      </c>
-      <c r="C162" s="3">
-        <v>20.7417707</v>
+      <c r="B162">
+        <v>40.7044158</v>
+      </c>
+      <c r="C162">
+        <v>20.791806900000001</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B163" s="3">
-        <v>40.560974899999998</v>
-      </c>
-      <c r="C163" s="3">
-        <v>20.7418026</v>
+      <c r="B163">
+        <v>40.7046469</v>
+      </c>
+      <c r="C163">
+        <v>20.7913256</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B164" s="3">
-        <v>40.560964599999998</v>
-      </c>
-      <c r="C164" s="3">
-        <v>20.741803300000001</v>
+      <c r="B164">
+        <v>40.704788999999998</v>
+      </c>
+      <c r="C164">
+        <v>20.791447999999999</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B165" s="3">
-        <v>40.560952499999999</v>
-      </c>
-      <c r="C165" s="3">
-        <v>20.741803399999998</v>
+      <c r="B165">
+        <v>40.704794900000003</v>
+      </c>
+      <c r="C165">
+        <v>20.7913055</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B166" s="3">
-        <v>40.560913999999997</v>
-      </c>
-      <c r="C166" s="3">
-        <v>20.741698599999999</v>
+      <c r="B166">
+        <v>40.704856100000001</v>
+      </c>
+      <c r="C166">
+        <v>20.791373499999999</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B167" s="3">
-        <v>40.5609173</v>
-      </c>
-      <c r="C167" s="3">
-        <v>20.741696999999998</v>
+      <c r="B167">
+        <v>40.7049685</v>
+      </c>
+      <c r="C167">
+        <v>20.7914374</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B168" s="3">
-        <v>40.5609131</v>
-      </c>
-      <c r="C168" s="3">
-        <v>20.741690599999998</v>
+      <c r="B168">
+        <v>40.704983800000001</v>
+      </c>
+      <c r="C168">
+        <v>20.791447999999999</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B169" s="3">
-        <v>40.560912799999997</v>
-      </c>
-      <c r="C169" s="3">
-        <v>20.741685700000001</v>
+      <c r="B169">
+        <v>40.705005700000001</v>
+      </c>
+      <c r="C169">
+        <v>20.791491600000001</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B170" s="3">
-        <v>40.560913300000003</v>
-      </c>
-      <c r="C170" s="3">
-        <v>20.741686600000001</v>
+      <c r="B170">
+        <v>40.705325799999997</v>
+      </c>
+      <c r="C170">
+        <v>20.791675900000001</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="3">
-        <v>41.427428800000001</v>
-      </c>
-      <c r="C171" s="3">
-        <v>19.5628137</v>
+      <c r="B171">
+        <v>40.705341799999999</v>
+      </c>
+      <c r="C171">
+        <v>20.791884499999998</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B172" s="3">
-        <v>41.426992900000002</v>
-      </c>
-      <c r="C172" s="3">
-        <v>19.563263500000001</v>
+      <c r="B172">
+        <v>40.705502799999998</v>
+      </c>
+      <c r="C172">
+        <v>20.791700500000001</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B173" s="3">
-        <v>41.4230527</v>
-      </c>
-      <c r="C173" s="3">
-        <v>19.548993299999999</v>
+      <c r="B173">
+        <v>40.705536899999998</v>
+      </c>
+      <c r="C173">
+        <v>20.792016799999999</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B174" s="3">
-        <v>40.560912899999998</v>
-      </c>
-      <c r="C174" s="3">
-        <v>20.7416795</v>
+      <c r="B174">
+        <v>40.706020799999997</v>
+      </c>
+      <c r="C174">
+        <v>19.639999100000001</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B175" s="3">
-        <v>40.560951600000003</v>
-      </c>
-      <c r="C175" s="3">
-        <v>20.741800900000001</v>
+      <c r="B175">
+        <v>40.7061894</v>
+      </c>
+      <c r="C175">
+        <v>20.7921561</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B176" s="3">
-        <v>40.560895899999998</v>
-      </c>
-      <c r="C176" s="3">
-        <v>20.741647199999999</v>
+      <c r="B176">
+        <v>40.706282399999999</v>
+      </c>
+      <c r="C176">
+        <v>20.792267200000001</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B177" s="3">
-        <v>40.560944200000002</v>
-      </c>
-      <c r="C177" s="3">
-        <v>20.741797500000001</v>
+      <c r="B177">
+        <v>40.706332000000003</v>
+      </c>
+      <c r="C177">
+        <v>20.792128900000002</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B178" s="3">
-        <v>40.560954199999998</v>
-      </c>
-      <c r="C178" s="3">
-        <v>20.741793000000001</v>
+      <c r="B178">
+        <v>40.706364499999999</v>
+      </c>
+      <c r="C178">
+        <v>20.792159300000002</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B179" s="3">
-        <v>40.560938800000002</v>
-      </c>
-      <c r="C179" s="3">
-        <v>20.741807300000001</v>
+      <c r="B179">
+        <v>40.706411500000002</v>
+      </c>
+      <c r="C179">
+        <v>20.792268700000001</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B180" s="3">
-        <v>40.560957100000003</v>
-      </c>
-      <c r="C180" s="3">
-        <v>20.741800900000001</v>
+      <c r="B180">
+        <v>40.706522499999998</v>
+      </c>
+      <c r="C180">
+        <v>20.792271899999999</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B181" s="3">
-        <v>40.560913300000003</v>
-      </c>
-      <c r="C181" s="3">
-        <v>20.741778199999999</v>
+      <c r="B181">
+        <v>40.706542399999996</v>
+      </c>
+      <c r="C181">
+        <v>20.792244100000001</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B182" s="3">
-        <v>40.560971600000002</v>
-      </c>
-      <c r="C182" s="3">
-        <v>20.741804699999999</v>
+      <c r="B182">
+        <v>40.706692400000001</v>
+      </c>
+      <c r="C182">
+        <v>19.619727300000001</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B183" s="3">
-        <v>40.560976500000002</v>
-      </c>
-      <c r="C183" s="3">
-        <v>20.741814900000001</v>
+      <c r="B183">
+        <v>40.706701799999998</v>
+      </c>
+      <c r="C183">
+        <v>19.619714800000001</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B184" s="3">
-        <v>40.560958399999997</v>
-      </c>
-      <c r="C184" s="3">
-        <v>20.741810099999999</v>
+      <c r="B184">
+        <v>40.706772299999997</v>
+      </c>
+      <c r="C184">
+        <v>19.6196372</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B185" s="3">
-        <v>40.560943600000002</v>
-      </c>
-      <c r="C185" s="3">
-        <v>20.741804800000001</v>
+      <c r="B185">
+        <v>40.7068023</v>
+      </c>
+      <c r="C185">
+        <v>19.619588400000001</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B186" s="3">
-        <v>40.560890999999998</v>
-      </c>
-      <c r="C186" s="3">
-        <v>20.741639800000002</v>
+      <c r="B186">
+        <v>40.706893899999997</v>
+      </c>
+      <c r="C186">
+        <v>19.6428352</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B187" s="3">
-        <v>40.560895799999997</v>
-      </c>
-      <c r="C187" s="3">
-        <v>20.7416351</v>
+      <c r="B187">
+        <v>40.706900500000003</v>
+      </c>
+      <c r="C187">
+        <v>19.642841700000002</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B188" s="3">
-        <v>40.560902499999997</v>
-      </c>
-      <c r="C188" s="3">
-        <v>20.741630799999999</v>
+      <c r="B188">
+        <v>40.706901299999998</v>
+      </c>
+      <c r="C188">
+        <v>19.642845000000001</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B189" s="3">
-        <v>40.560876</v>
-      </c>
-      <c r="C189" s="3">
-        <v>20.7416111</v>
+      <c r="B189">
+        <v>40.7069014</v>
+      </c>
+      <c r="C189">
+        <v>19.642845300000001</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B190" s="3">
-        <v>40.5609155</v>
-      </c>
-      <c r="C190" s="3">
-        <v>20.741734999999998</v>
+      <c r="B190">
+        <v>40.706901600000002</v>
+      </c>
+      <c r="C190">
+        <v>19.642841900000001</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B191" s="3">
-        <v>40.560920099999997</v>
-      </c>
-      <c r="C191" s="3">
-        <v>20.7417166</v>
+      <c r="B191">
+        <v>40.706901799999997</v>
+      </c>
+      <c r="C191">
+        <v>19.6428431</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="3">
-        <v>40.560943000000002</v>
-      </c>
-      <c r="C192" s="3">
-        <v>20.741734000000001</v>
+      <c r="B192">
+        <v>40.706901899999998</v>
+      </c>
+      <c r="C192">
+        <v>19.642842399999999</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B193" s="3">
-        <v>40.561030199999998</v>
-      </c>
-      <c r="C193" s="3">
-        <v>20.741820499999999</v>
+      <c r="B193">
+        <v>40.706902399999997</v>
+      </c>
+      <c r="C193">
+        <v>19.642841700000002</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B194" s="3">
-        <v>40.626757300000001</v>
-      </c>
-      <c r="C194" s="3">
-        <v>20.702181899999999</v>
+      <c r="B194">
+        <v>40.706902999999997</v>
+      </c>
+      <c r="C194">
+        <v>19.642841000000001</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B195" s="3">
-        <v>42.362380299999998</v>
-      </c>
-      <c r="C195" s="3">
-        <v>20.073043899999998</v>
+      <c r="B195">
+        <v>40.706902999999997</v>
+      </c>
+      <c r="C195">
+        <v>19.642841000000001</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B196" s="3">
-        <v>40.6267402</v>
-      </c>
-      <c r="C196" s="3">
-        <v>20.702174200000002</v>
+      <c r="B196">
+        <v>40.706902999999997</v>
+      </c>
+      <c r="C196">
+        <v>19.6428498</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B197" s="3">
-        <v>40.626693099999997</v>
-      </c>
-      <c r="C197" s="3">
-        <v>20.702165600000001</v>
+      <c r="B197">
+        <v>40.706903599999997</v>
+      </c>
+      <c r="C197">
+        <v>19.6428406</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B198" s="3">
-        <v>40.626756899999997</v>
-      </c>
-      <c r="C198" s="3">
-        <v>20.7021792</v>
+      <c r="B198">
+        <v>40.706903599999997</v>
+      </c>
+      <c r="C198">
+        <v>19.6428406</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B199" s="3">
-        <v>40.6266879</v>
-      </c>
-      <c r="C199" s="3">
-        <v>20.702141099999999</v>
+      <c r="B199">
+        <v>40.7069039</v>
+      </c>
+      <c r="C199">
+        <v>19.642846599999999</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B200" s="3">
-        <v>40.626729900000001</v>
-      </c>
-      <c r="C200" s="3">
-        <v>20.702078700000001</v>
+      <c r="B200">
+        <v>40.7069039</v>
+      </c>
+      <c r="C200">
+        <v>19.642846599999999</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B201" s="3">
-        <v>40.626732799999999</v>
-      </c>
-      <c r="C201" s="3">
-        <v>20.702138900000001</v>
+      <c r="B201">
+        <v>40.7069039</v>
+      </c>
+      <c r="C201">
+        <v>19.642846599999999</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B202" s="3">
-        <v>40.626760599999997</v>
-      </c>
-      <c r="C202" s="3">
-        <v>20.702173200000001</v>
+      <c r="B202">
+        <v>40.706904100000003</v>
+      </c>
+      <c r="C202">
+        <v>19.642840899999999</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B203" s="3">
-        <v>40.626660800000003</v>
-      </c>
-      <c r="C203" s="3">
-        <v>20.702097500000001</v>
+      <c r="B203">
+        <v>40.706904199999997</v>
+      </c>
+      <c r="C203">
+        <v>19.642842099999999</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B204" s="3">
-        <v>42.362389700000001</v>
-      </c>
-      <c r="C204" s="3">
-        <v>20.073061500000001</v>
+      <c r="B204">
+        <v>40.706904199999997</v>
+      </c>
+      <c r="C204">
+        <v>19.642844199999999</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B205" s="3">
-        <v>42.3625051</v>
-      </c>
-      <c r="C205" s="3">
-        <v>20.072873000000001</v>
+      <c r="B205">
+        <v>40.706904199999997</v>
+      </c>
+      <c r="C205">
+        <v>19.6428507</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B206" s="3">
-        <v>42.362324800000003</v>
-      </c>
-      <c r="C206" s="3">
-        <v>20.073018999999999</v>
+      <c r="B206">
+        <v>40.7069276</v>
+      </c>
+      <c r="C206">
+        <v>19.642872400000002</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B207" s="3">
-        <v>40.610097000000003</v>
-      </c>
-      <c r="C207" s="3">
-        <v>20.691711999999999</v>
+      <c r="B207">
+        <v>40.706938000000001</v>
+      </c>
+      <c r="C207">
+        <v>19.642891299999999</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B208" s="3">
-        <v>40.609602500000001</v>
-      </c>
-      <c r="C208" s="3">
-        <v>20.691002099999999</v>
+      <c r="B208">
+        <v>40.706987699999999</v>
+      </c>
+      <c r="C208">
+        <v>19.642986499999999</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B209" s="3">
-        <v>40.6096109</v>
-      </c>
-      <c r="C209" s="3">
-        <v>20.691012700000002</v>
+      <c r="B209">
+        <v>40.707695800000003</v>
+      </c>
+      <c r="C209">
+        <v>19.639659000000002</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B210" s="3">
-        <v>40.610722099999997</v>
-      </c>
-      <c r="C210" s="3">
-        <v>20.692342499999999</v>
+      <c r="B210">
+        <v>40.707910900000002</v>
+      </c>
+      <c r="C210">
+        <v>19.639635800000001</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B211" s="3">
-        <v>40.611035399999999</v>
-      </c>
-      <c r="C211" s="3">
-        <v>20.693137100000001</v>
+      <c r="B211">
+        <v>40.707915800000002</v>
+      </c>
+      <c r="C211">
+        <v>19.6395126</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B212" s="3">
-        <v>40.6110173</v>
-      </c>
-      <c r="C212" s="3">
-        <v>20.693270999999999</v>
+      <c r="B212">
+        <v>40.7097604</v>
+      </c>
+      <c r="C212">
+        <v>19.9223955</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B213" s="3">
-        <v>40.611177699999999</v>
-      </c>
-      <c r="C213" s="3">
-        <v>20.693513100000001</v>
+      <c r="B213">
+        <v>40.7098473</v>
+      </c>
+      <c r="C213">
+        <v>19.922183700000001</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B214" s="3">
-        <v>40.611255800000002</v>
-      </c>
-      <c r="C214" s="3">
-        <v>20.693622900000001</v>
+      <c r="B214">
+        <v>40.712713800000003</v>
+      </c>
+      <c r="C214">
+        <v>19.920248699999998</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B215" s="3">
-        <v>40.611256900000001</v>
-      </c>
-      <c r="C215" s="3">
-        <v>20.6936219</v>
+      <c r="B215">
+        <v>40.712850500000002</v>
+      </c>
+      <c r="C215">
+        <v>19.919983899999998</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B216" s="3">
-        <v>40.611215199999997</v>
-      </c>
-      <c r="C216" s="3">
-        <v>20.693598900000001</v>
+      <c r="B216">
+        <v>40.713571999999999</v>
+      </c>
+      <c r="C216">
+        <v>19.620115500000001</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B217" s="3">
-        <v>40.611273199999999</v>
-      </c>
-      <c r="C217" s="3">
-        <v>20.6935851</v>
+      <c r="B217">
+        <v>40.713628900000003</v>
+      </c>
+      <c r="C217">
+        <v>19.619981899999999</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B218" s="3">
-        <v>40.611356299999997</v>
-      </c>
-      <c r="C218" s="3">
-        <v>20.693670900000001</v>
+      <c r="B218">
+        <v>40.713635600000003</v>
+      </c>
+      <c r="C218">
+        <v>19.619980099999999</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B219" s="3">
-        <v>40.610570299999999</v>
-      </c>
-      <c r="C219" s="3">
-        <v>20.6921496</v>
+      <c r="B219">
+        <v>40.713635799999999</v>
+      </c>
+      <c r="C219">
+        <v>19.619978799999998</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B220" s="3">
-        <v>40.611265699999997</v>
-      </c>
-      <c r="C220" s="3">
-        <v>20.693665299999999</v>
+      <c r="B220">
+        <v>40.714485000000003</v>
+      </c>
+      <c r="C220">
+        <v>19.378269299999999</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="3">
-        <v>40.611249700000002</v>
-      </c>
-      <c r="C221" s="3">
-        <v>20.693570399999999</v>
+      <c r="B221">
+        <v>40.715586799999997</v>
+      </c>
+      <c r="C221">
+        <v>19.364625499999999</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B222" s="3">
-        <v>40.611345100000001</v>
-      </c>
-      <c r="C222" s="3">
-        <v>20.693597400000002</v>
+      <c r="B222">
+        <v>40.715617899999998</v>
+      </c>
+      <c r="C222">
+        <v>19.378296500000001</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B223" s="3">
-        <v>40.611211599999997</v>
-      </c>
-      <c r="C223" s="3">
-        <v>20.693585500000001</v>
+      <c r="B223">
+        <v>40.715945499999997</v>
+      </c>
+      <c r="C223">
+        <v>19.936401100000001</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B224" s="3">
-        <v>40.611242799999999</v>
-      </c>
-      <c r="C224" s="3">
-        <v>20.693614400000001</v>
+      <c r="B224">
+        <v>40.716296900000003</v>
+      </c>
+      <c r="C224">
+        <v>19.920071</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B225" s="3">
-        <v>40.611170700000002</v>
-      </c>
-      <c r="C225" s="3">
-        <v>20.6936283</v>
+      <c r="B225">
+        <v>40.716326299999999</v>
+      </c>
+      <c r="C225">
+        <v>19.920121099999999</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B226" s="3">
-        <v>40.611260600000001</v>
-      </c>
-      <c r="C226" s="3">
-        <v>20.6935775</v>
+      <c r="B226">
+        <v>40.7176027</v>
+      </c>
+      <c r="C226">
+        <v>19.928751299999998</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B227" s="3">
-        <v>40.706542399999996</v>
-      </c>
-      <c r="C227" s="3">
-        <v>20.792244100000001</v>
+      <c r="B227">
+        <v>40.719552399999998</v>
+      </c>
+      <c r="C227">
+        <v>19.929415500000001</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B228" s="3">
-        <v>40.703667600000003</v>
-      </c>
-      <c r="C228" s="3">
-        <v>20.792092100000001</v>
+      <c r="B228">
+        <v>40.719557299999998</v>
+      </c>
+      <c r="C228">
+        <v>19.929417300000001</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B229" s="3">
-        <v>40.884521100000001</v>
-      </c>
-      <c r="C229" s="3">
-        <v>19.589540100000001</v>
+      <c r="B229">
+        <v>40.719562000000003</v>
+      </c>
+      <c r="C229">
+        <v>19.929419800000002</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B230" s="3">
-        <v>40.884501999999998</v>
-      </c>
-      <c r="C230" s="3">
-        <v>19.589530700000001</v>
+      <c r="B230">
+        <v>40.719580399999998</v>
+      </c>
+      <c r="C230">
+        <v>19.929424300000001</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B231" s="3">
-        <v>40.706522499999998</v>
-      </c>
-      <c r="C231" s="3">
-        <v>20.792271899999999</v>
+      <c r="B231">
+        <v>40.719606499999998</v>
+      </c>
+      <c r="C231">
+        <v>19.929391500000001</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B232" s="3">
-        <v>40.7046469</v>
-      </c>
-      <c r="C232" s="3">
-        <v>20.7913256</v>
+      <c r="B232">
+        <v>40.719628499999999</v>
+      </c>
+      <c r="C232">
+        <v>19.9293005</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B233" s="3">
-        <v>40.942221099999998</v>
-      </c>
-      <c r="C233" s="3">
-        <v>19.5372837</v>
+      <c r="B233">
+        <v>40.719827299999999</v>
+      </c>
+      <c r="C233">
+        <v>19.929644700000001</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B234" s="3">
-        <v>40.921858800000003</v>
-      </c>
-      <c r="C234" s="3">
-        <v>19.536833900000001</v>
+      <c r="B234">
+        <v>40.719831999999997</v>
+      </c>
+      <c r="C234">
+        <v>19.929725099999999</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B235" s="3">
-        <v>40.706364499999999</v>
-      </c>
-      <c r="C235" s="3">
-        <v>20.792159300000002</v>
+      <c r="B235">
+        <v>40.719981300000001</v>
+      </c>
+      <c r="C235">
+        <v>19.6205645</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B236" s="3">
-        <v>40.960527200000001</v>
-      </c>
-      <c r="C236" s="3">
-        <v>19.521292200000001</v>
+      <c r="B236">
+        <v>40.721211199999999</v>
+      </c>
+      <c r="C236">
+        <v>19.621170599999999</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="3">
-        <v>40.923311599999998</v>
-      </c>
-      <c r="C237" s="3">
-        <v>19.537331099999999</v>
+      <c r="B237">
+        <v>40.723148199999997</v>
+      </c>
+      <c r="C237">
+        <v>19.6215419</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B238" s="3">
-        <v>40.705325799999997</v>
-      </c>
-      <c r="C238" s="3">
-        <v>20.791675900000001</v>
+      <c r="B238">
+        <v>40.723165199999997</v>
+      </c>
+      <c r="C238">
+        <v>19.621562600000001</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B239" s="3">
-        <v>40.923311599999998</v>
-      </c>
-      <c r="C239" s="3">
-        <v>19.537331099999999</v>
+      <c r="B239">
+        <v>40.726554700000001</v>
+      </c>
+      <c r="C239">
+        <v>19.918095600000001</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B240" s="3">
-        <v>40.960527200000001</v>
-      </c>
-      <c r="C240" s="3">
-        <v>19.521292200000001</v>
+      <c r="B240">
+        <v>40.726563599999999</v>
+      </c>
+      <c r="C240">
+        <v>19.918086200000001</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B241" s="3">
-        <v>40.706411500000002</v>
-      </c>
-      <c r="C241" s="3">
-        <v>20.792268700000001</v>
+      <c r="B241">
+        <v>40.727240000000002</v>
+      </c>
+      <c r="C241">
+        <v>19.917599599999999</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B242" s="3">
-        <v>40.706332000000003</v>
-      </c>
-      <c r="C242" s="3">
-        <v>20.792128900000002</v>
+      <c r="B242">
+        <v>40.727244800000001</v>
+      </c>
+      <c r="C242">
+        <v>19.917643900000002</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B243" s="3">
-        <v>42.168859500000003</v>
-      </c>
-      <c r="C243" s="3">
-        <v>19.4817781</v>
+      <c r="B243">
+        <v>40.732548899999998</v>
+      </c>
+      <c r="C243">
+        <v>19.951014300000001</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B244" s="3">
-        <v>40.705536899999998</v>
-      </c>
-      <c r="C244" s="3">
-        <v>20.792016799999999</v>
+      <c r="B244">
+        <v>40.732582000000001</v>
+      </c>
+      <c r="C244">
+        <v>19.950976600000001</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B245" s="3">
-        <v>40.706282399999999</v>
-      </c>
-      <c r="C245" s="3">
-        <v>20.792267200000001</v>
+      <c r="B245">
+        <v>40.732599899999997</v>
+      </c>
+      <c r="C245">
+        <v>19.9510179</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B246" s="3">
-        <v>40.705341799999999</v>
-      </c>
-      <c r="C246" s="3">
-        <v>20.791884499999998</v>
+      <c r="B246">
+        <v>40.732653800000001</v>
+      </c>
+      <c r="C246">
+        <v>19.9510702</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B247" s="3">
-        <v>40.7061894</v>
-      </c>
-      <c r="C247" s="3">
-        <v>20.7921561</v>
+      <c r="B247">
+        <v>40.732927199999999</v>
+      </c>
+      <c r="C247">
+        <v>19.9516952</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B248" s="3">
-        <v>40.705005700000001</v>
-      </c>
-      <c r="C248" s="3">
-        <v>20.791491600000001</v>
+      <c r="B248">
+        <v>40.732995699999996</v>
+      </c>
+      <c r="C248">
+        <v>19.951576599999999</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B249" s="3">
-        <v>40.705502799999998</v>
-      </c>
-      <c r="C249" s="3">
-        <v>20.791700500000001</v>
+      <c r="B249">
+        <v>40.733176999999998</v>
+      </c>
+      <c r="C249">
+        <v>19.951240299999998</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B250" s="3">
-        <v>40.704983800000001</v>
-      </c>
-      <c r="C250" s="3">
-        <v>20.791447999999999</v>
+      <c r="B250">
+        <v>40.733191099999999</v>
+      </c>
+      <c r="C250">
+        <v>19.951478300000002</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B251" s="3">
-        <v>40.617686800000001</v>
-      </c>
-      <c r="C251" s="3">
-        <v>20.7716612</v>
+      <c r="B251">
+        <v>40.733231799999999</v>
+      </c>
+      <c r="C251">
+        <v>19.951413800000001</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B252" s="3">
-        <v>40.704856100000001</v>
-      </c>
-      <c r="C252" s="3">
-        <v>20.791373499999999</v>
+      <c r="B252">
+        <v>40.733246200000004</v>
+      </c>
+      <c r="C252">
+        <v>19.951404499999999</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B253" s="3">
-        <v>40.7049685</v>
-      </c>
-      <c r="C253" s="3">
-        <v>20.7914374</v>
+      <c r="B253">
+        <v>40.733415299999997</v>
+      </c>
+      <c r="C253">
+        <v>19.9512629</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B254" s="3">
-        <v>40.704788999999998</v>
-      </c>
-      <c r="C254" s="3">
-        <v>20.791447999999999</v>
+      <c r="B254">
+        <v>40.750765199999996</v>
+      </c>
+      <c r="C254">
+        <v>20.832402299999998</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B255" s="3">
-        <v>42.357349300000003</v>
-      </c>
-      <c r="C255" s="3">
-        <v>20.0740762</v>
+      <c r="B255">
+        <v>40.751758700000003</v>
+      </c>
+      <c r="C255">
+        <v>20.831425400000001</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B256" s="3">
-        <v>42.357340499999999</v>
-      </c>
-      <c r="C256" s="3">
-        <v>20.074083600000002</v>
+      <c r="B256">
+        <v>40.752531599999998</v>
+      </c>
+      <c r="C256">
+        <v>20.8312925</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B257" s="3">
-        <v>40.704794900000003</v>
-      </c>
-      <c r="C257" s="3">
-        <v>20.7913055</v>
+      <c r="B257">
+        <v>40.753555400000003</v>
+      </c>
+      <c r="C257">
+        <v>20.830983700000001</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B258" s="3">
-        <v>41.028359100000003</v>
-      </c>
-      <c r="C258" s="3">
-        <v>19.991171099999999</v>
+      <c r="B258">
+        <v>40.753583399999997</v>
+      </c>
+      <c r="C258">
+        <v>20.830621900000001</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B259" s="3">
-        <v>40.7044158</v>
-      </c>
-      <c r="C259" s="3">
-        <v>20.791806900000001</v>
+      <c r="B259">
+        <v>40.753585999999999</v>
+      </c>
+      <c r="C259">
+        <v>20.830670699999999</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B260" s="3">
-        <v>41.028087900000003</v>
-      </c>
-      <c r="C260" s="3">
-        <v>19.9908085</v>
+      <c r="B260">
+        <v>40.753666799999998</v>
+      </c>
+      <c r="C260">
+        <v>20.830617799999999</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B261" s="3">
-        <v>40.713635799999999</v>
-      </c>
-      <c r="C261" s="3">
-        <v>19.619978799999998</v>
+      <c r="B261">
+        <v>40.753786900000001</v>
+      </c>
+      <c r="C261">
+        <v>20.8306401</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B262" s="3">
-        <v>40.713635600000003</v>
-      </c>
-      <c r="C262" s="3">
-        <v>19.619980099999999</v>
+      <c r="B262">
+        <v>40.753895900000003</v>
+      </c>
+      <c r="C262">
+        <v>20.830523400000001</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B263" s="3">
-        <v>40.713628900000003</v>
-      </c>
-      <c r="C263" s="3">
-        <v>19.619981899999999</v>
+      <c r="B263">
+        <v>40.754075700000001</v>
+      </c>
+      <c r="C263">
+        <v>20.830336800000001</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B264" s="3">
-        <v>40.713571999999999</v>
-      </c>
-      <c r="C264" s="3">
-        <v>19.620115500000001</v>
+      <c r="B264">
+        <v>40.754475399999997</v>
+      </c>
+      <c r="C264">
+        <v>20.830290000000002</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B265" s="3">
-        <v>40.706701799999998</v>
-      </c>
-      <c r="C265" s="3">
-        <v>19.619714800000001</v>
+      <c r="B265">
+        <v>40.754765200000001</v>
+      </c>
+      <c r="C265">
+        <v>20.8299974</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B266" s="3">
-        <v>40.706772299999997</v>
-      </c>
-      <c r="C266" s="3">
-        <v>19.6196372</v>
+      <c r="B266">
+        <v>40.754839099999998</v>
+      </c>
+      <c r="C266">
+        <v>20.830075000000001</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B267" s="3">
-        <v>40.706692400000001</v>
-      </c>
-      <c r="C267" s="3">
-        <v>19.619727300000001</v>
+      <c r="B267">
+        <v>40.755149799999998</v>
+      </c>
+      <c r="C267">
+        <v>20.829772599999998</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B268" s="3">
-        <v>40.7068023</v>
-      </c>
-      <c r="C268" s="3">
-        <v>19.619588400000001</v>
+      <c r="B268">
+        <v>40.755449900000002</v>
+      </c>
+      <c r="C268">
+        <v>20.829460000000001</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B269" s="3">
-        <v>42.362310999999998</v>
-      </c>
-      <c r="C269" s="3">
-        <v>20.0729486</v>
+      <c r="B269">
+        <v>40.755571000000003</v>
+      </c>
+      <c r="C269">
+        <v>20.829272700000001</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B270" s="3">
-        <v>42.362290199999997</v>
-      </c>
-      <c r="C270" s="3">
-        <v>20.0729188</v>
+      <c r="B270">
+        <v>40.787739700000003</v>
+      </c>
+      <c r="C270">
+        <v>19.890906300000001</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B271" s="3">
-        <v>42.362548599999997</v>
-      </c>
-      <c r="C271" s="3">
-        <v>20.0736709</v>
+      <c r="B271">
+        <v>40.787742299999998</v>
+      </c>
+      <c r="C271">
+        <v>19.891085400000001</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B272" s="3">
-        <v>42.362232400000003</v>
-      </c>
-      <c r="C272" s="3">
-        <v>20.072844199999999</v>
+      <c r="B272">
+        <v>40.788063200000003</v>
+      </c>
+      <c r="C272">
+        <v>19.889257300000001</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B273" s="3">
-        <v>40.123410100000001</v>
-      </c>
-      <c r="C273" s="3">
-        <v>20.1118554</v>
+      <c r="B273">
+        <v>40.788562300000002</v>
+      </c>
+      <c r="C273">
+        <v>19.889311500000002</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B274" s="3">
-        <v>40.122214700000001</v>
-      </c>
-      <c r="C274" s="3">
-        <v>20.105774400000001</v>
+      <c r="B274">
+        <v>40.7888181</v>
+      </c>
+      <c r="C274">
+        <v>19.885175499999999</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B275" s="3">
-        <v>40.122556799999998</v>
-      </c>
-      <c r="C275" s="3">
-        <v>20.110113599999998</v>
+      <c r="B275">
+        <v>40.789079600000001</v>
+      </c>
+      <c r="C275">
+        <v>19.8854723</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B276" s="3">
-        <v>40.122549499999998</v>
-      </c>
-      <c r="C276" s="3">
-        <v>20.110094199999999</v>
+      <c r="B276">
+        <v>40.789417100000001</v>
+      </c>
+      <c r="C276">
+        <v>19.882364899999999</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B277" s="3">
-        <v>40.122547599999997</v>
-      </c>
-      <c r="C277" s="3">
-        <v>20.1100882</v>
+      <c r="B277">
+        <v>40.789435300000001</v>
+      </c>
+      <c r="C277">
+        <v>19.881999400000002</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B278" s="3">
-        <v>40.701578300000001</v>
-      </c>
-      <c r="C278" s="3">
-        <v>19.617272</v>
+      <c r="B278">
+        <v>40.789436000000002</v>
+      </c>
+      <c r="C278">
+        <v>19.8816652</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B279" s="3">
-        <v>40.701530200000001</v>
-      </c>
-      <c r="C279" s="3">
-        <v>19.617308300000001</v>
+      <c r="B279">
+        <v>40.789523500000001</v>
+      </c>
+      <c r="C279">
+        <v>19.881695499999999</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B280" s="3">
-        <v>40.707910900000002</v>
-      </c>
-      <c r="C280" s="3">
-        <v>19.639635800000001</v>
+      <c r="B280">
+        <v>40.789627500000002</v>
+      </c>
+      <c r="C280">
+        <v>19.881313200000001</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B281" s="3">
-        <v>40.707915800000002</v>
-      </c>
-      <c r="C281" s="3">
-        <v>19.6395126</v>
+      <c r="B281">
+        <v>40.789669500000002</v>
+      </c>
+      <c r="C281">
+        <v>19.8810368</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B282" s="3">
-        <v>40.707695800000003</v>
-      </c>
-      <c r="C282" s="3">
-        <v>19.639659000000002</v>
+      <c r="B282">
+        <v>40.789907700000001</v>
+      </c>
+      <c r="C282">
+        <v>19.880623700000001</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B283" s="3">
-        <v>40.706020799999997</v>
-      </c>
-      <c r="C283" s="3">
-        <v>19.639999100000001</v>
+      <c r="B283">
+        <v>40.789935900000003</v>
+      </c>
+      <c r="C283">
+        <v>19.8805701</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B284" s="3">
-        <v>40.1240138</v>
-      </c>
-      <c r="C284" s="3">
-        <v>20.1357748</v>
+      <c r="B284">
+        <v>40.790117000000002</v>
+      </c>
+      <c r="C284">
+        <v>19.880726899999999</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B285" s="3">
-        <v>40.699875400000003</v>
-      </c>
-      <c r="C285" s="3">
-        <v>19.6101435</v>
+      <c r="B285">
+        <v>40.791510100000004</v>
+      </c>
+      <c r="C285">
+        <v>19.880604999999999</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B286" s="3">
-        <v>40.700781900000003</v>
-      </c>
-      <c r="C286" s="3">
-        <v>19.612272000000001</v>
+      <c r="B286">
+        <v>40.791516399999999</v>
+      </c>
+      <c r="C286">
+        <v>19.880666600000001</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B287" s="3">
-        <v>40.719981300000001</v>
-      </c>
-      <c r="C287" s="3">
-        <v>19.6205645</v>
+      <c r="B287">
+        <v>40.791538600000003</v>
+      </c>
+      <c r="C287">
+        <v>19.880605800000001</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B288" s="3">
-        <v>40.721211199999999</v>
-      </c>
-      <c r="C288" s="3">
-        <v>19.621170599999999</v>
+      <c r="B288">
+        <v>40.791645199999998</v>
+      </c>
+      <c r="C288">
+        <v>19.880710100000002</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B289" s="3">
-        <v>40.723165199999997</v>
-      </c>
-      <c r="C289" s="3">
-        <v>19.621562600000001</v>
+      <c r="B289">
+        <v>40.791774599999997</v>
+      </c>
+      <c r="C289">
+        <v>19.880793300000001</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B290" s="3">
-        <v>42.163769799999997</v>
-      </c>
-      <c r="C290" s="3">
-        <v>19.4654448</v>
+      <c r="B290">
+        <v>40.793092000000001</v>
+      </c>
+      <c r="C290">
+        <v>19.880668799999999</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B291" s="3">
-        <v>40.723148199999997</v>
-      </c>
-      <c r="C291" s="3">
-        <v>19.6215419</v>
+      <c r="B291">
+        <v>40.793107499999998</v>
+      </c>
+      <c r="C291">
+        <v>19.880678100000001</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B292" s="3">
-        <v>40.085417300000003</v>
-      </c>
-      <c r="C292" s="3">
-        <v>20.1426938</v>
+      <c r="B292">
+        <v>40.793108699999998</v>
+      </c>
+      <c r="C292">
+        <v>19.880577800000001</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B293" s="3">
-        <v>40.085411999999998</v>
-      </c>
-      <c r="C293" s="3">
-        <v>20.142689300000001</v>
+      <c r="B293">
+        <v>40.793119599999997</v>
+      </c>
+      <c r="C293">
+        <v>19.8805601</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B294" s="3">
-        <v>40.085411999999998</v>
-      </c>
-      <c r="C294" s="3">
-        <v>20.142689300000001</v>
+      <c r="B294">
+        <v>40.793137399999999</v>
+      </c>
+      <c r="C294">
+        <v>19.8805704</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B295" s="3">
-        <v>40.085411999999998</v>
-      </c>
-      <c r="C295" s="3">
-        <v>20.142689300000001</v>
+      <c r="B295">
+        <v>40.815624300000003</v>
+      </c>
+      <c r="C295">
+        <v>19.500920399999998</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B296" s="3">
-        <v>40.0803966</v>
-      </c>
-      <c r="C296" s="3">
-        <v>20.138464599999999</v>
+      <c r="B296">
+        <v>40.815844400000003</v>
+      </c>
+      <c r="C296">
+        <v>19.499451499999999</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B297" s="3">
-        <v>40.971039699999999</v>
-      </c>
-      <c r="C297" s="3">
-        <v>20.004928100000001</v>
+      <c r="B297">
+        <v>40.816017700000003</v>
+      </c>
+      <c r="C297">
+        <v>19.500545200000001</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B298" s="3">
-        <v>40.983379999999997</v>
-      </c>
-      <c r="C298" s="3">
-        <v>20.0097433</v>
+      <c r="B298">
+        <v>40.816021599999999</v>
+      </c>
+      <c r="C298">
+        <v>19.5005454</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B299" s="3">
-        <v>41.003016700000003</v>
-      </c>
-      <c r="C299" s="3">
-        <v>20.017828099999999</v>
+      <c r="B299">
+        <v>40.816024499999997</v>
+      </c>
+      <c r="C299">
+        <v>19.5004867</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B300" s="3">
-        <v>41.015389999999996</v>
-      </c>
-      <c r="C300" s="3">
-        <v>20.0045033</v>
+      <c r="B300">
+        <v>40.816145400000003</v>
+      </c>
+      <c r="C300">
+        <v>19.4993044</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B301" s="3">
-        <v>40.125408999999998</v>
-      </c>
-      <c r="C301" s="3">
-        <v>20.136428299999999</v>
+      <c r="B301">
+        <v>40.816299399999998</v>
+      </c>
+      <c r="C301">
+        <v>19.5016237</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B302" s="3">
-        <v>40.125190500000002</v>
-      </c>
-      <c r="C302" s="3">
-        <v>20.136147699999999</v>
+      <c r="B302">
+        <v>40.816374099999997</v>
+      </c>
+      <c r="C302">
+        <v>19.499950599999998</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B303" s="3">
-        <v>40.125254699999999</v>
-      </c>
-      <c r="C303" s="3">
-        <v>20.136188700000002</v>
+      <c r="B303">
+        <v>40.816376900000002</v>
+      </c>
+      <c r="C303">
+        <v>19.499282099999999</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B304" s="3">
-        <v>40.125625300000003</v>
-      </c>
-      <c r="C304" s="3">
-        <v>20.136190599999999</v>
+      <c r="B304">
+        <v>40.819353700000001</v>
+      </c>
+      <c r="C304">
+        <v>19.501025800000001</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B305" s="3">
-        <v>40.1256561</v>
-      </c>
-      <c r="C305" s="3">
-        <v>20.136201199999999</v>
+      <c r="B305">
+        <v>40.825159300000003</v>
+      </c>
+      <c r="C305">
+        <v>19.501710500000002</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B306" s="3">
-        <v>40.847952599999999</v>
-      </c>
-      <c r="C306" s="3">
-        <v>19.6384829</v>
+      <c r="B306">
+        <v>40.8251633</v>
+      </c>
+      <c r="C306">
+        <v>19.501712900000001</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B307" s="3">
-        <v>40.858810900000002</v>
-      </c>
-      <c r="C307" s="3">
-        <v>19.6468189</v>
+      <c r="B307">
+        <v>40.830765300000003</v>
+      </c>
+      <c r="C307">
+        <v>19.914642099999998</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B308" s="3">
-        <v>40.146357500000001</v>
-      </c>
-      <c r="C308" s="3">
-        <v>20.0885335</v>
+      <c r="B308">
+        <v>40.830768900000002</v>
+      </c>
+      <c r="C308">
+        <v>19.914750099999999</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B309" s="3">
-        <v>40.145546199999998</v>
-      </c>
-      <c r="C309" s="3">
-        <v>20.089397000000002</v>
+      <c r="B309">
+        <v>40.830769400000001</v>
+      </c>
+      <c r="C309">
+        <v>19.9147502</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B310" s="3">
-        <v>40.141613</v>
-      </c>
-      <c r="C310" s="3">
-        <v>20.088227100000001</v>
+      <c r="B310">
+        <v>40.8309292</v>
+      </c>
+      <c r="C310">
+        <v>19.915116999999999</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B311" s="3">
-        <v>40.1443029</v>
-      </c>
-      <c r="C311" s="3">
-        <v>20.088320499999998</v>
+      <c r="B311">
+        <v>40.831096199999998</v>
+      </c>
+      <c r="C311">
+        <v>19.914892399999999</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B312" s="3">
-        <v>40.144500399999998</v>
-      </c>
-      <c r="C312" s="3">
-        <v>20.089192499999999</v>
+      <c r="B312">
+        <v>40.831157099999999</v>
+      </c>
+      <c r="C312">
+        <v>19.9144322</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B313" s="3">
-        <v>40.146357000000002</v>
-      </c>
-      <c r="C313" s="3">
-        <v>20.0885183</v>
+      <c r="B313">
+        <v>40.831263900000003</v>
+      </c>
+      <c r="C313">
+        <v>19.914763099999998</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B314" s="3">
-        <v>40.145260700000001</v>
-      </c>
-      <c r="C314" s="3">
-        <v>20.0883352</v>
+      <c r="B314">
+        <v>40.831297599999999</v>
+      </c>
+      <c r="C314">
+        <v>19.914582800000002</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B315" s="3">
-        <v>40.832867899999997</v>
-      </c>
-      <c r="C315" s="3">
-        <v>19.5192318</v>
+      <c r="B315">
+        <v>40.831350700000002</v>
+      </c>
+      <c r="C315">
+        <v>19.9143708</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B316" s="3">
-        <v>40.984084799999998</v>
-      </c>
-      <c r="C316" s="3">
-        <v>20.010112599999999</v>
+      <c r="B316">
+        <v>40.831402300000001</v>
+      </c>
+      <c r="C316">
+        <v>19.905214300000001</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B317" s="3">
-        <v>40.968437899999998</v>
-      </c>
-      <c r="C317" s="3">
-        <v>20.004564200000001</v>
+      <c r="B317">
+        <v>40.831462999999999</v>
+      </c>
+      <c r="C317">
+        <v>19.9050999</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B318" s="3">
-        <v>40.958093900000001</v>
-      </c>
-      <c r="C318" s="3">
-        <v>20.004059900000001</v>
+      <c r="B318">
+        <v>40.832106899999999</v>
+      </c>
+      <c r="C318">
+        <v>19.9140172</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B319" s="3">
-        <v>40.8251633</v>
-      </c>
-      <c r="C319" s="3">
-        <v>19.501712900000001</v>
+      <c r="B319">
+        <v>40.832867899999997</v>
+      </c>
+      <c r="C319">
+        <v>19.5192318</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B320" s="3">
-        <v>40.825159300000003</v>
-      </c>
-      <c r="C320" s="3">
-        <v>19.501710500000002</v>
+      <c r="B320">
+        <v>40.833075899999997</v>
+      </c>
+      <c r="C320">
+        <v>19.899447800000001</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B321" s="3">
-        <v>40.819353700000001</v>
-      </c>
-      <c r="C321" s="3">
-        <v>19.501025800000001</v>
+      <c r="B321">
+        <v>40.833088400000001</v>
+      </c>
+      <c r="C321">
+        <v>19.899494300000001</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B322" s="3">
-        <v>40.816021599999999</v>
-      </c>
-      <c r="C322" s="3">
-        <v>19.5005454</v>
+      <c r="B322">
+        <v>40.833199800000003</v>
+      </c>
+      <c r="C322">
+        <v>19.899630399999999</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B323" s="3">
-        <v>40.816017700000003</v>
-      </c>
-      <c r="C323" s="3">
-        <v>19.500545200000001</v>
+      <c r="B323">
+        <v>40.833230299999997</v>
+      </c>
+      <c r="C323">
+        <v>19.899614499999998</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B324" s="3">
-        <v>40.816024499999997</v>
-      </c>
-      <c r="C324" s="3">
-        <v>19.5004867</v>
+      <c r="B324">
+        <v>40.833234599999997</v>
+      </c>
+      <c r="C324">
+        <v>19.899541899999999</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B325" s="3">
-        <v>40.815624300000003</v>
-      </c>
-      <c r="C325" s="3">
-        <v>19.500920399999998</v>
+      <c r="B325">
+        <v>40.833263700000003</v>
+      </c>
+      <c r="C325">
+        <v>19.8994994</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B326" s="3">
-        <v>40.816299399999998</v>
-      </c>
-      <c r="C326" s="3">
-        <v>19.5016237</v>
+      <c r="B326">
+        <v>40.833284999999997</v>
+      </c>
+      <c r="C326">
+        <v>19.9020449</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B327" s="3">
-        <v>40.815844400000003</v>
-      </c>
-      <c r="C327" s="3">
-        <v>19.499451499999999</v>
+      <c r="B327">
+        <v>40.833285699999998</v>
+      </c>
+      <c r="C327">
+        <v>19.9020586</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B328" s="3">
-        <v>40.816145400000003</v>
-      </c>
-      <c r="C328" s="3">
-        <v>19.4993044</v>
+      <c r="B328">
+        <v>40.833434599999997</v>
+      </c>
+      <c r="C328">
+        <v>19.905183699999998</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B329" s="3">
-        <v>40.816376900000002</v>
-      </c>
-      <c r="C329" s="3">
-        <v>19.499282099999999</v>
+      <c r="B329">
+        <v>40.833481800000001</v>
+      </c>
+      <c r="C329">
+        <v>19.905455100000001</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B330" s="3">
-        <v>40.816374099999997</v>
-      </c>
-      <c r="C330" s="3">
-        <v>19.499950599999998</v>
+      <c r="B330">
+        <v>40.8335103</v>
+      </c>
+      <c r="C330">
+        <v>19.905443500000001</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B331" s="3">
-        <v>40.145259699999997</v>
-      </c>
-      <c r="C331" s="3">
-        <v>20.0883316</v>
+      <c r="B331">
+        <v>40.8335364</v>
+      </c>
+      <c r="C331">
+        <v>19.905429900000001</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B332" s="3">
-        <v>41.024334899999999</v>
-      </c>
-      <c r="C332" s="3">
-        <v>19.990079000000001</v>
+      <c r="B332">
+        <v>40.833536799999997</v>
+      </c>
+      <c r="C332">
+        <v>19.905182100000001</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B333" s="3">
-        <v>40.992705899999997</v>
-      </c>
-      <c r="C333" s="3">
-        <v>20.008908900000002</v>
+      <c r="B333">
+        <v>40.833566300000001</v>
+      </c>
+      <c r="C333">
+        <v>19.905406899999999</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B334" s="3">
-        <v>40.993041300000002</v>
-      </c>
-      <c r="C334" s="3">
-        <v>20.009329900000001</v>
+      <c r="B334">
+        <v>40.834567</v>
+      </c>
+      <c r="C334">
+        <v>19.905859599999999</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B335" s="3">
-        <v>40.992775199999997</v>
-      </c>
-      <c r="C335" s="3">
-        <v>20.009053399999999</v>
+      <c r="B335">
+        <v>40.834671499999999</v>
+      </c>
+      <c r="C335">
+        <v>19.905972599999998</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B336" s="3">
-        <v>40.992753100000002</v>
-      </c>
-      <c r="C336" s="3">
-        <v>20.008929500000001</v>
+      <c r="B336">
+        <v>40.847952599999999</v>
+      </c>
+      <c r="C336">
+        <v>19.6384829</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B337" s="3">
-        <v>41.697348599999998</v>
-      </c>
-      <c r="C337" s="3">
-        <v>20.3652677</v>
+      <c r="B337">
+        <v>40.858810900000002</v>
+      </c>
+      <c r="C337">
+        <v>19.6468189</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B338" s="3">
-        <v>41.6974752</v>
-      </c>
-      <c r="C338" s="3">
-        <v>20.365712200000001</v>
+      <c r="B338">
+        <v>40.884501999999998</v>
+      </c>
+      <c r="C338">
+        <v>19.589530700000001</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B339" s="3">
-        <v>41.697344899999997</v>
-      </c>
-      <c r="C339" s="3">
-        <v>20.3652804</v>
+      <c r="B339">
+        <v>40.884521100000001</v>
+      </c>
+      <c r="C339">
+        <v>19.589540100000001</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B340" s="3">
-        <v>41.028320399999998</v>
-      </c>
-      <c r="C340" s="3">
-        <v>19.991267400000002</v>
+      <c r="B340">
+        <v>40.921858800000003</v>
+      </c>
+      <c r="C340">
+        <v>19.536833900000001</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B341" s="3">
-        <v>41.6494499</v>
-      </c>
-      <c r="C341" s="3">
-        <v>20.457481600000001</v>
+      <c r="B341">
+        <v>40.923311599999998</v>
+      </c>
+      <c r="C341">
+        <v>19.537331099999999</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B342" s="3">
-        <v>41.6494097</v>
-      </c>
-      <c r="C342" s="3">
-        <v>20.457399500000001</v>
+      <c r="B342">
+        <v>40.923311599999998</v>
+      </c>
+      <c r="C342">
+        <v>19.537331099999999</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B343" s="3">
-        <v>41.6560354</v>
-      </c>
-      <c r="C343" s="3">
-        <v>20.434201300000002</v>
+      <c r="B343">
+        <v>40.942221099999998</v>
+      </c>
+      <c r="C343">
+        <v>19.5372837</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B344" s="3">
-        <v>41.608505999999998</v>
-      </c>
-      <c r="C344" s="3">
-        <v>20.470987600000001</v>
+      <c r="B344">
+        <v>40.958093900000001</v>
+      </c>
+      <c r="C344">
+        <v>20.004059900000001</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B345" s="3">
-        <v>41.654359100000001</v>
-      </c>
-      <c r="C345" s="3">
-        <v>20.436582000000001</v>
+      <c r="B345">
+        <v>40.960527200000001</v>
+      </c>
+      <c r="C345">
+        <v>19.521292200000001</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B346" s="3">
-        <v>41.654448299999999</v>
-      </c>
-      <c r="C346" s="3">
-        <v>20.43609</v>
+      <c r="B346">
+        <v>40.960527200000001</v>
+      </c>
+      <c r="C346">
+        <v>19.521292200000001</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B347" s="3">
-        <v>41.654629999999997</v>
-      </c>
-      <c r="C347" s="3">
-        <v>20.435296699999999</v>
+      <c r="B347">
+        <v>40.968437899999998</v>
+      </c>
+      <c r="C347">
+        <v>20.004564200000001</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B348" s="3">
-        <v>41.654047800000001</v>
-      </c>
-      <c r="C348" s="3">
-        <v>20.4345228</v>
+      <c r="B348">
+        <v>40.971039699999999</v>
+      </c>
+      <c r="C348">
+        <v>20.004928100000001</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B349" s="3">
-        <v>41.654052999999998</v>
-      </c>
-      <c r="C349" s="3">
-        <v>20.434523800000001</v>
+      <c r="B349">
+        <v>40.983379999999997</v>
+      </c>
+      <c r="C349">
+        <v>20.0097433</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B350" s="3">
-        <v>41.613504399999997</v>
-      </c>
-      <c r="C350" s="3">
-        <v>20.4782586</v>
+      <c r="B350">
+        <v>40.984084799999998</v>
+      </c>
+      <c r="C350">
+        <v>20.010112599999999</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B351" s="3">
-        <v>41.5688575</v>
-      </c>
-      <c r="C351" s="3">
-        <v>20.4444029</v>
+      <c r="B351">
+        <v>40.992705899999997</v>
+      </c>
+      <c r="C351">
+        <v>20.008908900000002</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B352" s="3">
-        <v>41.588593500000002</v>
-      </c>
-      <c r="C352" s="3">
-        <v>20.485208</v>
+      <c r="B352">
+        <v>40.992753100000002</v>
+      </c>
+      <c r="C352">
+        <v>20.008929500000001</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B353" s="3">
-        <v>40.833285699999998</v>
-      </c>
-      <c r="C353" s="3">
-        <v>19.9020586</v>
+      <c r="B353">
+        <v>40.992775199999997</v>
+      </c>
+      <c r="C353">
+        <v>20.009053399999999</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B354" s="3">
-        <v>40.833284999999997</v>
-      </c>
-      <c r="C354" s="3">
-        <v>19.9020449</v>
+      <c r="B354">
+        <v>40.993041300000002</v>
+      </c>
+      <c r="C354">
+        <v>20.009329900000001</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B355" s="3">
-        <v>41.0583569</v>
-      </c>
-      <c r="C355" s="3">
-        <v>20.041430099999999</v>
+      <c r="B355">
+        <v>41.000934000000001</v>
+      </c>
+      <c r="C355">
+        <v>20.0213693</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B356" s="3">
-        <v>41.053278300000002</v>
-      </c>
-      <c r="C356" s="3">
-        <v>20.0521733</v>
+      <c r="B356">
+        <v>41.001128399999999</v>
+      </c>
+      <c r="C356">
+        <v>20.020879900000001</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B357" s="3">
-        <v>41.046672100000002</v>
-      </c>
-      <c r="C357" s="3">
-        <v>20.030432399999999</v>
+      <c r="B357">
+        <v>41.003016700000003</v>
+      </c>
+      <c r="C357">
+        <v>20.017828099999999</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B358" s="3">
-        <v>41.048037000000001</v>
-      </c>
-      <c r="C358" s="3">
-        <v>20.027214399999998</v>
+      <c r="B358">
+        <v>41.015389999999996</v>
+      </c>
+      <c r="C358">
+        <v>20.0045033</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B359" s="3">
-        <v>41.047044200000002</v>
-      </c>
-      <c r="C359" s="3">
-        <v>20.028777399999999</v>
+      <c r="B359">
+        <v>41.024334899999999</v>
+      </c>
+      <c r="C359">
+        <v>19.990079000000001</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B360" s="3">
-        <v>41.0474107</v>
-      </c>
-      <c r="C360" s="3">
-        <v>20.028795899999999</v>
+      <c r="B360">
+        <v>41.028087900000003</v>
+      </c>
+      <c r="C360">
+        <v>19.9908085</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B361" s="3">
-        <v>41.067193400000001</v>
-      </c>
-      <c r="C361" s="3">
-        <v>20.052333099999998</v>
+      <c r="B361">
+        <v>41.028320399999998</v>
+      </c>
+      <c r="C361">
+        <v>19.991267400000002</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B362" s="3">
-        <v>41.052767099999997</v>
-      </c>
-      <c r="C362" s="3">
-        <v>20.051650599999999</v>
+      <c r="B362">
+        <v>41.028359100000003</v>
+      </c>
+      <c r="C362">
+        <v>19.991171099999999</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B363" s="3">
+      <c r="B363">
         <v>41.037975500000002</v>
       </c>
-      <c r="C363" s="3">
+      <c r="C363">
         <v>20.012066799999999</v>
       </c>
     </row>
@@ -4380,21 +4372,21 @@
       <c r="A364" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B364" s="3">
-        <v>41.046809400000001</v>
-      </c>
-      <c r="C364" s="3">
-        <v>20.0292767</v>
+      <c r="B364">
+        <v>41.046672100000002</v>
+      </c>
+      <c r="C364">
+        <v>20.030432399999999</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B365" s="3">
+      <c r="B365">
         <v>41.046804199999997</v>
       </c>
-      <c r="C365" s="3">
+      <c r="C365">
         <v>20.0292356</v>
       </c>
     </row>
@@ -4402,11 +4394,11 @@
       <c r="A366" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B366" s="3">
-        <v>41.047955600000002</v>
-      </c>
-      <c r="C366" s="3">
-        <v>20.027138000000001</v>
+      <c r="B366">
+        <v>41.046809400000001</v>
+      </c>
+      <c r="C366">
+        <v>20.0292767</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -4414,10 +4406,10 @@
         <v>3</v>
       </c>
       <c r="B367">
-        <v>41.047182499999998</v>
+        <v>41.047044200000002</v>
       </c>
       <c r="C367">
-        <v>20.027951099999999</v>
+        <v>20.028777399999999</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -4425,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="B368">
-        <v>41.063969999999998</v>
+        <v>41.047182499999998</v>
       </c>
       <c r="C368">
-        <v>20.052781700000001</v>
+        <v>20.027951099999999</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -4436,10 +4428,10 @@
         <v>3</v>
       </c>
       <c r="B369">
-        <v>42.003242399999998</v>
+        <v>41.047287599999997</v>
       </c>
       <c r="C369">
-        <v>19.613809100000001</v>
+        <v>20.041661399999999</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -4447,10 +4439,10 @@
         <v>3</v>
       </c>
       <c r="B370">
-        <v>42.003361200000001</v>
+        <v>41.0474107</v>
       </c>
       <c r="C370">
-        <v>19.613809499999999</v>
+        <v>20.028795899999999</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -4458,10 +4450,10 @@
         <v>3</v>
       </c>
       <c r="B371">
-        <v>42.003288699999999</v>
+        <v>41.047564899999998</v>
       </c>
       <c r="C371">
-        <v>19.613859699999999</v>
+        <v>20.042275100000001</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -4469,10 +4461,10 @@
         <v>3</v>
       </c>
       <c r="B372">
-        <v>42.006986099999999</v>
+        <v>41.047760400000001</v>
       </c>
       <c r="C372">
-        <v>19.6378609</v>
+        <v>20.042171199999999</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -4480,10 +4472,10 @@
         <v>3</v>
       </c>
       <c r="B373">
-        <v>42.007011400000003</v>
+        <v>41.047779499999997</v>
       </c>
       <c r="C373">
-        <v>19.637915899999999</v>
+        <v>20.042402899999999</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -4491,10 +4483,10 @@
         <v>3</v>
       </c>
       <c r="B374">
-        <v>42.007016299999997</v>
+        <v>41.047955600000002</v>
       </c>
       <c r="C374">
-        <v>19.6378035</v>
+        <v>20.027138000000001</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -4502,10 +4494,10 @@
         <v>3</v>
       </c>
       <c r="B375">
-        <v>41.997470800000002</v>
+        <v>41.048037000000001</v>
       </c>
       <c r="C375">
-        <v>19.549841600000001</v>
+        <v>20.027214399999998</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -4513,10 +4505,10 @@
         <v>3</v>
       </c>
       <c r="B376">
-        <v>41.997435000000003</v>
+        <v>41.052767099999997</v>
       </c>
       <c r="C376">
-        <v>19.5499048</v>
+        <v>20.051650599999999</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -4524,10 +4516,10 @@
         <v>3</v>
       </c>
       <c r="B377">
-        <v>41.997448200000001</v>
+        <v>41.053278300000002</v>
       </c>
       <c r="C377">
-        <v>19.549888800000002</v>
+        <v>20.0521733</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -4535,10 +4527,10 @@
         <v>3</v>
       </c>
       <c r="B378">
-        <v>41.997463400000001</v>
+        <v>41.0583569</v>
       </c>
       <c r="C378">
-        <v>19.549926500000002</v>
+        <v>20.041430099999999</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -4546,10 +4538,10 @@
         <v>3</v>
       </c>
       <c r="B379">
-        <v>41.997457599999997</v>
+        <v>41.062847400000003</v>
       </c>
       <c r="C379">
-        <v>19.5498808</v>
+        <v>19.989694499999999</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -4557,10 +4549,10 @@
         <v>3</v>
       </c>
       <c r="B380">
-        <v>41.997348100000004</v>
+        <v>41.0634637</v>
       </c>
       <c r="C380">
-        <v>19.549879000000001</v>
+        <v>19.976870600000002</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -4568,10 +4560,10 @@
         <v>3</v>
       </c>
       <c r="B381">
-        <v>41.997391100000002</v>
+        <v>41.063736900000002</v>
       </c>
       <c r="C381">
-        <v>19.5498838</v>
+        <v>19.976755600000001</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -4579,10 +4571,10 @@
         <v>3</v>
       </c>
       <c r="B382">
-        <v>41.997440599999997</v>
+        <v>41.063870600000001</v>
       </c>
       <c r="C382">
-        <v>19.5498826</v>
+        <v>19.976452900000002</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -4590,10 +4582,10 @@
         <v>3</v>
       </c>
       <c r="B383">
-        <v>41.978000899999998</v>
+        <v>41.063969999999998</v>
       </c>
       <c r="C383">
-        <v>19.6299104</v>
+        <v>20.052781700000001</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -4601,10 +4593,10 @@
         <v>3</v>
       </c>
       <c r="B384">
-        <v>41.9780205</v>
+        <v>41.064894299999999</v>
       </c>
       <c r="C384">
-        <v>19.629951899999998</v>
+        <v>19.978616299999999</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -4612,10 +4604,10 @@
         <v>3</v>
       </c>
       <c r="B385">
-        <v>41.977950399999997</v>
+        <v>41.065772199999998</v>
       </c>
       <c r="C385">
-        <v>19.630051699999999</v>
+        <v>19.978327</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -4623,10 +4615,10 @@
         <v>3</v>
       </c>
       <c r="B386">
-        <v>41.977942400000003</v>
+        <v>41.065883599999999</v>
       </c>
       <c r="C386">
-        <v>19.6300211</v>
+        <v>19.978474800000001</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -4634,10 +4626,10 @@
         <v>3</v>
       </c>
       <c r="B387">
-        <v>41.977897200000001</v>
+        <v>41.065923499999997</v>
       </c>
       <c r="C387">
-        <v>19.630003500000001</v>
+        <v>19.978878099999999</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -4645,10 +4637,10 @@
         <v>3</v>
       </c>
       <c r="B388">
-        <v>41.977890600000002</v>
+        <v>41.066156399999997</v>
       </c>
       <c r="C388">
-        <v>19.630082699999999</v>
+        <v>19.978925700000001</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -4656,10 +4648,10 @@
         <v>3</v>
       </c>
       <c r="B389">
-        <v>41.966019899999999</v>
+        <v>41.066741700000001</v>
       </c>
       <c r="C389">
-        <v>19.6371605</v>
+        <v>19.977825800000002</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -4667,10 +4659,10 @@
         <v>3</v>
       </c>
       <c r="B390">
-        <v>41.960501399999998</v>
+        <v>41.066805700000003</v>
       </c>
       <c r="C390">
-        <v>19.636326100000002</v>
+        <v>19.982392000000001</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -4678,10 +4670,10 @@
         <v>3</v>
       </c>
       <c r="B391">
-        <v>41.960837699999999</v>
+        <v>41.067193400000001</v>
       </c>
       <c r="C391">
-        <v>19.6368799</v>
+        <v>20.052333099999998</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -4689,10 +4681,10 @@
         <v>3</v>
       </c>
       <c r="B392">
-        <v>41.9610725</v>
+        <v>41.069335000000002</v>
       </c>
       <c r="C392">
-        <v>19.636762600000001</v>
+        <v>19.984805000000001</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -4700,10 +4692,10 @@
         <v>3</v>
       </c>
       <c r="B393">
-        <v>41.960927499999997</v>
+        <v>41.069341999999999</v>
       </c>
       <c r="C393">
-        <v>19.636730700000001</v>
+        <v>19.984977300000001</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -4711,10 +4703,10 @@
         <v>3</v>
       </c>
       <c r="B394">
-        <v>41.977901099999997</v>
+        <v>41.0698966</v>
       </c>
       <c r="C394">
-        <v>19.630028200000002</v>
+        <v>19.985111199999999</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -4722,10 +4714,10 @@
         <v>3</v>
       </c>
       <c r="B395">
-        <v>41.977848100000003</v>
+        <v>41.0710658</v>
       </c>
       <c r="C395">
-        <v>19.6300536</v>
+        <v>19.985009600000001</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -4733,10 +4725,10 @@
         <v>3</v>
       </c>
       <c r="B396">
-        <v>41.0634637</v>
+        <v>41.072071700000002</v>
       </c>
       <c r="C396">
-        <v>19.976870600000002</v>
+        <v>20.041710699999999</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -4744,10 +4736,10 @@
         <v>3</v>
       </c>
       <c r="B397">
-        <v>41.063736900000002</v>
+        <v>41.072356499999998</v>
       </c>
       <c r="C397">
-        <v>19.976755600000001</v>
+        <v>20.040371700000001</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -4755,10 +4747,10 @@
         <v>3</v>
       </c>
       <c r="B398">
-        <v>41.063870600000001</v>
+        <v>41.072875500000002</v>
       </c>
       <c r="C398">
-        <v>19.976452900000002</v>
+        <v>20.041034799999998</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -4766,10 +4758,10 @@
         <v>3</v>
       </c>
       <c r="B399">
-        <v>41.066156399999997</v>
+        <v>41.074826899999998</v>
       </c>
       <c r="C399">
-        <v>19.978925700000001</v>
+        <v>20.0449196</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -4777,10 +4769,10 @@
         <v>3</v>
       </c>
       <c r="B400">
-        <v>41.066741700000001</v>
+        <v>41.074863299999997</v>
       </c>
       <c r="C400">
-        <v>19.977825800000002</v>
+        <v>20.0440881</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -4788,10 +4780,10 @@
         <v>3</v>
       </c>
       <c r="B401">
-        <v>41.065772199999998</v>
+        <v>41.074932799999999</v>
       </c>
       <c r="C401">
-        <v>19.978327</v>
+        <v>20.044976500000001</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -4799,10 +4791,10 @@
         <v>3</v>
       </c>
       <c r="B402">
-        <v>41.064894299999999</v>
+        <v>41.075205500000003</v>
       </c>
       <c r="C402">
-        <v>19.978616299999999</v>
+        <v>20.044734600000002</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -4810,10 +4802,10 @@
         <v>3</v>
       </c>
       <c r="B403">
-        <v>41.065923499999997</v>
+        <v>41.075346099999997</v>
       </c>
       <c r="C403">
-        <v>19.978878099999999</v>
+        <v>20.0453467</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -4821,10 +4813,10 @@
         <v>3</v>
       </c>
       <c r="B404">
-        <v>41.065883599999999</v>
+        <v>41.075422500000002</v>
       </c>
       <c r="C404">
-        <v>19.978474800000001</v>
+        <v>20.0454416</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -4832,10 +4824,10 @@
         <v>3</v>
       </c>
       <c r="B405">
-        <v>42.006983400000003</v>
+        <v>41.075425500000001</v>
       </c>
       <c r="C405">
-        <v>19.637996999999999</v>
+        <v>20.045501000000002</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -4843,10 +4835,10 @@
         <v>3</v>
       </c>
       <c r="B406">
-        <v>41.960529000000001</v>
+        <v>41.0768676</v>
       </c>
       <c r="C406">
-        <v>19.636325200000002</v>
+        <v>20.038896000000001</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -4854,10 +4846,10 @@
         <v>3</v>
       </c>
       <c r="B407">
-        <v>41.960741300000002</v>
+        <v>41.077204100000003</v>
       </c>
       <c r="C407">
-        <v>19.637025999999999</v>
+        <v>20.0395121</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -4865,10 +4857,10 @@
         <v>3</v>
       </c>
       <c r="B408">
-        <v>41.961001000000003</v>
+        <v>41.077283600000001</v>
       </c>
       <c r="C408">
-        <v>19.636742600000002</v>
+        <v>20.039661800000001</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -4876,10 +4868,10 @@
         <v>3</v>
       </c>
       <c r="B409">
-        <v>41.9610603</v>
+        <v>41.077538199999999</v>
       </c>
       <c r="C409">
-        <v>19.6367856</v>
+        <v>20.040127900000002</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -4887,10 +4879,10 @@
         <v>3</v>
       </c>
       <c r="B410">
-        <v>41.977593900000002</v>
+        <v>41.077629700000003</v>
       </c>
       <c r="C410">
-        <v>19.628239799999999</v>
+        <v>20.040025199999999</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -4898,10 +4890,10 @@
         <v>3</v>
       </c>
       <c r="B411">
-        <v>41.977579400000003</v>
+        <v>41.077751599999999</v>
       </c>
       <c r="C411">
-        <v>19.628174900000001</v>
+        <v>20.039908</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -4909,10 +4901,10 @@
         <v>3</v>
       </c>
       <c r="B412">
-        <v>41.977645699999997</v>
+        <v>41.077992700000003</v>
       </c>
       <c r="C412">
-        <v>19.628126200000001</v>
+        <v>20.038893300000002</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -4920,10 +4912,10 @@
         <v>3</v>
       </c>
       <c r="B413">
-        <v>41.977623800000003</v>
+        <v>41.078218900000003</v>
       </c>
       <c r="C413">
-        <v>19.628193199999998</v>
+        <v>20.040419700000001</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -4931,10 +4923,10 @@
         <v>3</v>
       </c>
       <c r="B414">
-        <v>41.977569799999998</v>
+        <v>41.078769000000001</v>
       </c>
       <c r="C414">
-        <v>19.628201099999998</v>
+        <v>20.038345899999999</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -4942,10 +4934,10 @@
         <v>3</v>
       </c>
       <c r="B415">
-        <v>41.977555799999998</v>
+        <v>41.0788777</v>
       </c>
       <c r="C415">
-        <v>19.6282277</v>
+        <v>20.039146299999999</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -4953,10 +4945,10 @@
         <v>3</v>
       </c>
       <c r="B416">
-        <v>41.977525200000002</v>
+        <v>41.360628800000001</v>
       </c>
       <c r="C416">
-        <v>19.628163799999999</v>
+        <v>19.5641301</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -4964,10 +4956,10 @@
         <v>3</v>
       </c>
       <c r="B417">
-        <v>41.977598800000003</v>
+        <v>41.365637800000002</v>
       </c>
       <c r="C417">
-        <v>19.628169499999998</v>
+        <v>19.549973300000001</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -4975,10 +4967,10 @@
         <v>3</v>
       </c>
       <c r="B418">
-        <v>41.062847400000003</v>
+        <v>41.379489</v>
       </c>
       <c r="C418">
-        <v>19.989694499999999</v>
+        <v>19.542874300000001</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -4986,10 +4978,10 @@
         <v>3</v>
       </c>
       <c r="B419">
-        <v>41.066805700000003</v>
+        <v>41.388695599999998</v>
       </c>
       <c r="C419">
-        <v>19.982392000000001</v>
+        <v>19.550103199999999</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -4997,10 +4989,10 @@
         <v>3</v>
       </c>
       <c r="B420">
-        <v>41.069335000000002</v>
+        <v>41.394496500000002</v>
       </c>
       <c r="C420">
-        <v>19.984805000000001</v>
+        <v>19.544613900000002</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -5008,10 +5000,10 @@
         <v>3</v>
       </c>
       <c r="B421">
-        <v>41.069341999999999</v>
+        <v>41.396787600000003</v>
       </c>
       <c r="C421">
-        <v>19.984977300000001</v>
+        <v>19.539857399999999</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -5019,10 +5011,10 @@
         <v>3</v>
       </c>
       <c r="B422">
-        <v>41.0698966</v>
+        <v>41.400360599999999</v>
       </c>
       <c r="C422">
-        <v>19.985111199999999</v>
+        <v>19.545108299999999</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -5030,10 +5022,10 @@
         <v>3</v>
       </c>
       <c r="B423">
-        <v>41.0710658</v>
+        <v>41.4230527</v>
       </c>
       <c r="C423">
-        <v>19.985009600000001</v>
+        <v>19.548993299999999</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -5041,10 +5033,10 @@
         <v>3</v>
       </c>
       <c r="B424">
-        <v>42.048915200000003</v>
+        <v>41.426992900000002</v>
       </c>
       <c r="C424">
-        <v>19.568248799999999</v>
+        <v>19.563263500000001</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -5052,10 +5044,10 @@
         <v>3</v>
       </c>
       <c r="B425">
-        <v>42.048879900000003</v>
+        <v>41.427428800000001</v>
       </c>
       <c r="C425">
-        <v>19.5681832</v>
+        <v>19.5628137</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -5063,10 +5055,10 @@
         <v>3</v>
       </c>
       <c r="B426">
-        <v>42.033742500000002</v>
+        <v>41.5688575</v>
       </c>
       <c r="C426">
-        <v>19.568710899999999</v>
+        <v>20.4444029</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -5074,10 +5066,10 @@
         <v>3</v>
       </c>
       <c r="B427">
-        <v>42.048942599999997</v>
+        <v>41.588593500000002</v>
       </c>
       <c r="C427">
-        <v>19.568131399999999</v>
+        <v>20.485208</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -5085,10 +5077,10 @@
         <v>3</v>
       </c>
       <c r="B428">
-        <v>42.048980499999999</v>
+        <v>41.608505999999998</v>
       </c>
       <c r="C428">
-        <v>19.568137700000001</v>
+        <v>20.470987600000001</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -5096,10 +5088,10 @@
         <v>3</v>
       </c>
       <c r="B429">
-        <v>42.033753400000002</v>
+        <v>41.613504399999997</v>
       </c>
       <c r="C429">
-        <v>19.568732600000001</v>
+        <v>20.4782586</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -5107,10 +5099,10 @@
         <v>3</v>
       </c>
       <c r="B430">
-        <v>42.027567699999999</v>
+        <v>41.6494097</v>
       </c>
       <c r="C430">
-        <v>19.548205200000002</v>
+        <v>20.457399500000001</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -5118,10 +5110,10 @@
         <v>3</v>
       </c>
       <c r="B431">
-        <v>42.027596099999997</v>
+        <v>41.6494499</v>
       </c>
       <c r="C431">
-        <v>19.548204399999999</v>
+        <v>20.457481600000001</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -5129,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="B432">
-        <v>42.028405399999997</v>
+        <v>41.654047800000001</v>
       </c>
       <c r="C432">
-        <v>19.548815999999999</v>
+        <v>20.4345228</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -5140,10 +5132,10 @@
         <v>3</v>
       </c>
       <c r="B433">
-        <v>41.047564899999998</v>
+        <v>41.654052999999998</v>
       </c>
       <c r="C433">
-        <v>20.042275100000001</v>
+        <v>20.434523800000001</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -5151,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="B434">
-        <v>41.047779499999997</v>
+        <v>41.654359100000001</v>
       </c>
       <c r="C434">
-        <v>20.042402899999999</v>
+        <v>20.436582000000001</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -5162,10 +5154,10 @@
         <v>3</v>
       </c>
       <c r="B435">
-        <v>41.072875500000002</v>
+        <v>41.654448299999999</v>
       </c>
       <c r="C435">
-        <v>20.041034799999998</v>
+        <v>20.43609</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -5173,10 +5165,10 @@
         <v>3</v>
       </c>
       <c r="B436">
-        <v>41.074863299999997</v>
+        <v>41.654629999999997</v>
       </c>
       <c r="C436">
-        <v>20.0440881</v>
+        <v>20.435296699999999</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -5184,10 +5176,10 @@
         <v>3</v>
       </c>
       <c r="B437">
-        <v>41.075422500000002</v>
+        <v>41.6560354</v>
       </c>
       <c r="C437">
-        <v>20.0454416</v>
+        <v>20.434201300000002</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -5195,10 +5187,10 @@
         <v>3</v>
       </c>
       <c r="B438">
-        <v>41.075205500000003</v>
+        <v>41.697344899999997</v>
       </c>
       <c r="C438">
-        <v>20.044734600000002</v>
+        <v>20.3652804</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -5206,10 +5198,10 @@
         <v>3</v>
       </c>
       <c r="B439">
-        <v>41.074826899999998</v>
+        <v>41.697348599999998</v>
       </c>
       <c r="C439">
-        <v>20.0449196</v>
+        <v>20.3652677</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -5217,10 +5209,10 @@
         <v>3</v>
       </c>
       <c r="B440">
-        <v>41.047287599999997</v>
+        <v>41.6974752</v>
       </c>
       <c r="C440">
-        <v>20.041661399999999</v>
+        <v>20.365712200000001</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -5228,10 +5220,10 @@
         <v>3</v>
       </c>
       <c r="B441">
-        <v>41.047760400000001</v>
+        <v>41.879133899999999</v>
       </c>
       <c r="C441">
-        <v>20.042171199999999</v>
+        <v>19.6379625</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -5239,10 +5231,10 @@
         <v>3</v>
       </c>
       <c r="B442">
-        <v>41.072071700000002</v>
+        <v>41.879137499999999</v>
       </c>
       <c r="C442">
-        <v>20.041710699999999</v>
+        <v>19.6380126</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -5250,10 +5242,10 @@
         <v>3</v>
       </c>
       <c r="B443">
-        <v>41.072356499999998</v>
+        <v>41.879153100000003</v>
       </c>
       <c r="C443">
-        <v>20.040371700000001</v>
+        <v>19.637986999999999</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -5261,10 +5253,10 @@
         <v>3</v>
       </c>
       <c r="B444">
-        <v>41.075425500000001</v>
+        <v>41.879153600000002</v>
       </c>
       <c r="C444">
-        <v>20.045501000000002</v>
+        <v>19.637971199999999</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -5272,10 +5264,10 @@
         <v>3</v>
       </c>
       <c r="B445">
-        <v>41.075346099999997</v>
+        <v>41.895533899999997</v>
       </c>
       <c r="C445">
-        <v>20.0453467</v>
+        <v>19.646892600000001</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -5283,10 +5275,10 @@
         <v>3</v>
       </c>
       <c r="B446">
-        <v>41.074932799999999</v>
+        <v>41.895617700000003</v>
       </c>
       <c r="C446">
-        <v>20.044976500000001</v>
+        <v>19.6467311</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -5294,10 +5286,10 @@
         <v>3</v>
       </c>
       <c r="B447">
-        <v>41.078218900000003</v>
+        <v>41.895659000000002</v>
       </c>
       <c r="C447">
-        <v>20.040419700000001</v>
+        <v>19.6468165</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -5305,10 +5297,10 @@
         <v>3</v>
       </c>
       <c r="B448">
-        <v>41.077992700000003</v>
+        <v>41.895677399999997</v>
       </c>
       <c r="C448">
-        <v>20.038893300000002</v>
+        <v>19.646854300000001</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -5316,10 +5308,10 @@
         <v>3</v>
       </c>
       <c r="B449">
-        <v>41.077283600000001</v>
+        <v>41.9212907</v>
       </c>
       <c r="C449">
-        <v>20.039661800000001</v>
+        <v>19.6009083</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -5327,10 +5319,10 @@
         <v>3</v>
       </c>
       <c r="B450">
-        <v>41.077538199999999</v>
+        <v>41.921292800000003</v>
       </c>
       <c r="C450">
-        <v>20.040127900000002</v>
+        <v>19.600942199999999</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -5338,10 +5330,10 @@
         <v>3</v>
       </c>
       <c r="B451">
-        <v>41.0788777</v>
+        <v>41.921295299999997</v>
       </c>
       <c r="C451">
-        <v>20.039146299999999</v>
+        <v>19.600906299999998</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -5349,10 +5341,10 @@
         <v>3</v>
       </c>
       <c r="B452">
-        <v>41.077751599999999</v>
+        <v>41.921300600000002</v>
       </c>
       <c r="C452">
-        <v>20.039908</v>
+        <v>19.600891499999999</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -5360,10 +5352,10 @@
         <v>3</v>
       </c>
       <c r="B453">
-        <v>41.0768676</v>
+        <v>41.921302099999998</v>
       </c>
       <c r="C453">
-        <v>20.038896000000001</v>
+        <v>19.600870799999999</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -5371,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="B454">
-        <v>41.077204100000003</v>
+        <v>41.921326000000001</v>
       </c>
       <c r="C454">
-        <v>20.0395121</v>
+        <v>19.600899099999999</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -5382,10 +5374,10 @@
         <v>3</v>
       </c>
       <c r="B455">
-        <v>41.077629700000003</v>
+        <v>41.921332</v>
       </c>
       <c r="C455">
-        <v>20.040025199999999</v>
+        <v>19.600918100000001</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -5393,10 +5385,10 @@
         <v>3</v>
       </c>
       <c r="B456">
-        <v>41.078769000000001</v>
+        <v>41.921332499999998</v>
       </c>
       <c r="C456">
-        <v>20.038345899999999</v>
+        <v>19.600961300000002</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -5404,10 +5396,10 @@
         <v>3</v>
       </c>
       <c r="B457">
-        <v>42.027619700000002</v>
+        <v>41.960501399999998</v>
       </c>
       <c r="C457">
-        <v>19.548174299999999</v>
+        <v>19.636326100000002</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -5415,10 +5407,10 @@
         <v>3</v>
       </c>
       <c r="B458">
-        <v>42.027496599999999</v>
+        <v>41.960529000000001</v>
       </c>
       <c r="C458">
-        <v>19.548194500000001</v>
+        <v>19.636325200000002</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -5426,10 +5418,10 @@
         <v>3</v>
       </c>
       <c r="B459">
-        <v>42.0283807</v>
+        <v>41.960741300000002</v>
       </c>
       <c r="C459">
-        <v>19.548843000000002</v>
+        <v>19.637025999999999</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -5437,10 +5429,10 @@
         <v>3</v>
       </c>
       <c r="B460">
-        <v>42.040329300000003</v>
+        <v>41.960837699999999</v>
       </c>
       <c r="C460">
-        <v>19.5258304</v>
+        <v>19.6368799</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -5448,10 +5440,10 @@
         <v>3</v>
       </c>
       <c r="B461">
-        <v>42.039446900000002</v>
+        <v>41.960927499999997</v>
       </c>
       <c r="C461">
-        <v>19.5244815</v>
+        <v>19.636730700000001</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -5459,10 +5451,10 @@
         <v>3</v>
       </c>
       <c r="B462">
-        <v>42.040169800000001</v>
+        <v>41.961001000000003</v>
       </c>
       <c r="C462">
-        <v>19.5228927</v>
+        <v>19.636742600000002</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -5470,10 +5462,10 @@
         <v>3</v>
       </c>
       <c r="B463">
-        <v>42.040343300000004</v>
+        <v>41.9610603</v>
       </c>
       <c r="C463">
-        <v>19.522110000000001</v>
+        <v>19.6367856</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -5481,10 +5473,10 @@
         <v>3</v>
       </c>
       <c r="B464">
-        <v>42.040287399999997</v>
+        <v>41.9610725</v>
       </c>
       <c r="C464">
-        <v>19.525865799999998</v>
+        <v>19.636762600000001</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -5492,10 +5484,10 @@
         <v>3</v>
       </c>
       <c r="B465">
-        <v>42.039496300000003</v>
+        <v>41.966019899999999</v>
       </c>
       <c r="C465">
-        <v>19.524458299999999</v>
+        <v>19.6371605</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -5503,10 +5495,10 @@
         <v>3</v>
       </c>
       <c r="B466">
-        <v>42.040169499999998</v>
+        <v>41.977525200000002</v>
       </c>
       <c r="C466">
-        <v>19.523026600000001</v>
+        <v>19.628163799999999</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -5514,10 +5506,10 @@
         <v>3</v>
       </c>
       <c r="B467">
-        <v>42.040445300000002</v>
+        <v>41.977555799999998</v>
       </c>
       <c r="C467">
-        <v>19.522058600000001</v>
+        <v>19.6282277</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -5525,10 +5517,10 @@
         <v>3</v>
       </c>
       <c r="B468">
-        <v>41.360628800000001</v>
+        <v>41.977569799999998</v>
       </c>
       <c r="C468">
-        <v>19.5641301</v>
+        <v>19.628201099999998</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -5536,13 +5528,1040 @@
         <v>3</v>
       </c>
       <c r="B469">
+        <v>41.977579400000003</v>
+      </c>
+      <c r="C469">
+        <v>19.628174900000001</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B470">
+        <v>41.977593900000002</v>
+      </c>
+      <c r="C470">
+        <v>19.628239799999999</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B471">
+        <v>41.977598800000003</v>
+      </c>
+      <c r="C471">
+        <v>19.628169499999998</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B472">
+        <v>41.977623800000003</v>
+      </c>
+      <c r="C472">
+        <v>19.628193199999998</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B473">
+        <v>41.977645699999997</v>
+      </c>
+      <c r="C473">
+        <v>19.628126200000001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B474">
+        <v>41.977848100000003</v>
+      </c>
+      <c r="C474">
+        <v>19.6300536</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B475">
+        <v>41.977890600000002</v>
+      </c>
+      <c r="C475">
+        <v>19.630082699999999</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B476">
+        <v>41.977897200000001</v>
+      </c>
+      <c r="C476">
+        <v>19.630003500000001</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B477">
+        <v>41.977901099999997</v>
+      </c>
+      <c r="C477">
+        <v>19.630028200000002</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B478">
+        <v>41.977942400000003</v>
+      </c>
+      <c r="C478">
+        <v>19.6300211</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B479">
+        <v>41.977950399999997</v>
+      </c>
+      <c r="C479">
+        <v>19.630051699999999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B480">
+        <v>41.978000899999998</v>
+      </c>
+      <c r="C480">
+        <v>19.6299104</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B481">
+        <v>41.9780205</v>
+      </c>
+      <c r="C481">
+        <v>19.629951899999998</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B482">
+        <v>41.997348100000004</v>
+      </c>
+      <c r="C482">
+        <v>19.549879000000001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B483">
+        <v>41.997391100000002</v>
+      </c>
+      <c r="C483">
+        <v>19.5498838</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B484">
+        <v>41.997435000000003</v>
+      </c>
+      <c r="C484">
+        <v>19.5499048</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B485">
+        <v>41.997440599999997</v>
+      </c>
+      <c r="C485">
+        <v>19.5498826</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B486">
+        <v>41.997448200000001</v>
+      </c>
+      <c r="C486">
+        <v>19.549888800000002</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B487">
+        <v>41.997457599999997</v>
+      </c>
+      <c r="C487">
+        <v>19.5498808</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B488">
+        <v>41.997463400000001</v>
+      </c>
+      <c r="C488">
+        <v>19.549926500000002</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B489">
+        <v>41.997470800000002</v>
+      </c>
+      <c r="C489">
+        <v>19.549841600000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B490">
+        <v>42.003242399999998</v>
+      </c>
+      <c r="C490">
+        <v>19.613809100000001</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B491">
+        <v>42.003288699999999</v>
+      </c>
+      <c r="C491">
+        <v>19.613859699999999</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B492">
+        <v>42.003361200000001</v>
+      </c>
+      <c r="C492">
+        <v>19.613809499999999</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B493">
+        <v>42.006983400000003</v>
+      </c>
+      <c r="C493">
+        <v>19.637996999999999</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B494">
+        <v>42.006986099999999</v>
+      </c>
+      <c r="C494">
+        <v>19.6378609</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B495">
         <v>42.006993299999998</v>
       </c>
-      <c r="C469">
+      <c r="C495">
         <v>19.6379242</v>
       </c>
     </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B496">
+        <v>42.007011400000003</v>
+      </c>
+      <c r="C496">
+        <v>19.637915899999999</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B497">
+        <v>42.007016299999997</v>
+      </c>
+      <c r="C497">
+        <v>19.6378035</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B498">
+        <v>42.027496599999999</v>
+      </c>
+      <c r="C498">
+        <v>19.548194500000001</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B499">
+        <v>42.027567699999999</v>
+      </c>
+      <c r="C499">
+        <v>19.548205200000002</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B500">
+        <v>42.027596099999997</v>
+      </c>
+      <c r="C500">
+        <v>19.548204399999999</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B501">
+        <v>42.027619700000002</v>
+      </c>
+      <c r="C501">
+        <v>19.548174299999999</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B502">
+        <v>42.0283807</v>
+      </c>
+      <c r="C502">
+        <v>19.548843000000002</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B503">
+        <v>42.028405399999997</v>
+      </c>
+      <c r="C503">
+        <v>19.548815999999999</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B504">
+        <v>42.033742500000002</v>
+      </c>
+      <c r="C504">
+        <v>19.568710899999999</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B505">
+        <v>42.033753400000002</v>
+      </c>
+      <c r="C505">
+        <v>19.568732600000001</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B506">
+        <v>42.039446900000002</v>
+      </c>
+      <c r="C506">
+        <v>19.5244815</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B507">
+        <v>42.039496300000003</v>
+      </c>
+      <c r="C507">
+        <v>19.524458299999999</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B508">
+        <v>42.040169499999998</v>
+      </c>
+      <c r="C508">
+        <v>19.523026600000001</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B509">
+        <v>42.040169800000001</v>
+      </c>
+      <c r="C509">
+        <v>19.5228927</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B510">
+        <v>42.040287399999997</v>
+      </c>
+      <c r="C510">
+        <v>19.525865799999998</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B511">
+        <v>42.040329300000003</v>
+      </c>
+      <c r="C511">
+        <v>19.5258304</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B512">
+        <v>42.040343300000004</v>
+      </c>
+      <c r="C512">
+        <v>19.522110000000001</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B513">
+        <v>42.040445300000002</v>
+      </c>
+      <c r="C513">
+        <v>19.522058600000001</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B514">
+        <v>42.048879900000003</v>
+      </c>
+      <c r="C514">
+        <v>19.5681832</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B515">
+        <v>42.048915200000003</v>
+      </c>
+      <c r="C515">
+        <v>19.568248799999999</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B516">
+        <v>42.048942599999997</v>
+      </c>
+      <c r="C516">
+        <v>19.568131399999999</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B517">
+        <v>42.048980499999999</v>
+      </c>
+      <c r="C517">
+        <v>19.568137700000001</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B518">
+        <v>42.163769799999997</v>
+      </c>
+      <c r="C518">
+        <v>19.4654448</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B519">
+        <v>42.168859500000003</v>
+      </c>
+      <c r="C519">
+        <v>19.4817781</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B520">
+        <v>42.197084799999999</v>
+      </c>
+      <c r="C520">
+        <v>19.451702999999998</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B521">
+        <v>42.211303399999998</v>
+      </c>
+      <c r="C521">
+        <v>19.430100299999999</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B522">
+        <v>42.211848600000003</v>
+      </c>
+      <c r="C522">
+        <v>19.4321713</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B523">
+        <v>42.2123676</v>
+      </c>
+      <c r="C523">
+        <v>19.433116200000001</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B524">
+        <v>42.212802199999999</v>
+      </c>
+      <c r="C524">
+        <v>19.433364900000001</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B525">
+        <v>42.218670099999997</v>
+      </c>
+      <c r="C525">
+        <v>19.4468459</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B526">
+        <v>42.223769799999999</v>
+      </c>
+      <c r="C526">
+        <v>19.467558700000001</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B527">
+        <v>42.223892999999997</v>
+      </c>
+      <c r="C527">
+        <v>19.4676455</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B528">
+        <v>42.224658699999999</v>
+      </c>
+      <c r="C528">
+        <v>19.454990200000001</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B529">
+        <v>42.224680999999997</v>
+      </c>
+      <c r="C529">
+        <v>19.454992300000001</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B530">
+        <v>42.224828000000002</v>
+      </c>
+      <c r="C530">
+        <v>19.455191299999999</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B531">
+        <v>42.276982799999999</v>
+      </c>
+      <c r="C531">
+        <v>19.516658100000001</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B532">
+        <v>42.277197200000003</v>
+      </c>
+      <c r="C532">
+        <v>19.5138845</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B533">
+        <v>42.2772711</v>
+      </c>
+      <c r="C533">
+        <v>19.5165753</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B534">
+        <v>42.277285499999998</v>
+      </c>
+      <c r="C534">
+        <v>19.5167021</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B535">
+        <v>42.277492600000002</v>
+      </c>
+      <c r="C535">
+        <v>19.518242699999998</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B536">
+        <v>42.277654499999997</v>
+      </c>
+      <c r="C536">
+        <v>19.518281200000001</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B537">
+        <v>42.277683500000002</v>
+      </c>
+      <c r="C537">
+        <v>19.517837</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B538">
+        <v>42.277751299999998</v>
+      </c>
+      <c r="C538">
+        <v>19.517457</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B539">
+        <v>42.277850600000001</v>
+      </c>
+      <c r="C539">
+        <v>19.517997699999999</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B540">
+        <v>42.277923800000003</v>
+      </c>
+      <c r="C540">
+        <v>19.517572699999999</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B541">
+        <v>42.278105400000001</v>
+      </c>
+      <c r="C541">
+        <v>19.519205199999998</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B542">
+        <v>42.280393400000001</v>
+      </c>
+      <c r="C542">
+        <v>19.522840299999999</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B543">
+        <v>42.280515899999997</v>
+      </c>
+      <c r="C543">
+        <v>19.5225586</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B544">
+        <v>42.281401099999997</v>
+      </c>
+      <c r="C544">
+        <v>19.5229967</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B545">
+        <v>42.281402300000003</v>
+      </c>
+      <c r="C545">
+        <v>19.522993199999998</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B546">
+        <v>42.281427899999997</v>
+      </c>
+      <c r="C546">
+        <v>19.523053399999998</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B547">
+        <v>42.281467300000003</v>
+      </c>
+      <c r="C547">
+        <v>19.523060099999999</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B548">
+        <v>42.354520000000001</v>
+      </c>
+      <c r="C548">
+        <v>20.09741</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B549">
+        <v>42.3545771</v>
+      </c>
+      <c r="C549">
+        <v>20.097271200000002</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B550">
+        <v>42.356902699999999</v>
+      </c>
+      <c r="C550">
+        <v>20.0758039</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B551">
+        <v>42.357340499999999</v>
+      </c>
+      <c r="C551">
+        <v>20.074083600000002</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B552">
+        <v>42.357349300000003</v>
+      </c>
+      <c r="C552">
+        <v>20.0740762</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B553">
+        <v>42.357396000000001</v>
+      </c>
+      <c r="C553">
+        <v>20.074011299999999</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B554">
+        <v>42.361485600000002</v>
+      </c>
+      <c r="C554">
+        <v>20.076916300000001</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B555">
+        <v>42.362232400000003</v>
+      </c>
+      <c r="C555">
+        <v>20.072844199999999</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B556">
+        <v>42.362290199999997</v>
+      </c>
+      <c r="C556">
+        <v>20.0729188</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B557">
+        <v>42.362310999999998</v>
+      </c>
+      <c r="C557">
+        <v>20.0729486</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B558">
+        <v>42.362324800000003</v>
+      </c>
+      <c r="C558">
+        <v>20.073018999999999</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B559">
+        <v>42.362380299999998</v>
+      </c>
+      <c r="C559">
+        <v>20.073043899999998</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B560">
+        <v>42.362389700000001</v>
+      </c>
+      <c r="C560">
+        <v>20.073061500000001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B561">
+        <v>42.3625051</v>
+      </c>
+      <c r="C561">
+        <v>20.072873000000001</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B562">
+        <v>42.362548599999997</v>
+      </c>
+      <c r="C562">
+        <v>20.0736709</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:C469">
+    <sortCondition ref="B2:B469"/>
+    <sortCondition ref="C2:C469"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/locations.xlsx
+++ b/locations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CFBF6F-64E3-4D43-A466-F67D3E64C542}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AEB6C0-02AD-48F9-A1C9-BD5ABA083E81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C562"/>
+  <dimension ref="A1:C673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A549" workbookViewId="0">
-      <selection activeCell="E561" sqref="E561"/>
+    <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
+      <selection activeCell="I663" sqref="I663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,10 +391,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>39.707455500000002</v>
+        <v>40.792129600000003</v>
       </c>
       <c r="C2">
-        <v>20.079796900000002</v>
+        <v>19.6809233</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -402,10 +402,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>39.707461500000001</v>
+        <v>40.792193400000002</v>
       </c>
       <c r="C3">
-        <v>20.079887599999999</v>
+        <v>19.6808698</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -413,10 +413,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>39.707712100000002</v>
+        <v>40.800304599999997</v>
       </c>
       <c r="C4">
-        <v>20.0789756</v>
+        <v>19.677160600000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -424,10 +424,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>39.7077217</v>
+        <v>40.800268000000003</v>
       </c>
       <c r="C5">
-        <v>20.079260000000001</v>
+        <v>19.677620999999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -435,10 +435,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>39.707762199999998</v>
+        <v>40.7992445</v>
       </c>
       <c r="C6">
-        <v>20.0790495</v>
+        <v>19.677506300000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -446,10 +446,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>39.707901</v>
+        <v>40.799314199999998</v>
       </c>
       <c r="C7">
-        <v>20.079008600000002</v>
+        <v>19.677471600000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -457,10 +457,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>39.708398099999997</v>
+        <v>40.799476900000002</v>
       </c>
       <c r="C8">
-        <v>20.0777258</v>
+        <v>19.677488400000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,10 +468,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>39.708763400000002</v>
+        <v>40.799523299999997</v>
       </c>
       <c r="C9">
-        <v>20.077130499999999</v>
+        <v>19.677418200000002</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,10 +479,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>39.724699200000003</v>
+        <v>40.799110300000002</v>
       </c>
       <c r="C10">
-        <v>20.060351199999999</v>
+        <v>19.677479399999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -490,10 +490,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>39.724715600000003</v>
+        <v>40.799134199999997</v>
       </c>
       <c r="C11">
-        <v>20.0603625</v>
+        <v>19.677496300000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,10 +501,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>39.72475</v>
+        <v>40.799369400000003</v>
       </c>
       <c r="C12">
-        <v>20.0604759</v>
+        <v>19.677579099999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,10 +512,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>39.7247524</v>
+        <v>40.799382899999998</v>
       </c>
       <c r="C13">
-        <v>20.0605984</v>
+        <v>19.677555699999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -523,10 +523,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>39.724754500000003</v>
+        <v>40.814185299999998</v>
       </c>
       <c r="C14">
-        <v>20.060115499999998</v>
+        <v>19.647363299999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -534,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>39.724755000000002</v>
+        <v>40.814226599999998</v>
       </c>
       <c r="C15">
-        <v>20.060296900000001</v>
+        <v>19.647311200000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -545,10 +545,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>39.7247597</v>
+        <v>40.812759700000001</v>
       </c>
       <c r="C16">
-        <v>20.060221299999998</v>
+        <v>19.6488929</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -556,10 +556,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>39.724788699999998</v>
+        <v>40.812752099999997</v>
       </c>
       <c r="C17">
-        <v>20.060086500000001</v>
+        <v>19.649114600000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -567,10 +567,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>39.724794899999999</v>
+        <v>40.813244099999999</v>
       </c>
       <c r="C18">
-        <v>20.060378400000001</v>
+        <v>19.648493599999998</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -578,10 +578,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>39.724811799999998</v>
+        <v>40.813957600000002</v>
       </c>
       <c r="C19">
-        <v>20.060134999999999</v>
+        <v>19.6475692</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -589,10 +589,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>39.724812300000004</v>
+        <v>40.814023800000001</v>
       </c>
       <c r="C20">
-        <v>20.0603418</v>
+        <v>19.647484200000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -600,10 +600,10 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>39.7248132</v>
+        <v>40.814236800000003</v>
       </c>
       <c r="C21">
-        <v>20.060044099999999</v>
+        <v>19.647193300000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -611,10 +611,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>39.724826200000003</v>
+        <v>40.8142584</v>
       </c>
       <c r="C22">
-        <v>20.0600755</v>
+        <v>19.6472129</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -622,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>39.724834799999996</v>
+        <v>40.812978100000002</v>
       </c>
       <c r="C23">
-        <v>20.060324900000001</v>
+        <v>19.649002100000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -633,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>39.724858599999997</v>
+        <v>40.812999699999999</v>
       </c>
       <c r="C24">
-        <v>20.060358399999998</v>
+        <v>19.649001500000001</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -644,10 +644,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>39.724868499999999</v>
+        <v>40.813932700000002</v>
       </c>
       <c r="C25">
-        <v>20.060166500000001</v>
+        <v>19.648393200000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -655,10 +655,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>39.724870699999997</v>
+        <v>40.813991700000003</v>
       </c>
       <c r="C26">
-        <v>20.060207500000001</v>
+        <v>19.648417999999999</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -666,10 +666,10 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>39.724873700000003</v>
+        <v>40.813771500000001</v>
       </c>
       <c r="C27">
-        <v>20.060207399999999</v>
+        <v>19.6485892</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -677,10 +677,10 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>39.724874</v>
+        <v>40.8137981</v>
       </c>
       <c r="C28">
-        <v>20.060063800000002</v>
+        <v>19.648539299999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>39.724875699999998</v>
+        <v>40.812669800000002</v>
       </c>
       <c r="C29">
-        <v>20.0602135</v>
+        <v>19.648364900000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -699,10 +699,10 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>40.077355900000001</v>
+        <v>40.814300000000003</v>
       </c>
       <c r="C30">
-        <v>20.197298700000001</v>
+        <v>19.647061000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -710,10 +710,10 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>40.078309300000001</v>
+        <v>40.812794699999998</v>
       </c>
       <c r="C31">
-        <v>20.197348600000002</v>
+        <v>19.6491054</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -721,10 +721,10 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>40.078662199999997</v>
+        <v>40.8128083</v>
       </c>
       <c r="C32">
-        <v>20.198665399999999</v>
+        <v>19.649169000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,10 +732,10 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>40.078676700000003</v>
+        <v>40.812833500000004</v>
       </c>
       <c r="C33">
-        <v>20.1971685</v>
+        <v>19.6491355</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -743,10 +743,10 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>40.079382299999999</v>
+        <v>40.813052599999999</v>
       </c>
       <c r="C34">
-        <v>20.198820600000001</v>
+        <v>19.648142199999999</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -754,10 +754,10 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>40.079405999999999</v>
+        <v>40.812915400000001</v>
       </c>
       <c r="C35">
-        <v>20.198710999999999</v>
+        <v>19.648927</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -765,10 +765,10 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>40.079405999999999</v>
+        <v>40.8128703</v>
       </c>
       <c r="C36">
-        <v>20.198713300000001</v>
+        <v>19.6490656</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -776,10 +776,10 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>40.079592099999999</v>
+        <v>40.812905899999997</v>
       </c>
       <c r="C37">
-        <v>20.1988606</v>
+        <v>19.648576599999998</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,10 +787,10 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>40.0803966</v>
+        <v>40.812951099999999</v>
       </c>
       <c r="C38">
-        <v>20.138464599999999</v>
+        <v>19.648587899999999</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -798,10 +798,10 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>40.080606600000003</v>
+        <v>40.814317000000003</v>
       </c>
       <c r="C39">
-        <v>20.199174599999999</v>
+        <v>19.647172699999999</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -809,10 +809,10 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>40.081661699999998</v>
+        <v>40.8141064</v>
       </c>
       <c r="C40">
-        <v>20.141024900000001</v>
+        <v>19.647444</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -820,10 +820,10 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>40.085411999999998</v>
+        <v>40.812769600000003</v>
       </c>
       <c r="C41">
-        <v>20.142689300000001</v>
+        <v>19.6489549</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,10 +831,10 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>40.085411999999998</v>
+        <v>40.812781899999997</v>
       </c>
       <c r="C42">
-        <v>20.142689300000001</v>
+        <v>19.6490124</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -842,10 +842,10 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>40.085411999999998</v>
+        <v>40.8130028</v>
       </c>
       <c r="C43">
-        <v>20.142689300000001</v>
+        <v>19.649371899999998</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,10 +853,10 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>40.085417300000003</v>
+        <v>40.812969099999997</v>
       </c>
       <c r="C44">
-        <v>20.1426938</v>
+        <v>19.649452499999999</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -864,10 +864,10 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>40.087675099999998</v>
+        <v>40.813196699999999</v>
       </c>
       <c r="C45">
-        <v>20.146864000000001</v>
+        <v>19.649304099999998</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>40.122214700000001</v>
+        <v>40.81344</v>
       </c>
       <c r="C46">
-        <v>20.105774400000001</v>
+        <v>19.648582399999999</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,10 +886,10 @@
         <v>3</v>
       </c>
       <c r="B47">
-        <v>40.122547599999997</v>
+        <v>40.813451000000001</v>
       </c>
       <c r="C47">
-        <v>20.1100882</v>
+        <v>19.6485713</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,10 +897,10 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>40.122549499999998</v>
+        <v>40.813309699999998</v>
       </c>
       <c r="C48">
-        <v>20.110094199999999</v>
+        <v>19.648656599999999</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,10 +908,10 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>40.122556799999998</v>
+        <v>40.870192799999998</v>
       </c>
       <c r="C49">
-        <v>20.110113599999998</v>
+        <v>19.783277600000002</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -919,10 +919,10 @@
         <v>3</v>
       </c>
       <c r="B50">
-        <v>40.123410100000001</v>
+        <v>40.872033199999997</v>
       </c>
       <c r="C50">
-        <v>20.1118554</v>
+        <v>19.7834088</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -930,10 +930,10 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <v>40.1240138</v>
+        <v>40.871076199999997</v>
       </c>
       <c r="C51">
-        <v>20.1357748</v>
+        <v>19.7829561</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -941,10 +941,10 @@
         <v>3</v>
       </c>
       <c r="B52">
-        <v>40.125190500000002</v>
+        <v>40.8713014</v>
       </c>
       <c r="C52">
-        <v>20.136147699999999</v>
+        <v>19.7834574</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -952,10 +952,10 @@
         <v>3</v>
       </c>
       <c r="B53">
-        <v>40.125254699999999</v>
+        <v>40.871474300000003</v>
       </c>
       <c r="C53">
-        <v>20.136188700000002</v>
+        <v>19.783778000000002</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,10 +963,10 @@
         <v>3</v>
       </c>
       <c r="B54">
-        <v>40.125408999999998</v>
+        <v>40.870344299999999</v>
       </c>
       <c r="C54">
-        <v>20.136428299999999</v>
+        <v>19.783258700000001</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -974,10 +974,10 @@
         <v>3</v>
       </c>
       <c r="B55">
-        <v>40.125625300000003</v>
+        <v>40.870428099999998</v>
       </c>
       <c r="C55">
-        <v>20.136190599999999</v>
+        <v>19.783260299999998</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -985,10 +985,10 @@
         <v>3</v>
       </c>
       <c r="B56">
-        <v>40.1256561</v>
+        <v>40.8720134</v>
       </c>
       <c r="C56">
-        <v>20.136201199999999</v>
+        <v>19.7832142</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -996,10 +996,10 @@
         <v>3</v>
       </c>
       <c r="B57">
-        <v>40.141613</v>
+        <v>40.871835799999999</v>
       </c>
       <c r="C57">
-        <v>20.088227100000001</v>
+        <v>19.7834355</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1007,10 +1007,10 @@
         <v>3</v>
       </c>
       <c r="B58">
-        <v>40.1443029</v>
+        <v>40.871401599999999</v>
       </c>
       <c r="C58">
-        <v>20.088320499999998</v>
+        <v>19.782639</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,10 +1018,10 @@
         <v>3</v>
       </c>
       <c r="B59">
-        <v>40.144500399999998</v>
+        <v>40.871400899999998</v>
       </c>
       <c r="C59">
-        <v>20.089192499999999</v>
+        <v>19.782747100000002</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1029,10 +1029,10 @@
         <v>3</v>
       </c>
       <c r="B60">
-        <v>40.145259699999997</v>
+        <v>40.871590599999998</v>
       </c>
       <c r="C60">
-        <v>20.0883316</v>
+        <v>19.7833446</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,10 +1040,10 @@
         <v>3</v>
       </c>
       <c r="B61">
-        <v>40.145260700000001</v>
+        <v>40.871583100000002</v>
       </c>
       <c r="C61">
-        <v>20.0883352</v>
+        <v>19.783349999999999</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="B62">
-        <v>40.145546199999998</v>
+        <v>40.871504700000003</v>
       </c>
       <c r="C62">
-        <v>20.089397000000002</v>
+        <v>19.7832048</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>3</v>
       </c>
       <c r="B63">
-        <v>40.146357000000002</v>
+        <v>40.871468800000002</v>
       </c>
       <c r="C63">
-        <v>20.0885183</v>
+        <v>19.783245900000001</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1073,10 +1073,10 @@
         <v>3</v>
       </c>
       <c r="B64">
-        <v>40.146357500000001</v>
+        <v>40.871464500000002</v>
       </c>
       <c r="C64">
-        <v>20.0885335</v>
+        <v>19.783217199999999</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,10 +1084,10 @@
         <v>3</v>
       </c>
       <c r="B65">
-        <v>40.473079800000001</v>
+        <v>40.871112699999998</v>
       </c>
       <c r="C65">
-        <v>19.5857904</v>
+        <v>19.783152999999999</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>3</v>
       </c>
       <c r="B66">
-        <v>40.473109600000001</v>
+        <v>40.869821299999998</v>
       </c>
       <c r="C66">
-        <v>19.585835899999999</v>
+        <v>19.7831574</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1106,10 +1106,10 @@
         <v>3</v>
       </c>
       <c r="B67">
-        <v>40.473110800000001</v>
+        <v>40.869192099999999</v>
       </c>
       <c r="C67">
-        <v>19.585873200000002</v>
+        <v>19.7833258</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1117,10 +1117,10 @@
         <v>3</v>
       </c>
       <c r="B68">
-        <v>40.473116699999999</v>
+        <v>40.869734899999997</v>
       </c>
       <c r="C68">
-        <v>19.585831599999999</v>
+        <v>19.783295200000001</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1128,10 +1128,10 @@
         <v>3</v>
       </c>
       <c r="B69">
-        <v>40.473118300000003</v>
+        <v>40.872396999999999</v>
       </c>
       <c r="C69">
-        <v>19.585835800000002</v>
+        <v>19.784795200000001</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1139,10 +1139,10 @@
         <v>3</v>
       </c>
       <c r="B70">
-        <v>40.473130300000001</v>
+        <v>40.872273999999997</v>
       </c>
       <c r="C70">
-        <v>19.585894100000001</v>
+        <v>19.7844531</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1150,10 +1150,10 @@
         <v>3</v>
       </c>
       <c r="B71">
-        <v>40.473141599999998</v>
+        <v>40.869737600000001</v>
       </c>
       <c r="C71">
-        <v>19.585715</v>
+        <v>19.783133599999999</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1161,10 +1161,10 @@
         <v>3</v>
       </c>
       <c r="B72">
-        <v>40.473160499999999</v>
+        <v>40.869686399999999</v>
       </c>
       <c r="C72">
-        <v>19.585739700000001</v>
+        <v>19.783105200000001</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1172,10 +1172,10 @@
         <v>3</v>
       </c>
       <c r="B73">
-        <v>40.473161300000001</v>
+        <v>40.869138</v>
       </c>
       <c r="C73">
-        <v>19.585716300000001</v>
+        <v>19.783284099999999</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1183,10 +1183,10 @@
         <v>3</v>
       </c>
       <c r="B74">
-        <v>40.473167500000002</v>
+        <v>40.869193199999998</v>
       </c>
       <c r="C74">
-        <v>19.585747999999999</v>
+        <v>19.783314900000001</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1194,10 +1194,10 @@
         <v>3</v>
       </c>
       <c r="B75">
-        <v>40.473168100000002</v>
+        <v>40.869468500000004</v>
       </c>
       <c r="C75">
-        <v>19.5856186</v>
+        <v>19.783034700000002</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1205,10 +1205,10 @@
         <v>3</v>
       </c>
       <c r="B76">
-        <v>40.473178900000001</v>
+        <v>40.869424700000003</v>
       </c>
       <c r="C76">
-        <v>19.5857241</v>
+        <v>19.7829792</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1216,10 +1216,10 @@
         <v>3</v>
       </c>
       <c r="B77">
-        <v>40.473179000000002</v>
+        <v>40.8691411</v>
       </c>
       <c r="C77">
-        <v>19.585709099999999</v>
+        <v>19.7828564</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1227,10 +1227,10 @@
         <v>3</v>
       </c>
       <c r="B78">
-        <v>40.473179100000003</v>
+        <v>40.869276599999999</v>
       </c>
       <c r="C78">
-        <v>19.585701799999999</v>
+        <v>19.782949299999999</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1238,10 +1238,10 @@
         <v>3</v>
       </c>
       <c r="B79">
-        <v>40.473182799999996</v>
+        <v>40.830548</v>
       </c>
       <c r="C79">
-        <v>19.5857198</v>
+        <v>19.9073438</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1249,10 +1249,10 @@
         <v>3</v>
       </c>
       <c r="B80">
-        <v>40.473194300000003</v>
+        <v>40.823501200000003</v>
       </c>
       <c r="C80">
-        <v>19.5856602</v>
+        <v>19.914798600000001</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1260,10 +1260,10 @@
         <v>3</v>
       </c>
       <c r="B81">
-        <v>40.497632199999998</v>
+        <v>40.782726099999998</v>
       </c>
       <c r="C81">
-        <v>19.5034046</v>
+        <v>19.846120299999999</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1271,10 +1271,10 @@
         <v>3</v>
       </c>
       <c r="B82">
-        <v>40.4983912</v>
+        <v>40.782470400000001</v>
       </c>
       <c r="C82">
-        <v>19.502630799999999</v>
+        <v>19.845968500000001</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1282,10 +1282,10 @@
         <v>3</v>
       </c>
       <c r="B83">
-        <v>40.501772299999999</v>
+        <v>40.782051500000001</v>
       </c>
       <c r="C83">
-        <v>19.529599099999999</v>
+        <v>19.846303200000001</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1293,10 +1293,10 @@
         <v>3</v>
       </c>
       <c r="B84">
-        <v>40.501944299999998</v>
+        <v>40.782400500000001</v>
       </c>
       <c r="C84">
-        <v>19.529445500000001</v>
+        <v>19.846080400000002</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1304,10 +1304,10 @@
         <v>3</v>
       </c>
       <c r="B85">
-        <v>40.536762899999999</v>
+        <v>40.780792499999997</v>
       </c>
       <c r="C85">
-        <v>19.5339077</v>
+        <v>19.8458404</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1315,10 +1315,10 @@
         <v>3</v>
       </c>
       <c r="B86">
-        <v>40.5368244</v>
+        <v>40.780321899999997</v>
       </c>
       <c r="C86">
-        <v>19.5338207</v>
+        <v>19.844059900000001</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1326,10 +1326,10 @@
         <v>3</v>
       </c>
       <c r="B87">
-        <v>40.536845100000001</v>
+        <v>40.823356099999998</v>
       </c>
       <c r="C87">
-        <v>19.533787400000001</v>
+        <v>19.914894700000001</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1337,10 +1337,10 @@
         <v>3</v>
       </c>
       <c r="B88">
-        <v>40.536847100000003</v>
+        <v>40.782972999999998</v>
       </c>
       <c r="C88">
-        <v>19.533850300000001</v>
+        <v>19.846183199999999</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1348,10 +1348,10 @@
         <v>3</v>
       </c>
       <c r="B89">
-        <v>40.536850800000003</v>
+        <v>40.782709699999998</v>
       </c>
       <c r="C89">
-        <v>19.533785399999999</v>
+        <v>19.846071200000001</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1359,10 +1359,10 @@
         <v>3</v>
       </c>
       <c r="B90">
-        <v>40.5368529</v>
+        <v>40.782163599999997</v>
       </c>
       <c r="C90">
-        <v>19.533736399999999</v>
+        <v>19.8459675</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1370,10 +1370,10 @@
         <v>3</v>
       </c>
       <c r="B91">
-        <v>40.536853200000003</v>
+        <v>40.7824545</v>
       </c>
       <c r="C91">
-        <v>19.533842</v>
+        <v>19.846064599999998</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1381,10 +1381,10 @@
         <v>3</v>
       </c>
       <c r="B92">
-        <v>40.536853700000002</v>
+        <v>40.782000600000003</v>
       </c>
       <c r="C92">
-        <v>19.533787700000001</v>
+        <v>19.846466800000002</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1392,10 +1392,10 @@
         <v>3</v>
       </c>
       <c r="B93">
-        <v>40.536855000000003</v>
+        <v>40.782114800000002</v>
       </c>
       <c r="C93">
-        <v>19.533770199999999</v>
+        <v>19.846397700000001</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1403,10 +1403,10 @@
         <v>3</v>
       </c>
       <c r="B94">
-        <v>40.536856</v>
+        <v>40.782360599999997</v>
       </c>
       <c r="C94">
-        <v>19.5337836</v>
+        <v>19.846179500000002</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,10 +1414,10 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>40.536857699999999</v>
+        <v>40.782227499999998</v>
       </c>
       <c r="C95">
-        <v>19.533792099999999</v>
+        <v>19.8462967</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1425,10 +1425,10 @@
         <v>3</v>
       </c>
       <c r="B96">
-        <v>40.536864600000001</v>
+        <v>40.781492299999996</v>
       </c>
       <c r="C96">
-        <v>19.533805600000001</v>
+        <v>19.846421899999999</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1436,10 +1436,10 @@
         <v>3</v>
       </c>
       <c r="B97">
-        <v>40.560876</v>
+        <v>40.780884899999997</v>
       </c>
       <c r="C97">
-        <v>20.7416111</v>
+        <v>19.845891099999999</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1447,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="B98">
-        <v>40.560890999999998</v>
+        <v>40.780359199999999</v>
       </c>
       <c r="C98">
-        <v>20.741639800000002</v>
+        <v>19.844028099999999</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1458,10 +1458,10 @@
         <v>3</v>
       </c>
       <c r="B99">
-        <v>40.560895799999997</v>
+        <v>40.780374399999999</v>
       </c>
       <c r="C99">
-        <v>20.7416351</v>
+        <v>19.844118999999999</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,10 +1469,10 @@
         <v>3</v>
       </c>
       <c r="B100">
-        <v>40.560895899999998</v>
+        <v>40.733885000000001</v>
       </c>
       <c r="C100">
-        <v>20.741647199999999</v>
+        <v>19.952063599999999</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1480,10 +1480,10 @@
         <v>3</v>
       </c>
       <c r="B101">
-        <v>40.560902499999997</v>
+        <v>40.7345404</v>
       </c>
       <c r="C101">
-        <v>20.741630799999999</v>
+        <v>19.950590500000001</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1491,10 +1491,10 @@
         <v>3</v>
       </c>
       <c r="B102">
-        <v>40.560912799999997</v>
+        <v>40.732839200000001</v>
       </c>
       <c r="C102">
-        <v>20.741685700000001</v>
+        <v>19.951719700000002</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1502,10 +1502,10 @@
         <v>3</v>
       </c>
       <c r="B103">
-        <v>40.560912899999998</v>
+        <v>40.733367299999998</v>
       </c>
       <c r="C103">
-        <v>20.7416795</v>
+        <v>19.951059300000001</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1513,10 +1513,10 @@
         <v>3</v>
       </c>
       <c r="B104">
-        <v>40.5609131</v>
+        <v>40.733341000000003</v>
       </c>
       <c r="C104">
-        <v>20.741690599999998</v>
+        <v>19.951393800000002</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1524,10 +1524,10 @@
         <v>3</v>
       </c>
       <c r="B105">
-        <v>40.560913300000003</v>
+        <v>40.733305600000001</v>
       </c>
       <c r="C105">
-        <v>20.741686600000001</v>
+        <v>19.951469899999999</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1535,10 +1535,10 @@
         <v>3</v>
       </c>
       <c r="B106">
-        <v>40.560913300000003</v>
+        <v>40.733319299999998</v>
       </c>
       <c r="C106">
-        <v>20.741778199999999</v>
+        <v>19.951482299999999</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1546,10 +1546,10 @@
         <v>3</v>
       </c>
       <c r="B107">
-        <v>40.560913999999997</v>
+        <v>40.731667899999998</v>
       </c>
       <c r="C107">
-        <v>20.741698599999999</v>
+        <v>19.9516496</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1557,10 +1557,10 @@
         <v>3</v>
       </c>
       <c r="B108">
-        <v>40.5609155</v>
+        <v>40.733947100000002</v>
       </c>
       <c r="C108">
-        <v>20.741734999999998</v>
+        <v>19.9506865</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1568,10 +1568,10 @@
         <v>3</v>
       </c>
       <c r="B109">
-        <v>40.5609173</v>
+        <v>40.733013</v>
       </c>
       <c r="C109">
-        <v>20.741696999999998</v>
+        <v>19.951553499999999</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1579,10 +1579,10 @@
         <v>3</v>
       </c>
       <c r="B110">
-        <v>40.560920099999997</v>
+        <v>40.732941099999998</v>
       </c>
       <c r="C110">
-        <v>20.7417166</v>
+        <v>19.9516831</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1590,10 +1590,10 @@
         <v>3</v>
       </c>
       <c r="B111">
-        <v>40.560938800000002</v>
+        <v>40.733659000000003</v>
       </c>
       <c r="C111">
-        <v>20.741807300000001</v>
+        <v>19.950880300000001</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1601,10 +1601,10 @@
         <v>3</v>
       </c>
       <c r="B112">
-        <v>40.560943000000002</v>
+        <v>40.733582599999998</v>
       </c>
       <c r="C112">
-        <v>20.741734000000001</v>
+        <v>19.951000499999999</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1612,10 +1612,10 @@
         <v>3</v>
       </c>
       <c r="B113">
-        <v>40.560943600000002</v>
+        <v>40.733415299999997</v>
       </c>
       <c r="C113">
-        <v>20.741804800000001</v>
+        <v>19.9512629</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -1623,10 +1623,10 @@
         <v>3</v>
       </c>
       <c r="B114">
-        <v>40.560944200000002</v>
+        <v>40.732995699999996</v>
       </c>
       <c r="C114">
-        <v>20.741797500000001</v>
+        <v>19.951576599999999</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -1634,10 +1634,10 @@
         <v>3</v>
       </c>
       <c r="B115">
-        <v>40.560951600000003</v>
+        <v>40.733191099999999</v>
       </c>
       <c r="C115">
-        <v>20.741800900000001</v>
+        <v>19.951478300000002</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1645,10 +1645,10 @@
         <v>3</v>
       </c>
       <c r="B116">
-        <v>40.560952499999999</v>
+        <v>40.733231799999999</v>
       </c>
       <c r="C116">
-        <v>20.741803399999998</v>
+        <v>19.951413800000001</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1656,10 +1656,10 @@
         <v>3</v>
       </c>
       <c r="B117">
-        <v>40.560954199999998</v>
+        <v>40.733176999999998</v>
       </c>
       <c r="C117">
-        <v>20.741793000000001</v>
+        <v>19.951240299999998</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1667,10 +1667,10 @@
         <v>3</v>
       </c>
       <c r="B118">
-        <v>40.560957100000003</v>
+        <v>40.733246200000004</v>
       </c>
       <c r="C118">
-        <v>20.741800900000001</v>
+        <v>19.951404499999999</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -1678,10 +1678,10 @@
         <v>3</v>
       </c>
       <c r="B119">
-        <v>40.560958399999997</v>
+        <v>40.732653800000001</v>
       </c>
       <c r="C119">
-        <v>20.741810099999999</v>
+        <v>19.9510702</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -1689,10 +1689,10 @@
         <v>3</v>
       </c>
       <c r="B120">
-        <v>40.560964599999998</v>
+        <v>40.732582000000001</v>
       </c>
       <c r="C120">
-        <v>20.741803300000001</v>
+        <v>19.950976600000001</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -1700,10 +1700,10 @@
         <v>3</v>
       </c>
       <c r="B121">
-        <v>40.560964800000001</v>
+        <v>40.087675099999998</v>
       </c>
       <c r="C121">
-        <v>20.7417707</v>
+        <v>20.146864000000001</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -1711,10 +1711,10 @@
         <v>3</v>
       </c>
       <c r="B122">
-        <v>40.560966800000003</v>
+        <v>40.081661699999998</v>
       </c>
       <c r="C122">
-        <v>20.741795100000001</v>
+        <v>20.141024900000001</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -1722,10 +1722,10 @@
         <v>3</v>
       </c>
       <c r="B123">
-        <v>40.560971600000002</v>
+        <v>40.732927199999999</v>
       </c>
       <c r="C123">
-        <v>20.741804699999999</v>
+        <v>19.9516952</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -1733,10 +1733,10 @@
         <v>3</v>
       </c>
       <c r="B124">
-        <v>40.560974899999998</v>
+        <v>40.732599899999997</v>
       </c>
       <c r="C124">
-        <v>20.7418026</v>
+        <v>19.9510179</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -1744,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="B125">
-        <v>40.560976500000002</v>
+        <v>40.732548899999998</v>
       </c>
       <c r="C125">
-        <v>20.741814900000001</v>
+        <v>19.951014300000001</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -1755,10 +1755,10 @@
         <v>3</v>
       </c>
       <c r="B126">
-        <v>40.561030199999998</v>
+        <v>40.789079600000001</v>
       </c>
       <c r="C126">
-        <v>20.741820499999999</v>
+        <v>19.8854723</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -1766,10 +1766,10 @@
         <v>3</v>
       </c>
       <c r="B127">
-        <v>40.609602500000001</v>
+        <v>40.7888181</v>
       </c>
       <c r="C127">
-        <v>20.691002099999999</v>
+        <v>19.885175499999999</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -1777,10 +1777,10 @@
         <v>3</v>
       </c>
       <c r="B128">
-        <v>40.6096109</v>
+        <v>40.833234599999997</v>
       </c>
       <c r="C128">
-        <v>20.691012700000002</v>
+        <v>19.899541899999999</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -1788,10 +1788,10 @@
         <v>3</v>
       </c>
       <c r="B129">
-        <v>40.610097000000003</v>
+        <v>40.833263700000003</v>
       </c>
       <c r="C129">
-        <v>20.691711999999999</v>
+        <v>19.8994994</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -1799,10 +1799,10 @@
         <v>3</v>
       </c>
       <c r="B130">
-        <v>40.610570299999999</v>
+        <v>40.833230299999997</v>
       </c>
       <c r="C130">
-        <v>20.6921496</v>
+        <v>19.899614499999998</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -1810,10 +1810,10 @@
         <v>3</v>
       </c>
       <c r="B131">
-        <v>40.610722099999997</v>
+        <v>40.833088400000001</v>
       </c>
       <c r="C131">
-        <v>20.692342499999999</v>
+        <v>19.899494300000001</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -1821,10 +1821,10 @@
         <v>3</v>
       </c>
       <c r="B132">
-        <v>40.6110173</v>
+        <v>40.833199800000003</v>
       </c>
       <c r="C132">
-        <v>20.693270999999999</v>
+        <v>19.899630399999999</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -1832,10 +1832,10 @@
         <v>3</v>
       </c>
       <c r="B133">
-        <v>40.611035399999999</v>
+        <v>40.833075899999997</v>
       </c>
       <c r="C133">
-        <v>20.693137100000001</v>
+        <v>19.899447800000001</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -1843,10 +1843,10 @@
         <v>3</v>
       </c>
       <c r="B134">
-        <v>40.611170700000002</v>
+        <v>40.788562300000002</v>
       </c>
       <c r="C134">
-        <v>20.6936283</v>
+        <v>19.889311500000002</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -1854,10 +1854,10 @@
         <v>3</v>
       </c>
       <c r="B135">
-        <v>40.611177699999999</v>
+        <v>40.788063200000003</v>
       </c>
       <c r="C135">
-        <v>20.693513100000001</v>
+        <v>19.889257300000001</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -1865,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="B136">
-        <v>40.611211599999997</v>
+        <v>40.787742299999998</v>
       </c>
       <c r="C136">
-        <v>20.693585500000001</v>
+        <v>19.891085400000001</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -1876,10 +1876,10 @@
         <v>3</v>
       </c>
       <c r="B137">
-        <v>40.611215199999997</v>
+        <v>40.793107499999998</v>
       </c>
       <c r="C137">
-        <v>20.693598900000001</v>
+        <v>19.880678100000001</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,10 +1887,10 @@
         <v>3</v>
       </c>
       <c r="B138">
-        <v>40.611242799999999</v>
+        <v>40.793119599999997</v>
       </c>
       <c r="C138">
-        <v>20.693614400000001</v>
+        <v>19.8805601</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -1898,10 +1898,10 @@
         <v>3</v>
       </c>
       <c r="B139">
-        <v>40.611249700000002</v>
+        <v>40.793137399999999</v>
       </c>
       <c r="C139">
-        <v>20.693570399999999</v>
+        <v>19.8805704</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -1909,10 +1909,10 @@
         <v>3</v>
       </c>
       <c r="B140">
-        <v>40.611255800000002</v>
+        <v>40.793092000000001</v>
       </c>
       <c r="C140">
-        <v>20.693622900000001</v>
+        <v>19.880668799999999</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -1920,10 +1920,10 @@
         <v>3</v>
       </c>
       <c r="B141">
-        <v>40.611256900000001</v>
+        <v>40.793108699999998</v>
       </c>
       <c r="C141">
-        <v>20.6936219</v>
+        <v>19.880577800000001</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -1931,10 +1931,10 @@
         <v>3</v>
       </c>
       <c r="B142">
-        <v>40.611260600000001</v>
+        <v>40.787739700000003</v>
       </c>
       <c r="C142">
-        <v>20.6935775</v>
+        <v>19.890906300000001</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -1942,10 +1942,10 @@
         <v>3</v>
       </c>
       <c r="B143">
-        <v>40.611265699999997</v>
+        <v>40.791774599999997</v>
       </c>
       <c r="C143">
-        <v>20.693665299999999</v>
+        <v>19.880793300000001</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,10 +1953,10 @@
         <v>3</v>
       </c>
       <c r="B144">
-        <v>40.611273199999999</v>
+        <v>40.791516399999999</v>
       </c>
       <c r="C144">
-        <v>20.6935851</v>
+        <v>19.880666600000001</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -1964,10 +1964,10 @@
         <v>3</v>
       </c>
       <c r="B145">
-        <v>40.611345100000001</v>
+        <v>40.791538600000003</v>
       </c>
       <c r="C145">
-        <v>20.693597400000002</v>
+        <v>19.880605800000001</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -1975,10 +1975,10 @@
         <v>3</v>
       </c>
       <c r="B146">
-        <v>40.611356299999997</v>
+        <v>40.791645199999998</v>
       </c>
       <c r="C146">
-        <v>20.693670900000001</v>
+        <v>19.880710100000002</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -1986,10 +1986,10 @@
         <v>3</v>
       </c>
       <c r="B147">
-        <v>40.617686800000001</v>
+        <v>40.791510100000004</v>
       </c>
       <c r="C147">
-        <v>20.7716612</v>
+        <v>19.880604999999999</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -1997,10 +1997,10 @@
         <v>3</v>
       </c>
       <c r="B148">
-        <v>40.626660800000003</v>
+        <v>40.790117000000002</v>
       </c>
       <c r="C148">
-        <v>20.702097500000001</v>
+        <v>19.880726899999999</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2008,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="B149">
-        <v>40.6266879</v>
+        <v>40.789907700000001</v>
       </c>
       <c r="C149">
-        <v>20.702141099999999</v>
+        <v>19.880623700000001</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2019,10 +2019,10 @@
         <v>3</v>
       </c>
       <c r="B150">
-        <v>40.626693099999997</v>
+        <v>40.789669500000002</v>
       </c>
       <c r="C150">
-        <v>20.702165600000001</v>
+        <v>19.8810368</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2030,10 +2030,10 @@
         <v>3</v>
       </c>
       <c r="B151">
-        <v>40.626729900000001</v>
+        <v>40.789627500000002</v>
       </c>
       <c r="C151">
-        <v>20.702078700000001</v>
+        <v>19.881313200000001</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2041,10 +2041,10 @@
         <v>3</v>
       </c>
       <c r="B152">
-        <v>40.626732799999999</v>
+        <v>40.789417100000001</v>
       </c>
       <c r="C152">
-        <v>20.702138900000001</v>
+        <v>19.882364899999999</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,10 +2052,10 @@
         <v>3</v>
       </c>
       <c r="B153">
-        <v>40.6267402</v>
+        <v>40.789935900000003</v>
       </c>
       <c r="C153">
-        <v>20.702174200000002</v>
+        <v>19.8805701</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2063,10 +2063,10 @@
         <v>3</v>
       </c>
       <c r="B154">
-        <v>40.626756899999997</v>
+        <v>40.789435300000001</v>
       </c>
       <c r="C154">
-        <v>20.7021792</v>
+        <v>19.881999400000002</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2074,10 +2074,10 @@
         <v>3</v>
       </c>
       <c r="B155">
-        <v>40.626757300000001</v>
+        <v>40.789436000000002</v>
       </c>
       <c r="C155">
-        <v>20.702181899999999</v>
+        <v>19.8816652</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2085,10 +2085,10 @@
         <v>3</v>
       </c>
       <c r="B156">
-        <v>40.626760599999997</v>
+        <v>40.789523500000001</v>
       </c>
       <c r="C156">
-        <v>20.702173200000001</v>
+        <v>19.881695499999999</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,10 +2096,10 @@
         <v>3</v>
       </c>
       <c r="B157">
-        <v>40.699875400000003</v>
+        <v>41.921332499999998</v>
       </c>
       <c r="C157">
-        <v>19.6101435</v>
+        <v>19.600961300000002</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2107,10 +2107,10 @@
         <v>3</v>
       </c>
       <c r="B158">
-        <v>40.700781900000003</v>
+        <v>41.921302099999998</v>
       </c>
       <c r="C158">
-        <v>19.612272000000001</v>
+        <v>19.600870799999999</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2118,10 +2118,10 @@
         <v>3</v>
       </c>
       <c r="B159">
-        <v>40.701530200000001</v>
+        <v>41.921295299999997</v>
       </c>
       <c r="C159">
-        <v>19.617308300000001</v>
+        <v>19.600906299999998</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2129,10 +2129,10 @@
         <v>3</v>
       </c>
       <c r="B160">
-        <v>40.701578300000001</v>
+        <v>41.921300600000002</v>
       </c>
       <c r="C160">
-        <v>19.617272</v>
+        <v>19.600891499999999</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2140,10 +2140,10 @@
         <v>3</v>
       </c>
       <c r="B161">
-        <v>40.703667600000003</v>
+        <v>41.921326000000001</v>
       </c>
       <c r="C161">
-        <v>20.792092100000001</v>
+        <v>19.600899099999999</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2151,10 +2151,10 @@
         <v>3</v>
       </c>
       <c r="B162">
-        <v>40.7044158</v>
+        <v>41.921292800000003</v>
       </c>
       <c r="C162">
-        <v>20.791806900000001</v>
+        <v>19.600942199999999</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2162,10 +2162,10 @@
         <v>3</v>
       </c>
       <c r="B163">
-        <v>40.7046469</v>
+        <v>41.9212907</v>
       </c>
       <c r="C163">
-        <v>20.7913256</v>
+        <v>19.6009083</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2173,10 +2173,10 @@
         <v>3</v>
       </c>
       <c r="B164">
-        <v>40.704788999999998</v>
+        <v>41.921332</v>
       </c>
       <c r="C164">
-        <v>20.791447999999999</v>
+        <v>19.600918100000001</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2184,10 +2184,10 @@
         <v>3</v>
       </c>
       <c r="B165">
-        <v>40.704794900000003</v>
+        <v>40.4983912</v>
       </c>
       <c r="C165">
-        <v>20.7913055</v>
+        <v>19.502630799999999</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2195,10 +2195,10 @@
         <v>3</v>
       </c>
       <c r="B166">
-        <v>40.704856100000001</v>
+        <v>40.501772299999999</v>
       </c>
       <c r="C166">
-        <v>20.791373499999999</v>
+        <v>19.529599099999999</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,10 +2206,10 @@
         <v>3</v>
       </c>
       <c r="B167">
-        <v>40.7049685</v>
+        <v>40.536847100000003</v>
       </c>
       <c r="C167">
-        <v>20.7914374</v>
+        <v>19.533850300000001</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2217,10 +2217,10 @@
         <v>3</v>
       </c>
       <c r="B168">
-        <v>40.704983800000001</v>
+        <v>40.497632199999998</v>
       </c>
       <c r="C168">
-        <v>20.791447999999999</v>
+        <v>19.5034046</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2228,10 +2228,10 @@
         <v>3</v>
       </c>
       <c r="B169">
-        <v>40.705005700000001</v>
+        <v>40.501944299999998</v>
       </c>
       <c r="C169">
-        <v>20.791491600000001</v>
+        <v>19.529445500000001</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="B170">
-        <v>40.705325799999997</v>
+        <v>40.536845100000001</v>
       </c>
       <c r="C170">
-        <v>20.791675900000001</v>
+        <v>19.533787400000001</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,10 +2250,10 @@
         <v>3</v>
       </c>
       <c r="B171">
-        <v>40.705341799999999</v>
+        <v>40.536853200000003</v>
       </c>
       <c r="C171">
-        <v>20.791884499999998</v>
+        <v>19.533842</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,10 +2261,10 @@
         <v>3</v>
       </c>
       <c r="B172">
-        <v>40.705502799999998</v>
+        <v>40.536864600000001</v>
       </c>
       <c r="C172">
-        <v>20.791700500000001</v>
+        <v>19.533805600000001</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,10 +2272,10 @@
         <v>3</v>
       </c>
       <c r="B173">
-        <v>40.705536899999998</v>
+        <v>40.536855000000003</v>
       </c>
       <c r="C173">
-        <v>20.792016799999999</v>
+        <v>19.533770199999999</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2283,10 +2283,10 @@
         <v>3</v>
       </c>
       <c r="B174">
-        <v>40.706020799999997</v>
+        <v>40.5368529</v>
       </c>
       <c r="C174">
-        <v>19.639999100000001</v>
+        <v>19.533736399999999</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,10 +2294,10 @@
         <v>3</v>
       </c>
       <c r="B175">
-        <v>40.7061894</v>
+        <v>40.536762899999999</v>
       </c>
       <c r="C175">
-        <v>20.7921561</v>
+        <v>19.5339077</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2305,10 +2305,10 @@
         <v>3</v>
       </c>
       <c r="B176">
-        <v>40.706282399999999</v>
+        <v>40.536850800000003</v>
       </c>
       <c r="C176">
-        <v>20.792267200000001</v>
+        <v>19.533785399999999</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,10 +2316,10 @@
         <v>3</v>
       </c>
       <c r="B177">
-        <v>40.706332000000003</v>
+        <v>40.536856</v>
       </c>
       <c r="C177">
-        <v>20.792128900000002</v>
+        <v>19.5337836</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2327,10 +2327,10 @@
         <v>3</v>
       </c>
       <c r="B178">
-        <v>40.706364499999999</v>
+        <v>40.536857699999999</v>
       </c>
       <c r="C178">
-        <v>20.792159300000002</v>
+        <v>19.533792099999999</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2338,10 +2338,10 @@
         <v>3</v>
       </c>
       <c r="B179">
-        <v>40.706411500000002</v>
+        <v>40.536853700000002</v>
       </c>
       <c r="C179">
-        <v>20.792268700000001</v>
+        <v>19.533787700000001</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,10 +2349,10 @@
         <v>3</v>
       </c>
       <c r="B180">
-        <v>40.706522499999998</v>
+        <v>40.5368244</v>
       </c>
       <c r="C180">
-        <v>20.792271899999999</v>
+        <v>19.5338207</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2360,10 +2360,10 @@
         <v>3</v>
       </c>
       <c r="B181">
-        <v>40.706542399999996</v>
+        <v>40.473118300000003</v>
       </c>
       <c r="C181">
-        <v>20.792244100000001</v>
+        <v>19.585835800000002</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2371,10 +2371,10 @@
         <v>3</v>
       </c>
       <c r="B182">
-        <v>40.706692400000001</v>
+        <v>40.473116699999999</v>
       </c>
       <c r="C182">
-        <v>19.619727300000001</v>
+        <v>19.585831599999999</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,10 +2382,10 @@
         <v>3</v>
       </c>
       <c r="B183">
-        <v>40.706701799999998</v>
+        <v>40.473109600000001</v>
       </c>
       <c r="C183">
-        <v>19.619714800000001</v>
+        <v>19.585835899999999</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,10 +2393,10 @@
         <v>3</v>
       </c>
       <c r="B184">
-        <v>40.706772299999997</v>
+        <v>40.473110800000001</v>
       </c>
       <c r="C184">
-        <v>19.6196372</v>
+        <v>19.585873200000002</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2404,10 +2404,10 @@
         <v>3</v>
       </c>
       <c r="B185">
-        <v>40.7068023</v>
+        <v>40.473079800000001</v>
       </c>
       <c r="C185">
-        <v>19.619588400000001</v>
+        <v>19.5857904</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,10 +2415,10 @@
         <v>3</v>
       </c>
       <c r="B186">
-        <v>40.706893899999997</v>
+        <v>40.473130300000001</v>
       </c>
       <c r="C186">
-        <v>19.6428352</v>
+        <v>19.585894100000001</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2426,10 +2426,10 @@
         <v>3</v>
       </c>
       <c r="B187">
-        <v>40.706900500000003</v>
+        <v>40.473167500000002</v>
       </c>
       <c r="C187">
-        <v>19.642841700000002</v>
+        <v>19.585747999999999</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2437,10 +2437,10 @@
         <v>3</v>
       </c>
       <c r="B188">
-        <v>40.706901299999998</v>
+        <v>40.473141599999998</v>
       </c>
       <c r="C188">
-        <v>19.642845000000001</v>
+        <v>19.585715</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2448,10 +2448,10 @@
         <v>3</v>
       </c>
       <c r="B189">
-        <v>40.7069014</v>
+        <v>40.473161300000001</v>
       </c>
       <c r="C189">
-        <v>19.642845300000001</v>
+        <v>19.585716300000001</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2459,10 +2459,10 @@
         <v>3</v>
       </c>
       <c r="B190">
-        <v>40.706901600000002</v>
+        <v>40.473160499999999</v>
       </c>
       <c r="C190">
-        <v>19.642841900000001</v>
+        <v>19.585739700000001</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2470,10 +2470,10 @@
         <v>3</v>
       </c>
       <c r="B191">
-        <v>40.706901799999997</v>
+        <v>40.473178900000001</v>
       </c>
       <c r="C191">
-        <v>19.6428431</v>
+        <v>19.5857241</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2481,10 +2481,10 @@
         <v>3</v>
       </c>
       <c r="B192">
-        <v>40.706901899999998</v>
+        <v>41.895659000000002</v>
       </c>
       <c r="C192">
-        <v>19.642842399999999</v>
+        <v>19.6468165</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2492,10 +2492,10 @@
         <v>3</v>
       </c>
       <c r="B193">
-        <v>40.706902399999997</v>
+        <v>41.895533899999997</v>
       </c>
       <c r="C193">
-        <v>19.642841700000002</v>
+        <v>19.646892600000001</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2503,10 +2503,10 @@
         <v>3</v>
       </c>
       <c r="B194">
-        <v>40.706902999999997</v>
+        <v>41.879153100000003</v>
       </c>
       <c r="C194">
-        <v>19.642841000000001</v>
+        <v>19.637986999999999</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2514,10 +2514,10 @@
         <v>3</v>
       </c>
       <c r="B195">
-        <v>40.706902999999997</v>
+        <v>41.879133899999999</v>
       </c>
       <c r="C195">
-        <v>19.642841000000001</v>
+        <v>19.6379625</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,10 +2525,10 @@
         <v>3</v>
       </c>
       <c r="B196">
-        <v>40.706902999999997</v>
+        <v>41.895677399999997</v>
       </c>
       <c r="C196">
-        <v>19.6428498</v>
+        <v>19.646854300000001</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2536,10 +2536,10 @@
         <v>3</v>
       </c>
       <c r="B197">
-        <v>40.706903599999997</v>
+        <v>41.895617700000003</v>
       </c>
       <c r="C197">
-        <v>19.6428406</v>
+        <v>19.6467311</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2547,10 +2547,10 @@
         <v>3</v>
       </c>
       <c r="B198">
-        <v>40.706903599999997</v>
+        <v>41.879153600000002</v>
       </c>
       <c r="C198">
-        <v>19.6428406</v>
+        <v>19.637971199999999</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2558,10 +2558,10 @@
         <v>3</v>
       </c>
       <c r="B199">
-        <v>40.7069039</v>
+        <v>41.879137499999999</v>
       </c>
       <c r="C199">
-        <v>19.642846599999999</v>
+        <v>19.6380126</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2569,10 +2569,10 @@
         <v>3</v>
       </c>
       <c r="B200">
-        <v>40.7069039</v>
+        <v>40.473182799999996</v>
       </c>
       <c r="C200">
-        <v>19.642846599999999</v>
+        <v>19.5857198</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -2580,10 +2580,10 @@
         <v>3</v>
       </c>
       <c r="B201">
-        <v>40.7069039</v>
+        <v>40.473179000000002</v>
       </c>
       <c r="C201">
-        <v>19.642846599999999</v>
+        <v>19.585709099999999</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -2591,10 +2591,10 @@
         <v>3</v>
       </c>
       <c r="B202">
-        <v>40.706904100000003</v>
+        <v>40.473179100000003</v>
       </c>
       <c r="C202">
-        <v>19.642840899999999</v>
+        <v>19.585701799999999</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -2602,10 +2602,10 @@
         <v>3</v>
       </c>
       <c r="B203">
-        <v>40.706904199999997</v>
+        <v>40.473194300000003</v>
       </c>
       <c r="C203">
-        <v>19.642842099999999</v>
+        <v>19.5856602</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -2613,10 +2613,10 @@
         <v>3</v>
       </c>
       <c r="B204">
-        <v>40.706904199999997</v>
+        <v>40.473168100000002</v>
       </c>
       <c r="C204">
-        <v>19.642844199999999</v>
+        <v>19.5856186</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -2624,10 +2624,10 @@
         <v>3</v>
       </c>
       <c r="B205">
-        <v>40.706904199999997</v>
+        <v>41.394496500000002</v>
       </c>
       <c r="C205">
-        <v>19.6428507</v>
+        <v>19.544613900000002</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -2635,10 +2635,10 @@
         <v>3</v>
       </c>
       <c r="B206">
-        <v>40.7069276</v>
+        <v>39.708763400000002</v>
       </c>
       <c r="C206">
-        <v>19.642872400000002</v>
+        <v>20.077130499999999</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -2646,10 +2646,10 @@
         <v>3</v>
       </c>
       <c r="B207">
-        <v>40.706938000000001</v>
+        <v>39.708398099999997</v>
       </c>
       <c r="C207">
-        <v>19.642891299999999</v>
+        <v>20.0777258</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -2657,10 +2657,10 @@
         <v>3</v>
       </c>
       <c r="B208">
-        <v>40.706987699999999</v>
+        <v>39.7077217</v>
       </c>
       <c r="C208">
-        <v>19.642986499999999</v>
+        <v>20.079260000000001</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -2668,10 +2668,10 @@
         <v>3</v>
       </c>
       <c r="B209">
-        <v>40.707695800000003</v>
+        <v>39.707712100000002</v>
       </c>
       <c r="C209">
-        <v>19.639659000000002</v>
+        <v>20.0789756</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -2679,10 +2679,10 @@
         <v>3</v>
       </c>
       <c r="B210">
-        <v>40.707910900000002</v>
+        <v>39.707461500000001</v>
       </c>
       <c r="C210">
-        <v>19.639635800000001</v>
+        <v>20.079887599999999</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -2690,10 +2690,10 @@
         <v>3</v>
       </c>
       <c r="B211">
-        <v>40.707915800000002</v>
+        <v>39.707455500000002</v>
       </c>
       <c r="C211">
-        <v>19.6395126</v>
+        <v>20.079796900000002</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -2701,10 +2701,10 @@
         <v>3</v>
       </c>
       <c r="B212">
-        <v>40.7097604</v>
+        <v>39.707762199999998</v>
       </c>
       <c r="C212">
-        <v>19.9223955</v>
+        <v>20.0790495</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -2712,10 +2712,10 @@
         <v>3</v>
       </c>
       <c r="B213">
-        <v>40.7098473</v>
+        <v>39.707901</v>
       </c>
       <c r="C213">
-        <v>19.922183700000001</v>
+        <v>20.079008600000002</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -2723,10 +2723,10 @@
         <v>3</v>
       </c>
       <c r="B214">
-        <v>40.712713800000003</v>
+        <v>39.724870699999997</v>
       </c>
       <c r="C214">
-        <v>19.920248699999998</v>
+        <v>20.060207500000001</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -2734,10 +2734,10 @@
         <v>3</v>
       </c>
       <c r="B215">
-        <v>40.712850500000002</v>
+        <v>39.724873700000003</v>
       </c>
       <c r="C215">
-        <v>19.919983899999998</v>
+        <v>20.060207399999999</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -2745,10 +2745,10 @@
         <v>3</v>
       </c>
       <c r="B216">
-        <v>40.713571999999999</v>
+        <v>39.724875699999998</v>
       </c>
       <c r="C216">
-        <v>19.620115500000001</v>
+        <v>20.0602135</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -2756,10 +2756,10 @@
         <v>3</v>
       </c>
       <c r="B217">
-        <v>40.713628900000003</v>
+        <v>39.724868499999999</v>
       </c>
       <c r="C217">
-        <v>19.619981899999999</v>
+        <v>20.060166500000001</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -2767,10 +2767,10 @@
         <v>3</v>
       </c>
       <c r="B218">
-        <v>40.713635600000003</v>
+        <v>39.7248132</v>
       </c>
       <c r="C218">
-        <v>19.619980099999999</v>
+        <v>20.060044099999999</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -2778,10 +2778,10 @@
         <v>3</v>
       </c>
       <c r="B219">
-        <v>40.713635799999999</v>
+        <v>39.724826200000003</v>
       </c>
       <c r="C219">
-        <v>19.619978799999998</v>
+        <v>20.0600755</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -2789,10 +2789,10 @@
         <v>3</v>
       </c>
       <c r="B220">
-        <v>40.714485000000003</v>
+        <v>39.724811799999998</v>
       </c>
       <c r="C220">
-        <v>19.378269299999999</v>
+        <v>20.060134999999999</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -2800,10 +2800,10 @@
         <v>3</v>
       </c>
       <c r="B221">
-        <v>40.715586799999997</v>
+        <v>39.724754500000003</v>
       </c>
       <c r="C221">
-        <v>19.364625499999999</v>
+        <v>20.060115499999998</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -2811,10 +2811,10 @@
         <v>3</v>
       </c>
       <c r="B222">
-        <v>40.715617899999998</v>
+        <v>40.078309300000001</v>
       </c>
       <c r="C222">
-        <v>19.378296500000001</v>
+        <v>20.197348600000002</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -2822,10 +2822,10 @@
         <v>3</v>
       </c>
       <c r="B223">
-        <v>40.715945499999997</v>
+        <v>40.078676700000003</v>
       </c>
       <c r="C223">
-        <v>19.936401100000001</v>
+        <v>20.1971685</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -2833,10 +2833,10 @@
         <v>3</v>
       </c>
       <c r="B224">
-        <v>40.716296900000003</v>
+        <v>40.077355900000001</v>
       </c>
       <c r="C224">
-        <v>19.920071</v>
+        <v>20.197298700000001</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -2844,10 +2844,10 @@
         <v>3</v>
       </c>
       <c r="B225">
-        <v>40.716326299999999</v>
+        <v>40.078662199999997</v>
       </c>
       <c r="C225">
-        <v>19.920121099999999</v>
+        <v>20.198665399999999</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -2855,10 +2855,10 @@
         <v>3</v>
       </c>
       <c r="B226">
-        <v>40.7176027</v>
+        <v>39.724874</v>
       </c>
       <c r="C226">
-        <v>19.928751299999998</v>
+        <v>20.060063800000002</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -2866,10 +2866,10 @@
         <v>3</v>
       </c>
       <c r="B227">
-        <v>40.719552399999998</v>
+        <v>39.7247597</v>
       </c>
       <c r="C227">
-        <v>19.929415500000001</v>
+        <v>20.060221299999998</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -2877,10 +2877,10 @@
         <v>3</v>
       </c>
       <c r="B228">
-        <v>40.719557299999998</v>
+        <v>39.724834799999996</v>
       </c>
       <c r="C228">
-        <v>19.929417300000001</v>
+        <v>20.060324900000001</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -2888,10 +2888,10 @@
         <v>3</v>
       </c>
       <c r="B229">
-        <v>40.719562000000003</v>
+        <v>39.724755000000002</v>
       </c>
       <c r="C229">
-        <v>19.929419800000002</v>
+        <v>20.060296900000001</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -2899,10 +2899,10 @@
         <v>3</v>
       </c>
       <c r="B230">
-        <v>40.719580399999998</v>
+        <v>39.724812300000004</v>
       </c>
       <c r="C230">
-        <v>19.929424300000001</v>
+        <v>20.0603418</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -2910,10 +2910,10 @@
         <v>3</v>
       </c>
       <c r="B231">
-        <v>40.719606499999998</v>
+        <v>39.724794899999999</v>
       </c>
       <c r="C231">
-        <v>19.929391500000001</v>
+        <v>20.060378400000001</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -2921,10 +2921,10 @@
         <v>3</v>
       </c>
       <c r="B232">
-        <v>40.719628499999999</v>
+        <v>39.724699200000003</v>
       </c>
       <c r="C232">
-        <v>19.9293005</v>
+        <v>20.060351199999999</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -2932,10 +2932,10 @@
         <v>3</v>
       </c>
       <c r="B233">
-        <v>40.719827299999999</v>
+        <v>39.724715600000003</v>
       </c>
       <c r="C233">
-        <v>19.929644700000001</v>
+        <v>20.0603625</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -2943,10 +2943,10 @@
         <v>3</v>
       </c>
       <c r="B234">
-        <v>40.719831999999997</v>
+        <v>39.72475</v>
       </c>
       <c r="C234">
-        <v>19.929725099999999</v>
+        <v>20.0604759</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -2954,10 +2954,10 @@
         <v>3</v>
       </c>
       <c r="B235">
-        <v>40.719981300000001</v>
+        <v>39.724858599999997</v>
       </c>
       <c r="C235">
-        <v>19.6205645</v>
+        <v>20.060358399999998</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -2965,10 +2965,10 @@
         <v>3</v>
       </c>
       <c r="B236">
-        <v>40.721211199999999</v>
+        <v>39.7247524</v>
       </c>
       <c r="C236">
-        <v>19.621170599999999</v>
+        <v>20.0605984</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -2976,10 +2976,10 @@
         <v>3</v>
       </c>
       <c r="B237">
-        <v>40.723148199999997</v>
+        <v>39.724788699999998</v>
       </c>
       <c r="C237">
-        <v>19.6215419</v>
+        <v>20.060086500000001</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -2987,10 +2987,10 @@
         <v>3</v>
       </c>
       <c r="B238">
-        <v>40.723165199999997</v>
+        <v>40.714485000000003</v>
       </c>
       <c r="C238">
-        <v>19.621562600000001</v>
+        <v>19.378269299999999</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -2998,10 +2998,10 @@
         <v>3</v>
       </c>
       <c r="B239">
-        <v>40.726554700000001</v>
+        <v>40.715586799999997</v>
       </c>
       <c r="C239">
-        <v>19.918095600000001</v>
+        <v>19.364625499999999</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3009,10 +3009,10 @@
         <v>3</v>
       </c>
       <c r="B240">
-        <v>40.726563599999999</v>
+        <v>40.079405999999999</v>
       </c>
       <c r="C240">
-        <v>19.918086200000001</v>
+        <v>20.198713300000001</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3020,10 +3020,10 @@
         <v>3</v>
       </c>
       <c r="B241">
-        <v>40.727240000000002</v>
+        <v>40.079405999999999</v>
       </c>
       <c r="C241">
-        <v>19.917599599999999</v>
+        <v>20.198710999999999</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3031,10 +3031,10 @@
         <v>3</v>
       </c>
       <c r="B242">
-        <v>40.727244800000001</v>
+        <v>40.715617899999998</v>
       </c>
       <c r="C242">
-        <v>19.917643900000002</v>
+        <v>19.378296500000001</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3042,10 +3042,10 @@
         <v>3</v>
       </c>
       <c r="B243">
-        <v>40.732548899999998</v>
+        <v>40.080606600000003</v>
       </c>
       <c r="C243">
-        <v>19.951014300000001</v>
+        <v>20.199174599999999</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3053,10 +3053,10 @@
         <v>3</v>
       </c>
       <c r="B244">
-        <v>40.732582000000001</v>
+        <v>40.079592099999999</v>
       </c>
       <c r="C244">
-        <v>19.950976600000001</v>
+        <v>20.1988606</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3064,10 +3064,10 @@
         <v>3</v>
       </c>
       <c r="B245">
-        <v>40.732599899999997</v>
+        <v>40.079382299999999</v>
       </c>
       <c r="C245">
-        <v>19.9510179</v>
+        <v>20.198820600000001</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3075,10 +3075,10 @@
         <v>3</v>
       </c>
       <c r="B246">
-        <v>40.732653800000001</v>
+        <v>41.400360599999999</v>
       </c>
       <c r="C246">
-        <v>19.9510702</v>
+        <v>19.545108299999999</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3086,10 +3086,10 @@
         <v>3</v>
       </c>
       <c r="B247">
-        <v>40.732927199999999</v>
+        <v>40.7069039</v>
       </c>
       <c r="C247">
-        <v>19.9516952</v>
+        <v>19.642846599999999</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3097,10 +3097,10 @@
         <v>3</v>
       </c>
       <c r="B248">
-        <v>40.732995699999996</v>
+        <v>40.7069039</v>
       </c>
       <c r="C248">
-        <v>19.951576599999999</v>
+        <v>19.642846599999999</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3108,10 +3108,10 @@
         <v>3</v>
       </c>
       <c r="B249">
-        <v>40.733176999999998</v>
+        <v>40.706901299999998</v>
       </c>
       <c r="C249">
-        <v>19.951240299999998</v>
+        <v>19.642845000000001</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3119,10 +3119,10 @@
         <v>3</v>
       </c>
       <c r="B250">
-        <v>40.733191099999999</v>
+        <v>40.706901600000002</v>
       </c>
       <c r="C250">
-        <v>19.951478300000002</v>
+        <v>19.642841900000001</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3130,10 +3130,10 @@
         <v>3</v>
       </c>
       <c r="B251">
-        <v>40.733231799999999</v>
+        <v>40.706902399999997</v>
       </c>
       <c r="C251">
-        <v>19.951413800000001</v>
+        <v>19.642841700000002</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3141,10 +3141,10 @@
         <v>3</v>
       </c>
       <c r="B252">
-        <v>40.733246200000004</v>
+        <v>40.706904199999997</v>
       </c>
       <c r="C252">
-        <v>19.951404499999999</v>
+        <v>19.642844199999999</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3152,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="B253">
-        <v>40.733415299999997</v>
+        <v>40.706904199999997</v>
       </c>
       <c r="C253">
-        <v>19.9512629</v>
+        <v>19.642842099999999</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3163,10 +3163,10 @@
         <v>3</v>
       </c>
       <c r="B254">
-        <v>40.750765199999996</v>
+        <v>40.7069039</v>
       </c>
       <c r="C254">
-        <v>20.832402299999998</v>
+        <v>19.642846599999999</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3174,10 +3174,10 @@
         <v>3</v>
       </c>
       <c r="B255">
-        <v>40.751758700000003</v>
+        <v>40.706903599999997</v>
       </c>
       <c r="C255">
-        <v>20.831425400000001</v>
+        <v>19.6428406</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3185,10 +3185,10 @@
         <v>3</v>
       </c>
       <c r="B256">
-        <v>40.752531599999998</v>
+        <v>40.706987699999999</v>
       </c>
       <c r="C256">
-        <v>20.8312925</v>
+        <v>19.642986499999999</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3196,10 +3196,10 @@
         <v>3</v>
       </c>
       <c r="B257">
-        <v>40.753555400000003</v>
+        <v>40.706903599999997</v>
       </c>
       <c r="C257">
-        <v>20.830983700000001</v>
+        <v>19.6428406</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3207,10 +3207,10 @@
         <v>3</v>
       </c>
       <c r="B258">
-        <v>40.753583399999997</v>
+        <v>40.7069276</v>
       </c>
       <c r="C258">
-        <v>20.830621900000001</v>
+        <v>19.642872400000002</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3218,10 +3218,10 @@
         <v>3</v>
       </c>
       <c r="B259">
-        <v>40.753585999999999</v>
+        <v>40.706904100000003</v>
       </c>
       <c r="C259">
-        <v>20.830670699999999</v>
+        <v>19.642840899999999</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3229,10 +3229,10 @@
         <v>3</v>
       </c>
       <c r="B260">
-        <v>40.753666799999998</v>
+        <v>40.706902999999997</v>
       </c>
       <c r="C260">
-        <v>20.830617799999999</v>
+        <v>19.642841000000001</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3240,10 +3240,10 @@
         <v>3</v>
       </c>
       <c r="B261">
-        <v>40.753786900000001</v>
+        <v>40.706904199999997</v>
       </c>
       <c r="C261">
-        <v>20.8306401</v>
+        <v>19.6428507</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3251,10 +3251,10 @@
         <v>3</v>
       </c>
       <c r="B262">
-        <v>40.753895900000003</v>
+        <v>40.706902999999997</v>
       </c>
       <c r="C262">
-        <v>20.830523400000001</v>
+        <v>19.642841000000001</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3262,10 +3262,10 @@
         <v>3</v>
       </c>
       <c r="B263">
-        <v>40.754075700000001</v>
+        <v>40.706938000000001</v>
       </c>
       <c r="C263">
-        <v>20.830336800000001</v>
+        <v>19.642891299999999</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3273,10 +3273,10 @@
         <v>3</v>
       </c>
       <c r="B264">
-        <v>40.754475399999997</v>
+        <v>40.706901799999997</v>
       </c>
       <c r="C264">
-        <v>20.830290000000002</v>
+        <v>19.6428431</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3284,10 +3284,10 @@
         <v>3</v>
       </c>
       <c r="B265">
-        <v>40.754765200000001</v>
+        <v>40.706901899999998</v>
       </c>
       <c r="C265">
-        <v>20.8299974</v>
+        <v>19.642842399999999</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -3295,10 +3295,10 @@
         <v>3</v>
       </c>
       <c r="B266">
-        <v>40.754839099999998</v>
+        <v>40.7069014</v>
       </c>
       <c r="C266">
-        <v>20.830075000000001</v>
+        <v>19.642845300000001</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3306,10 +3306,10 @@
         <v>3</v>
       </c>
       <c r="B267">
-        <v>40.755149799999998</v>
+        <v>40.706893899999997</v>
       </c>
       <c r="C267">
-        <v>20.829772599999998</v>
+        <v>19.6428352</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3317,10 +3317,10 @@
         <v>3</v>
       </c>
       <c r="B268">
-        <v>40.755449900000002</v>
+        <v>40.706900500000003</v>
       </c>
       <c r="C268">
-        <v>20.829460000000001</v>
+        <v>19.642841700000002</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -3328,10 +3328,10 @@
         <v>3</v>
       </c>
       <c r="B269">
-        <v>40.755571000000003</v>
+        <v>40.706902999999997</v>
       </c>
       <c r="C269">
-        <v>20.829272700000001</v>
+        <v>19.6428498</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3339,10 +3339,10 @@
         <v>3</v>
       </c>
       <c r="B270">
-        <v>40.787739700000003</v>
+        <v>42.223769799999999</v>
       </c>
       <c r="C270">
-        <v>19.890906300000001</v>
+        <v>19.467558700000001</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -3350,10 +3350,10 @@
         <v>3</v>
       </c>
       <c r="B271">
-        <v>40.787742299999998</v>
+        <v>42.224680999999997</v>
       </c>
       <c r="C271">
-        <v>19.891085400000001</v>
+        <v>19.454992300000001</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -3361,10 +3361,10 @@
         <v>3</v>
       </c>
       <c r="B272">
-        <v>40.788063200000003</v>
+        <v>42.224658699999999</v>
       </c>
       <c r="C272">
-        <v>19.889257300000001</v>
+        <v>19.454990200000001</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -3372,10 +3372,10 @@
         <v>3</v>
       </c>
       <c r="B273">
-        <v>40.788562300000002</v>
+        <v>42.212802199999999</v>
       </c>
       <c r="C273">
-        <v>19.889311500000002</v>
+        <v>19.433364900000001</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -3383,10 +3383,10 @@
         <v>3</v>
       </c>
       <c r="B274">
-        <v>40.7888181</v>
+        <v>42.197084799999999</v>
       </c>
       <c r="C274">
-        <v>19.885175499999999</v>
+        <v>19.451702999999998</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -3394,10 +3394,10 @@
         <v>3</v>
       </c>
       <c r="B275">
-        <v>40.789079600000001</v>
+        <v>42.211848600000003</v>
       </c>
       <c r="C275">
-        <v>19.8854723</v>
+        <v>19.4321713</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -3405,10 +3405,10 @@
         <v>3</v>
       </c>
       <c r="B276">
-        <v>40.789417100000001</v>
+        <v>42.218670099999997</v>
       </c>
       <c r="C276">
-        <v>19.882364899999999</v>
+        <v>19.4468459</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -3416,10 +3416,10 @@
         <v>3</v>
       </c>
       <c r="B277">
-        <v>40.789435300000001</v>
+        <v>42.223892999999997</v>
       </c>
       <c r="C277">
-        <v>19.881999400000002</v>
+        <v>19.4676455</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -3427,10 +3427,10 @@
         <v>3</v>
       </c>
       <c r="B278">
-        <v>40.789436000000002</v>
+        <v>42.224828000000002</v>
       </c>
       <c r="C278">
-        <v>19.8816652</v>
+        <v>19.455191299999999</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -3438,10 +3438,10 @@
         <v>3</v>
       </c>
       <c r="B279">
-        <v>40.789523500000001</v>
+        <v>42.211303399999998</v>
       </c>
       <c r="C279">
-        <v>19.881695499999999</v>
+        <v>19.430100299999999</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -3449,10 +3449,10 @@
         <v>3</v>
       </c>
       <c r="B280">
-        <v>40.789627500000002</v>
+        <v>42.2123676</v>
       </c>
       <c r="C280">
-        <v>19.881313200000001</v>
+        <v>19.433116200000001</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -3460,10 +3460,10 @@
         <v>3</v>
       </c>
       <c r="B281">
-        <v>40.789669500000002</v>
+        <v>42.277850600000001</v>
       </c>
       <c r="C281">
-        <v>19.8810368</v>
+        <v>19.517997699999999</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -3471,10 +3471,10 @@
         <v>3</v>
       </c>
       <c r="B282">
-        <v>40.789907700000001</v>
+        <v>42.357396000000001</v>
       </c>
       <c r="C282">
-        <v>19.880623700000001</v>
+        <v>20.074011299999999</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -3482,10 +3482,10 @@
         <v>3</v>
       </c>
       <c r="B283">
-        <v>40.789935900000003</v>
+        <v>42.356902699999999</v>
       </c>
       <c r="C283">
-        <v>19.8805701</v>
+        <v>20.0758039</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -3493,10 +3493,10 @@
         <v>3</v>
       </c>
       <c r="B284">
-        <v>40.790117000000002</v>
+        <v>42.3545771</v>
       </c>
       <c r="C284">
-        <v>19.880726899999999</v>
+        <v>20.097271200000002</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -3504,10 +3504,10 @@
         <v>3</v>
       </c>
       <c r="B285">
-        <v>40.791510100000004</v>
+        <v>42.361485600000002</v>
       </c>
       <c r="C285">
-        <v>19.880604999999999</v>
+        <v>20.076916300000001</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -3515,10 +3515,10 @@
         <v>3</v>
       </c>
       <c r="B286">
-        <v>40.791516399999999</v>
+        <v>42.354520000000001</v>
       </c>
       <c r="C286">
-        <v>19.880666600000001</v>
+        <v>20.09741</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -3526,10 +3526,10 @@
         <v>3</v>
       </c>
       <c r="B287">
-        <v>40.791538600000003</v>
+        <v>40.7097604</v>
       </c>
       <c r="C287">
-        <v>19.880605800000001</v>
+        <v>19.9223955</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -3537,10 +3537,10 @@
         <v>3</v>
       </c>
       <c r="B288">
-        <v>40.791645199999998</v>
+        <v>40.7098473</v>
       </c>
       <c r="C288">
-        <v>19.880710100000002</v>
+        <v>19.922183700000001</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -3548,10 +3548,10 @@
         <v>3</v>
       </c>
       <c r="B289">
-        <v>40.791774599999997</v>
+        <v>40.712713800000003</v>
       </c>
       <c r="C289">
-        <v>19.880793300000001</v>
+        <v>19.920248699999998</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -3559,10 +3559,10 @@
         <v>3</v>
       </c>
       <c r="B290">
-        <v>40.793092000000001</v>
+        <v>40.712850500000002</v>
       </c>
       <c r="C290">
-        <v>19.880668799999999</v>
+        <v>19.919983899999998</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -3570,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="B291">
-        <v>40.793107499999998</v>
+        <v>40.716326299999999</v>
       </c>
       <c r="C291">
-        <v>19.880678100000001</v>
+        <v>19.920121099999999</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -3581,10 +3581,10 @@
         <v>3</v>
       </c>
       <c r="B292">
-        <v>40.793108699999998</v>
+        <v>40.716296900000003</v>
       </c>
       <c r="C292">
-        <v>19.880577800000001</v>
+        <v>19.920071</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -3592,10 +3592,10 @@
         <v>3</v>
       </c>
       <c r="B293">
-        <v>40.793119599999997</v>
+        <v>40.726563599999999</v>
       </c>
       <c r="C293">
-        <v>19.8805601</v>
+        <v>19.918086200000001</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -3603,10 +3603,10 @@
         <v>3</v>
       </c>
       <c r="B294">
-        <v>40.793137399999999</v>
+        <v>40.726554700000001</v>
       </c>
       <c r="C294">
-        <v>19.8805704</v>
+        <v>19.918095600000001</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -3614,10 +3614,10 @@
         <v>3</v>
       </c>
       <c r="B295">
-        <v>40.815624300000003</v>
+        <v>40.727244800000001</v>
       </c>
       <c r="C295">
-        <v>19.500920399999998</v>
+        <v>19.917643900000002</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -3625,10 +3625,10 @@
         <v>3</v>
       </c>
       <c r="B296">
-        <v>40.815844400000003</v>
+        <v>40.727240000000002</v>
       </c>
       <c r="C296">
-        <v>19.499451499999999</v>
+        <v>19.917599599999999</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -3636,10 +3636,10 @@
         <v>3</v>
       </c>
       <c r="B297">
-        <v>40.816017700000003</v>
+        <v>40.715945499999997</v>
       </c>
       <c r="C297">
-        <v>19.500545200000001</v>
+        <v>19.936401100000001</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -3647,10 +3647,10 @@
         <v>3</v>
       </c>
       <c r="B298">
-        <v>40.816021599999999</v>
+        <v>40.831462999999999</v>
       </c>
       <c r="C298">
-        <v>19.5005454</v>
+        <v>19.9050999</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -3658,10 +3658,10 @@
         <v>3</v>
       </c>
       <c r="B299">
-        <v>40.816024499999997</v>
+        <v>40.834567</v>
       </c>
       <c r="C299">
-        <v>19.5004867</v>
+        <v>19.905859599999999</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -3669,10 +3669,10 @@
         <v>3</v>
       </c>
       <c r="B300">
-        <v>40.816145400000003</v>
+        <v>40.833536799999997</v>
       </c>
       <c r="C300">
-        <v>19.4993044</v>
+        <v>19.905182100000001</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -3680,10 +3680,10 @@
         <v>3</v>
       </c>
       <c r="B301">
-        <v>40.816299399999998</v>
+        <v>40.833566300000001</v>
       </c>
       <c r="C301">
-        <v>19.5016237</v>
+        <v>19.905406899999999</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -3691,10 +3691,10 @@
         <v>3</v>
       </c>
       <c r="B302">
-        <v>40.816374099999997</v>
+        <v>40.833481800000001</v>
       </c>
       <c r="C302">
-        <v>19.499950599999998</v>
+        <v>19.905455100000001</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -3702,10 +3702,10 @@
         <v>3</v>
       </c>
       <c r="B303">
-        <v>40.816376900000002</v>
+        <v>40.831402300000001</v>
       </c>
       <c r="C303">
-        <v>19.499282099999999</v>
+        <v>19.905214300000001</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -3713,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="B304">
-        <v>40.819353700000001</v>
+        <v>40.834671499999999</v>
       </c>
       <c r="C304">
-        <v>19.501025800000001</v>
+        <v>19.905972599999998</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -3724,10 +3724,10 @@
         <v>3</v>
       </c>
       <c r="B305">
-        <v>40.825159300000003</v>
+        <v>40.833434599999997</v>
       </c>
       <c r="C305">
-        <v>19.501710500000002</v>
+        <v>19.905183699999998</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -3735,10 +3735,10 @@
         <v>3</v>
       </c>
       <c r="B306">
-        <v>40.8251633</v>
+        <v>41.001128399999999</v>
       </c>
       <c r="C306">
-        <v>19.501712900000001</v>
+        <v>20.020879900000001</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -3746,10 +3746,10 @@
         <v>3</v>
       </c>
       <c r="B307">
-        <v>40.830765300000003</v>
+        <v>41.000934000000001</v>
       </c>
       <c r="C307">
-        <v>19.914642099999998</v>
+        <v>20.0213693</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -3757,10 +3757,10 @@
         <v>3</v>
       </c>
       <c r="B308">
-        <v>40.830768900000002</v>
+        <v>40.8335103</v>
       </c>
       <c r="C308">
-        <v>19.914750099999999</v>
+        <v>19.905443500000001</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -3768,10 +3768,10 @@
         <v>3</v>
       </c>
       <c r="B309">
-        <v>40.830769400000001</v>
+        <v>40.8335364</v>
       </c>
       <c r="C309">
-        <v>19.9147502</v>
+        <v>19.905429900000001</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -3779,10 +3779,10 @@
         <v>3</v>
       </c>
       <c r="B310">
-        <v>40.8309292</v>
+        <v>40.7176027</v>
       </c>
       <c r="C310">
-        <v>19.915116999999999</v>
+        <v>19.928751299999998</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -3790,10 +3790,10 @@
         <v>3</v>
       </c>
       <c r="B311">
-        <v>40.831096199999998</v>
+        <v>40.719552399999998</v>
       </c>
       <c r="C311">
-        <v>19.914892399999999</v>
+        <v>19.929415500000001</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -3801,10 +3801,10 @@
         <v>3</v>
       </c>
       <c r="B312">
-        <v>40.831157099999999</v>
+        <v>40.719831999999997</v>
       </c>
       <c r="C312">
-        <v>19.9144322</v>
+        <v>19.929725099999999</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -3812,10 +3812,10 @@
         <v>3</v>
       </c>
       <c r="B313">
-        <v>40.831263900000003</v>
+        <v>40.719562000000003</v>
       </c>
       <c r="C313">
-        <v>19.914763099999998</v>
+        <v>19.929419800000002</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -3823,10 +3823,10 @@
         <v>3</v>
       </c>
       <c r="B314">
-        <v>40.831297599999999</v>
+        <v>40.719827299999999</v>
       </c>
       <c r="C314">
-        <v>19.914582800000002</v>
+        <v>19.929644700000001</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -3834,10 +3834,10 @@
         <v>3</v>
       </c>
       <c r="B315">
-        <v>40.831350700000002</v>
+        <v>40.719628499999999</v>
       </c>
       <c r="C315">
-        <v>19.9143708</v>
+        <v>19.9293005</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -3845,10 +3845,10 @@
         <v>3</v>
       </c>
       <c r="B316">
-        <v>40.831402300000001</v>
+        <v>40.719606499999998</v>
       </c>
       <c r="C316">
-        <v>19.905214300000001</v>
+        <v>19.929391500000001</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -3856,10 +3856,10 @@
         <v>3</v>
       </c>
       <c r="B317">
-        <v>40.831462999999999</v>
+        <v>40.719557299999998</v>
       </c>
       <c r="C317">
-        <v>19.9050999</v>
+        <v>19.929417300000001</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -3867,10 +3867,10 @@
         <v>3</v>
       </c>
       <c r="B318">
-        <v>40.832106899999999</v>
+        <v>40.719580399999998</v>
       </c>
       <c r="C318">
-        <v>19.9140172</v>
+        <v>19.929424300000001</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -3878,10 +3878,10 @@
         <v>3</v>
       </c>
       <c r="B319">
-        <v>40.832867899999997</v>
+        <v>42.277197200000003</v>
       </c>
       <c r="C319">
-        <v>19.5192318</v>
+        <v>19.5138845</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -3889,10 +3889,10 @@
         <v>3</v>
       </c>
       <c r="B320">
-        <v>40.833075899999997</v>
+        <v>42.280515899999997</v>
       </c>
       <c r="C320">
-        <v>19.899447800000001</v>
+        <v>19.5225586</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -3900,10 +3900,10 @@
         <v>3</v>
       </c>
       <c r="B321">
-        <v>40.833088400000001</v>
+        <v>42.278105400000001</v>
       </c>
       <c r="C321">
-        <v>19.899494300000001</v>
+        <v>19.519205199999998</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -3911,10 +3911,10 @@
         <v>3</v>
       </c>
       <c r="B322">
-        <v>40.833199800000003</v>
+        <v>42.281401099999997</v>
       </c>
       <c r="C322">
-        <v>19.899630399999999</v>
+        <v>19.5229967</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -3922,10 +3922,10 @@
         <v>3</v>
       </c>
       <c r="B323">
-        <v>40.833230299999997</v>
+        <v>42.2772711</v>
       </c>
       <c r="C323">
-        <v>19.899614499999998</v>
+        <v>19.5165753</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -3933,10 +3933,10 @@
         <v>3</v>
       </c>
       <c r="B324">
-        <v>40.833234599999997</v>
+        <v>42.281402300000003</v>
       </c>
       <c r="C324">
-        <v>19.899541899999999</v>
+        <v>19.522993199999998</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -3944,10 +3944,10 @@
         <v>3</v>
       </c>
       <c r="B325">
-        <v>40.833263700000003</v>
+        <v>42.281467300000003</v>
       </c>
       <c r="C325">
-        <v>19.8994994</v>
+        <v>19.523060099999999</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -3955,10 +3955,10 @@
         <v>3</v>
       </c>
       <c r="B326">
-        <v>40.833284999999997</v>
+        <v>42.277654499999997</v>
       </c>
       <c r="C326">
-        <v>19.9020449</v>
+        <v>19.518281200000001</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -3966,10 +3966,10 @@
         <v>3</v>
       </c>
       <c r="B327">
-        <v>40.833285699999998</v>
+        <v>42.281427899999997</v>
       </c>
       <c r="C327">
-        <v>19.9020586</v>
+        <v>19.523053399999998</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -3977,10 +3977,10 @@
         <v>3</v>
       </c>
       <c r="B328">
-        <v>40.833434599999997</v>
+        <v>42.277683500000002</v>
       </c>
       <c r="C328">
-        <v>19.905183699999998</v>
+        <v>19.517837</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -3988,10 +3988,10 @@
         <v>3</v>
       </c>
       <c r="B329">
-        <v>40.833481800000001</v>
+        <v>42.280393400000001</v>
       </c>
       <c r="C329">
-        <v>19.905455100000001</v>
+        <v>19.522840299999999</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -3999,10 +3999,10 @@
         <v>3</v>
       </c>
       <c r="B330">
-        <v>40.8335103</v>
+        <v>42.277751299999998</v>
       </c>
       <c r="C330">
-        <v>19.905443500000001</v>
+        <v>19.517457</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4010,10 +4010,10 @@
         <v>3</v>
       </c>
       <c r="B331">
-        <v>40.8335364</v>
+        <v>42.277492600000002</v>
       </c>
       <c r="C331">
-        <v>19.905429900000001</v>
+        <v>19.518242699999998</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4021,10 +4021,10 @@
         <v>3</v>
       </c>
       <c r="B332">
-        <v>40.833536799999997</v>
+        <v>42.277285499999998</v>
       </c>
       <c r="C332">
-        <v>19.905182100000001</v>
+        <v>19.5167021</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4032,10 +4032,10 @@
         <v>3</v>
       </c>
       <c r="B333">
-        <v>40.833566300000001</v>
+        <v>42.277923800000003</v>
       </c>
       <c r="C333">
-        <v>19.905406899999999</v>
+        <v>19.517572699999999</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4043,10 +4043,10 @@
         <v>3</v>
       </c>
       <c r="B334">
-        <v>40.834567</v>
+        <v>42.276982799999999</v>
       </c>
       <c r="C334">
-        <v>19.905859599999999</v>
+        <v>19.516658100000001</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4054,10 +4054,10 @@
         <v>3</v>
       </c>
       <c r="B335">
-        <v>40.834671499999999</v>
+        <v>40.831350700000002</v>
       </c>
       <c r="C335">
-        <v>19.905972599999998</v>
+        <v>19.9143708</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4065,10 +4065,10 @@
         <v>3</v>
       </c>
       <c r="B336">
-        <v>40.847952599999999</v>
+        <v>40.830765300000003</v>
       </c>
       <c r="C336">
-        <v>19.6384829</v>
+        <v>19.914642099999998</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4076,10 +4076,10 @@
         <v>3</v>
       </c>
       <c r="B337">
-        <v>40.858810900000002</v>
+        <v>40.830768900000002</v>
       </c>
       <c r="C337">
-        <v>19.6468189</v>
+        <v>19.914750099999999</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4087,10 +4087,10 @@
         <v>3</v>
       </c>
       <c r="B338">
-        <v>40.884501999999998</v>
+        <v>40.831157099999999</v>
       </c>
       <c r="C338">
-        <v>19.589530700000001</v>
+        <v>19.9144322</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4098,10 +4098,10 @@
         <v>3</v>
       </c>
       <c r="B339">
-        <v>40.884521100000001</v>
+        <v>40.750765199999996</v>
       </c>
       <c r="C339">
-        <v>19.589540100000001</v>
+        <v>20.832402299999998</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4109,10 +4109,10 @@
         <v>3</v>
       </c>
       <c r="B340">
-        <v>40.921858800000003</v>
+        <v>40.831096199999998</v>
       </c>
       <c r="C340">
-        <v>19.536833900000001</v>
+        <v>19.914892399999999</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4120,10 +4120,10 @@
         <v>3</v>
       </c>
       <c r="B341">
-        <v>40.923311599999998</v>
+        <v>40.8309292</v>
       </c>
       <c r="C341">
-        <v>19.537331099999999</v>
+        <v>19.915116999999999</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4131,10 +4131,10 @@
         <v>3</v>
       </c>
       <c r="B342">
-        <v>40.923311599999998</v>
+        <v>40.830769400000001</v>
       </c>
       <c r="C342">
-        <v>19.537331099999999</v>
+        <v>19.9147502</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4142,10 +4142,10 @@
         <v>3</v>
       </c>
       <c r="B343">
-        <v>40.942221099999998</v>
+        <v>40.831297599999999</v>
       </c>
       <c r="C343">
-        <v>19.5372837</v>
+        <v>19.914582800000002</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4153,10 +4153,10 @@
         <v>3</v>
       </c>
       <c r="B344">
-        <v>40.958093900000001</v>
+        <v>40.751758700000003</v>
       </c>
       <c r="C344">
-        <v>20.004059900000001</v>
+        <v>20.831425400000001</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4164,10 +4164,10 @@
         <v>3</v>
       </c>
       <c r="B345">
-        <v>40.960527200000001</v>
+        <v>40.832106899999999</v>
       </c>
       <c r="C345">
-        <v>19.521292200000001</v>
+        <v>19.9140172</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4175,10 +4175,10 @@
         <v>3</v>
       </c>
       <c r="B346">
-        <v>40.960527200000001</v>
+        <v>40.752531599999998</v>
       </c>
       <c r="C346">
-        <v>19.521292200000001</v>
+        <v>20.8312925</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4186,10 +4186,10 @@
         <v>3</v>
       </c>
       <c r="B347">
-        <v>40.968437899999998</v>
+        <v>40.831263900000003</v>
       </c>
       <c r="C347">
-        <v>20.004564200000001</v>
+        <v>19.914763099999998</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -4197,10 +4197,10 @@
         <v>3</v>
       </c>
       <c r="B348">
-        <v>40.971039699999999</v>
+        <v>40.754839099999998</v>
       </c>
       <c r="C348">
-        <v>20.004928100000001</v>
+        <v>20.830075000000001</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="B349">
-        <v>40.983379999999997</v>
+        <v>40.753555400000003</v>
       </c>
       <c r="C349">
-        <v>20.0097433</v>
+        <v>20.830983700000001</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4219,10 +4219,10 @@
         <v>3</v>
       </c>
       <c r="B350">
-        <v>40.984084799999998</v>
+        <v>40.753786900000001</v>
       </c>
       <c r="C350">
-        <v>20.010112599999999</v>
+        <v>20.8306401</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4230,10 +4230,10 @@
         <v>3</v>
       </c>
       <c r="B351">
-        <v>40.992705899999997</v>
+        <v>40.753895900000003</v>
       </c>
       <c r="C351">
-        <v>20.008908900000002</v>
+        <v>20.830523400000001</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4241,10 +4241,10 @@
         <v>3</v>
       </c>
       <c r="B352">
-        <v>40.992753100000002</v>
+        <v>40.754075700000001</v>
       </c>
       <c r="C352">
-        <v>20.008929500000001</v>
+        <v>20.830336800000001</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4252,10 +4252,10 @@
         <v>3</v>
       </c>
       <c r="B353">
-        <v>40.992775199999997</v>
+        <v>40.754475399999997</v>
       </c>
       <c r="C353">
-        <v>20.009053399999999</v>
+        <v>20.830290000000002</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4263,10 +4263,10 @@
         <v>3</v>
       </c>
       <c r="B354">
-        <v>40.993041300000002</v>
+        <v>40.753585999999999</v>
       </c>
       <c r="C354">
-        <v>20.009329900000001</v>
+        <v>20.830670699999999</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -4274,10 +4274,10 @@
         <v>3</v>
       </c>
       <c r="B355">
-        <v>41.000934000000001</v>
+        <v>40.753583399999997</v>
       </c>
       <c r="C355">
-        <v>20.0213693</v>
+        <v>20.830621900000001</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -4285,10 +4285,10 @@
         <v>3</v>
       </c>
       <c r="B356">
-        <v>41.001128399999999</v>
+        <v>40.753666799999998</v>
       </c>
       <c r="C356">
-        <v>20.020879900000001</v>
+        <v>20.830617799999999</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -4296,10 +4296,10 @@
         <v>3</v>
       </c>
       <c r="B357">
-        <v>41.003016700000003</v>
+        <v>40.754765200000001</v>
       </c>
       <c r="C357">
-        <v>20.017828099999999</v>
+        <v>20.8299974</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -4307,10 +4307,10 @@
         <v>3</v>
       </c>
       <c r="B358">
-        <v>41.015389999999996</v>
+        <v>40.755149799999998</v>
       </c>
       <c r="C358">
-        <v>20.0045033</v>
+        <v>20.829772599999998</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -4318,10 +4318,10 @@
         <v>3</v>
       </c>
       <c r="B359">
-        <v>41.024334899999999</v>
+        <v>40.755449900000002</v>
       </c>
       <c r="C359">
-        <v>19.990079000000001</v>
+        <v>20.829460000000001</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4329,10 +4329,10 @@
         <v>3</v>
       </c>
       <c r="B360">
-        <v>41.028087900000003</v>
+        <v>40.755571000000003</v>
       </c>
       <c r="C360">
-        <v>19.9908085</v>
+        <v>20.829272700000001</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -4340,10 +4340,10 @@
         <v>3</v>
       </c>
       <c r="B361">
-        <v>41.028320399999998</v>
+        <v>41.396787600000003</v>
       </c>
       <c r="C361">
-        <v>19.991267400000002</v>
+        <v>19.539857399999999</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="B362">
-        <v>41.028359100000003</v>
+        <v>41.379489</v>
       </c>
       <c r="C362">
-        <v>19.991171099999999</v>
+        <v>19.542874300000001</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -4362,10 +4362,10 @@
         <v>3</v>
       </c>
       <c r="B363">
-        <v>41.037975500000002</v>
+        <v>41.388695599999998</v>
       </c>
       <c r="C363">
-        <v>20.012066799999999</v>
+        <v>19.550103199999999</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -4373,10 +4373,10 @@
         <v>3</v>
       </c>
       <c r="B364">
-        <v>41.046672100000002</v>
+        <v>41.365637800000002</v>
       </c>
       <c r="C364">
-        <v>20.030432399999999</v>
+        <v>19.549973300000001</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -4384,10 +4384,10 @@
         <v>3</v>
       </c>
       <c r="B365">
-        <v>41.046804199999997</v>
+        <v>40.560966800000003</v>
       </c>
       <c r="C365">
-        <v>20.0292356</v>
+        <v>20.741795100000001</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -4395,10 +4395,10 @@
         <v>3</v>
       </c>
       <c r="B366">
-        <v>41.046809400000001</v>
+        <v>40.560964800000001</v>
       </c>
       <c r="C366">
-        <v>20.0292767</v>
+        <v>20.7417707</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -4406,10 +4406,10 @@
         <v>3</v>
       </c>
       <c r="B367">
-        <v>41.047044200000002</v>
+        <v>40.560974899999998</v>
       </c>
       <c r="C367">
-        <v>20.028777399999999</v>
+        <v>20.7418026</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -4417,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="B368">
-        <v>41.047182499999998</v>
+        <v>40.560964599999998</v>
       </c>
       <c r="C368">
-        <v>20.027951099999999</v>
+        <v>20.741803300000001</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -4428,10 +4428,10 @@
         <v>3</v>
       </c>
       <c r="B369">
-        <v>41.047287599999997</v>
+        <v>40.560952499999999</v>
       </c>
       <c r="C369">
-        <v>20.041661399999999</v>
+        <v>20.741803399999998</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -4439,10 +4439,10 @@
         <v>3</v>
       </c>
       <c r="B370">
-        <v>41.0474107</v>
+        <v>40.560913999999997</v>
       </c>
       <c r="C370">
-        <v>20.028795899999999</v>
+        <v>20.741698599999999</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -4450,10 +4450,10 @@
         <v>3</v>
       </c>
       <c r="B371">
-        <v>41.047564899999998</v>
+        <v>40.5609173</v>
       </c>
       <c r="C371">
-        <v>20.042275100000001</v>
+        <v>20.741696999999998</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -4461,10 +4461,10 @@
         <v>3</v>
       </c>
       <c r="B372">
-        <v>41.047760400000001</v>
+        <v>40.5609131</v>
       </c>
       <c r="C372">
-        <v>20.042171199999999</v>
+        <v>20.741690599999998</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -4472,10 +4472,10 @@
         <v>3</v>
       </c>
       <c r="B373">
-        <v>41.047779499999997</v>
+        <v>40.560912799999997</v>
       </c>
       <c r="C373">
-        <v>20.042402899999999</v>
+        <v>20.741685700000001</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -4483,10 +4483,10 @@
         <v>3</v>
       </c>
       <c r="B374">
-        <v>41.047955600000002</v>
+        <v>40.560913300000003</v>
       </c>
       <c r="C374">
-        <v>20.027138000000001</v>
+        <v>20.741686600000001</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -4494,10 +4494,10 @@
         <v>3</v>
       </c>
       <c r="B375">
-        <v>41.048037000000001</v>
+        <v>41.427428800000001</v>
       </c>
       <c r="C375">
-        <v>20.027214399999998</v>
+        <v>19.5628137</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -4505,10 +4505,10 @@
         <v>3</v>
       </c>
       <c r="B376">
-        <v>41.052767099999997</v>
+        <v>41.426992900000002</v>
       </c>
       <c r="C376">
-        <v>20.051650599999999</v>
+        <v>19.563263500000001</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -4516,10 +4516,10 @@
         <v>3</v>
       </c>
       <c r="B377">
-        <v>41.053278300000002</v>
+        <v>41.4230527</v>
       </c>
       <c r="C377">
-        <v>20.0521733</v>
+        <v>19.548993299999999</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -4527,10 +4527,10 @@
         <v>3</v>
       </c>
       <c r="B378">
-        <v>41.0583569</v>
+        <v>40.560912899999998</v>
       </c>
       <c r="C378">
-        <v>20.041430099999999</v>
+        <v>20.7416795</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -4538,10 +4538,10 @@
         <v>3</v>
       </c>
       <c r="B379">
-        <v>41.062847400000003</v>
+        <v>40.560951600000003</v>
       </c>
       <c r="C379">
-        <v>19.989694499999999</v>
+        <v>20.741800900000001</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -4549,10 +4549,10 @@
         <v>3</v>
       </c>
       <c r="B380">
-        <v>41.0634637</v>
+        <v>40.560895899999998</v>
       </c>
       <c r="C380">
-        <v>19.976870600000002</v>
+        <v>20.741647199999999</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -4560,10 +4560,10 @@
         <v>3</v>
       </c>
       <c r="B381">
-        <v>41.063736900000002</v>
+        <v>40.560944200000002</v>
       </c>
       <c r="C381">
-        <v>19.976755600000001</v>
+        <v>20.741797500000001</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -4571,10 +4571,10 @@
         <v>3</v>
       </c>
       <c r="B382">
-        <v>41.063870600000001</v>
+        <v>40.560954199999998</v>
       </c>
       <c r="C382">
-        <v>19.976452900000002</v>
+        <v>20.741793000000001</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -4582,10 +4582,10 @@
         <v>3</v>
       </c>
       <c r="B383">
-        <v>41.063969999999998</v>
+        <v>40.560938800000002</v>
       </c>
       <c r="C383">
-        <v>20.052781700000001</v>
+        <v>20.741807300000001</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -4593,10 +4593,10 @@
         <v>3</v>
       </c>
       <c r="B384">
-        <v>41.064894299999999</v>
+        <v>40.560957100000003</v>
       </c>
       <c r="C384">
-        <v>19.978616299999999</v>
+        <v>20.741800900000001</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -4604,10 +4604,10 @@
         <v>3</v>
       </c>
       <c r="B385">
-        <v>41.065772199999998</v>
+        <v>40.560913300000003</v>
       </c>
       <c r="C385">
-        <v>19.978327</v>
+        <v>20.741778199999999</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -4615,10 +4615,10 @@
         <v>3</v>
       </c>
       <c r="B386">
-        <v>41.065883599999999</v>
+        <v>40.560971600000002</v>
       </c>
       <c r="C386">
-        <v>19.978474800000001</v>
+        <v>20.741804699999999</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -4626,10 +4626,10 @@
         <v>3</v>
       </c>
       <c r="B387">
-        <v>41.065923499999997</v>
+        <v>40.560976500000002</v>
       </c>
       <c r="C387">
-        <v>19.978878099999999</v>
+        <v>20.741814900000001</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -4637,10 +4637,10 @@
         <v>3</v>
       </c>
       <c r="B388">
-        <v>41.066156399999997</v>
+        <v>40.560958399999997</v>
       </c>
       <c r="C388">
-        <v>19.978925700000001</v>
+        <v>20.741810099999999</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -4648,10 +4648,10 @@
         <v>3</v>
       </c>
       <c r="B389">
-        <v>41.066741700000001</v>
+        <v>40.560943600000002</v>
       </c>
       <c r="C389">
-        <v>19.977825800000002</v>
+        <v>20.741804800000001</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -4659,10 +4659,10 @@
         <v>3</v>
       </c>
       <c r="B390">
-        <v>41.066805700000003</v>
+        <v>40.560890999999998</v>
       </c>
       <c r="C390">
-        <v>19.982392000000001</v>
+        <v>20.741639800000002</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -4670,10 +4670,10 @@
         <v>3</v>
       </c>
       <c r="B391">
-        <v>41.067193400000001</v>
+        <v>40.560895799999997</v>
       </c>
       <c r="C391">
-        <v>20.052333099999998</v>
+        <v>20.7416351</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -4681,10 +4681,10 @@
         <v>3</v>
       </c>
       <c r="B392">
-        <v>41.069335000000002</v>
+        <v>40.560902499999997</v>
       </c>
       <c r="C392">
-        <v>19.984805000000001</v>
+        <v>20.741630799999999</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -4692,10 +4692,10 @@
         <v>3</v>
       </c>
       <c r="B393">
-        <v>41.069341999999999</v>
+        <v>40.560876</v>
       </c>
       <c r="C393">
-        <v>19.984977300000001</v>
+        <v>20.7416111</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -4703,10 +4703,10 @@
         <v>3</v>
       </c>
       <c r="B394">
-        <v>41.0698966</v>
+        <v>40.5609155</v>
       </c>
       <c r="C394">
-        <v>19.985111199999999</v>
+        <v>20.741734999999998</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -4714,10 +4714,10 @@
         <v>3</v>
       </c>
       <c r="B395">
-        <v>41.0710658</v>
+        <v>40.560920099999997</v>
       </c>
       <c r="C395">
-        <v>19.985009600000001</v>
+        <v>20.7417166</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -4725,10 +4725,10 @@
         <v>3</v>
       </c>
       <c r="B396">
-        <v>41.072071700000002</v>
+        <v>40.560943000000002</v>
       </c>
       <c r="C396">
-        <v>20.041710699999999</v>
+        <v>20.741734000000001</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -4736,10 +4736,10 @@
         <v>3</v>
       </c>
       <c r="B397">
-        <v>41.072356499999998</v>
+        <v>40.561030199999998</v>
       </c>
       <c r="C397">
-        <v>20.040371700000001</v>
+        <v>20.741820499999999</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -4747,10 +4747,10 @@
         <v>3</v>
       </c>
       <c r="B398">
-        <v>41.072875500000002</v>
+        <v>40.626757300000001</v>
       </c>
       <c r="C398">
-        <v>20.041034799999998</v>
+        <v>20.702181899999999</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -4758,10 +4758,10 @@
         <v>3</v>
       </c>
       <c r="B399">
-        <v>41.074826899999998</v>
+        <v>42.362380299999998</v>
       </c>
       <c r="C399">
-        <v>20.0449196</v>
+        <v>20.073043899999998</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -4769,10 +4769,10 @@
         <v>3</v>
       </c>
       <c r="B400">
-        <v>41.074863299999997</v>
+        <v>40.6267402</v>
       </c>
       <c r="C400">
-        <v>20.0440881</v>
+        <v>20.702174200000002</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -4780,10 +4780,10 @@
         <v>3</v>
       </c>
       <c r="B401">
-        <v>41.074932799999999</v>
+        <v>40.626693099999997</v>
       </c>
       <c r="C401">
-        <v>20.044976500000001</v>
+        <v>20.702165600000001</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -4791,10 +4791,10 @@
         <v>3</v>
       </c>
       <c r="B402">
-        <v>41.075205500000003</v>
+        <v>40.626756899999997</v>
       </c>
       <c r="C402">
-        <v>20.044734600000002</v>
+        <v>20.7021792</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -4802,10 +4802,10 @@
         <v>3</v>
       </c>
       <c r="B403">
-        <v>41.075346099999997</v>
+        <v>40.6266879</v>
       </c>
       <c r="C403">
-        <v>20.0453467</v>
+        <v>20.702141099999999</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -4813,10 +4813,10 @@
         <v>3</v>
       </c>
       <c r="B404">
-        <v>41.075422500000002</v>
+        <v>40.626729900000001</v>
       </c>
       <c r="C404">
-        <v>20.0454416</v>
+        <v>20.702078700000001</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -4824,10 +4824,10 @@
         <v>3</v>
       </c>
       <c r="B405">
-        <v>41.075425500000001</v>
+        <v>40.626732799999999</v>
       </c>
       <c r="C405">
-        <v>20.045501000000002</v>
+        <v>20.702138900000001</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -4835,10 +4835,10 @@
         <v>3</v>
       </c>
       <c r="B406">
-        <v>41.0768676</v>
+        <v>40.626760599999997</v>
       </c>
       <c r="C406">
-        <v>20.038896000000001</v>
+        <v>20.702173200000001</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -4846,10 +4846,10 @@
         <v>3</v>
       </c>
       <c r="B407">
-        <v>41.077204100000003</v>
+        <v>40.626660800000003</v>
       </c>
       <c r="C407">
-        <v>20.0395121</v>
+        <v>20.702097500000001</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -4857,10 +4857,10 @@
         <v>3</v>
       </c>
       <c r="B408">
-        <v>41.077283600000001</v>
+        <v>42.362389700000001</v>
       </c>
       <c r="C408">
-        <v>20.039661800000001</v>
+        <v>20.073061500000001</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -4868,10 +4868,10 @@
         <v>3</v>
       </c>
       <c r="B409">
-        <v>41.077538199999999</v>
+        <v>42.3625051</v>
       </c>
       <c r="C409">
-        <v>20.040127900000002</v>
+        <v>20.072873000000001</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -4879,10 +4879,10 @@
         <v>3</v>
       </c>
       <c r="B410">
-        <v>41.077629700000003</v>
+        <v>42.362324800000003</v>
       </c>
       <c r="C410">
-        <v>20.040025199999999</v>
+        <v>20.073018999999999</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -4890,10 +4890,10 @@
         <v>3</v>
       </c>
       <c r="B411">
-        <v>41.077751599999999</v>
+        <v>40.610097000000003</v>
       </c>
       <c r="C411">
-        <v>20.039908</v>
+        <v>20.691711999999999</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -4901,10 +4901,10 @@
         <v>3</v>
       </c>
       <c r="B412">
-        <v>41.077992700000003</v>
+        <v>40.609602500000001</v>
       </c>
       <c r="C412">
-        <v>20.038893300000002</v>
+        <v>20.691002099999999</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -4912,10 +4912,10 @@
         <v>3</v>
       </c>
       <c r="B413">
-        <v>41.078218900000003</v>
+        <v>40.6096109</v>
       </c>
       <c r="C413">
-        <v>20.040419700000001</v>
+        <v>20.691012700000002</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -4923,10 +4923,10 @@
         <v>3</v>
       </c>
       <c r="B414">
-        <v>41.078769000000001</v>
+        <v>40.610722099999997</v>
       </c>
       <c r="C414">
-        <v>20.038345899999999</v>
+        <v>20.692342499999999</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -4934,10 +4934,10 @@
         <v>3</v>
       </c>
       <c r="B415">
-        <v>41.0788777</v>
+        <v>40.611035399999999</v>
       </c>
       <c r="C415">
-        <v>20.039146299999999</v>
+        <v>20.693137100000001</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -4945,10 +4945,10 @@
         <v>3</v>
       </c>
       <c r="B416">
-        <v>41.360628800000001</v>
+        <v>40.6110173</v>
       </c>
       <c r="C416">
-        <v>19.5641301</v>
+        <v>20.693270999999999</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -4956,10 +4956,10 @@
         <v>3</v>
       </c>
       <c r="B417">
-        <v>41.365637800000002</v>
+        <v>40.611177699999999</v>
       </c>
       <c r="C417">
-        <v>19.549973300000001</v>
+        <v>20.693513100000001</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -4967,10 +4967,10 @@
         <v>3</v>
       </c>
       <c r="B418">
-        <v>41.379489</v>
+        <v>40.611255800000002</v>
       </c>
       <c r="C418">
-        <v>19.542874300000001</v>
+        <v>20.693622900000001</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -4978,10 +4978,10 @@
         <v>3</v>
       </c>
       <c r="B419">
-        <v>41.388695599999998</v>
+        <v>40.611256900000001</v>
       </c>
       <c r="C419">
-        <v>19.550103199999999</v>
+        <v>20.6936219</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -4989,10 +4989,10 @@
         <v>3</v>
       </c>
       <c r="B420">
-        <v>41.394496500000002</v>
+        <v>40.611215199999997</v>
       </c>
       <c r="C420">
-        <v>19.544613900000002</v>
+        <v>20.693598900000001</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -5000,10 +5000,10 @@
         <v>3</v>
       </c>
       <c r="B421">
-        <v>41.396787600000003</v>
+        <v>40.611273199999999</v>
       </c>
       <c r="C421">
-        <v>19.539857399999999</v>
+        <v>20.6935851</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -5011,10 +5011,10 @@
         <v>3</v>
       </c>
       <c r="B422">
-        <v>41.400360599999999</v>
+        <v>40.611356299999997</v>
       </c>
       <c r="C422">
-        <v>19.545108299999999</v>
+        <v>20.693670900000001</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -5022,10 +5022,10 @@
         <v>3</v>
       </c>
       <c r="B423">
-        <v>41.4230527</v>
+        <v>40.610570299999999</v>
       </c>
       <c r="C423">
-        <v>19.548993299999999</v>
+        <v>20.6921496</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -5033,10 +5033,10 @@
         <v>3</v>
       </c>
       <c r="B424">
-        <v>41.426992900000002</v>
+        <v>40.611265699999997</v>
       </c>
       <c r="C424">
-        <v>19.563263500000001</v>
+        <v>20.693665299999999</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -5044,10 +5044,10 @@
         <v>3</v>
       </c>
       <c r="B425">
-        <v>41.427428800000001</v>
+        <v>40.611249700000002</v>
       </c>
       <c r="C425">
-        <v>19.5628137</v>
+        <v>20.693570399999999</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -5055,10 +5055,10 @@
         <v>3</v>
       </c>
       <c r="B426">
-        <v>41.5688575</v>
+        <v>40.611345100000001</v>
       </c>
       <c r="C426">
-        <v>20.4444029</v>
+        <v>20.693597400000002</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -5066,10 +5066,10 @@
         <v>3</v>
       </c>
       <c r="B427">
-        <v>41.588593500000002</v>
+        <v>40.611211599999997</v>
       </c>
       <c r="C427">
-        <v>20.485208</v>
+        <v>20.693585500000001</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -5077,10 +5077,10 @@
         <v>3</v>
       </c>
       <c r="B428">
-        <v>41.608505999999998</v>
+        <v>40.611242799999999</v>
       </c>
       <c r="C428">
-        <v>20.470987600000001</v>
+        <v>20.693614400000001</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -5088,10 +5088,10 @@
         <v>3</v>
       </c>
       <c r="B429">
-        <v>41.613504399999997</v>
+        <v>40.611170700000002</v>
       </c>
       <c r="C429">
-        <v>20.4782586</v>
+        <v>20.6936283</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -5099,10 +5099,10 @@
         <v>3</v>
       </c>
       <c r="B430">
-        <v>41.6494097</v>
+        <v>40.611260600000001</v>
       </c>
       <c r="C430">
-        <v>20.457399500000001</v>
+        <v>20.6935775</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -5110,10 +5110,10 @@
         <v>3</v>
       </c>
       <c r="B431">
-        <v>41.6494499</v>
+        <v>40.706542399999996</v>
       </c>
       <c r="C431">
-        <v>20.457481600000001</v>
+        <v>20.792244100000001</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -5121,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="B432">
-        <v>41.654047800000001</v>
+        <v>40.703667600000003</v>
       </c>
       <c r="C432">
-        <v>20.4345228</v>
+        <v>20.792092100000001</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -5132,10 +5132,10 @@
         <v>3</v>
       </c>
       <c r="B433">
-        <v>41.654052999999998</v>
+        <v>40.884521100000001</v>
       </c>
       <c r="C433">
-        <v>20.434523800000001</v>
+        <v>19.589540100000001</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="B434">
-        <v>41.654359100000001</v>
+        <v>40.884501999999998</v>
       </c>
       <c r="C434">
-        <v>20.436582000000001</v>
+        <v>19.589530700000001</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -5154,10 +5154,10 @@
         <v>3</v>
       </c>
       <c r="B435">
-        <v>41.654448299999999</v>
+        <v>40.706522499999998</v>
       </c>
       <c r="C435">
-        <v>20.43609</v>
+        <v>20.792271899999999</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -5165,10 +5165,10 @@
         <v>3</v>
       </c>
       <c r="B436">
-        <v>41.654629999999997</v>
+        <v>40.7046469</v>
       </c>
       <c r="C436">
-        <v>20.435296699999999</v>
+        <v>20.7913256</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -5176,10 +5176,10 @@
         <v>3</v>
       </c>
       <c r="B437">
-        <v>41.6560354</v>
+        <v>40.942221099999998</v>
       </c>
       <c r="C437">
-        <v>20.434201300000002</v>
+        <v>19.5372837</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -5187,10 +5187,10 @@
         <v>3</v>
       </c>
       <c r="B438">
-        <v>41.697344899999997</v>
+        <v>40.921858800000003</v>
       </c>
       <c r="C438">
-        <v>20.3652804</v>
+        <v>19.536833900000001</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -5198,10 +5198,10 @@
         <v>3</v>
       </c>
       <c r="B439">
-        <v>41.697348599999998</v>
+        <v>40.706364499999999</v>
       </c>
       <c r="C439">
-        <v>20.3652677</v>
+        <v>20.792159300000002</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -5209,10 +5209,10 @@
         <v>3</v>
       </c>
       <c r="B440">
-        <v>41.6974752</v>
+        <v>40.960527200000001</v>
       </c>
       <c r="C440">
-        <v>20.365712200000001</v>
+        <v>19.521292200000001</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -5220,10 +5220,10 @@
         <v>3</v>
       </c>
       <c r="B441">
-        <v>41.879133899999999</v>
+        <v>40.923311599999998</v>
       </c>
       <c r="C441">
-        <v>19.6379625</v>
+        <v>19.537331099999999</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -5231,10 +5231,10 @@
         <v>3</v>
       </c>
       <c r="B442">
-        <v>41.879137499999999</v>
+        <v>40.705325799999997</v>
       </c>
       <c r="C442">
-        <v>19.6380126</v>
+        <v>20.791675900000001</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -5242,10 +5242,10 @@
         <v>3</v>
       </c>
       <c r="B443">
-        <v>41.879153100000003</v>
+        <v>40.923311599999998</v>
       </c>
       <c r="C443">
-        <v>19.637986999999999</v>
+        <v>19.537331099999999</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -5253,10 +5253,10 @@
         <v>3</v>
       </c>
       <c r="B444">
-        <v>41.879153600000002</v>
+        <v>40.960527200000001</v>
       </c>
       <c r="C444">
-        <v>19.637971199999999</v>
+        <v>19.521292200000001</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -5264,10 +5264,10 @@
         <v>3</v>
       </c>
       <c r="B445">
-        <v>41.895533899999997</v>
+        <v>40.706411500000002</v>
       </c>
       <c r="C445">
-        <v>19.646892600000001</v>
+        <v>20.792268700000001</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -5275,10 +5275,10 @@
         <v>3</v>
       </c>
       <c r="B446">
-        <v>41.895617700000003</v>
+        <v>40.706332000000003</v>
       </c>
       <c r="C446">
-        <v>19.6467311</v>
+        <v>20.792128900000002</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -5286,10 +5286,10 @@
         <v>3</v>
       </c>
       <c r="B447">
-        <v>41.895659000000002</v>
+        <v>42.168859500000003</v>
       </c>
       <c r="C447">
-        <v>19.6468165</v>
+        <v>19.4817781</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -5297,10 +5297,10 @@
         <v>3</v>
       </c>
       <c r="B448">
-        <v>41.895677399999997</v>
+        <v>40.705536899999998</v>
       </c>
       <c r="C448">
-        <v>19.646854300000001</v>
+        <v>20.792016799999999</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -5308,10 +5308,10 @@
         <v>3</v>
       </c>
       <c r="B449">
-        <v>41.9212907</v>
+        <v>40.706282399999999</v>
       </c>
       <c r="C449">
-        <v>19.6009083</v>
+        <v>20.792267200000001</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -5319,10 +5319,10 @@
         <v>3</v>
       </c>
       <c r="B450">
-        <v>41.921292800000003</v>
+        <v>40.705341799999999</v>
       </c>
       <c r="C450">
-        <v>19.600942199999999</v>
+        <v>20.791884499999998</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -5330,10 +5330,10 @@
         <v>3</v>
       </c>
       <c r="B451">
-        <v>41.921295299999997</v>
+        <v>40.7061894</v>
       </c>
       <c r="C451">
-        <v>19.600906299999998</v>
+        <v>20.7921561</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -5341,10 +5341,10 @@
         <v>3</v>
       </c>
       <c r="B452">
-        <v>41.921300600000002</v>
+        <v>40.705005700000001</v>
       </c>
       <c r="C452">
-        <v>19.600891499999999</v>
+        <v>20.791491600000001</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -5352,10 +5352,10 @@
         <v>3</v>
       </c>
       <c r="B453">
-        <v>41.921302099999998</v>
+        <v>40.705502799999998</v>
       </c>
       <c r="C453">
-        <v>19.600870799999999</v>
+        <v>20.791700500000001</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="B454">
-        <v>41.921326000000001</v>
+        <v>40.704983800000001</v>
       </c>
       <c r="C454">
-        <v>19.600899099999999</v>
+        <v>20.791447999999999</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -5374,10 +5374,10 @@
         <v>3</v>
       </c>
       <c r="B455">
-        <v>41.921332</v>
+        <v>40.617686800000001</v>
       </c>
       <c r="C455">
-        <v>19.600918100000001</v>
+        <v>20.7716612</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -5385,10 +5385,10 @@
         <v>3</v>
       </c>
       <c r="B456">
-        <v>41.921332499999998</v>
+        <v>40.704856100000001</v>
       </c>
       <c r="C456">
-        <v>19.600961300000002</v>
+        <v>20.791373499999999</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -5396,10 +5396,10 @@
         <v>3</v>
       </c>
       <c r="B457">
-        <v>41.960501399999998</v>
+        <v>40.7049685</v>
       </c>
       <c r="C457">
-        <v>19.636326100000002</v>
+        <v>20.7914374</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -5407,10 +5407,10 @@
         <v>3</v>
       </c>
       <c r="B458">
-        <v>41.960529000000001</v>
+        <v>40.704788999999998</v>
       </c>
       <c r="C458">
-        <v>19.636325200000002</v>
+        <v>20.791447999999999</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -5418,10 +5418,10 @@
         <v>3</v>
       </c>
       <c r="B459">
-        <v>41.960741300000002</v>
+        <v>42.357349300000003</v>
       </c>
       <c r="C459">
-        <v>19.637025999999999</v>
+        <v>20.0740762</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -5429,10 +5429,10 @@
         <v>3</v>
       </c>
       <c r="B460">
-        <v>41.960837699999999</v>
+        <v>42.357340499999999</v>
       </c>
       <c r="C460">
-        <v>19.6368799</v>
+        <v>20.074083600000002</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -5440,10 +5440,10 @@
         <v>3</v>
       </c>
       <c r="B461">
-        <v>41.960927499999997</v>
+        <v>40.704794900000003</v>
       </c>
       <c r="C461">
-        <v>19.636730700000001</v>
+        <v>20.7913055</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -5451,10 +5451,10 @@
         <v>3</v>
       </c>
       <c r="B462">
-        <v>41.961001000000003</v>
+        <v>41.028359100000003</v>
       </c>
       <c r="C462">
-        <v>19.636742600000002</v>
+        <v>19.991171099999999</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -5462,10 +5462,10 @@
         <v>3</v>
       </c>
       <c r="B463">
-        <v>41.9610603</v>
+        <v>40.7044158</v>
       </c>
       <c r="C463">
-        <v>19.6367856</v>
+        <v>20.791806900000001</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -5473,10 +5473,10 @@
         <v>3</v>
       </c>
       <c r="B464">
-        <v>41.9610725</v>
+        <v>41.028087900000003</v>
       </c>
       <c r="C464">
-        <v>19.636762600000001</v>
+        <v>19.9908085</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -5484,10 +5484,10 @@
         <v>3</v>
       </c>
       <c r="B465">
-        <v>41.966019899999999</v>
+        <v>40.713635799999999</v>
       </c>
       <c r="C465">
-        <v>19.6371605</v>
+        <v>19.619978799999998</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -5495,10 +5495,10 @@
         <v>3</v>
       </c>
       <c r="B466">
-        <v>41.977525200000002</v>
+        <v>40.713635600000003</v>
       </c>
       <c r="C466">
-        <v>19.628163799999999</v>
+        <v>19.619980099999999</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -5506,10 +5506,10 @@
         <v>3</v>
       </c>
       <c r="B467">
-        <v>41.977555799999998</v>
+        <v>40.713628900000003</v>
       </c>
       <c r="C467">
-        <v>19.6282277</v>
+        <v>19.619981899999999</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -5517,10 +5517,10 @@
         <v>3</v>
       </c>
       <c r="B468">
-        <v>41.977569799999998</v>
+        <v>40.713571999999999</v>
       </c>
       <c r="C468">
-        <v>19.628201099999998</v>
+        <v>19.620115500000001</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -5528,10 +5528,10 @@
         <v>3</v>
       </c>
       <c r="B469">
-        <v>41.977579400000003</v>
+        <v>40.706701799999998</v>
       </c>
       <c r="C469">
-        <v>19.628174900000001</v>
+        <v>19.619714800000001</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -5539,10 +5539,10 @@
         <v>3</v>
       </c>
       <c r="B470">
-        <v>41.977593900000002</v>
+        <v>40.706772299999997</v>
       </c>
       <c r="C470">
-        <v>19.628239799999999</v>
+        <v>19.6196372</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -5550,10 +5550,10 @@
         <v>3</v>
       </c>
       <c r="B471">
-        <v>41.977598800000003</v>
+        <v>40.706692400000001</v>
       </c>
       <c r="C471">
-        <v>19.628169499999998</v>
+        <v>19.619727300000001</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -5561,10 +5561,10 @@
         <v>3</v>
       </c>
       <c r="B472">
-        <v>41.977623800000003</v>
+        <v>40.7068023</v>
       </c>
       <c r="C472">
-        <v>19.628193199999998</v>
+        <v>19.619588400000001</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -5572,10 +5572,10 @@
         <v>3</v>
       </c>
       <c r="B473">
-        <v>41.977645699999997</v>
+        <v>42.362310999999998</v>
       </c>
       <c r="C473">
-        <v>19.628126200000001</v>
+        <v>20.0729486</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="B474">
-        <v>41.977848100000003</v>
+        <v>42.362290199999997</v>
       </c>
       <c r="C474">
-        <v>19.6300536</v>
+        <v>20.0729188</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -5594,10 +5594,10 @@
         <v>3</v>
       </c>
       <c r="B475">
-        <v>41.977890600000002</v>
+        <v>42.362548599999997</v>
       </c>
       <c r="C475">
-        <v>19.630082699999999</v>
+        <v>20.0736709</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -5605,10 +5605,10 @@
         <v>3</v>
       </c>
       <c r="B476">
-        <v>41.977897200000001</v>
+        <v>42.362232400000003</v>
       </c>
       <c r="C476">
-        <v>19.630003500000001</v>
+        <v>20.072844199999999</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -5616,10 +5616,10 @@
         <v>3</v>
       </c>
       <c r="B477">
-        <v>41.977901099999997</v>
+        <v>40.123410100000001</v>
       </c>
       <c r="C477">
-        <v>19.630028200000002</v>
+        <v>20.1118554</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -5627,10 +5627,10 @@
         <v>3</v>
       </c>
       <c r="B478">
-        <v>41.977942400000003</v>
+        <v>40.122214700000001</v>
       </c>
       <c r="C478">
-        <v>19.6300211</v>
+        <v>20.105774400000001</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -5638,10 +5638,10 @@
         <v>3</v>
       </c>
       <c r="B479">
-        <v>41.977950399999997</v>
+        <v>40.122556799999998</v>
       </c>
       <c r="C479">
-        <v>19.630051699999999</v>
+        <v>20.110113599999998</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -5649,10 +5649,10 @@
         <v>3</v>
       </c>
       <c r="B480">
-        <v>41.978000899999998</v>
+        <v>40.122549499999998</v>
       </c>
       <c r="C480">
-        <v>19.6299104</v>
+        <v>20.110094199999999</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -5660,10 +5660,10 @@
         <v>3</v>
       </c>
       <c r="B481">
-        <v>41.9780205</v>
+        <v>40.122547599999997</v>
       </c>
       <c r="C481">
-        <v>19.629951899999998</v>
+        <v>20.1100882</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -5671,10 +5671,10 @@
         <v>3</v>
       </c>
       <c r="B482">
-        <v>41.997348100000004</v>
+        <v>40.701578300000001</v>
       </c>
       <c r="C482">
-        <v>19.549879000000001</v>
+        <v>19.617272</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -5682,10 +5682,10 @@
         <v>3</v>
       </c>
       <c r="B483">
-        <v>41.997391100000002</v>
+        <v>40.701530200000001</v>
       </c>
       <c r="C483">
-        <v>19.5498838</v>
+        <v>19.617308300000001</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -5693,10 +5693,10 @@
         <v>3</v>
       </c>
       <c r="B484">
-        <v>41.997435000000003</v>
+        <v>40.707910900000002</v>
       </c>
       <c r="C484">
-        <v>19.5499048</v>
+        <v>19.639635800000001</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -5704,10 +5704,10 @@
         <v>3</v>
       </c>
       <c r="B485">
-        <v>41.997440599999997</v>
+        <v>40.707915800000002</v>
       </c>
       <c r="C485">
-        <v>19.5498826</v>
+        <v>19.6395126</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -5715,10 +5715,10 @@
         <v>3</v>
       </c>
       <c r="B486">
-        <v>41.997448200000001</v>
+        <v>40.707695800000003</v>
       </c>
       <c r="C486">
-        <v>19.549888800000002</v>
+        <v>19.639659000000002</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -5726,10 +5726,10 @@
         <v>3</v>
       </c>
       <c r="B487">
-        <v>41.997457599999997</v>
+        <v>40.706020799999997</v>
       </c>
       <c r="C487">
-        <v>19.5498808</v>
+        <v>19.639999100000001</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -5737,10 +5737,10 @@
         <v>3</v>
       </c>
       <c r="B488">
-        <v>41.997463400000001</v>
+        <v>40.1240138</v>
       </c>
       <c r="C488">
-        <v>19.549926500000002</v>
+        <v>20.1357748</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -5748,10 +5748,10 @@
         <v>3</v>
       </c>
       <c r="B489">
-        <v>41.997470800000002</v>
+        <v>40.699875400000003</v>
       </c>
       <c r="C489">
-        <v>19.549841600000001</v>
+        <v>19.6101435</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -5759,10 +5759,10 @@
         <v>3</v>
       </c>
       <c r="B490">
-        <v>42.003242399999998</v>
+        <v>40.700781900000003</v>
       </c>
       <c r="C490">
-        <v>19.613809100000001</v>
+        <v>19.612272000000001</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -5770,10 +5770,10 @@
         <v>3</v>
       </c>
       <c r="B491">
-        <v>42.003288699999999</v>
+        <v>40.719981300000001</v>
       </c>
       <c r="C491">
-        <v>19.613859699999999</v>
+        <v>19.6205645</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -5781,10 +5781,10 @@
         <v>3</v>
       </c>
       <c r="B492">
-        <v>42.003361200000001</v>
+        <v>40.721211199999999</v>
       </c>
       <c r="C492">
-        <v>19.613809499999999</v>
+        <v>19.621170599999999</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -5792,10 +5792,10 @@
         <v>3</v>
       </c>
       <c r="B493">
-        <v>42.006983400000003</v>
+        <v>40.723165199999997</v>
       </c>
       <c r="C493">
-        <v>19.637996999999999</v>
+        <v>19.621562600000001</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="B494">
-        <v>42.006986099999999</v>
+        <v>42.163769799999997</v>
       </c>
       <c r="C494">
-        <v>19.6378609</v>
+        <v>19.4654448</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -5814,10 +5814,10 @@
         <v>3</v>
       </c>
       <c r="B495">
-        <v>42.006993299999998</v>
+        <v>40.723148199999997</v>
       </c>
       <c r="C495">
-        <v>19.6379242</v>
+        <v>19.6215419</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -5825,10 +5825,10 @@
         <v>3</v>
       </c>
       <c r="B496">
-        <v>42.007011400000003</v>
+        <v>40.085417300000003</v>
       </c>
       <c r="C496">
-        <v>19.637915899999999</v>
+        <v>20.1426938</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -5836,10 +5836,10 @@
         <v>3</v>
       </c>
       <c r="B497">
-        <v>42.007016299999997</v>
+        <v>40.085411999999998</v>
       </c>
       <c r="C497">
-        <v>19.6378035</v>
+        <v>20.142689300000001</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -5847,10 +5847,10 @@
         <v>3</v>
       </c>
       <c r="B498">
-        <v>42.027496599999999</v>
+        <v>40.085411999999998</v>
       </c>
       <c r="C498">
-        <v>19.548194500000001</v>
+        <v>20.142689300000001</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -5858,10 +5858,10 @@
         <v>3</v>
       </c>
       <c r="B499">
-        <v>42.027567699999999</v>
+        <v>40.085411999999998</v>
       </c>
       <c r="C499">
-        <v>19.548205200000002</v>
+        <v>20.142689300000001</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -5869,10 +5869,10 @@
         <v>3</v>
       </c>
       <c r="B500">
-        <v>42.027596099999997</v>
+        <v>40.0803966</v>
       </c>
       <c r="C500">
-        <v>19.548204399999999</v>
+        <v>20.138464599999999</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -5880,10 +5880,10 @@
         <v>3</v>
       </c>
       <c r="B501">
-        <v>42.027619700000002</v>
+        <v>40.971039699999999</v>
       </c>
       <c r="C501">
-        <v>19.548174299999999</v>
+        <v>20.004928100000001</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -5891,10 +5891,10 @@
         <v>3</v>
       </c>
       <c r="B502">
-        <v>42.0283807</v>
+        <v>40.983379999999997</v>
       </c>
       <c r="C502">
-        <v>19.548843000000002</v>
+        <v>20.0097433</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -5902,10 +5902,10 @@
         <v>3</v>
       </c>
       <c r="B503">
-        <v>42.028405399999997</v>
+        <v>41.003016700000003</v>
       </c>
       <c r="C503">
-        <v>19.548815999999999</v>
+        <v>20.017828099999999</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -5913,10 +5913,10 @@
         <v>3</v>
       </c>
       <c r="B504">
-        <v>42.033742500000002</v>
+        <v>41.015389999999996</v>
       </c>
       <c r="C504">
-        <v>19.568710899999999</v>
+        <v>20.0045033</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -5924,10 +5924,10 @@
         <v>3</v>
       </c>
       <c r="B505">
-        <v>42.033753400000002</v>
+        <v>40.125408999999998</v>
       </c>
       <c r="C505">
-        <v>19.568732600000001</v>
+        <v>20.136428299999999</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -5935,10 +5935,10 @@
         <v>3</v>
       </c>
       <c r="B506">
-        <v>42.039446900000002</v>
+        <v>40.125190500000002</v>
       </c>
       <c r="C506">
-        <v>19.5244815</v>
+        <v>20.136147699999999</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -5946,10 +5946,10 @@
         <v>3</v>
       </c>
       <c r="B507">
-        <v>42.039496300000003</v>
+        <v>40.125254699999999</v>
       </c>
       <c r="C507">
-        <v>19.524458299999999</v>
+        <v>20.136188700000002</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -5957,10 +5957,10 @@
         <v>3</v>
       </c>
       <c r="B508">
-        <v>42.040169499999998</v>
+        <v>40.125625300000003</v>
       </c>
       <c r="C508">
-        <v>19.523026600000001</v>
+        <v>20.136190599999999</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -5968,10 +5968,10 @@
         <v>3</v>
       </c>
       <c r="B509">
-        <v>42.040169800000001</v>
+        <v>40.1256561</v>
       </c>
       <c r="C509">
-        <v>19.5228927</v>
+        <v>20.136201199999999</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -5979,10 +5979,10 @@
         <v>3</v>
       </c>
       <c r="B510">
-        <v>42.040287399999997</v>
+        <v>40.847952599999999</v>
       </c>
       <c r="C510">
-        <v>19.525865799999998</v>
+        <v>19.6384829</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -5990,10 +5990,10 @@
         <v>3</v>
       </c>
       <c r="B511">
-        <v>42.040329300000003</v>
+        <v>40.858810900000002</v>
       </c>
       <c r="C511">
-        <v>19.5258304</v>
+        <v>19.6468189</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -6001,10 +6001,10 @@
         <v>3</v>
       </c>
       <c r="B512">
-        <v>42.040343300000004</v>
+        <v>40.146357500000001</v>
       </c>
       <c r="C512">
-        <v>19.522110000000001</v>
+        <v>20.0885335</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -6012,10 +6012,10 @@
         <v>3</v>
       </c>
       <c r="B513">
-        <v>42.040445300000002</v>
+        <v>40.145546199999998</v>
       </c>
       <c r="C513">
-        <v>19.522058600000001</v>
+        <v>20.089397000000002</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="B514">
-        <v>42.048879900000003</v>
+        <v>40.141613</v>
       </c>
       <c r="C514">
-        <v>19.5681832</v>
+        <v>20.088227100000001</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -6034,10 +6034,10 @@
         <v>3</v>
       </c>
       <c r="B515">
-        <v>42.048915200000003</v>
+        <v>40.1443029</v>
       </c>
       <c r="C515">
-        <v>19.568248799999999</v>
+        <v>20.088320499999998</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -6045,10 +6045,10 @@
         <v>3</v>
       </c>
       <c r="B516">
-        <v>42.048942599999997</v>
+        <v>40.144500399999998</v>
       </c>
       <c r="C516">
-        <v>19.568131399999999</v>
+        <v>20.089192499999999</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -6056,10 +6056,10 @@
         <v>3</v>
       </c>
       <c r="B517">
-        <v>42.048980499999999</v>
+        <v>40.146357000000002</v>
       </c>
       <c r="C517">
-        <v>19.568137700000001</v>
+        <v>20.0885183</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -6067,10 +6067,10 @@
         <v>3</v>
       </c>
       <c r="B518">
-        <v>42.163769799999997</v>
+        <v>40.145260700000001</v>
       </c>
       <c r="C518">
-        <v>19.4654448</v>
+        <v>20.0883352</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -6078,10 +6078,10 @@
         <v>3</v>
       </c>
       <c r="B519">
-        <v>42.168859500000003</v>
+        <v>40.832867899999997</v>
       </c>
       <c r="C519">
-        <v>19.4817781</v>
+        <v>19.5192318</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -6089,10 +6089,10 @@
         <v>3</v>
       </c>
       <c r="B520">
-        <v>42.197084799999999</v>
+        <v>40.984084799999998</v>
       </c>
       <c r="C520">
-        <v>19.451702999999998</v>
+        <v>20.010112599999999</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -6100,10 +6100,10 @@
         <v>3</v>
       </c>
       <c r="B521">
-        <v>42.211303399999998</v>
+        <v>40.968437899999998</v>
       </c>
       <c r="C521">
-        <v>19.430100299999999</v>
+        <v>20.004564200000001</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -6111,10 +6111,10 @@
         <v>3</v>
       </c>
       <c r="B522">
-        <v>42.211848600000003</v>
+        <v>40.958093900000001</v>
       </c>
       <c r="C522">
-        <v>19.4321713</v>
+        <v>20.004059900000001</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -6122,10 +6122,10 @@
         <v>3</v>
       </c>
       <c r="B523">
-        <v>42.2123676</v>
+        <v>40.8251633</v>
       </c>
       <c r="C523">
-        <v>19.433116200000001</v>
+        <v>19.501712900000001</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -6133,10 +6133,10 @@
         <v>3</v>
       </c>
       <c r="B524">
-        <v>42.212802199999999</v>
+        <v>40.825159300000003</v>
       </c>
       <c r="C524">
-        <v>19.433364900000001</v>
+        <v>19.501710500000002</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -6144,10 +6144,10 @@
         <v>3</v>
       </c>
       <c r="B525">
-        <v>42.218670099999997</v>
+        <v>40.819353700000001</v>
       </c>
       <c r="C525">
-        <v>19.4468459</v>
+        <v>19.501025800000001</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -6155,10 +6155,10 @@
         <v>3</v>
       </c>
       <c r="B526">
-        <v>42.223769799999999</v>
+        <v>40.816021599999999</v>
       </c>
       <c r="C526">
-        <v>19.467558700000001</v>
+        <v>19.5005454</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -6166,10 +6166,10 @@
         <v>3</v>
       </c>
       <c r="B527">
-        <v>42.223892999999997</v>
+        <v>40.816017700000003</v>
       </c>
       <c r="C527">
-        <v>19.4676455</v>
+        <v>19.500545200000001</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -6177,10 +6177,10 @@
         <v>3</v>
       </c>
       <c r="B528">
-        <v>42.224658699999999</v>
+        <v>40.816024499999997</v>
       </c>
       <c r="C528">
-        <v>19.454990200000001</v>
+        <v>19.5004867</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -6188,10 +6188,10 @@
         <v>3</v>
       </c>
       <c r="B529">
-        <v>42.224680999999997</v>
+        <v>40.815624300000003</v>
       </c>
       <c r="C529">
-        <v>19.454992300000001</v>
+        <v>19.500920399999998</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -6199,10 +6199,10 @@
         <v>3</v>
       </c>
       <c r="B530">
-        <v>42.224828000000002</v>
+        <v>40.816299399999998</v>
       </c>
       <c r="C530">
-        <v>19.455191299999999</v>
+        <v>19.5016237</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -6210,10 +6210,10 @@
         <v>3</v>
       </c>
       <c r="B531">
-        <v>42.276982799999999</v>
+        <v>40.815844400000003</v>
       </c>
       <c r="C531">
-        <v>19.516658100000001</v>
+        <v>19.499451499999999</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -6221,10 +6221,10 @@
         <v>3</v>
       </c>
       <c r="B532">
-        <v>42.277197200000003</v>
+        <v>40.816145400000003</v>
       </c>
       <c r="C532">
-        <v>19.5138845</v>
+        <v>19.4993044</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -6232,10 +6232,10 @@
         <v>3</v>
       </c>
       <c r="B533">
-        <v>42.2772711</v>
+        <v>40.816376900000002</v>
       </c>
       <c r="C533">
-        <v>19.5165753</v>
+        <v>19.499282099999999</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="B534">
-        <v>42.277285499999998</v>
+        <v>40.816374099999997</v>
       </c>
       <c r="C534">
-        <v>19.5167021</v>
+        <v>19.499950599999998</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -6254,10 +6254,10 @@
         <v>3</v>
       </c>
       <c r="B535">
-        <v>42.277492600000002</v>
+        <v>40.145259699999997</v>
       </c>
       <c r="C535">
-        <v>19.518242699999998</v>
+        <v>20.0883316</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -6265,10 +6265,10 @@
         <v>3</v>
       </c>
       <c r="B536">
-        <v>42.277654499999997</v>
+        <v>41.024334899999999</v>
       </c>
       <c r="C536">
-        <v>19.518281200000001</v>
+        <v>19.990079000000001</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -6276,10 +6276,10 @@
         <v>3</v>
       </c>
       <c r="B537">
-        <v>42.277683500000002</v>
+        <v>40.992705899999997</v>
       </c>
       <c r="C537">
-        <v>19.517837</v>
+        <v>20.008908900000002</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -6287,10 +6287,10 @@
         <v>3</v>
       </c>
       <c r="B538">
-        <v>42.277751299999998</v>
+        <v>40.993041300000002</v>
       </c>
       <c r="C538">
-        <v>19.517457</v>
+        <v>20.009329900000001</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -6298,10 +6298,10 @@
         <v>3</v>
       </c>
       <c r="B539">
-        <v>42.277850600000001</v>
+        <v>40.992775199999997</v>
       </c>
       <c r="C539">
-        <v>19.517997699999999</v>
+        <v>20.009053399999999</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -6309,10 +6309,10 @@
         <v>3</v>
       </c>
       <c r="B540">
-        <v>42.277923800000003</v>
+        <v>40.992753100000002</v>
       </c>
       <c r="C540">
-        <v>19.517572699999999</v>
+        <v>20.008929500000001</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -6320,10 +6320,10 @@
         <v>3</v>
       </c>
       <c r="B541">
-        <v>42.278105400000001</v>
+        <v>41.697348599999998</v>
       </c>
       <c r="C541">
-        <v>19.519205199999998</v>
+        <v>20.3652677</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -6331,10 +6331,10 @@
         <v>3</v>
       </c>
       <c r="B542">
-        <v>42.280393400000001</v>
+        <v>41.6974752</v>
       </c>
       <c r="C542">
-        <v>19.522840299999999</v>
+        <v>20.365712200000001</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -6342,10 +6342,10 @@
         <v>3</v>
       </c>
       <c r="B543">
-        <v>42.280515899999997</v>
+        <v>41.697344899999997</v>
       </c>
       <c r="C543">
-        <v>19.5225586</v>
+        <v>20.3652804</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -6353,10 +6353,10 @@
         <v>3</v>
       </c>
       <c r="B544">
-        <v>42.281401099999997</v>
+        <v>41.028320399999998</v>
       </c>
       <c r="C544">
-        <v>19.5229967</v>
+        <v>19.991267400000002</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -6364,10 +6364,10 @@
         <v>3</v>
       </c>
       <c r="B545">
-        <v>42.281402300000003</v>
+        <v>41.6494499</v>
       </c>
       <c r="C545">
-        <v>19.522993199999998</v>
+        <v>20.457481600000001</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -6375,10 +6375,10 @@
         <v>3</v>
       </c>
       <c r="B546">
-        <v>42.281427899999997</v>
+        <v>41.6494097</v>
       </c>
       <c r="C546">
-        <v>19.523053399999998</v>
+        <v>20.457399500000001</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -6386,10 +6386,10 @@
         <v>3</v>
       </c>
       <c r="B547">
-        <v>42.281467300000003</v>
+        <v>41.6560354</v>
       </c>
       <c r="C547">
-        <v>19.523060099999999</v>
+        <v>20.434201300000002</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -6397,10 +6397,10 @@
         <v>3</v>
       </c>
       <c r="B548">
-        <v>42.354520000000001</v>
+        <v>41.608505999999998</v>
       </c>
       <c r="C548">
-        <v>20.09741</v>
+        <v>20.470987600000001</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -6408,10 +6408,10 @@
         <v>3</v>
       </c>
       <c r="B549">
-        <v>42.3545771</v>
+        <v>41.654359100000001</v>
       </c>
       <c r="C549">
-        <v>20.097271200000002</v>
+        <v>20.436582000000001</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -6419,10 +6419,10 @@
         <v>3</v>
       </c>
       <c r="B550">
-        <v>42.356902699999999</v>
+        <v>41.654448299999999</v>
       </c>
       <c r="C550">
-        <v>20.0758039</v>
+        <v>20.43609</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -6430,10 +6430,10 @@
         <v>3</v>
       </c>
       <c r="B551">
-        <v>42.357340499999999</v>
+        <v>41.654629999999997</v>
       </c>
       <c r="C551">
-        <v>20.074083600000002</v>
+        <v>20.435296699999999</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -6441,10 +6441,10 @@
         <v>3</v>
       </c>
       <c r="B552">
-        <v>42.357349300000003</v>
+        <v>41.654047800000001</v>
       </c>
       <c r="C552">
-        <v>20.0740762</v>
+        <v>20.4345228</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -6452,10 +6452,10 @@
         <v>3</v>
       </c>
       <c r="B553">
-        <v>42.357396000000001</v>
+        <v>41.654052999999998</v>
       </c>
       <c r="C553">
-        <v>20.074011299999999</v>
+        <v>20.434523800000001</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -6463,10 +6463,10 @@
         <v>3</v>
       </c>
       <c r="B554">
-        <v>42.361485600000002</v>
+        <v>41.613504399999997</v>
       </c>
       <c r="C554">
-        <v>20.076916300000001</v>
+        <v>20.4782586</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -6474,10 +6474,10 @@
         <v>3</v>
       </c>
       <c r="B555">
-        <v>42.362232400000003</v>
+        <v>41.5688575</v>
       </c>
       <c r="C555">
-        <v>20.072844199999999</v>
+        <v>20.4444029</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -6485,10 +6485,10 @@
         <v>3</v>
       </c>
       <c r="B556">
-        <v>42.362290199999997</v>
+        <v>41.588593500000002</v>
       </c>
       <c r="C556">
-        <v>20.0729188</v>
+        <v>20.485208</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -6496,10 +6496,10 @@
         <v>3</v>
       </c>
       <c r="B557">
-        <v>42.362310999999998</v>
+        <v>40.833285699999998</v>
       </c>
       <c r="C557">
-        <v>20.0729486</v>
+        <v>19.9020586</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -6507,10 +6507,10 @@
         <v>3</v>
       </c>
       <c r="B558">
-        <v>42.362324800000003</v>
+        <v>40.833284999999997</v>
       </c>
       <c r="C558">
-        <v>20.073018999999999</v>
+        <v>19.9020449</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -6518,10 +6518,10 @@
         <v>3</v>
       </c>
       <c r="B559">
-        <v>42.362380299999998</v>
+        <v>41.0583569</v>
       </c>
       <c r="C559">
-        <v>20.073043899999998</v>
+        <v>20.041430099999999</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -6529,10 +6529,10 @@
         <v>3</v>
       </c>
       <c r="B560">
-        <v>42.362389700000001</v>
+        <v>41.053278300000002</v>
       </c>
       <c r="C560">
-        <v>20.073061500000001</v>
+        <v>20.0521733</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -6540,10 +6540,10 @@
         <v>3</v>
       </c>
       <c r="B561">
-        <v>42.3625051</v>
+        <v>41.046672100000002</v>
       </c>
       <c r="C561">
-        <v>20.072873000000001</v>
+        <v>20.030432399999999</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -6551,10 +6551,1231 @@
         <v>3</v>
       </c>
       <c r="B562">
-        <v>42.362548599999997</v>
+        <v>41.048037000000001</v>
       </c>
       <c r="C562">
-        <v>20.0736709</v>
+        <v>20.027214399999998</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B563">
+        <v>41.047044200000002</v>
+      </c>
+      <c r="C563">
+        <v>20.028777399999999</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B564">
+        <v>41.0474107</v>
+      </c>
+      <c r="C564">
+        <v>20.028795899999999</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B565">
+        <v>41.067193400000001</v>
+      </c>
+      <c r="C565">
+        <v>20.052333099999998</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B566">
+        <v>41.052767099999997</v>
+      </c>
+      <c r="C566">
+        <v>20.051650599999999</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B567">
+        <v>41.037975500000002</v>
+      </c>
+      <c r="C567">
+        <v>20.012066799999999</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B568">
+        <v>41.046809400000001</v>
+      </c>
+      <c r="C568">
+        <v>20.0292767</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B569">
+        <v>41.046804199999997</v>
+      </c>
+      <c r="C569">
+        <v>20.0292356</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B570">
+        <v>41.047955600000002</v>
+      </c>
+      <c r="C570">
+        <v>20.027138000000001</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B571">
+        <v>41.047182499999998</v>
+      </c>
+      <c r="C571">
+        <v>20.027951099999999</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B572">
+        <v>41.063969999999998</v>
+      </c>
+      <c r="C572">
+        <v>20.052781700000001</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B573">
+        <v>42.003242399999998</v>
+      </c>
+      <c r="C573">
+        <v>19.613809100000001</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B574">
+        <v>42.003361200000001</v>
+      </c>
+      <c r="C574">
+        <v>19.613809499999999</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B575">
+        <v>42.003288699999999</v>
+      </c>
+      <c r="C575">
+        <v>19.613859699999999</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B576">
+        <v>42.006986099999999</v>
+      </c>
+      <c r="C576">
+        <v>19.6378609</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B577">
+        <v>42.007011400000003</v>
+      </c>
+      <c r="C577">
+        <v>19.637915899999999</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B578">
+        <v>42.007016299999997</v>
+      </c>
+      <c r="C578">
+        <v>19.6378035</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B579">
+        <v>41.997470800000002</v>
+      </c>
+      <c r="C579">
+        <v>19.549841600000001</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B580">
+        <v>41.997435000000003</v>
+      </c>
+      <c r="C580">
+        <v>19.5499048</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B581">
+        <v>41.997448200000001</v>
+      </c>
+      <c r="C581">
+        <v>19.549888800000002</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B582">
+        <v>41.997463400000001</v>
+      </c>
+      <c r="C582">
+        <v>19.549926500000002</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B583">
+        <v>41.997457599999997</v>
+      </c>
+      <c r="C583">
+        <v>19.5498808</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B584">
+        <v>41.997348100000004</v>
+      </c>
+      <c r="C584">
+        <v>19.549879000000001</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B585">
+        <v>41.997391100000002</v>
+      </c>
+      <c r="C585">
+        <v>19.5498838</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B586">
+        <v>41.997440599999997</v>
+      </c>
+      <c r="C586">
+        <v>19.5498826</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B587">
+        <v>41.978000899999998</v>
+      </c>
+      <c r="C587">
+        <v>19.6299104</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B588">
+        <v>41.9780205</v>
+      </c>
+      <c r="C588">
+        <v>19.629951899999998</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B589">
+        <v>41.977950399999997</v>
+      </c>
+      <c r="C589">
+        <v>19.630051699999999</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B590">
+        <v>41.977942400000003</v>
+      </c>
+      <c r="C590">
+        <v>19.6300211</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B591">
+        <v>41.977897200000001</v>
+      </c>
+      <c r="C591">
+        <v>19.630003500000001</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B592">
+        <v>41.977890600000002</v>
+      </c>
+      <c r="C592">
+        <v>19.630082699999999</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B593">
+        <v>41.966019899999999</v>
+      </c>
+      <c r="C593">
+        <v>19.6371605</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B594">
+        <v>41.960501399999998</v>
+      </c>
+      <c r="C594">
+        <v>19.636326100000002</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B595">
+        <v>41.960837699999999</v>
+      </c>
+      <c r="C595">
+        <v>19.6368799</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B596">
+        <v>41.9610725</v>
+      </c>
+      <c r="C596">
+        <v>19.636762600000001</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B597">
+        <v>41.960927499999997</v>
+      </c>
+      <c r="C597">
+        <v>19.636730700000001</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B598">
+        <v>41.977901099999997</v>
+      </c>
+      <c r="C598">
+        <v>19.630028200000002</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B599">
+        <v>41.977848100000003</v>
+      </c>
+      <c r="C599">
+        <v>19.6300536</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B600">
+        <v>41.0634637</v>
+      </c>
+      <c r="C600">
+        <v>19.976870600000002</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B601">
+        <v>41.063736900000002</v>
+      </c>
+      <c r="C601">
+        <v>19.976755600000001</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B602">
+        <v>41.063870600000001</v>
+      </c>
+      <c r="C602">
+        <v>19.976452900000002</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B603">
+        <v>41.066156399999997</v>
+      </c>
+      <c r="C603">
+        <v>19.978925700000001</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B604">
+        <v>41.066741700000001</v>
+      </c>
+      <c r="C604">
+        <v>19.977825800000002</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B605">
+        <v>41.065772199999998</v>
+      </c>
+      <c r="C605">
+        <v>19.978327</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B606">
+        <v>41.064894299999999</v>
+      </c>
+      <c r="C606">
+        <v>19.978616299999999</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B607">
+        <v>41.065923499999997</v>
+      </c>
+      <c r="C607">
+        <v>19.978878099999999</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B608">
+        <v>41.065883599999999</v>
+      </c>
+      <c r="C608">
+        <v>19.978474800000001</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B609">
+        <v>42.006983400000003</v>
+      </c>
+      <c r="C609">
+        <v>19.637996999999999</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B610">
+        <v>41.960529000000001</v>
+      </c>
+      <c r="C610">
+        <v>19.636325200000002</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B611">
+        <v>41.960741300000002</v>
+      </c>
+      <c r="C611">
+        <v>19.637025999999999</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B612">
+        <v>41.961001000000003</v>
+      </c>
+      <c r="C612">
+        <v>19.636742600000002</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B613">
+        <v>41.9610603</v>
+      </c>
+      <c r="C613">
+        <v>19.6367856</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B614">
+        <v>41.977593900000002</v>
+      </c>
+      <c r="C614">
+        <v>19.628239799999999</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B615">
+        <v>41.977579400000003</v>
+      </c>
+      <c r="C615">
+        <v>19.628174900000001</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B616">
+        <v>41.977645699999997</v>
+      </c>
+      <c r="C616">
+        <v>19.628126200000001</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B617">
+        <v>41.977623800000003</v>
+      </c>
+      <c r="C617">
+        <v>19.628193199999998</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B618">
+        <v>41.977569799999998</v>
+      </c>
+      <c r="C618">
+        <v>19.628201099999998</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B619">
+        <v>41.977555799999998</v>
+      </c>
+      <c r="C619">
+        <v>19.6282277</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B620">
+        <v>41.977525200000002</v>
+      </c>
+      <c r="C620">
+        <v>19.628163799999999</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B621">
+        <v>41.977598800000003</v>
+      </c>
+      <c r="C621">
+        <v>19.628169499999998</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B622">
+        <v>41.062847400000003</v>
+      </c>
+      <c r="C622">
+        <v>19.989694499999999</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B623">
+        <v>41.066805700000003</v>
+      </c>
+      <c r="C623">
+        <v>19.982392000000001</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B624">
+        <v>41.069335000000002</v>
+      </c>
+      <c r="C624">
+        <v>19.984805000000001</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B625">
+        <v>41.069341999999999</v>
+      </c>
+      <c r="C625">
+        <v>19.984977300000001</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B626">
+        <v>41.0698966</v>
+      </c>
+      <c r="C626">
+        <v>19.985111199999999</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B627">
+        <v>41.0710658</v>
+      </c>
+      <c r="C627">
+        <v>19.985009600000001</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B628">
+        <v>42.048915200000003</v>
+      </c>
+      <c r="C628">
+        <v>19.568248799999999</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B629">
+        <v>42.048879900000003</v>
+      </c>
+      <c r="C629">
+        <v>19.5681832</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B630">
+        <v>42.033742500000002</v>
+      </c>
+      <c r="C630">
+        <v>19.568710899999999</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B631">
+        <v>42.048942599999997</v>
+      </c>
+      <c r="C631">
+        <v>19.568131399999999</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B632">
+        <v>42.048980499999999</v>
+      </c>
+      <c r="C632">
+        <v>19.568137700000001</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B633">
+        <v>42.033753400000002</v>
+      </c>
+      <c r="C633">
+        <v>19.568732600000001</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B634">
+        <v>42.027567699999999</v>
+      </c>
+      <c r="C634">
+        <v>19.548205200000002</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B635">
+        <v>42.027596099999997</v>
+      </c>
+      <c r="C635">
+        <v>19.548204399999999</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B636">
+        <v>42.028405399999997</v>
+      </c>
+      <c r="C636">
+        <v>19.548815999999999</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B637">
+        <v>41.047564899999998</v>
+      </c>
+      <c r="C637">
+        <v>20.042275100000001</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B638">
+        <v>41.047779499999997</v>
+      </c>
+      <c r="C638">
+        <v>20.042402899999999</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B639">
+        <v>41.072875500000002</v>
+      </c>
+      <c r="C639">
+        <v>20.041034799999998</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B640">
+        <v>41.074863299999997</v>
+      </c>
+      <c r="C640">
+        <v>20.0440881</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B641">
+        <v>41.075422500000002</v>
+      </c>
+      <c r="C641">
+        <v>20.0454416</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B642">
+        <v>41.075205500000003</v>
+      </c>
+      <c r="C642">
+        <v>20.044734600000002</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B643">
+        <v>41.074826899999998</v>
+      </c>
+      <c r="C643">
+        <v>20.0449196</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B644">
+        <v>41.047287599999997</v>
+      </c>
+      <c r="C644">
+        <v>20.041661399999999</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B645">
+        <v>41.047760400000001</v>
+      </c>
+      <c r="C645">
+        <v>20.042171199999999</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B646">
+        <v>41.072071700000002</v>
+      </c>
+      <c r="C646">
+        <v>20.041710699999999</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B647">
+        <v>41.072356499999998</v>
+      </c>
+      <c r="C647">
+        <v>20.040371700000001</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B648">
+        <v>41.075425500000001</v>
+      </c>
+      <c r="C648">
+        <v>20.045501000000002</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B649">
+        <v>41.075346099999997</v>
+      </c>
+      <c r="C649">
+        <v>20.0453467</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B650">
+        <v>41.074932799999999</v>
+      </c>
+      <c r="C650">
+        <v>20.044976500000001</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B651">
+        <v>41.078218900000003</v>
+      </c>
+      <c r="C651">
+        <v>20.040419700000001</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B652">
+        <v>41.077992700000003</v>
+      </c>
+      <c r="C652">
+        <v>20.038893300000002</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B653">
+        <v>41.077283600000001</v>
+      </c>
+      <c r="C653">
+        <v>20.039661800000001</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B654">
+        <v>41.077538199999999</v>
+      </c>
+      <c r="C654">
+        <v>20.040127900000002</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B655">
+        <v>41.0788777</v>
+      </c>
+      <c r="C655">
+        <v>20.039146299999999</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B656">
+        <v>41.077751599999999</v>
+      </c>
+      <c r="C656">
+        <v>20.039908</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B657">
+        <v>41.0768676</v>
+      </c>
+      <c r="C657">
+        <v>20.038896000000001</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B658">
+        <v>41.077204100000003</v>
+      </c>
+      <c r="C658">
+        <v>20.0395121</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B659">
+        <v>41.077629700000003</v>
+      </c>
+      <c r="C659">
+        <v>20.040025199999999</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B660">
+        <v>41.078769000000001</v>
+      </c>
+      <c r="C660">
+        <v>20.038345899999999</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B661">
+        <v>42.027619700000002</v>
+      </c>
+      <c r="C661">
+        <v>19.548174299999999</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B662">
+        <v>42.027496599999999</v>
+      </c>
+      <c r="C662">
+        <v>19.548194500000001</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B663">
+        <v>42.0283807</v>
+      </c>
+      <c r="C663">
+        <v>19.548843000000002</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B664">
+        <v>42.040329300000003</v>
+      </c>
+      <c r="C664">
+        <v>19.5258304</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B665">
+        <v>42.039446900000002</v>
+      </c>
+      <c r="C665">
+        <v>19.5244815</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B666">
+        <v>42.040169800000001</v>
+      </c>
+      <c r="C666">
+        <v>19.5228927</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B667">
+        <v>42.040343300000004</v>
+      </c>
+      <c r="C667">
+        <v>19.522110000000001</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B668">
+        <v>42.040287399999997</v>
+      </c>
+      <c r="C668">
+        <v>19.525865799999998</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B669">
+        <v>42.039496300000003</v>
+      </c>
+      <c r="C669">
+        <v>19.524458299999999</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B670">
+        <v>42.040169499999998</v>
+      </c>
+      <c r="C670">
+        <v>19.523026600000001</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B671">
+        <v>42.040445300000002</v>
+      </c>
+      <c r="C671">
+        <v>19.522058600000001</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B672">
+        <v>41.360628800000001</v>
+      </c>
+      <c r="C672">
+        <v>19.5641301</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B673">
+        <v>42.006993299999998</v>
+      </c>
+      <c r="C673">
+        <v>19.6379242</v>
       </c>
     </row>
   </sheetData>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AEB6C0-02AD-48F9-A1C9-BD5ABA083E81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEA9906-E3E7-4A97-A80E-BC049B3200F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C673"/>
+  <dimension ref="A1:C754"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
-      <selection activeCell="I663" sqref="I663"/>
+    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
+      <selection activeCell="A673" sqref="A673:A754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,10 +391,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>40.792129600000003</v>
+        <v>40.079592099999999</v>
       </c>
       <c r="C2">
-        <v>19.6809233</v>
+        <v>20.1988606</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -402,10 +402,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>40.792193400000002</v>
+        <v>40.750627100000003</v>
       </c>
       <c r="C3">
-        <v>19.6808698</v>
+        <v>19.735852000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -413,10 +413,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>40.800304599999997</v>
+        <v>40.078662199999997</v>
       </c>
       <c r="C4">
-        <v>19.677160600000001</v>
+        <v>20.198665399999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -424,10 +424,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40.800268000000003</v>
+        <v>40.733341000000003</v>
       </c>
       <c r="C5">
-        <v>19.677620999999998</v>
+        <v>19.951393800000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -435,10 +435,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>40.7992445</v>
+        <v>40.812833500000004</v>
       </c>
       <c r="C6">
-        <v>19.677506300000001</v>
+        <v>19.6491355</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -446,10 +446,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>40.799314199999998</v>
+        <v>42.362310999999998</v>
       </c>
       <c r="C7">
-        <v>19.677471600000001</v>
+        <v>20.0729486</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -457,10 +457,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>40.799476900000002</v>
+        <v>40.751410399999997</v>
       </c>
       <c r="C8">
-        <v>19.677488400000001</v>
+        <v>19.7388762</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,10 +468,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>40.799523299999997</v>
+        <v>40.750529499999999</v>
       </c>
       <c r="C9">
-        <v>19.677418200000002</v>
+        <v>19.735806100000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,10 +479,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>40.799110300000002</v>
+        <v>40.079405999999999</v>
       </c>
       <c r="C10">
-        <v>19.677479399999999</v>
+        <v>20.198713300000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -490,10 +490,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>40.799134199999997</v>
+        <v>42.211848600000003</v>
       </c>
       <c r="C11">
-        <v>19.677496300000001</v>
+        <v>19.4321713</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,10 +501,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>40.799369400000003</v>
+        <v>41.400360599999999</v>
       </c>
       <c r="C12">
-        <v>19.677579099999999</v>
+        <v>19.545108299999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,10 +512,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>40.799382899999998</v>
+        <v>41.388695599999998</v>
       </c>
       <c r="C13">
-        <v>19.677555699999999</v>
+        <v>19.550103199999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -523,10 +523,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>40.814185299999998</v>
+        <v>42.211303399999998</v>
       </c>
       <c r="C14">
-        <v>19.647363299999999</v>
+        <v>19.430100299999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -534,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>40.814226599999998</v>
+        <v>40.816299399999998</v>
       </c>
       <c r="C15">
-        <v>19.647311200000001</v>
+        <v>19.5016237</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -545,10 +545,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>40.812759700000001</v>
+        <v>40.536855000000003</v>
       </c>
       <c r="C16">
-        <v>19.6488929</v>
+        <v>19.533770199999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -556,10 +556,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>40.812752099999997</v>
+        <v>42.281401099999997</v>
       </c>
       <c r="C17">
-        <v>19.649114600000001</v>
+        <v>19.5229967</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -567,10 +567,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>40.813244099999999</v>
+        <v>42.281402300000003</v>
       </c>
       <c r="C18">
-        <v>19.648493599999998</v>
+        <v>19.522993199999998</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -578,10 +578,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>40.813957600000002</v>
+        <v>42.281467300000003</v>
       </c>
       <c r="C19">
-        <v>19.6475692</v>
+        <v>19.523060099999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -589,10 +589,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>40.814023800000001</v>
+        <v>42.281427899999997</v>
       </c>
       <c r="C20">
-        <v>19.647484200000001</v>
+        <v>19.523053399999998</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -600,10 +600,10 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>40.814236800000003</v>
+        <v>41.028320399999998</v>
       </c>
       <c r="C21">
-        <v>19.647193300000001</v>
+        <v>19.991267400000002</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -611,10 +611,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>40.8142584</v>
+        <v>42.197084799999999</v>
       </c>
       <c r="C22">
-        <v>19.6472129</v>
+        <v>19.451702999999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -622,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>40.812978100000002</v>
+        <v>41.024334899999999</v>
       </c>
       <c r="C23">
-        <v>19.649002100000001</v>
+        <v>19.990079000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -633,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>40.812999699999999</v>
+        <v>39.724715600000003</v>
       </c>
       <c r="C24">
-        <v>19.649001500000001</v>
+        <v>20.0603625</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -644,10 +644,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>40.813932700000002</v>
+        <v>42.2772711</v>
       </c>
       <c r="C25">
-        <v>19.648393200000001</v>
+        <v>19.5165753</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -655,10 +655,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>40.813991700000003</v>
+        <v>42.276982799999999</v>
       </c>
       <c r="C26">
-        <v>19.648417999999999</v>
+        <v>19.516658100000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -666,10 +666,10 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>40.813771500000001</v>
+        <v>40.715617899999998</v>
       </c>
       <c r="C27">
-        <v>19.6485892</v>
+        <v>19.378296500000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -677,10 +677,10 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>40.8137981</v>
+        <v>42.212802199999999</v>
       </c>
       <c r="C28">
-        <v>19.648539299999999</v>
+        <v>19.433364900000001</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>40.812669800000002</v>
+        <v>42.2123676</v>
       </c>
       <c r="C29">
-        <v>19.648364900000001</v>
+        <v>19.433116200000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -699,10 +699,10 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>40.814300000000003</v>
+        <v>41.396787600000003</v>
       </c>
       <c r="C30">
-        <v>19.647061000000001</v>
+        <v>19.539857399999999</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -710,10 +710,10 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>40.812794699999998</v>
+        <v>41.379489</v>
       </c>
       <c r="C31">
-        <v>19.6491054</v>
+        <v>19.542874300000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -721,10 +721,10 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>40.8128083</v>
+        <v>40.706364499999999</v>
       </c>
       <c r="C32">
-        <v>19.649169000000001</v>
+        <v>20.792159300000002</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,10 +732,10 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>40.812833500000004</v>
+        <v>41.608505999999998</v>
       </c>
       <c r="C33">
-        <v>19.6491355</v>
+        <v>20.470987600000001</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -743,10 +743,10 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>40.813052599999999</v>
+        <v>42.007011400000003</v>
       </c>
       <c r="C34">
-        <v>19.648142199999999</v>
+        <v>19.637915899999999</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -754,10 +754,10 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>40.812915400000001</v>
+        <v>40.812781899999997</v>
       </c>
       <c r="C35">
-        <v>19.648927</v>
+        <v>19.6490124</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -765,10 +765,10 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>40.8128703</v>
+        <v>40.501944299999998</v>
       </c>
       <c r="C36">
-        <v>19.6490656</v>
+        <v>19.529445500000001</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -776,10 +776,10 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>40.812905899999997</v>
+        <v>40.847952599999999</v>
       </c>
       <c r="C37">
-        <v>19.648576599999998</v>
+        <v>19.6384829</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,10 +787,10 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>40.812951099999999</v>
+        <v>40.858810900000002</v>
       </c>
       <c r="C38">
-        <v>19.648587899999999</v>
+        <v>19.6468189</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -798,10 +798,10 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>40.814317000000003</v>
+        <v>40.792865800000001</v>
       </c>
       <c r="C39">
-        <v>19.647172699999999</v>
+        <v>19.680564700000001</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -809,10 +809,10 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>40.8141064</v>
+        <v>40.993041300000002</v>
       </c>
       <c r="C40">
-        <v>19.647444</v>
+        <v>20.009329900000001</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -820,10 +820,10 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>40.812769600000003</v>
+        <v>41.000934000000001</v>
       </c>
       <c r="C41">
-        <v>19.6489549</v>
+        <v>20.0213693</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,10 +831,10 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>40.812781899999997</v>
+        <v>40.611215199999997</v>
       </c>
       <c r="C42">
-        <v>19.6490124</v>
+        <v>20.693598900000001</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -842,10 +842,10 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>40.8130028</v>
+        <v>41.6494097</v>
       </c>
       <c r="C43">
-        <v>19.649371899999998</v>
+        <v>20.457399500000001</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,10 +853,10 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>40.812969099999997</v>
+        <v>41.5688575</v>
       </c>
       <c r="C44">
-        <v>19.649452499999999</v>
+        <v>20.4444029</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -864,10 +864,10 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>40.813196699999999</v>
+        <v>40.536853200000003</v>
       </c>
       <c r="C45">
-        <v>19.649304099999998</v>
+        <v>19.533842</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>40.81344</v>
+        <v>40.6267402</v>
       </c>
       <c r="C46">
-        <v>19.648582399999999</v>
+        <v>20.702174200000002</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,10 +886,10 @@
         <v>3</v>
       </c>
       <c r="B47">
-        <v>40.813451000000001</v>
+        <v>42.223769799999999</v>
       </c>
       <c r="C47">
-        <v>19.6485713</v>
+        <v>19.467558700000001</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,10 +897,10 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>40.813309699999998</v>
+        <v>42.223892999999997</v>
       </c>
       <c r="C48">
-        <v>19.648656599999999</v>
+        <v>19.4676455</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,10 +908,10 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>40.870192799999998</v>
+        <v>41.895659000000002</v>
       </c>
       <c r="C49">
-        <v>19.783277600000002</v>
+        <v>19.6468165</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -919,10 +919,10 @@
         <v>3</v>
       </c>
       <c r="B50">
-        <v>40.872033199999997</v>
+        <v>42.224680999999997</v>
       </c>
       <c r="C50">
-        <v>19.7834088</v>
+        <v>19.454992300000001</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -930,10 +930,10 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <v>40.871076199999997</v>
+        <v>42.224658699999999</v>
       </c>
       <c r="C51">
-        <v>19.7829561</v>
+        <v>19.454990200000001</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -941,10 +941,10 @@
         <v>3</v>
       </c>
       <c r="B52">
-        <v>40.8713014</v>
+        <v>42.224828000000002</v>
       </c>
       <c r="C52">
-        <v>19.7834574</v>
+        <v>19.455191299999999</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -952,10 +952,10 @@
         <v>3</v>
       </c>
       <c r="B53">
-        <v>40.871474300000003</v>
+        <v>40.704794900000003</v>
       </c>
       <c r="C53">
-        <v>19.783778000000002</v>
+        <v>20.7913055</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,10 +963,10 @@
         <v>3</v>
       </c>
       <c r="B54">
-        <v>40.870344299999999</v>
+        <v>40.719981300000001</v>
       </c>
       <c r="C54">
-        <v>19.783258700000001</v>
+        <v>19.6205645</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -974,10 +974,10 @@
         <v>3</v>
       </c>
       <c r="B55">
-        <v>40.870428099999998</v>
+        <v>40.723165199999997</v>
       </c>
       <c r="C55">
-        <v>19.783260299999998</v>
+        <v>19.621562600000001</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -985,10 +985,10 @@
         <v>3</v>
       </c>
       <c r="B56">
-        <v>40.8720134</v>
+        <v>40.501772299999999</v>
       </c>
       <c r="C56">
-        <v>19.7832142</v>
+        <v>19.529599099999999</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -996,10 +996,10 @@
         <v>3</v>
       </c>
       <c r="B57">
-        <v>40.871835799999999</v>
+        <v>42.277850600000001</v>
       </c>
       <c r="C57">
-        <v>19.7834355</v>
+        <v>19.517997699999999</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1007,10 +1007,10 @@
         <v>3</v>
       </c>
       <c r="B58">
-        <v>40.871401599999999</v>
+        <v>40.626693099999997</v>
       </c>
       <c r="C58">
-        <v>19.782639</v>
+        <v>20.702165600000001</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,10 +1018,10 @@
         <v>3</v>
       </c>
       <c r="B59">
-        <v>40.871400899999998</v>
+        <v>40.816376900000002</v>
       </c>
       <c r="C59">
-        <v>19.782747100000002</v>
+        <v>19.499282099999999</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1029,10 +1029,10 @@
         <v>3</v>
       </c>
       <c r="B60">
-        <v>40.871590599999998</v>
+        <v>40.755571000000003</v>
       </c>
       <c r="C60">
-        <v>19.7833446</v>
+        <v>20.829272700000001</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,10 +1040,10 @@
         <v>3</v>
       </c>
       <c r="B61">
-        <v>40.871583100000002</v>
+        <v>40.7061894</v>
       </c>
       <c r="C61">
-        <v>19.783349999999999</v>
+        <v>20.7921561</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="B62">
-        <v>40.871504700000003</v>
+        <v>41.047182499999998</v>
       </c>
       <c r="C62">
-        <v>19.7832048</v>
+        <v>20.027951099999999</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>3</v>
       </c>
       <c r="B63">
-        <v>40.871468800000002</v>
+        <v>41.0474107</v>
       </c>
       <c r="C63">
-        <v>19.783245900000001</v>
+        <v>20.028795899999999</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1073,10 +1073,10 @@
         <v>3</v>
       </c>
       <c r="B64">
-        <v>40.871464500000002</v>
+        <v>40.751373200000003</v>
       </c>
       <c r="C64">
-        <v>19.783217199999999</v>
+        <v>19.7386318</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,10 +1084,10 @@
         <v>3</v>
       </c>
       <c r="B65">
-        <v>40.871112699999998</v>
+        <v>40.751250400000004</v>
       </c>
       <c r="C65">
-        <v>19.783152999999999</v>
+        <v>19.7379292</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>3</v>
       </c>
       <c r="B66">
-        <v>40.869821299999998</v>
+        <v>40.751408499999997</v>
       </c>
       <c r="C66">
-        <v>19.7831574</v>
+        <v>19.738239400000001</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1106,10 +1106,10 @@
         <v>3</v>
       </c>
       <c r="B67">
-        <v>40.869192099999999</v>
+        <v>40.751356399999999</v>
       </c>
       <c r="C67">
-        <v>19.7833258</v>
+        <v>19.738945999999999</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1117,10 +1117,10 @@
         <v>3</v>
       </c>
       <c r="B68">
-        <v>40.869734899999997</v>
+        <v>41.6560354</v>
       </c>
       <c r="C68">
-        <v>19.783295200000001</v>
+        <v>20.434201300000002</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1128,10 +1128,10 @@
         <v>3</v>
       </c>
       <c r="B69">
-        <v>40.872396999999999</v>
+        <v>42.280515899999997</v>
       </c>
       <c r="C69">
-        <v>19.784795200000001</v>
+        <v>19.5225586</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1139,10 +1139,10 @@
         <v>3</v>
       </c>
       <c r="B70">
-        <v>40.872273999999997</v>
+        <v>42.280393400000001</v>
       </c>
       <c r="C70">
-        <v>19.7844531</v>
+        <v>19.522840299999999</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1150,10 +1150,10 @@
         <v>3</v>
       </c>
       <c r="B71">
-        <v>40.869737600000001</v>
+        <v>40.7046469</v>
       </c>
       <c r="C71">
-        <v>19.783133599999999</v>
+        <v>20.7913256</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1161,10 +1161,10 @@
         <v>3</v>
       </c>
       <c r="B72">
-        <v>40.869686399999999</v>
+        <v>40.942221099999998</v>
       </c>
       <c r="C72">
-        <v>19.783105200000001</v>
+        <v>19.5372837</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1172,10 +1172,10 @@
         <v>3</v>
       </c>
       <c r="B73">
-        <v>40.869138</v>
+        <v>40.921858800000003</v>
       </c>
       <c r="C73">
-        <v>19.783284099999999</v>
+        <v>19.536833900000001</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1183,10 +1183,10 @@
         <v>3</v>
       </c>
       <c r="B74">
-        <v>40.869193199999998</v>
+        <v>42.278105400000001</v>
       </c>
       <c r="C74">
-        <v>19.783314900000001</v>
+        <v>19.519205199999998</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1194,10 +1194,10 @@
         <v>3</v>
       </c>
       <c r="B75">
-        <v>40.869468500000004</v>
+        <v>40.753666799999998</v>
       </c>
       <c r="C75">
-        <v>19.783034700000002</v>
+        <v>20.830617799999999</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1205,10 +1205,10 @@
         <v>3</v>
       </c>
       <c r="B76">
-        <v>40.869424700000003</v>
+        <v>40.755449900000002</v>
       </c>
       <c r="C76">
-        <v>19.7829792</v>
+        <v>20.829460000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1216,10 +1216,10 @@
         <v>3</v>
       </c>
       <c r="B77">
-        <v>40.8691411</v>
+        <v>40.816374099999997</v>
       </c>
       <c r="C77">
-        <v>19.7828564</v>
+        <v>19.499950599999998</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1227,10 +1227,10 @@
         <v>3</v>
       </c>
       <c r="B78">
-        <v>40.869276599999999</v>
+        <v>40.714485000000003</v>
       </c>
       <c r="C78">
-        <v>19.782949299999999</v>
+        <v>19.378269299999999</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1238,10 +1238,10 @@
         <v>3</v>
       </c>
       <c r="B79">
-        <v>40.830548</v>
+        <v>40.536847100000003</v>
       </c>
       <c r="C79">
-        <v>19.9073438</v>
+        <v>19.533850300000001</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1249,10 +1249,10 @@
         <v>3</v>
       </c>
       <c r="B80">
-        <v>40.823501200000003</v>
+        <v>42.277197200000003</v>
       </c>
       <c r="C80">
-        <v>19.914798600000001</v>
+        <v>19.5138845</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1260,10 +1260,10 @@
         <v>3</v>
       </c>
       <c r="B81">
-        <v>40.782726099999998</v>
+        <v>40.560902499999997</v>
       </c>
       <c r="C81">
-        <v>19.846120299999999</v>
+        <v>20.741630799999999</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1271,10 +1271,10 @@
         <v>3</v>
       </c>
       <c r="B82">
-        <v>40.782470400000001</v>
+        <v>40.754765200000001</v>
       </c>
       <c r="C82">
-        <v>19.845968500000001</v>
+        <v>20.8299974</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1282,10 +1282,10 @@
         <v>3</v>
       </c>
       <c r="B83">
-        <v>40.782051500000001</v>
+        <v>42.168859500000003</v>
       </c>
       <c r="C83">
-        <v>19.846303200000001</v>
+        <v>19.4817781</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1293,10 +1293,10 @@
         <v>3</v>
       </c>
       <c r="B84">
-        <v>40.782400500000001</v>
+        <v>41.360628800000001</v>
       </c>
       <c r="C84">
-        <v>19.846080400000002</v>
+        <v>19.5641301</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1304,10 +1304,10 @@
         <v>3</v>
       </c>
       <c r="B85">
-        <v>40.780792499999997</v>
+        <v>41.001128399999999</v>
       </c>
       <c r="C85">
-        <v>19.8458404</v>
+        <v>20.020879900000001</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1315,10 +1315,10 @@
         <v>3</v>
       </c>
       <c r="B86">
-        <v>40.780321899999997</v>
+        <v>41.997435000000003</v>
       </c>
       <c r="C86">
-        <v>19.844059900000001</v>
+        <v>19.5499048</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1326,10 +1326,10 @@
         <v>3</v>
       </c>
       <c r="B87">
-        <v>40.823356099999998</v>
+        <v>42.027567699999999</v>
       </c>
       <c r="C87">
-        <v>19.914894700000001</v>
+        <v>19.548205200000002</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1337,10 +1337,10 @@
         <v>3</v>
       </c>
       <c r="B88">
-        <v>40.782972999999998</v>
+        <v>40.721211199999999</v>
       </c>
       <c r="C88">
-        <v>19.846183199999999</v>
+        <v>19.621170599999999</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1348,10 +1348,10 @@
         <v>3</v>
       </c>
       <c r="B89">
-        <v>40.782709699999998</v>
+        <v>40.723148199999997</v>
       </c>
       <c r="C89">
-        <v>19.846071200000001</v>
+        <v>19.6215419</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1359,10 +1359,10 @@
         <v>3</v>
       </c>
       <c r="B90">
-        <v>40.782163599999997</v>
+        <v>40.536845100000001</v>
       </c>
       <c r="C90">
-        <v>19.8459675</v>
+        <v>19.533787400000001</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1370,10 +1370,10 @@
         <v>3</v>
       </c>
       <c r="B91">
-        <v>40.7824545</v>
+        <v>40.5368529</v>
       </c>
       <c r="C91">
-        <v>19.846064599999998</v>
+        <v>19.533736399999999</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1381,10 +1381,10 @@
         <v>3</v>
       </c>
       <c r="B92">
-        <v>40.782000600000003</v>
+        <v>40.536856</v>
       </c>
       <c r="C92">
-        <v>19.846466800000002</v>
+        <v>19.5337836</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1392,10 +1392,10 @@
         <v>3</v>
       </c>
       <c r="B93">
-        <v>40.782114800000002</v>
+        <v>42.277923800000003</v>
       </c>
       <c r="C93">
-        <v>19.846397700000001</v>
+        <v>19.517572699999999</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1403,10 +1403,10 @@
         <v>3</v>
       </c>
       <c r="B94">
-        <v>40.782360599999997</v>
+        <v>40.626757300000001</v>
       </c>
       <c r="C94">
-        <v>19.846179500000002</v>
+        <v>20.702181899999999</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,10 +1414,10 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>40.782227499999998</v>
+        <v>42.003242399999998</v>
       </c>
       <c r="C95">
-        <v>19.8462967</v>
+        <v>19.613809100000001</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1425,10 +1425,10 @@
         <v>3</v>
       </c>
       <c r="B96">
-        <v>40.781492299999996</v>
+        <v>42.003288699999999</v>
       </c>
       <c r="C96">
-        <v>19.846421899999999</v>
+        <v>19.613859699999999</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1436,10 +1436,10 @@
         <v>3</v>
       </c>
       <c r="B97">
-        <v>40.780884899999997</v>
+        <v>41.613504399999997</v>
       </c>
       <c r="C97">
-        <v>19.845891099999999</v>
+        <v>20.4782586</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1447,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="B98">
-        <v>40.780359199999999</v>
+        <v>42.027619700000002</v>
       </c>
       <c r="C98">
-        <v>19.844028099999999</v>
+        <v>19.548174299999999</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1458,10 +1458,10 @@
         <v>3</v>
       </c>
       <c r="B99">
-        <v>40.780374399999999</v>
+        <v>40.832867899999997</v>
       </c>
       <c r="C99">
-        <v>19.844118999999999</v>
+        <v>19.5192318</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,10 +1469,10 @@
         <v>3</v>
       </c>
       <c r="B100">
-        <v>40.733885000000001</v>
+        <v>39.724875699999998</v>
       </c>
       <c r="C100">
-        <v>19.952063599999999</v>
+        <v>20.0602135</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1480,10 +1480,10 @@
         <v>3</v>
       </c>
       <c r="B101">
-        <v>40.7345404</v>
+        <v>42.277751299999998</v>
       </c>
       <c r="C101">
-        <v>19.950590500000001</v>
+        <v>19.517457</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1491,10 +1491,10 @@
         <v>3</v>
       </c>
       <c r="B102">
-        <v>40.732839200000001</v>
+        <v>40.560920099999997</v>
       </c>
       <c r="C102">
-        <v>19.951719700000002</v>
+        <v>20.7417166</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1502,10 +1502,10 @@
         <v>3</v>
       </c>
       <c r="B103">
-        <v>40.733367299999998</v>
+        <v>40.560943000000002</v>
       </c>
       <c r="C103">
-        <v>19.951059300000001</v>
+        <v>20.741734000000001</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1513,10 +1513,10 @@
         <v>3</v>
       </c>
       <c r="B104">
-        <v>40.733341000000003</v>
+        <v>40.705341799999999</v>
       </c>
       <c r="C104">
-        <v>19.951393800000002</v>
+        <v>20.791884499999998</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1524,10 +1524,10 @@
         <v>3</v>
       </c>
       <c r="B105">
-        <v>40.733305600000001</v>
+        <v>41.977645699999997</v>
       </c>
       <c r="C105">
-        <v>19.951469899999999</v>
+        <v>19.628126200000001</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1535,10 +1535,10 @@
         <v>3</v>
       </c>
       <c r="B106">
-        <v>40.733319299999998</v>
+        <v>40.560876</v>
       </c>
       <c r="C106">
-        <v>19.951482299999999</v>
+        <v>20.7416111</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1546,10 +1546,10 @@
         <v>3</v>
       </c>
       <c r="B107">
-        <v>40.731667899999998</v>
+        <v>41.654047800000001</v>
       </c>
       <c r="C107">
-        <v>19.9516496</v>
+        <v>20.4345228</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1557,10 +1557,10 @@
         <v>3</v>
       </c>
       <c r="B108">
-        <v>40.733947100000002</v>
+        <v>41.654052999999998</v>
       </c>
       <c r="C108">
-        <v>19.9506865</v>
+        <v>20.434523800000001</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1568,10 +1568,10 @@
         <v>3</v>
       </c>
       <c r="B109">
-        <v>40.733013</v>
+        <v>40.125190500000002</v>
       </c>
       <c r="C109">
-        <v>19.951553499999999</v>
+        <v>20.136147699999999</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1579,10 +1579,10 @@
         <v>3</v>
       </c>
       <c r="B110">
-        <v>40.732941099999998</v>
+        <v>41.588593500000002</v>
       </c>
       <c r="C110">
-        <v>19.9516831</v>
+        <v>20.485208</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1590,10 +1590,10 @@
         <v>3</v>
       </c>
       <c r="B111">
-        <v>40.733659000000003</v>
+        <v>40.145546199999998</v>
       </c>
       <c r="C111">
-        <v>19.950880300000001</v>
+        <v>20.089397000000002</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1601,10 +1601,10 @@
         <v>3</v>
       </c>
       <c r="B112">
-        <v>40.733582599999998</v>
+        <v>40.145259699999997</v>
       </c>
       <c r="C112">
-        <v>19.951000499999999</v>
+        <v>20.0883316</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1612,10 +1612,10 @@
         <v>3</v>
       </c>
       <c r="B113">
-        <v>40.733415299999997</v>
+        <v>40.706902999999997</v>
       </c>
       <c r="C113">
-        <v>19.9512629</v>
+        <v>19.642841000000001</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -1623,10 +1623,10 @@
         <v>3</v>
       </c>
       <c r="B114">
-        <v>40.732995699999996</v>
+        <v>40.706938000000001</v>
       </c>
       <c r="C114">
-        <v>19.951576599999999</v>
+        <v>19.642891299999999</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -1634,10 +1634,10 @@
         <v>3</v>
       </c>
       <c r="B115">
-        <v>40.733191099999999</v>
+        <v>40.560966800000003</v>
       </c>
       <c r="C115">
-        <v>19.951478300000002</v>
+        <v>20.741795100000001</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1645,10 +1645,10 @@
         <v>3</v>
       </c>
       <c r="B116">
-        <v>40.733231799999999</v>
+        <v>40.125254699999999</v>
       </c>
       <c r="C116">
-        <v>19.951413800000001</v>
+        <v>20.136188700000002</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1656,10 +1656,10 @@
         <v>3</v>
       </c>
       <c r="B117">
-        <v>40.733176999999998</v>
+        <v>40.536864600000001</v>
       </c>
       <c r="C117">
-        <v>19.951240299999998</v>
+        <v>19.533805600000001</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1667,10 +1667,10 @@
         <v>3</v>
       </c>
       <c r="B118">
-        <v>40.733246200000004</v>
+        <v>40.536850800000003</v>
       </c>
       <c r="C118">
-        <v>19.951404499999999</v>
+        <v>19.533785399999999</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -1678,10 +1678,10 @@
         <v>3</v>
       </c>
       <c r="B119">
-        <v>40.732653800000001</v>
+        <v>39.724812300000004</v>
       </c>
       <c r="C119">
-        <v>19.9510702</v>
+        <v>20.0603418</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -1689,10 +1689,10 @@
         <v>3</v>
       </c>
       <c r="B120">
-        <v>40.732582000000001</v>
+        <v>42.277654499999997</v>
       </c>
       <c r="C120">
-        <v>19.950976600000001</v>
+        <v>19.518281200000001</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -1700,10 +1700,10 @@
         <v>3</v>
       </c>
       <c r="B121">
-        <v>40.087675099999998</v>
+        <v>42.277492600000002</v>
       </c>
       <c r="C121">
-        <v>20.146864000000001</v>
+        <v>19.518242699999998</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -1711,10 +1711,10 @@
         <v>3</v>
       </c>
       <c r="B122">
-        <v>40.081661699999998</v>
+        <v>40.753895900000003</v>
       </c>
       <c r="C122">
-        <v>20.141024900000001</v>
+        <v>20.830523400000001</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -1722,10 +1722,10 @@
         <v>3</v>
       </c>
       <c r="B123">
-        <v>40.732927199999999</v>
+        <v>40.754075700000001</v>
       </c>
       <c r="C123">
-        <v>19.9516952</v>
+        <v>20.830336800000001</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -1733,10 +1733,10 @@
         <v>3</v>
       </c>
       <c r="B124">
-        <v>40.732599899999997</v>
+        <v>40.753585999999999</v>
       </c>
       <c r="C124">
-        <v>19.9510179</v>
+        <v>20.830670699999999</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -1744,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="B125">
-        <v>40.732548899999998</v>
+        <v>40.755149799999998</v>
       </c>
       <c r="C125">
-        <v>19.951014300000001</v>
+        <v>20.829772599999998</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -1755,10 +1755,10 @@
         <v>3</v>
       </c>
       <c r="B126">
-        <v>40.789079600000001</v>
+        <v>40.560964599999998</v>
       </c>
       <c r="C126">
-        <v>19.8854723</v>
+        <v>20.741803300000001</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -1766,10 +1766,10 @@
         <v>3</v>
       </c>
       <c r="B127">
-        <v>40.7888181</v>
+        <v>40.5609131</v>
       </c>
       <c r="C127">
-        <v>19.885175499999999</v>
+        <v>20.741690599999998</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -1777,10 +1777,10 @@
         <v>3</v>
       </c>
       <c r="B128">
-        <v>40.833234599999997</v>
+        <v>40.560913300000003</v>
       </c>
       <c r="C128">
-        <v>19.899541899999999</v>
+        <v>20.741778199999999</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -1788,10 +1788,10 @@
         <v>3</v>
       </c>
       <c r="B129">
-        <v>40.833263700000003</v>
+        <v>40.5609155</v>
       </c>
       <c r="C129">
-        <v>19.8994994</v>
+        <v>20.741734999999998</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -1799,10 +1799,10 @@
         <v>3</v>
       </c>
       <c r="B130">
-        <v>40.833230299999997</v>
+        <v>40.610097000000003</v>
       </c>
       <c r="C130">
-        <v>19.899614499999998</v>
+        <v>20.691711999999999</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -1810,10 +1810,10 @@
         <v>3</v>
       </c>
       <c r="B131">
-        <v>40.833088400000001</v>
+        <v>41.879153600000002</v>
       </c>
       <c r="C131">
-        <v>19.899494300000001</v>
+        <v>19.637971199999999</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -1821,10 +1821,10 @@
         <v>3</v>
       </c>
       <c r="B132">
-        <v>40.833199800000003</v>
+        <v>40.799314199999998</v>
       </c>
       <c r="C132">
-        <v>19.899630399999999</v>
+        <v>19.677471600000001</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -1832,10 +1832,10 @@
         <v>3</v>
       </c>
       <c r="B133">
-        <v>40.833075899999997</v>
+        <v>41.047044200000002</v>
       </c>
       <c r="C133">
-        <v>19.899447800000001</v>
+        <v>20.028777399999999</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -1843,10 +1843,10 @@
         <v>3</v>
       </c>
       <c r="B134">
-        <v>40.788562300000002</v>
+        <v>40.816024499999997</v>
       </c>
       <c r="C134">
-        <v>19.889311500000002</v>
+        <v>19.5004867</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -1854,10 +1854,10 @@
         <v>3</v>
       </c>
       <c r="B135">
-        <v>40.788063200000003</v>
+        <v>40.706902999999997</v>
       </c>
       <c r="C135">
-        <v>19.889257300000001</v>
+        <v>19.642841000000001</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -1865,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="B136">
-        <v>40.787742299999998</v>
+        <v>40.819353700000001</v>
       </c>
       <c r="C136">
-        <v>19.891085400000001</v>
+        <v>19.501025800000001</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -1876,10 +1876,10 @@
         <v>3</v>
       </c>
       <c r="B137">
-        <v>40.793107499999998</v>
+        <v>40.560912799999997</v>
       </c>
       <c r="C137">
-        <v>19.880678100000001</v>
+        <v>20.741685700000001</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,10 +1887,10 @@
         <v>3</v>
       </c>
       <c r="B138">
-        <v>40.793119599999997</v>
+        <v>41.654448299999999</v>
       </c>
       <c r="C138">
-        <v>19.8805601</v>
+        <v>20.43609</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -1898,10 +1898,10 @@
         <v>3</v>
       </c>
       <c r="B139">
-        <v>40.793137399999999</v>
+        <v>40.707695800000003</v>
       </c>
       <c r="C139">
-        <v>19.8805704</v>
+        <v>19.639659000000002</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -1909,10 +1909,10 @@
         <v>3</v>
       </c>
       <c r="B140">
-        <v>40.793092000000001</v>
+        <v>40.706020799999997</v>
       </c>
       <c r="C140">
-        <v>19.880668799999999</v>
+        <v>19.639999100000001</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -1920,10 +1920,10 @@
         <v>3</v>
       </c>
       <c r="B141">
-        <v>40.793108699999998</v>
+        <v>40.705005700000001</v>
       </c>
       <c r="C141">
-        <v>19.880577800000001</v>
+        <v>20.791491600000001</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -1931,10 +1931,10 @@
         <v>3</v>
       </c>
       <c r="B142">
-        <v>40.787739700000003</v>
+        <v>41.047955600000002</v>
       </c>
       <c r="C142">
-        <v>19.890906300000001</v>
+        <v>20.027138000000001</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -1942,10 +1942,10 @@
         <v>3</v>
       </c>
       <c r="B143">
-        <v>40.791774599999997</v>
+        <v>40.8251633</v>
       </c>
       <c r="C143">
-        <v>19.880793300000001</v>
+        <v>19.501712900000001</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,10 +1953,10 @@
         <v>3</v>
       </c>
       <c r="B144">
-        <v>40.791516399999999</v>
+        <v>40.815844400000003</v>
       </c>
       <c r="C144">
-        <v>19.880666600000001</v>
+        <v>19.499451499999999</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -1964,10 +1964,10 @@
         <v>3</v>
       </c>
       <c r="B145">
-        <v>40.791538600000003</v>
+        <v>42.218670099999997</v>
       </c>
       <c r="C145">
-        <v>19.880605800000001</v>
+        <v>19.4468459</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -1975,10 +1975,10 @@
         <v>3</v>
       </c>
       <c r="B146">
-        <v>40.791645199999998</v>
+        <v>40.611255800000002</v>
       </c>
       <c r="C146">
-        <v>19.880710100000002</v>
+        <v>20.693622900000001</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -1986,10 +1986,10 @@
         <v>3</v>
       </c>
       <c r="B147">
-        <v>40.791510100000004</v>
+        <v>40.7049685</v>
       </c>
       <c r="C147">
-        <v>19.880604999999999</v>
+        <v>20.7914374</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -1997,10 +1997,10 @@
         <v>3</v>
       </c>
       <c r="B148">
-        <v>40.790117000000002</v>
+        <v>41.977890600000002</v>
       </c>
       <c r="C148">
-        <v>19.880726899999999</v>
+        <v>19.630082699999999</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2008,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="B149">
-        <v>40.789907700000001</v>
+        <v>41.977569799999998</v>
       </c>
       <c r="C149">
-        <v>19.880623700000001</v>
+        <v>19.628201099999998</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2019,10 +2019,10 @@
         <v>3</v>
       </c>
       <c r="B150">
-        <v>40.789669500000002</v>
+        <v>41.654359100000001</v>
       </c>
       <c r="C150">
-        <v>19.8810368</v>
+        <v>20.436582000000001</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2030,10 +2030,10 @@
         <v>3</v>
       </c>
       <c r="B151">
-        <v>40.789627500000002</v>
+        <v>39.724870699999997</v>
       </c>
       <c r="C151">
-        <v>19.881313200000001</v>
+        <v>20.060207500000001</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2041,10 +2041,10 @@
         <v>3</v>
       </c>
       <c r="B152">
-        <v>40.789417100000001</v>
+        <v>39.724834799999996</v>
       </c>
       <c r="C152">
-        <v>19.882364899999999</v>
+        <v>20.060324900000001</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,10 +2052,10 @@
         <v>3</v>
       </c>
       <c r="B153">
-        <v>40.789935900000003</v>
+        <v>42.277683500000002</v>
       </c>
       <c r="C153">
-        <v>19.8805701</v>
+        <v>19.517837</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2063,10 +2063,10 @@
         <v>3</v>
       </c>
       <c r="B154">
-        <v>40.789435300000001</v>
+        <v>40.750765199999996</v>
       </c>
       <c r="C154">
-        <v>19.881999400000002</v>
+        <v>20.832402299999998</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2074,10 +2074,10 @@
         <v>3</v>
       </c>
       <c r="B155">
-        <v>40.789436000000002</v>
+        <v>40.753786900000001</v>
       </c>
       <c r="C155">
-        <v>19.8816652</v>
+        <v>20.8306401</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2085,10 +2085,10 @@
         <v>3</v>
       </c>
       <c r="B156">
-        <v>40.789523500000001</v>
+        <v>40.754475399999997</v>
       </c>
       <c r="C156">
-        <v>19.881695499999999</v>
+        <v>20.830290000000002</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,10 +2096,10 @@
         <v>3</v>
       </c>
       <c r="B157">
-        <v>41.921332499999998</v>
+        <v>40.5609173</v>
       </c>
       <c r="C157">
-        <v>19.600961300000002</v>
+        <v>20.741696999999998</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2107,10 +2107,10 @@
         <v>3</v>
       </c>
       <c r="B158">
-        <v>41.921302099999998</v>
+        <v>40.560913300000003</v>
       </c>
       <c r="C158">
-        <v>19.600870799999999</v>
+        <v>20.741686600000001</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2118,10 +2118,10 @@
         <v>3</v>
       </c>
       <c r="B159">
-        <v>41.921295299999997</v>
+        <v>40.560951600000003</v>
       </c>
       <c r="C159">
-        <v>19.600906299999998</v>
+        <v>20.741800900000001</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2129,10 +2129,10 @@
         <v>3</v>
       </c>
       <c r="B160">
-        <v>41.921300600000002</v>
+        <v>40.560971600000002</v>
       </c>
       <c r="C160">
-        <v>19.600891499999999</v>
+        <v>20.741804699999999</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2140,10 +2140,10 @@
         <v>3</v>
       </c>
       <c r="B161">
-        <v>41.921326000000001</v>
+        <v>40.6266879</v>
       </c>
       <c r="C161">
-        <v>19.600899099999999</v>
+        <v>20.702141099999999</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2151,10 +2151,10 @@
         <v>3</v>
       </c>
       <c r="B162">
-        <v>41.921292800000003</v>
+        <v>40.6096109</v>
       </c>
       <c r="C162">
-        <v>19.600942199999999</v>
+        <v>20.691012700000002</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2162,10 +2162,10 @@
         <v>3</v>
       </c>
       <c r="B163">
-        <v>41.9212907</v>
+        <v>40.611345100000001</v>
       </c>
       <c r="C163">
-        <v>19.6009083</v>
+        <v>20.693597400000002</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2173,10 +2173,10 @@
         <v>3</v>
       </c>
       <c r="B164">
-        <v>41.921332</v>
+        <v>40.611242799999999</v>
       </c>
       <c r="C164">
-        <v>19.600918100000001</v>
+        <v>20.693614400000001</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2184,10 +2184,10 @@
         <v>3</v>
       </c>
       <c r="B165">
-        <v>40.4983912</v>
+        <v>41.654629999999997</v>
       </c>
       <c r="C165">
-        <v>19.502630799999999</v>
+        <v>20.435296699999999</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2195,10 +2195,10 @@
         <v>3</v>
       </c>
       <c r="B166">
-        <v>40.501772299999999</v>
+        <v>40.884521100000001</v>
       </c>
       <c r="C166">
-        <v>19.529599099999999</v>
+        <v>19.589540100000001</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,10 +2206,10 @@
         <v>3</v>
       </c>
       <c r="B167">
-        <v>40.536847100000003</v>
+        <v>40.884501999999998</v>
       </c>
       <c r="C167">
-        <v>19.533850300000001</v>
+        <v>19.589530700000001</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2217,10 +2217,10 @@
         <v>3</v>
       </c>
       <c r="B168">
-        <v>40.497632199999998</v>
+        <v>40.715586799999997</v>
       </c>
       <c r="C168">
-        <v>19.5034046</v>
+        <v>19.364625499999999</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2228,10 +2228,10 @@
         <v>3</v>
       </c>
       <c r="B169">
-        <v>40.501944299999998</v>
+        <v>41.921332499999998</v>
       </c>
       <c r="C169">
-        <v>19.529445500000001</v>
+        <v>19.600961300000002</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="B170">
-        <v>40.536845100000001</v>
+        <v>40.122556799999998</v>
       </c>
       <c r="C170">
-        <v>19.533787400000001</v>
+        <v>20.110113599999998</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,10 +2250,10 @@
         <v>3</v>
       </c>
       <c r="B171">
-        <v>40.536853200000003</v>
+        <v>40.122547599999997</v>
       </c>
       <c r="C171">
-        <v>19.533842</v>
+        <v>20.1100882</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,10 +2261,10 @@
         <v>3</v>
       </c>
       <c r="B172">
-        <v>40.536864600000001</v>
+        <v>41.977593900000002</v>
       </c>
       <c r="C172">
-        <v>19.533805600000001</v>
+        <v>19.628239799999999</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,10 +2272,10 @@
         <v>3</v>
       </c>
       <c r="B173">
-        <v>40.536855000000003</v>
+        <v>40.706900500000003</v>
       </c>
       <c r="C173">
-        <v>19.533770199999999</v>
+        <v>19.642841700000002</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2283,10 +2283,10 @@
         <v>3</v>
       </c>
       <c r="B174">
-        <v>40.5368529</v>
+        <v>40.706902999999997</v>
       </c>
       <c r="C174">
-        <v>19.533736399999999</v>
+        <v>19.6428498</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,10 +2294,10 @@
         <v>3</v>
       </c>
       <c r="B175">
-        <v>40.536762899999999</v>
+        <v>40.7991356</v>
       </c>
       <c r="C175">
-        <v>19.5339077</v>
+        <v>19.677744000000001</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2305,10 +2305,10 @@
         <v>3</v>
       </c>
       <c r="B176">
-        <v>40.536850800000003</v>
+        <v>41.921332</v>
       </c>
       <c r="C176">
-        <v>19.533785399999999</v>
+        <v>19.600918100000001</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,10 +2316,10 @@
         <v>3</v>
       </c>
       <c r="B177">
-        <v>40.536856</v>
+        <v>40.560958399999997</v>
       </c>
       <c r="C177">
-        <v>19.5337836</v>
+        <v>20.741810099999999</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2327,10 +2327,10 @@
         <v>3</v>
       </c>
       <c r="B178">
-        <v>40.536857699999999</v>
+        <v>40.560943600000002</v>
       </c>
       <c r="C178">
-        <v>19.533792099999999</v>
+        <v>20.741804800000001</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2338,10 +2338,10 @@
         <v>3</v>
       </c>
       <c r="B179">
-        <v>40.536853700000002</v>
+        <v>40.611265699999997</v>
       </c>
       <c r="C179">
-        <v>19.533787700000001</v>
+        <v>20.693665299999999</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,10 +2349,10 @@
         <v>3</v>
       </c>
       <c r="B180">
-        <v>40.5368244</v>
+        <v>41.895617700000003</v>
       </c>
       <c r="C180">
-        <v>19.5338207</v>
+        <v>19.6467311</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2360,10 +2360,10 @@
         <v>3</v>
       </c>
       <c r="B181">
-        <v>40.473118300000003</v>
+        <v>40.923311599999998</v>
       </c>
       <c r="C181">
-        <v>19.585835800000002</v>
+        <v>19.537331099999999</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2371,10 +2371,10 @@
         <v>3</v>
       </c>
       <c r="B182">
-        <v>40.473116699999999</v>
+        <v>40.960527200000001</v>
       </c>
       <c r="C182">
-        <v>19.585831599999999</v>
+        <v>19.521292200000001</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,10 +2382,10 @@
         <v>3</v>
       </c>
       <c r="B183">
-        <v>40.473109600000001</v>
+        <v>41.9212907</v>
       </c>
       <c r="C183">
-        <v>19.585835899999999</v>
+        <v>19.6009083</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,10 +2393,10 @@
         <v>3</v>
       </c>
       <c r="B184">
-        <v>40.473110800000001</v>
+        <v>42.277285499999998</v>
       </c>
       <c r="C184">
-        <v>19.585873200000002</v>
+        <v>19.5167021</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2404,10 +2404,10 @@
         <v>3</v>
       </c>
       <c r="B185">
-        <v>40.473079800000001</v>
+        <v>40.816145400000003</v>
       </c>
       <c r="C185">
-        <v>19.5857904</v>
+        <v>19.4993044</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,10 +2415,10 @@
         <v>3</v>
       </c>
       <c r="B186">
-        <v>40.473130300000001</v>
+        <v>41.9610725</v>
       </c>
       <c r="C186">
-        <v>19.585894100000001</v>
+        <v>19.636762600000001</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2426,10 +2426,10 @@
         <v>3</v>
       </c>
       <c r="B187">
-        <v>40.473167500000002</v>
+        <v>42.039446900000002</v>
       </c>
       <c r="C187">
-        <v>19.585747999999999</v>
+        <v>19.5244815</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2437,10 +2437,10 @@
         <v>3</v>
       </c>
       <c r="B188">
-        <v>40.473141599999998</v>
+        <v>40.799369400000003</v>
       </c>
       <c r="C188">
-        <v>19.585715</v>
+        <v>19.677579099999999</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2448,10 +2448,10 @@
         <v>3</v>
       </c>
       <c r="B189">
-        <v>40.473161300000001</v>
+        <v>41.394496500000002</v>
       </c>
       <c r="C189">
-        <v>19.585716300000001</v>
+        <v>19.544613900000002</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2459,10 +2459,10 @@
         <v>3</v>
       </c>
       <c r="B190">
-        <v>40.473160499999999</v>
+        <v>42.040343300000004</v>
       </c>
       <c r="C190">
-        <v>19.585739700000001</v>
+        <v>19.522110000000001</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2470,10 +2470,10 @@
         <v>3</v>
       </c>
       <c r="B191">
-        <v>40.473178900000001</v>
+        <v>40.812951099999999</v>
       </c>
       <c r="C191">
-        <v>19.5857241</v>
+        <v>19.648587899999999</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2481,10 +2481,10 @@
         <v>3</v>
       </c>
       <c r="B192">
-        <v>41.895659000000002</v>
+        <v>41.879137499999999</v>
       </c>
       <c r="C192">
-        <v>19.6468165</v>
+        <v>19.6380126</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2492,10 +2492,10 @@
         <v>3</v>
       </c>
       <c r="B193">
-        <v>41.895533899999997</v>
+        <v>41.6974752</v>
       </c>
       <c r="C193">
-        <v>19.646892600000001</v>
+        <v>20.365712200000001</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2503,10 +2503,10 @@
         <v>3</v>
       </c>
       <c r="B194">
-        <v>41.879153100000003</v>
+        <v>41.921326000000001</v>
       </c>
       <c r="C194">
-        <v>19.637986999999999</v>
+        <v>19.600899099999999</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2514,10 +2514,10 @@
         <v>3</v>
       </c>
       <c r="B195">
-        <v>41.879133899999999</v>
+        <v>40.815624300000003</v>
       </c>
       <c r="C195">
-        <v>19.6379625</v>
+        <v>19.500920399999998</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,10 +2525,10 @@
         <v>3</v>
       </c>
       <c r="B196">
-        <v>41.895677399999997</v>
+        <v>40.1443029</v>
       </c>
       <c r="C196">
-        <v>19.646854300000001</v>
+        <v>20.088320499999998</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2536,10 +2536,10 @@
         <v>3</v>
       </c>
       <c r="B197">
-        <v>41.895617700000003</v>
+        <v>40.799110300000002</v>
       </c>
       <c r="C197">
-        <v>19.6467311</v>
+        <v>19.677479399999999</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2547,10 +2547,10 @@
         <v>3</v>
       </c>
       <c r="B198">
-        <v>41.879153600000002</v>
+        <v>40.812752099999997</v>
       </c>
       <c r="C198">
-        <v>19.637971199999999</v>
+        <v>19.649114600000001</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2558,10 +2558,10 @@
         <v>3</v>
       </c>
       <c r="B199">
-        <v>41.879137499999999</v>
+        <v>40.814317000000003</v>
       </c>
       <c r="C199">
-        <v>19.6380126</v>
+        <v>19.647172699999999</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2569,10 +2569,10 @@
         <v>3</v>
       </c>
       <c r="B200">
-        <v>40.473182799999996</v>
+        <v>40.869737600000001</v>
       </c>
       <c r="C200">
-        <v>19.5857198</v>
+        <v>19.783133599999999</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -2580,10 +2580,10 @@
         <v>3</v>
       </c>
       <c r="B201">
-        <v>40.473179000000002</v>
+        <v>39.724826200000003</v>
       </c>
       <c r="C201">
-        <v>19.585709099999999</v>
+        <v>20.0600755</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -2591,10 +2591,10 @@
         <v>3</v>
       </c>
       <c r="B202">
-        <v>40.473179100000003</v>
+        <v>39.724858599999997</v>
       </c>
       <c r="C202">
-        <v>19.585701799999999</v>
+        <v>20.060358399999998</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -2602,10 +2602,10 @@
         <v>3</v>
       </c>
       <c r="B203">
-        <v>40.473194300000003</v>
+        <v>40.752531599999998</v>
       </c>
       <c r="C203">
-        <v>19.5856602</v>
+        <v>20.8312925</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -2613,10 +2613,10 @@
         <v>3</v>
       </c>
       <c r="B204">
-        <v>40.473168100000002</v>
+        <v>40.754839099999998</v>
       </c>
       <c r="C204">
-        <v>19.5856186</v>
+        <v>20.830075000000001</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -2624,10 +2624,10 @@
         <v>3</v>
       </c>
       <c r="B205">
-        <v>41.394496500000002</v>
+        <v>40.753555400000003</v>
       </c>
       <c r="C205">
-        <v>19.544613900000002</v>
+        <v>20.830983700000001</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -2635,10 +2635,10 @@
         <v>3</v>
       </c>
       <c r="B206">
-        <v>39.708763400000002</v>
+        <v>40.560944200000002</v>
       </c>
       <c r="C206">
-        <v>20.077130499999999</v>
+        <v>20.741797500000001</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -2646,10 +2646,10 @@
         <v>3</v>
       </c>
       <c r="B207">
-        <v>39.708398099999997</v>
+        <v>40.560954199999998</v>
       </c>
       <c r="C207">
-        <v>20.0777258</v>
+        <v>20.741793000000001</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -2657,10 +2657,10 @@
         <v>3</v>
       </c>
       <c r="B208">
-        <v>39.7077217</v>
+        <v>40.560976500000002</v>
       </c>
       <c r="C208">
-        <v>20.079260000000001</v>
+        <v>20.741814900000001</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -2668,10 +2668,10 @@
         <v>3</v>
       </c>
       <c r="B209">
-        <v>39.707712100000002</v>
+        <v>40.561030199999998</v>
       </c>
       <c r="C209">
-        <v>20.0789756</v>
+        <v>20.741820499999999</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -2679,10 +2679,10 @@
         <v>3</v>
       </c>
       <c r="B210">
-        <v>39.707461500000001</v>
+        <v>40.706542399999996</v>
       </c>
       <c r="C210">
-        <v>20.079887599999999</v>
+        <v>20.792244100000001</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -2690,10 +2690,10 @@
         <v>3</v>
       </c>
       <c r="B211">
-        <v>39.707455500000002</v>
+        <v>40.703667600000003</v>
       </c>
       <c r="C211">
-        <v>20.079796900000002</v>
+        <v>20.792092100000001</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -2701,10 +2701,10 @@
         <v>3</v>
       </c>
       <c r="B212">
-        <v>39.707762199999998</v>
+        <v>40.706522499999998</v>
       </c>
       <c r="C212">
-        <v>20.0790495</v>
+        <v>20.792271899999999</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -2712,10 +2712,10 @@
         <v>3</v>
       </c>
       <c r="B213">
-        <v>39.707901</v>
+        <v>40.7044158</v>
       </c>
       <c r="C213">
-        <v>20.079008600000002</v>
+        <v>20.791806900000001</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -2723,10 +2723,10 @@
         <v>3</v>
       </c>
       <c r="B214">
-        <v>39.724870699999997</v>
+        <v>41.6494499</v>
       </c>
       <c r="C214">
-        <v>20.060207500000001</v>
+        <v>20.457481600000001</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -2734,10 +2734,10 @@
         <v>3</v>
       </c>
       <c r="B215">
-        <v>39.724873700000003</v>
+        <v>41.895677399999997</v>
       </c>
       <c r="C215">
-        <v>20.060207399999999</v>
+        <v>19.646854300000001</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -2745,10 +2745,10 @@
         <v>3</v>
       </c>
       <c r="B216">
-        <v>39.724875699999998</v>
+        <v>41.0583569</v>
       </c>
       <c r="C216">
-        <v>20.0602135</v>
+        <v>20.041430099999999</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -2756,10 +2756,10 @@
         <v>3</v>
       </c>
       <c r="B217">
-        <v>39.724868499999999</v>
+        <v>41.048037000000001</v>
       </c>
       <c r="C217">
-        <v>20.060166500000001</v>
+        <v>20.027214399999998</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -2767,10 +2767,10 @@
         <v>3</v>
       </c>
       <c r="B218">
-        <v>39.7248132</v>
+        <v>40.799363300000003</v>
       </c>
       <c r="C218">
-        <v>20.060044099999999</v>
+        <v>19.6775825</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -2778,10 +2778,10 @@
         <v>3</v>
       </c>
       <c r="B219">
-        <v>39.724826200000003</v>
+        <v>40.536857699999999</v>
       </c>
       <c r="C219">
-        <v>20.0600755</v>
+        <v>19.533792099999999</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -2789,10 +2789,10 @@
         <v>3</v>
       </c>
       <c r="B220">
-        <v>39.724811799999998</v>
+        <v>41.365637800000002</v>
       </c>
       <c r="C220">
-        <v>20.060134999999999</v>
+        <v>19.549973300000001</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -2800,10 +2800,10 @@
         <v>3</v>
       </c>
       <c r="B221">
-        <v>39.724754500000003</v>
+        <v>40.560913999999997</v>
       </c>
       <c r="C221">
-        <v>20.060115499999998</v>
+        <v>20.741698599999999</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -2811,10 +2811,10 @@
         <v>3</v>
       </c>
       <c r="B222">
-        <v>40.078309300000001</v>
+        <v>42.040329300000003</v>
       </c>
       <c r="C222">
-        <v>20.197348600000002</v>
+        <v>19.5258304</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -2822,10 +2822,10 @@
         <v>3</v>
       </c>
       <c r="B223">
-        <v>40.078676700000003</v>
+        <v>40.141613</v>
       </c>
       <c r="C223">
-        <v>20.1971685</v>
+        <v>20.088227100000001</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -2833,10 +2833,10 @@
         <v>3</v>
       </c>
       <c r="B224">
-        <v>40.077355900000001</v>
+        <v>40.087675099999998</v>
       </c>
       <c r="C224">
-        <v>20.197298700000001</v>
+        <v>20.146864000000001</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -2844,10 +2844,10 @@
         <v>3</v>
       </c>
       <c r="B225">
-        <v>40.078662199999997</v>
+        <v>40.792011899999999</v>
       </c>
       <c r="C225">
-        <v>20.198665399999999</v>
+        <v>19.680873900000002</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -2855,10 +2855,10 @@
         <v>3</v>
       </c>
       <c r="B226">
-        <v>39.724874</v>
+        <v>40.792212300000003</v>
       </c>
       <c r="C226">
-        <v>20.060063800000002</v>
+        <v>19.680818899999998</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -2866,10 +2866,10 @@
         <v>3</v>
       </c>
       <c r="B227">
-        <v>39.7247597</v>
+        <v>40.799523299999997</v>
       </c>
       <c r="C227">
-        <v>20.060221299999998</v>
+        <v>19.677418200000002</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -2877,10 +2877,10 @@
         <v>3</v>
       </c>
       <c r="B228">
-        <v>39.724834799999996</v>
+        <v>41.977579400000003</v>
       </c>
       <c r="C228">
-        <v>20.060324900000001</v>
+        <v>19.628174900000001</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -2888,10 +2888,10 @@
         <v>3</v>
       </c>
       <c r="B229">
-        <v>39.724755000000002</v>
+        <v>40.706893899999997</v>
       </c>
       <c r="C229">
-        <v>20.060296900000001</v>
+        <v>19.6428352</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -2899,10 +2899,10 @@
         <v>3</v>
       </c>
       <c r="B230">
-        <v>39.724812300000004</v>
+        <v>42.040445300000002</v>
       </c>
       <c r="C230">
-        <v>20.0603418</v>
+        <v>19.522058600000001</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -2910,10 +2910,10 @@
         <v>3</v>
       </c>
       <c r="B231">
-        <v>39.724794899999999</v>
+        <v>40.792382400000001</v>
       </c>
       <c r="C231">
-        <v>20.060378400000001</v>
+        <v>19.680578199999999</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -2921,10 +2921,10 @@
         <v>3</v>
       </c>
       <c r="B232">
-        <v>39.724699200000003</v>
+        <v>41.921292800000003</v>
       </c>
       <c r="C232">
-        <v>20.060351199999999</v>
+        <v>19.600942199999999</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -2932,10 +2932,10 @@
         <v>3</v>
       </c>
       <c r="B233">
-        <v>39.724715600000003</v>
+        <v>41.895533899999997</v>
       </c>
       <c r="C233">
-        <v>20.0603625</v>
+        <v>19.646892600000001</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -2943,10 +2943,10 @@
         <v>3</v>
       </c>
       <c r="B234">
-        <v>39.72475</v>
+        <v>40.751758700000003</v>
       </c>
       <c r="C234">
-        <v>20.0604759</v>
+        <v>20.831425400000001</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -2954,10 +2954,10 @@
         <v>3</v>
       </c>
       <c r="B235">
-        <v>39.724858599999997</v>
+        <v>40.753583399999997</v>
       </c>
       <c r="C235">
-        <v>20.060358399999998</v>
+        <v>20.830621900000001</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -2965,10 +2965,10 @@
         <v>3</v>
       </c>
       <c r="B236">
-        <v>39.7247524</v>
+        <v>40.560895899999998</v>
       </c>
       <c r="C236">
-        <v>20.0605984</v>
+        <v>20.741647199999999</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -2976,10 +2976,10 @@
         <v>3</v>
       </c>
       <c r="B237">
-        <v>39.724788699999998</v>
+        <v>40.560938800000002</v>
       </c>
       <c r="C237">
-        <v>20.060086500000001</v>
+        <v>20.741807300000001</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -2987,10 +2987,10 @@
         <v>3</v>
       </c>
       <c r="B238">
-        <v>40.714485000000003</v>
+        <v>41.052767099999997</v>
       </c>
       <c r="C238">
-        <v>19.378269299999999</v>
+        <v>20.051650599999999</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -2998,10 +2998,10 @@
         <v>3</v>
       </c>
       <c r="B239">
-        <v>40.715586799999997</v>
+        <v>40.473182799999996</v>
       </c>
       <c r="C239">
-        <v>19.364625499999999</v>
+        <v>19.5857198</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3009,10 +3009,10 @@
         <v>3</v>
       </c>
       <c r="B240">
-        <v>40.079405999999999</v>
+        <v>40.609602500000001</v>
       </c>
       <c r="C240">
-        <v>20.198713300000001</v>
+        <v>20.691002099999999</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3020,10 +3020,10 @@
         <v>3</v>
       </c>
       <c r="B241">
-        <v>40.079405999999999</v>
+        <v>40.6110173</v>
       </c>
       <c r="C241">
-        <v>20.198710999999999</v>
+        <v>20.693270999999999</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3031,10 +3031,10 @@
         <v>3</v>
       </c>
       <c r="B242">
-        <v>40.715617899999998</v>
+        <v>40.704983800000001</v>
       </c>
       <c r="C242">
-        <v>19.378296500000001</v>
+        <v>20.791447999999999</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3042,10 +3042,10 @@
         <v>3</v>
       </c>
       <c r="B243">
-        <v>40.080606600000003</v>
+        <v>41.977950399999997</v>
       </c>
       <c r="C243">
-        <v>20.199174599999999</v>
+        <v>19.630051699999999</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3053,10 +3053,10 @@
         <v>3</v>
       </c>
       <c r="B244">
-        <v>40.079592099999999</v>
+        <v>42.040287399999997</v>
       </c>
       <c r="C244">
-        <v>20.1988606</v>
+        <v>19.525865799999998</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3064,10 +3064,10 @@
         <v>3</v>
       </c>
       <c r="B245">
-        <v>40.079382299999999</v>
+        <v>40.992753100000002</v>
       </c>
       <c r="C245">
-        <v>20.198820600000001</v>
+        <v>20.008929500000001</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3075,10 +3075,10 @@
         <v>3</v>
       </c>
       <c r="B246">
-        <v>41.400360599999999</v>
+        <v>40.706901299999998</v>
       </c>
       <c r="C246">
-        <v>19.545108299999999</v>
+        <v>19.642845000000001</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3086,10 +3086,10 @@
         <v>3</v>
       </c>
       <c r="B247">
-        <v>40.7069039</v>
+        <v>40.706901600000002</v>
       </c>
       <c r="C247">
-        <v>19.642846599999999</v>
+        <v>19.642841900000001</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3097,10 +3097,10 @@
         <v>3</v>
       </c>
       <c r="B248">
-        <v>40.7069039</v>
+        <v>41.046804199999997</v>
       </c>
       <c r="C248">
-        <v>19.642846599999999</v>
+        <v>20.0292356</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3108,10 +3108,10 @@
         <v>3</v>
       </c>
       <c r="B249">
-        <v>40.706901299999998</v>
+        <v>40.799476900000002</v>
       </c>
       <c r="C249">
-        <v>19.642845000000001</v>
+        <v>19.677488400000001</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3119,10 +3119,10 @@
         <v>3</v>
       </c>
       <c r="B250">
-        <v>40.706901600000002</v>
+        <v>40.7069039</v>
       </c>
       <c r="C250">
-        <v>19.642841900000001</v>
+        <v>19.642846599999999</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3130,10 +3130,10 @@
         <v>3</v>
       </c>
       <c r="B251">
-        <v>40.706902399999997</v>
+        <v>40.7069039</v>
       </c>
       <c r="C251">
-        <v>19.642841700000002</v>
+        <v>19.642846599999999</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3141,10 +3141,10 @@
         <v>3</v>
       </c>
       <c r="B252">
-        <v>40.706904199999997</v>
+        <v>40.611249700000002</v>
       </c>
       <c r="C252">
-        <v>19.642844199999999</v>
+        <v>20.693570399999999</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3152,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="B253">
-        <v>40.706904199999997</v>
+        <v>40.617686800000001</v>
       </c>
       <c r="C253">
-        <v>19.642842099999999</v>
+        <v>20.7716612</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3163,10 +3163,10 @@
         <v>3</v>
       </c>
       <c r="B254">
-        <v>40.7069039</v>
+        <v>41.053278300000002</v>
       </c>
       <c r="C254">
-        <v>19.642846599999999</v>
+        <v>20.0521733</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3174,10 +3174,10 @@
         <v>3</v>
       </c>
       <c r="B255">
-        <v>40.706903599999997</v>
+        <v>40.869192099999999</v>
       </c>
       <c r="C255">
-        <v>19.6428406</v>
+        <v>19.7833258</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3185,10 +3185,10 @@
         <v>3</v>
       </c>
       <c r="B256">
-        <v>40.706987699999999</v>
+        <v>41.4230527</v>
       </c>
       <c r="C256">
-        <v>19.642986499999999</v>
+        <v>19.548993299999999</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3196,10 +3196,10 @@
         <v>3</v>
       </c>
       <c r="B257">
-        <v>40.706903599999997</v>
+        <v>40.750716799999999</v>
       </c>
       <c r="C257">
-        <v>19.6428406</v>
+        <v>19.736101999999999</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3207,10 +3207,10 @@
         <v>3</v>
       </c>
       <c r="B258">
-        <v>40.7069276</v>
+        <v>40.793815500000001</v>
       </c>
       <c r="C258">
-        <v>19.642872400000002</v>
+        <v>19.680002500000001</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3218,10 +3218,10 @@
         <v>3</v>
       </c>
       <c r="B259">
-        <v>40.706904100000003</v>
+        <v>40.813244099999999</v>
       </c>
       <c r="C259">
-        <v>19.642840899999999</v>
+        <v>19.648493599999998</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3229,10 +3229,10 @@
         <v>3</v>
       </c>
       <c r="B260">
-        <v>40.706902999999997</v>
+        <v>40.8130028</v>
       </c>
       <c r="C260">
-        <v>19.642841000000001</v>
+        <v>19.649371899999998</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3240,10 +3240,10 @@
         <v>3</v>
       </c>
       <c r="B261">
-        <v>40.706904199999997</v>
+        <v>39.7077217</v>
       </c>
       <c r="C261">
-        <v>19.6428507</v>
+        <v>20.079260000000001</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3251,10 +3251,10 @@
         <v>3</v>
       </c>
       <c r="B262">
-        <v>40.706902999999997</v>
+        <v>39.7248132</v>
       </c>
       <c r="C262">
-        <v>19.642841000000001</v>
+        <v>20.060044099999999</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3262,10 +3262,10 @@
         <v>3</v>
       </c>
       <c r="B263">
-        <v>40.706938000000001</v>
+        <v>40.560964800000001</v>
       </c>
       <c r="C263">
-        <v>19.642891299999999</v>
+        <v>20.7417707</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3273,10 +3273,10 @@
         <v>3</v>
       </c>
       <c r="B264">
-        <v>40.706901799999997</v>
+        <v>40.560895799999997</v>
       </c>
       <c r="C264">
-        <v>19.6428431</v>
+        <v>20.7416351</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3284,10 +3284,10 @@
         <v>3</v>
       </c>
       <c r="B265">
-        <v>40.706901899999998</v>
+        <v>41.062847400000003</v>
       </c>
       <c r="C265">
-        <v>19.642842399999999</v>
+        <v>19.989694499999999</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -3295,10 +3295,10 @@
         <v>3</v>
       </c>
       <c r="B266">
-        <v>40.7069014</v>
+        <v>41.066805700000003</v>
       </c>
       <c r="C266">
-        <v>19.642845300000001</v>
+        <v>19.982392000000001</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3306,10 +3306,10 @@
         <v>3</v>
       </c>
       <c r="B267">
-        <v>40.706893899999997</v>
+        <v>41.921300600000002</v>
       </c>
       <c r="C267">
-        <v>19.6428352</v>
+        <v>19.600891499999999</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3317,10 +3317,10 @@
         <v>3</v>
       </c>
       <c r="B268">
-        <v>40.706900500000003</v>
+        <v>40.1256561</v>
       </c>
       <c r="C268">
-        <v>19.642841700000002</v>
+        <v>20.136201199999999</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -3328,10 +3328,10 @@
         <v>3</v>
       </c>
       <c r="B269">
-        <v>40.706902999999997</v>
+        <v>41.978000899999998</v>
       </c>
       <c r="C269">
-        <v>19.6428498</v>
+        <v>19.6299104</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3339,10 +3339,10 @@
         <v>3</v>
       </c>
       <c r="B270">
-        <v>42.223769799999999</v>
+        <v>41.078769000000001</v>
       </c>
       <c r="C270">
-        <v>19.467558700000001</v>
+        <v>20.038345899999999</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -3350,10 +3350,10 @@
         <v>3</v>
       </c>
       <c r="B271">
-        <v>42.224680999999997</v>
+        <v>40.077355900000001</v>
       </c>
       <c r="C271">
-        <v>19.454992300000001</v>
+        <v>20.197298700000001</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -3361,10 +3361,10 @@
         <v>3</v>
       </c>
       <c r="B272">
-        <v>42.224658699999999</v>
+        <v>40.7069039</v>
       </c>
       <c r="C272">
-        <v>19.454990200000001</v>
+        <v>19.642846599999999</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -3372,10 +3372,10 @@
         <v>3</v>
       </c>
       <c r="B273">
-        <v>42.212802199999999</v>
+        <v>40.1240138</v>
       </c>
       <c r="C273">
-        <v>19.433364900000001</v>
+        <v>20.1357748</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -3383,10 +3383,10 @@
         <v>3</v>
       </c>
       <c r="B274">
-        <v>42.197084799999999</v>
+        <v>40.7069014</v>
       </c>
       <c r="C274">
-        <v>19.451702999999998</v>
+        <v>19.642845300000001</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -3394,10 +3394,10 @@
         <v>3</v>
       </c>
       <c r="B275">
-        <v>42.211848600000003</v>
+        <v>41.697344899999997</v>
       </c>
       <c r="C275">
-        <v>19.4321713</v>
+        <v>20.3652804</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -3405,10 +3405,10 @@
         <v>3</v>
       </c>
       <c r="B276">
-        <v>42.218670099999997</v>
+        <v>40.799130900000002</v>
       </c>
       <c r="C276">
-        <v>19.4468459</v>
+        <v>19.677765000000001</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -3416,10 +3416,10 @@
         <v>3</v>
       </c>
       <c r="B277">
-        <v>42.223892999999997</v>
+        <v>40.793739299999999</v>
       </c>
       <c r="C277">
-        <v>19.4676455</v>
+        <v>19.6800918</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -3427,10 +3427,10 @@
         <v>3</v>
       </c>
       <c r="B278">
-        <v>42.224828000000002</v>
+        <v>40.792266699999999</v>
       </c>
       <c r="C278">
-        <v>19.455191299999999</v>
+        <v>19.680849500000001</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -3438,10 +3438,10 @@
         <v>3</v>
       </c>
       <c r="B279">
-        <v>42.211303399999998</v>
+        <v>40.812999699999999</v>
       </c>
       <c r="C279">
-        <v>19.430100299999999</v>
+        <v>19.649001500000001</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -3449,10 +3449,10 @@
         <v>3</v>
       </c>
       <c r="B280">
-        <v>42.2123676</v>
+        <v>40.813932700000002</v>
       </c>
       <c r="C280">
-        <v>19.433116200000001</v>
+        <v>19.648393200000001</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -3460,10 +3460,10 @@
         <v>3</v>
       </c>
       <c r="B281">
-        <v>42.277850600000001</v>
+        <v>40.812905899999997</v>
       </c>
       <c r="C281">
-        <v>19.517997699999999</v>
+        <v>19.648576599999998</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -3471,10 +3471,10 @@
         <v>3</v>
       </c>
       <c r="B282">
-        <v>42.357396000000001</v>
+        <v>40.536762899999999</v>
       </c>
       <c r="C282">
-        <v>20.074011299999999</v>
+        <v>19.5339077</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -3482,10 +3482,10 @@
         <v>3</v>
       </c>
       <c r="B283">
-        <v>42.356902699999999</v>
+        <v>40.536853700000002</v>
       </c>
       <c r="C283">
-        <v>20.0758039</v>
+        <v>19.533787700000001</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -3493,10 +3493,10 @@
         <v>3</v>
       </c>
       <c r="B284">
-        <v>42.3545771</v>
+        <v>39.707461500000001</v>
       </c>
       <c r="C284">
-        <v>20.097271200000002</v>
+        <v>20.079887599999999</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -3504,10 +3504,10 @@
         <v>3</v>
       </c>
       <c r="B285">
-        <v>42.361485600000002</v>
+        <v>39.707762199999998</v>
       </c>
       <c r="C285">
-        <v>20.076916300000001</v>
+        <v>20.0790495</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -3515,10 +3515,10 @@
         <v>3</v>
       </c>
       <c r="B286">
-        <v>42.354520000000001</v>
+        <v>39.72475</v>
       </c>
       <c r="C286">
-        <v>20.09741</v>
+        <v>20.0604759</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -3526,10 +3526,10 @@
         <v>3</v>
       </c>
       <c r="B287">
-        <v>40.7097604</v>
+        <v>40.560974899999998</v>
       </c>
       <c r="C287">
-        <v>19.9223955</v>
+        <v>20.7418026</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -3537,10 +3537,10 @@
         <v>3</v>
       </c>
       <c r="B288">
-        <v>40.7098473</v>
+        <v>40.560912899999998</v>
       </c>
       <c r="C288">
-        <v>19.922183700000001</v>
+        <v>20.7416795</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -3548,10 +3548,10 @@
         <v>3</v>
       </c>
       <c r="B289">
-        <v>40.712713800000003</v>
+        <v>40.560957100000003</v>
       </c>
       <c r="C289">
-        <v>19.920248699999998</v>
+        <v>20.741800900000001</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -3559,10 +3559,10 @@
         <v>3</v>
       </c>
       <c r="B290">
-        <v>40.712850500000002</v>
+        <v>40.560890999999998</v>
       </c>
       <c r="C290">
-        <v>19.919983899999998</v>
+        <v>20.741639800000002</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -3570,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="B291">
-        <v>40.716326299999999</v>
+        <v>40.626732799999999</v>
       </c>
       <c r="C291">
-        <v>19.920121099999999</v>
+        <v>20.702138900000001</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -3581,10 +3581,10 @@
         <v>3</v>
       </c>
       <c r="B292">
-        <v>40.716296900000003</v>
+        <v>40.626760599999997</v>
       </c>
       <c r="C292">
-        <v>19.920071</v>
+        <v>20.702173200000001</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -3592,10 +3592,10 @@
         <v>3</v>
       </c>
       <c r="B293">
-        <v>40.726563599999999</v>
+        <v>40.610722099999997</v>
       </c>
       <c r="C293">
-        <v>19.918086200000001</v>
+        <v>20.692342499999999</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -3603,10 +3603,10 @@
         <v>3</v>
       </c>
       <c r="B294">
-        <v>40.726554700000001</v>
+        <v>40.611170700000002</v>
       </c>
       <c r="C294">
-        <v>19.918095600000001</v>
+        <v>20.6936283</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -3614,10 +3614,10 @@
         <v>3</v>
       </c>
       <c r="B295">
-        <v>40.727244800000001</v>
+        <v>40.078676700000003</v>
       </c>
       <c r="C295">
-        <v>19.917643900000002</v>
+        <v>20.1971685</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -3625,10 +3625,10 @@
         <v>3</v>
       </c>
       <c r="B296">
-        <v>40.727240000000002</v>
+        <v>42.0283807</v>
       </c>
       <c r="C296">
-        <v>19.917599599999999</v>
+        <v>19.548843000000002</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -3636,10 +3636,10 @@
         <v>3</v>
       </c>
       <c r="B297">
-        <v>40.715945499999997</v>
+        <v>40.706904199999997</v>
       </c>
       <c r="C297">
-        <v>19.936401100000001</v>
+        <v>19.6428507</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -3647,10 +3647,10 @@
         <v>3</v>
       </c>
       <c r="B298">
-        <v>40.831462999999999</v>
+        <v>41.037975500000002</v>
       </c>
       <c r="C298">
-        <v>19.9050999</v>
+        <v>20.012066799999999</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -3658,10 +3658,10 @@
         <v>3</v>
       </c>
       <c r="B299">
-        <v>40.834567</v>
+        <v>41.997457599999997</v>
       </c>
       <c r="C299">
-        <v>19.905859599999999</v>
+        <v>19.5498808</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -3669,10 +3669,10 @@
         <v>3</v>
       </c>
       <c r="B300">
-        <v>40.833536799999997</v>
+        <v>41.960529000000001</v>
       </c>
       <c r="C300">
-        <v>19.905182100000001</v>
+        <v>19.636325200000002</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -3680,10 +3680,10 @@
         <v>3</v>
       </c>
       <c r="B301">
-        <v>40.833566300000001</v>
+        <v>40.813771500000001</v>
       </c>
       <c r="C301">
-        <v>19.905406899999999</v>
+        <v>19.6485892</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -3691,10 +3691,10 @@
         <v>3</v>
       </c>
       <c r="B302">
-        <v>40.833481800000001</v>
+        <v>40.813451000000001</v>
       </c>
       <c r="C302">
-        <v>19.905455100000001</v>
+        <v>19.6485713</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -3702,10 +3702,10 @@
         <v>3</v>
       </c>
       <c r="B303">
-        <v>40.831402300000001</v>
+        <v>39.724868499999999</v>
       </c>
       <c r="C303">
-        <v>19.905214300000001</v>
+        <v>20.060166500000001</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -3713,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="B304">
-        <v>40.834671499999999</v>
+        <v>40.560952499999999</v>
       </c>
       <c r="C304">
-        <v>19.905972599999998</v>
+        <v>20.741803399999998</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -3724,10 +3724,10 @@
         <v>3</v>
       </c>
       <c r="B305">
-        <v>40.833434599999997</v>
+        <v>40.706332000000003</v>
       </c>
       <c r="C305">
-        <v>19.905183699999998</v>
+        <v>20.792128900000002</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -3735,10 +3735,10 @@
         <v>3</v>
       </c>
       <c r="B306">
-        <v>41.001128399999999</v>
+        <v>40.706282399999999</v>
       </c>
       <c r="C306">
-        <v>20.020879900000001</v>
+        <v>20.792267200000001</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -3746,10 +3746,10 @@
         <v>3</v>
       </c>
       <c r="B307">
-        <v>41.000934000000001</v>
+        <v>40.706692400000001</v>
       </c>
       <c r="C307">
-        <v>20.0213693</v>
+        <v>19.619727300000001</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -3757,10 +3757,10 @@
         <v>3</v>
       </c>
       <c r="B308">
-        <v>40.8335103</v>
+        <v>40.7068023</v>
       </c>
       <c r="C308">
-        <v>19.905443500000001</v>
+        <v>19.619588400000001</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -3768,10 +3768,10 @@
         <v>3</v>
       </c>
       <c r="B309">
-        <v>40.8335364</v>
+        <v>40.992705899999997</v>
       </c>
       <c r="C309">
-        <v>19.905429900000001</v>
+        <v>20.008908900000002</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -3779,10 +3779,10 @@
         <v>3</v>
       </c>
       <c r="B310">
-        <v>40.7176027</v>
+        <v>41.072875500000002</v>
       </c>
       <c r="C310">
-        <v>19.928751299999998</v>
+        <v>20.041034799999998</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -3790,10 +3790,10 @@
         <v>3</v>
       </c>
       <c r="B311">
-        <v>40.719552399999998</v>
+        <v>41.072071700000002</v>
       </c>
       <c r="C311">
-        <v>19.929415500000001</v>
+        <v>20.041710699999999</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -3801,10 +3801,10 @@
         <v>3</v>
       </c>
       <c r="B312">
-        <v>40.719831999999997</v>
+        <v>42.040169499999998</v>
       </c>
       <c r="C312">
-        <v>19.929725099999999</v>
+        <v>19.523026600000001</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -3812,10 +3812,10 @@
         <v>3</v>
       </c>
       <c r="B313">
-        <v>40.719562000000003</v>
+        <v>40.0803966</v>
       </c>
       <c r="C313">
-        <v>19.929419800000002</v>
+        <v>20.138464599999999</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -3823,10 +3823,10 @@
         <v>3</v>
       </c>
       <c r="B314">
-        <v>40.719827299999999</v>
+        <v>40.791858300000001</v>
       </c>
       <c r="C314">
-        <v>19.929644700000001</v>
+        <v>19.680527099999999</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -3834,10 +3834,10 @@
         <v>3</v>
       </c>
       <c r="B315">
-        <v>40.719628499999999</v>
+        <v>40.611177699999999</v>
       </c>
       <c r="C315">
-        <v>19.9293005</v>
+        <v>20.693513100000001</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -3845,10 +3845,10 @@
         <v>3</v>
       </c>
       <c r="B316">
-        <v>40.719606499999998</v>
+        <v>40.125625300000003</v>
       </c>
       <c r="C316">
-        <v>19.929391500000001</v>
+        <v>20.136190599999999</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -3856,10 +3856,10 @@
         <v>3</v>
       </c>
       <c r="B317">
-        <v>40.719557299999998</v>
+        <v>40.144500399999998</v>
       </c>
       <c r="C317">
-        <v>19.929417300000001</v>
+        <v>20.089192499999999</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -3867,10 +3867,10 @@
         <v>3</v>
       </c>
       <c r="B318">
-        <v>40.719580399999998</v>
+        <v>41.997470800000002</v>
       </c>
       <c r="C318">
-        <v>19.929424300000001</v>
+        <v>19.549841600000001</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -3878,10 +3878,10 @@
         <v>3</v>
       </c>
       <c r="B319">
-        <v>42.277197200000003</v>
+        <v>41.069335000000002</v>
       </c>
       <c r="C319">
-        <v>19.5138845</v>
+        <v>19.984805000000001</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -3889,10 +3889,10 @@
         <v>3</v>
       </c>
       <c r="B320">
-        <v>42.280515899999997</v>
+        <v>41.069341999999999</v>
       </c>
       <c r="C320">
-        <v>19.5225586</v>
+        <v>19.984977300000001</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -3900,10 +3900,10 @@
         <v>3</v>
       </c>
       <c r="B321">
-        <v>42.278105400000001</v>
+        <v>40.706904100000003</v>
       </c>
       <c r="C321">
-        <v>19.519205199999998</v>
+        <v>19.642840899999999</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -3911,10 +3911,10 @@
         <v>3</v>
       </c>
       <c r="B322">
-        <v>42.281401099999997</v>
+        <v>40.825159300000003</v>
       </c>
       <c r="C322">
-        <v>19.5229967</v>
+        <v>19.501710500000002</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -3922,10 +3922,10 @@
         <v>3</v>
       </c>
       <c r="B323">
-        <v>42.2772711</v>
+        <v>41.997463400000001</v>
       </c>
       <c r="C323">
-        <v>19.5165753</v>
+        <v>19.549926500000002</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -3933,10 +3933,10 @@
         <v>3</v>
       </c>
       <c r="B324">
-        <v>42.281402300000003</v>
+        <v>41.9610603</v>
       </c>
       <c r="C324">
-        <v>19.522993199999998</v>
+        <v>19.6367856</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -3944,10 +3944,10 @@
         <v>3</v>
       </c>
       <c r="B325">
-        <v>42.281467300000003</v>
+        <v>41.960501399999998</v>
       </c>
       <c r="C325">
-        <v>19.523060099999999</v>
+        <v>19.636326100000002</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -3955,10 +3955,10 @@
         <v>3</v>
       </c>
       <c r="B326">
-        <v>42.277654499999997</v>
+        <v>40.799508699999997</v>
       </c>
       <c r="C326">
-        <v>19.518281200000001</v>
+        <v>19.677363700000001</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -3966,10 +3966,10 @@
         <v>3</v>
       </c>
       <c r="B327">
-        <v>42.281427899999997</v>
+        <v>40.792193400000002</v>
       </c>
       <c r="C327">
-        <v>19.523053399999998</v>
+        <v>19.6808698</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -3977,10 +3977,10 @@
         <v>3</v>
       </c>
       <c r="B328">
-        <v>42.277683500000002</v>
+        <v>41.921302099999998</v>
       </c>
       <c r="C328">
-        <v>19.517837</v>
+        <v>19.600870799999999</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -3988,10 +3988,10 @@
         <v>3</v>
       </c>
       <c r="B329">
-        <v>42.280393400000001</v>
+        <v>39.724874</v>
       </c>
       <c r="C329">
-        <v>19.522840299999999</v>
+        <v>20.060063800000002</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -3999,10 +3999,10 @@
         <v>3</v>
       </c>
       <c r="B330">
-        <v>42.277751299999998</v>
+        <v>42.356902699999999</v>
       </c>
       <c r="C330">
-        <v>19.517457</v>
+        <v>20.0758039</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4010,10 +4010,10 @@
         <v>3</v>
       </c>
       <c r="B331">
-        <v>42.277492600000002</v>
+        <v>40.626756899999997</v>
       </c>
       <c r="C331">
-        <v>19.518242699999998</v>
+        <v>20.7021792</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4021,10 +4021,10 @@
         <v>3</v>
       </c>
       <c r="B332">
-        <v>42.277285499999998</v>
+        <v>40.611035399999999</v>
       </c>
       <c r="C332">
-        <v>19.5167021</v>
+        <v>20.693137100000001</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4032,10 +4032,10 @@
         <v>3</v>
       </c>
       <c r="B333">
-        <v>42.277923800000003</v>
+        <v>40.611256900000001</v>
       </c>
       <c r="C333">
-        <v>19.517572699999999</v>
+        <v>20.6936219</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4043,10 +4043,10 @@
         <v>3</v>
       </c>
       <c r="B334">
-        <v>42.276982799999999</v>
+        <v>40.610570299999999</v>
       </c>
       <c r="C334">
-        <v>19.516658100000001</v>
+        <v>20.6921496</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4054,10 +4054,10 @@
         <v>3</v>
       </c>
       <c r="B335">
-        <v>40.831350700000002</v>
+        <v>40.125408999999998</v>
       </c>
       <c r="C335">
-        <v>19.9143708</v>
+        <v>20.136428299999999</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4065,10 +4065,10 @@
         <v>3</v>
       </c>
       <c r="B336">
-        <v>40.830765300000003</v>
+        <v>41.046672100000002</v>
       </c>
       <c r="C336">
-        <v>19.914642099999998</v>
+        <v>20.030432399999999</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4076,10 +4076,10 @@
         <v>3</v>
       </c>
       <c r="B337">
-        <v>40.830768900000002</v>
+        <v>41.997440599999997</v>
       </c>
       <c r="C337">
-        <v>19.914750099999999</v>
+        <v>19.5498826</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4087,10 +4087,10 @@
         <v>3</v>
       </c>
       <c r="B338">
-        <v>40.831157099999999</v>
+        <v>41.966019899999999</v>
       </c>
       <c r="C338">
-        <v>19.9144322</v>
+        <v>19.6371605</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4098,10 +4098,10 @@
         <v>3</v>
       </c>
       <c r="B339">
-        <v>40.750765199999996</v>
+        <v>42.040169800000001</v>
       </c>
       <c r="C339">
-        <v>20.832402299999998</v>
+        <v>19.5228927</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4109,10 +4109,10 @@
         <v>3</v>
       </c>
       <c r="B340">
-        <v>40.831096199999998</v>
+        <v>40.079405999999999</v>
       </c>
       <c r="C340">
-        <v>19.914892399999999</v>
+        <v>20.198710999999999</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4120,10 +4120,10 @@
         <v>3</v>
       </c>
       <c r="B341">
-        <v>40.8309292</v>
+        <v>42.357349300000003</v>
       </c>
       <c r="C341">
-        <v>19.915116999999999</v>
+        <v>20.0740762</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4131,10 +4131,10 @@
         <v>3</v>
       </c>
       <c r="B342">
-        <v>40.830769400000001</v>
+        <v>41.9780205</v>
       </c>
       <c r="C342">
-        <v>19.9147502</v>
+        <v>19.629951899999998</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4142,10 +4142,10 @@
         <v>3</v>
       </c>
       <c r="B343">
-        <v>40.831297599999999</v>
+        <v>40.971039699999999</v>
       </c>
       <c r="C343">
-        <v>19.914582800000002</v>
+        <v>20.004928100000001</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4153,10 +4153,10 @@
         <v>3</v>
       </c>
       <c r="B344">
-        <v>40.751758700000003</v>
+        <v>40.800304599999997</v>
       </c>
       <c r="C344">
-        <v>20.831425400000001</v>
+        <v>19.677160600000001</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4164,10 +4164,10 @@
         <v>3</v>
       </c>
       <c r="B345">
-        <v>40.832106899999999</v>
+        <v>40.789435300000001</v>
       </c>
       <c r="C345">
-        <v>19.9140172</v>
+        <v>19.881999400000002</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4175,10 +4175,10 @@
         <v>3</v>
       </c>
       <c r="B346">
-        <v>40.752531599999998</v>
+        <v>39.708398099999997</v>
       </c>
       <c r="C346">
-        <v>20.8312925</v>
+        <v>20.0777258</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4186,10 +4186,10 @@
         <v>3</v>
       </c>
       <c r="B347">
-        <v>40.831263900000003</v>
+        <v>39.707455500000002</v>
       </c>
       <c r="C347">
-        <v>19.914763099999998</v>
+        <v>20.079796900000002</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -4197,10 +4197,10 @@
         <v>3</v>
       </c>
       <c r="B348">
-        <v>40.754839099999998</v>
+        <v>39.724873700000003</v>
       </c>
       <c r="C348">
-        <v>20.830075000000001</v>
+        <v>20.060207399999999</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="B349">
-        <v>40.753555400000003</v>
+        <v>39.724811799999998</v>
       </c>
       <c r="C349">
-        <v>20.830983700000001</v>
+        <v>20.060134999999999</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4219,10 +4219,10 @@
         <v>3</v>
       </c>
       <c r="B350">
-        <v>40.753786900000001</v>
+        <v>39.7247597</v>
       </c>
       <c r="C350">
-        <v>20.8306401</v>
+        <v>20.060221299999998</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4230,10 +4230,10 @@
         <v>3</v>
       </c>
       <c r="B351">
-        <v>40.753895900000003</v>
+        <v>39.724755000000002</v>
       </c>
       <c r="C351">
-        <v>20.830523400000001</v>
+        <v>20.060296900000001</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4241,10 +4241,10 @@
         <v>3</v>
       </c>
       <c r="B352">
-        <v>40.754075700000001</v>
+        <v>39.724794899999999</v>
       </c>
       <c r="C352">
-        <v>20.830336800000001</v>
+        <v>20.060378400000001</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4252,10 +4252,10 @@
         <v>3</v>
       </c>
       <c r="B353">
-        <v>40.754475399999997</v>
+        <v>42.362389700000001</v>
       </c>
       <c r="C353">
-        <v>20.830290000000002</v>
+        <v>20.073061500000001</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4263,10 +4263,10 @@
         <v>3</v>
       </c>
       <c r="B354">
-        <v>40.753585999999999</v>
+        <v>40.611273199999999</v>
       </c>
       <c r="C354">
-        <v>20.830670699999999</v>
+        <v>20.6935851</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -4274,10 +4274,10 @@
         <v>3</v>
       </c>
       <c r="B355">
-        <v>40.753583399999997</v>
+        <v>40.705325799999997</v>
       </c>
       <c r="C355">
-        <v>20.830621900000001</v>
+        <v>20.791675900000001</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -4285,10 +4285,10 @@
         <v>3</v>
       </c>
       <c r="B356">
-        <v>40.753666799999998</v>
+        <v>40.705536899999998</v>
       </c>
       <c r="C356">
-        <v>20.830617799999999</v>
+        <v>20.792016799999999</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -4296,10 +4296,10 @@
         <v>3</v>
       </c>
       <c r="B357">
-        <v>40.754765200000001</v>
+        <v>41.063736900000002</v>
       </c>
       <c r="C357">
-        <v>20.8299974</v>
+        <v>19.976755600000001</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -4307,10 +4307,10 @@
         <v>3</v>
       </c>
       <c r="B358">
-        <v>40.755149799999998</v>
+        <v>41.063870600000001</v>
       </c>
       <c r="C358">
-        <v>20.829772599999998</v>
+        <v>19.976452900000002</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -4318,10 +4318,10 @@
         <v>3</v>
       </c>
       <c r="B359">
-        <v>40.755449900000002</v>
+        <v>41.0698966</v>
       </c>
       <c r="C359">
-        <v>20.829460000000001</v>
+        <v>19.985111199999999</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4329,10 +4329,10 @@
         <v>3</v>
       </c>
       <c r="B360">
-        <v>40.755571000000003</v>
+        <v>40.706904199999997</v>
       </c>
       <c r="C360">
-        <v>20.829272700000001</v>
+        <v>19.642842099999999</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -4340,10 +4340,10 @@
         <v>3</v>
       </c>
       <c r="B361">
-        <v>41.396787600000003</v>
+        <v>40.706987699999999</v>
       </c>
       <c r="C361">
-        <v>19.539857399999999</v>
+        <v>19.642986499999999</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="B362">
-        <v>41.379489</v>
+        <v>40.960527200000001</v>
       </c>
       <c r="C362">
-        <v>19.542874300000001</v>
+        <v>19.521292200000001</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -4362,10 +4362,10 @@
         <v>3</v>
       </c>
       <c r="B363">
-        <v>41.388695599999998</v>
+        <v>40.923311599999998</v>
       </c>
       <c r="C363">
-        <v>19.550103199999999</v>
+        <v>19.537331099999999</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -4373,10 +4373,10 @@
         <v>3</v>
       </c>
       <c r="B364">
-        <v>41.365637800000002</v>
+        <v>40.706902399999997</v>
       </c>
       <c r="C364">
-        <v>19.549973300000001</v>
+        <v>19.642841700000002</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -4384,10 +4384,10 @@
         <v>3</v>
       </c>
       <c r="B365">
-        <v>40.560966800000003</v>
+        <v>40.706904199999997</v>
       </c>
       <c r="C365">
-        <v>20.741795100000001</v>
+        <v>19.642844199999999</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -4395,10 +4395,10 @@
         <v>3</v>
       </c>
       <c r="B366">
-        <v>40.560964800000001</v>
+        <v>40.611260600000001</v>
       </c>
       <c r="C366">
-        <v>20.7417707</v>
+        <v>20.6935775</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -4406,10 +4406,10 @@
         <v>3</v>
       </c>
       <c r="B367">
-        <v>40.560974899999998</v>
+        <v>41.003016700000003</v>
       </c>
       <c r="C367">
-        <v>20.7418026</v>
+        <v>20.017828099999999</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -4417,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="B368">
-        <v>40.560964599999998</v>
+        <v>41.977848100000003</v>
       </c>
       <c r="C368">
-        <v>20.741803300000001</v>
+        <v>19.6300536</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -4428,10 +4428,10 @@
         <v>3</v>
       </c>
       <c r="B369">
-        <v>40.560952499999999</v>
+        <v>41.065772199999998</v>
       </c>
       <c r="C369">
-        <v>20.741803399999998</v>
+        <v>19.978327</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -4439,10 +4439,10 @@
         <v>3</v>
       </c>
       <c r="B370">
-        <v>40.560913999999997</v>
+        <v>41.064894299999999</v>
       </c>
       <c r="C370">
-        <v>20.741698599999999</v>
+        <v>19.978616299999999</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -4450,10 +4450,10 @@
         <v>3</v>
       </c>
       <c r="B371">
-        <v>40.5609173</v>
+        <v>41.960741300000002</v>
       </c>
       <c r="C371">
-        <v>20.741696999999998</v>
+        <v>19.637025999999999</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -4461,10 +4461,10 @@
         <v>3</v>
       </c>
       <c r="B372">
-        <v>40.5609131</v>
+        <v>42.028405399999997</v>
       </c>
       <c r="C372">
-        <v>20.741690599999998</v>
+        <v>19.548815999999999</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -4472,10 +4472,10 @@
         <v>3</v>
       </c>
       <c r="B373">
-        <v>40.560912799999997</v>
+        <v>40.983379999999997</v>
       </c>
       <c r="C373">
-        <v>20.741685700000001</v>
+        <v>20.0097433</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -4483,10 +4483,10 @@
         <v>3</v>
       </c>
       <c r="B374">
-        <v>40.560913300000003</v>
+        <v>40.701578300000001</v>
       </c>
       <c r="C374">
-        <v>20.741686600000001</v>
+        <v>19.617272</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -4494,10 +4494,10 @@
         <v>3</v>
       </c>
       <c r="B375">
-        <v>41.427428800000001</v>
+        <v>40.701530200000001</v>
       </c>
       <c r="C375">
-        <v>19.5628137</v>
+        <v>19.617308300000001</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -4505,10 +4505,10 @@
         <v>3</v>
       </c>
       <c r="B376">
-        <v>41.426992900000002</v>
+        <v>40.707910900000002</v>
       </c>
       <c r="C376">
-        <v>19.563263500000001</v>
+        <v>19.639635800000001</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -4516,10 +4516,10 @@
         <v>3</v>
       </c>
       <c r="B377">
-        <v>41.4230527</v>
+        <v>40.707915800000002</v>
       </c>
       <c r="C377">
-        <v>19.548993299999999</v>
+        <v>19.6395126</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -4527,10 +4527,10 @@
         <v>3</v>
       </c>
       <c r="B378">
-        <v>40.560912899999998</v>
+        <v>40.968437899999998</v>
       </c>
       <c r="C378">
-        <v>20.7416795</v>
+        <v>20.004564200000001</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -4538,10 +4538,10 @@
         <v>3</v>
       </c>
       <c r="B379">
-        <v>40.560951600000003</v>
+        <v>41.997348100000004</v>
       </c>
       <c r="C379">
-        <v>20.741800900000001</v>
+        <v>19.549879000000001</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -4549,10 +4549,10 @@
         <v>3</v>
       </c>
       <c r="B380">
-        <v>40.560895899999998</v>
+        <v>41.077538199999999</v>
       </c>
       <c r="C380">
-        <v>20.741647199999999</v>
+        <v>20.040127900000002</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -4560,10 +4560,10 @@
         <v>3</v>
       </c>
       <c r="B381">
-        <v>40.560944200000002</v>
+        <v>41.077629700000003</v>
       </c>
       <c r="C381">
-        <v>20.741797500000001</v>
+        <v>20.040025199999999</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -4571,10 +4571,10 @@
         <v>3</v>
       </c>
       <c r="B382">
-        <v>40.560954199999998</v>
+        <v>42.027496599999999</v>
       </c>
       <c r="C382">
-        <v>20.741793000000001</v>
+        <v>19.548194500000001</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -4582,10 +4582,10 @@
         <v>3</v>
       </c>
       <c r="B383">
-        <v>40.560938800000002</v>
+        <v>40.706901799999997</v>
       </c>
       <c r="C383">
-        <v>20.741807300000001</v>
+        <v>19.6428431</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -4593,10 +4593,10 @@
         <v>3</v>
       </c>
       <c r="B384">
-        <v>40.560957100000003</v>
+        <v>40.706901899999998</v>
       </c>
       <c r="C384">
-        <v>20.741800900000001</v>
+        <v>19.642842399999999</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -4604,10 +4604,10 @@
         <v>3</v>
       </c>
       <c r="B385">
-        <v>40.560913300000003</v>
+        <v>40.751035199999997</v>
       </c>
       <c r="C385">
-        <v>20.741778199999999</v>
+        <v>19.7368828</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -4615,10 +4615,10 @@
         <v>3</v>
       </c>
       <c r="B386">
-        <v>40.560971600000002</v>
+        <v>40.812969099999997</v>
       </c>
       <c r="C386">
-        <v>20.741804699999999</v>
+        <v>19.649452499999999</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -4626,10 +4626,10 @@
         <v>3</v>
       </c>
       <c r="B387">
-        <v>40.560976500000002</v>
+        <v>40.085417300000003</v>
       </c>
       <c r="C387">
-        <v>20.741814900000001</v>
+        <v>20.1426938</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -4637,10 +4637,10 @@
         <v>3</v>
       </c>
       <c r="B388">
-        <v>40.560958399999997</v>
+        <v>40.085411999999998</v>
       </c>
       <c r="C388">
-        <v>20.741810099999999</v>
+        <v>20.142689300000001</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -4648,10 +4648,10 @@
         <v>3</v>
       </c>
       <c r="B389">
-        <v>40.560943600000002</v>
+        <v>41.960927499999997</v>
       </c>
       <c r="C389">
-        <v>20.741804800000001</v>
+        <v>19.636730700000001</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -4659,10 +4659,10 @@
         <v>3</v>
       </c>
       <c r="B390">
-        <v>40.560890999999998</v>
+        <v>41.066156399999997</v>
       </c>
       <c r="C390">
-        <v>20.741639800000002</v>
+        <v>19.978925700000001</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -4670,10 +4670,10 @@
         <v>3</v>
       </c>
       <c r="B391">
-        <v>40.560895799999997</v>
+        <v>41.066741700000001</v>
       </c>
       <c r="C391">
-        <v>20.7416351</v>
+        <v>19.977825800000002</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -4681,10 +4681,10 @@
         <v>3</v>
       </c>
       <c r="B392">
-        <v>40.560902499999997</v>
+        <v>41.065923499999997</v>
       </c>
       <c r="C392">
-        <v>20.741630799999999</v>
+        <v>19.978878099999999</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -4692,10 +4692,10 @@
         <v>3</v>
       </c>
       <c r="B393">
-        <v>40.560876</v>
+        <v>41.065883599999999</v>
       </c>
       <c r="C393">
-        <v>20.7416111</v>
+        <v>19.978474800000001</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -4703,10 +4703,10 @@
         <v>3</v>
       </c>
       <c r="B394">
-        <v>40.5609155</v>
+        <v>41.977598800000003</v>
       </c>
       <c r="C394">
-        <v>20.741734999999998</v>
+        <v>19.628169499999998</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -4714,10 +4714,10 @@
         <v>3</v>
       </c>
       <c r="B395">
-        <v>40.560920099999997</v>
+        <v>40.713635799999999</v>
       </c>
       <c r="C395">
-        <v>20.7417166</v>
+        <v>19.619978799999998</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -4725,10 +4725,10 @@
         <v>3</v>
       </c>
       <c r="B396">
-        <v>40.560943000000002</v>
+        <v>40.713635600000003</v>
       </c>
       <c r="C396">
-        <v>20.741734000000001</v>
+        <v>19.619980099999999</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -4736,10 +4736,10 @@
         <v>3</v>
       </c>
       <c r="B397">
-        <v>40.561030199999998</v>
+        <v>41.427428800000001</v>
       </c>
       <c r="C397">
-        <v>20.741820499999999</v>
+        <v>19.5628137</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -4747,10 +4747,10 @@
         <v>3</v>
       </c>
       <c r="B398">
-        <v>40.626757300000001</v>
+        <v>42.027596099999997</v>
       </c>
       <c r="C398">
-        <v>20.702181899999999</v>
+        <v>19.548204399999999</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -4758,10 +4758,10 @@
         <v>3</v>
       </c>
       <c r="B399">
-        <v>42.362380299999998</v>
+        <v>41.961001000000003</v>
       </c>
       <c r="C399">
-        <v>20.073043899999998</v>
+        <v>19.636742600000002</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -4769,10 +4769,10 @@
         <v>3</v>
       </c>
       <c r="B400">
-        <v>40.6267402</v>
+        <v>42.033753400000002</v>
       </c>
       <c r="C400">
-        <v>20.702174200000002</v>
+        <v>19.568732600000001</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -4780,10 +4780,10 @@
         <v>3</v>
       </c>
       <c r="B401">
-        <v>40.626693099999997</v>
+        <v>40.8137981</v>
       </c>
       <c r="C401">
-        <v>20.702165600000001</v>
+        <v>19.648539299999999</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -4791,10 +4791,10 @@
         <v>3</v>
       </c>
       <c r="B402">
-        <v>40.626756899999997</v>
+        <v>40.812669800000002</v>
       </c>
       <c r="C402">
-        <v>20.7021792</v>
+        <v>19.648364900000001</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -4802,10 +4802,10 @@
         <v>3</v>
       </c>
       <c r="B403">
-        <v>40.6266879</v>
+        <v>40.8713014</v>
       </c>
       <c r="C403">
-        <v>20.702141099999999</v>
+        <v>19.7834574</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -4813,10 +4813,10 @@
         <v>3</v>
       </c>
       <c r="B404">
-        <v>40.626729900000001</v>
+        <v>40.789523500000001</v>
       </c>
       <c r="C404">
-        <v>20.702078700000001</v>
+        <v>19.881695499999999</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -4824,10 +4824,10 @@
         <v>3</v>
       </c>
       <c r="B405">
-        <v>40.626732799999999</v>
+        <v>39.724699200000003</v>
       </c>
       <c r="C405">
-        <v>20.702138900000001</v>
+        <v>20.060351199999999</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -4835,10 +4835,10 @@
         <v>3</v>
       </c>
       <c r="B406">
-        <v>40.626760599999997</v>
+        <v>40.626660800000003</v>
       </c>
       <c r="C406">
-        <v>20.702173200000001</v>
+        <v>20.702097500000001</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -4846,10 +4846,10 @@
         <v>3</v>
       </c>
       <c r="B407">
-        <v>40.626660800000003</v>
+        <v>40.611356299999997</v>
       </c>
       <c r="C407">
-        <v>20.702097500000001</v>
+        <v>20.693670900000001</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -4857,10 +4857,10 @@
         <v>3</v>
       </c>
       <c r="B408">
-        <v>42.362389700000001</v>
+        <v>40.705502799999998</v>
       </c>
       <c r="C408">
-        <v>20.073061500000001</v>
+        <v>20.791700500000001</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -4868,10 +4868,10 @@
         <v>3</v>
       </c>
       <c r="B409">
-        <v>42.3625051</v>
+        <v>40.704788999999998</v>
       </c>
       <c r="C409">
-        <v>20.072873000000001</v>
+        <v>20.791447999999999</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -4879,10 +4879,10 @@
         <v>3</v>
       </c>
       <c r="B410">
-        <v>42.362324800000003</v>
+        <v>40.122549499999998</v>
       </c>
       <c r="C410">
-        <v>20.073018999999999</v>
+        <v>20.110094199999999</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -4890,10 +4890,10 @@
         <v>3</v>
       </c>
       <c r="B411">
-        <v>40.610097000000003</v>
+        <v>42.006986099999999</v>
       </c>
       <c r="C411">
-        <v>20.691711999999999</v>
+        <v>19.6378609</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -4901,10 +4901,10 @@
         <v>3</v>
       </c>
       <c r="B412">
-        <v>40.609602500000001</v>
+        <v>41.0634637</v>
       </c>
       <c r="C412">
-        <v>20.691002099999999</v>
+        <v>19.976870600000002</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -4912,10 +4912,10 @@
         <v>3</v>
       </c>
       <c r="B413">
-        <v>40.6096109</v>
+        <v>41.977623800000003</v>
       </c>
       <c r="C413">
-        <v>20.691012700000002</v>
+        <v>19.628193199999998</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -4923,10 +4923,10 @@
         <v>3</v>
       </c>
       <c r="B414">
-        <v>40.610722099999997</v>
+        <v>41.0710658</v>
       </c>
       <c r="C414">
-        <v>20.692342499999999</v>
+        <v>19.985009600000001</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -4934,10 +4934,10 @@
         <v>3</v>
       </c>
       <c r="B415">
-        <v>40.611035399999999</v>
+        <v>41.0788777</v>
       </c>
       <c r="C415">
-        <v>20.693137100000001</v>
+        <v>20.039146299999999</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -4945,10 +4945,10 @@
         <v>3</v>
       </c>
       <c r="B416">
-        <v>40.6110173</v>
+        <v>41.977555799999998</v>
       </c>
       <c r="C416">
-        <v>20.693270999999999</v>
+        <v>19.6282277</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -4956,10 +4956,10 @@
         <v>3</v>
       </c>
       <c r="B417">
-        <v>40.611177699999999</v>
+        <v>40.080606600000003</v>
       </c>
       <c r="C417">
-        <v>20.693513100000001</v>
+        <v>20.199174599999999</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -4967,10 +4967,10 @@
         <v>3</v>
       </c>
       <c r="B418">
-        <v>40.611255800000002</v>
+        <v>40.699875400000003</v>
       </c>
       <c r="C418">
-        <v>20.693622900000001</v>
+        <v>19.6101435</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -4978,10 +4978,10 @@
         <v>3</v>
       </c>
       <c r="B419">
-        <v>40.611256900000001</v>
+        <v>40.700781900000003</v>
       </c>
       <c r="C419">
-        <v>20.6936219</v>
+        <v>19.612272000000001</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -4989,10 +4989,10 @@
         <v>3</v>
       </c>
       <c r="B420">
-        <v>40.611215199999997</v>
+        <v>41.046809400000001</v>
       </c>
       <c r="C420">
-        <v>20.693598900000001</v>
+        <v>20.0292767</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -5000,10 +5000,10 @@
         <v>3</v>
       </c>
       <c r="B421">
-        <v>40.611273199999999</v>
+        <v>40.473194300000003</v>
       </c>
       <c r="C421">
-        <v>20.6935851</v>
+        <v>19.5856602</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -5011,10 +5011,10 @@
         <v>3</v>
       </c>
       <c r="B422">
-        <v>40.611356299999997</v>
+        <v>39.724754500000003</v>
       </c>
       <c r="C422">
-        <v>20.693670900000001</v>
+        <v>20.060115499999998</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -5022,10 +5022,10 @@
         <v>3</v>
       </c>
       <c r="B423">
-        <v>40.610570299999999</v>
+        <v>41.426992900000002</v>
       </c>
       <c r="C423">
-        <v>20.6921496</v>
+        <v>19.563263500000001</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -5033,10 +5033,10 @@
         <v>3</v>
       </c>
       <c r="B424">
-        <v>40.611265699999997</v>
+        <v>42.362380299999998</v>
       </c>
       <c r="C424">
-        <v>20.693665299999999</v>
+        <v>20.073043899999998</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -5044,10 +5044,10 @@
         <v>3</v>
       </c>
       <c r="B425">
-        <v>40.611249700000002</v>
+        <v>40.816017700000003</v>
       </c>
       <c r="C425">
-        <v>20.693570399999999</v>
+        <v>19.500545200000001</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -5055,10 +5055,10 @@
         <v>3</v>
       </c>
       <c r="B426">
-        <v>40.611345100000001</v>
+        <v>41.067193400000001</v>
       </c>
       <c r="C426">
-        <v>20.693597400000002</v>
+        <v>20.052333099999998</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -5066,10 +5066,10 @@
         <v>3</v>
       </c>
       <c r="B427">
-        <v>40.611211599999997</v>
+        <v>40.079382299999999</v>
       </c>
       <c r="C427">
-        <v>20.693585500000001</v>
+        <v>20.198820600000001</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -5077,10 +5077,10 @@
         <v>3</v>
       </c>
       <c r="B428">
-        <v>40.611242799999999</v>
+        <v>40.701599600000002</v>
       </c>
       <c r="C428">
-        <v>20.693614400000001</v>
+        <v>19.619267199999999</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -5088,10 +5088,10 @@
         <v>3</v>
       </c>
       <c r="B429">
-        <v>40.611170700000002</v>
+        <v>40.702006799999999</v>
       </c>
       <c r="C429">
-        <v>20.6936283</v>
+        <v>19.618926399999999</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -5099,10 +5099,10 @@
         <v>3</v>
       </c>
       <c r="B430">
-        <v>40.611260600000001</v>
+        <v>40.789935900000003</v>
       </c>
       <c r="C430">
-        <v>20.6935775</v>
+        <v>19.8805701</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -5110,10 +5110,10 @@
         <v>3</v>
       </c>
       <c r="B431">
-        <v>40.706542399999996</v>
+        <v>41.997391100000002</v>
       </c>
       <c r="C431">
-        <v>20.792244100000001</v>
+        <v>19.5498838</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -5121,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="B432">
-        <v>40.703667600000003</v>
+        <v>42.048879900000003</v>
       </c>
       <c r="C432">
-        <v>20.792092100000001</v>
+        <v>19.5681832</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -5132,10 +5132,10 @@
         <v>3</v>
       </c>
       <c r="B433">
-        <v>40.884521100000001</v>
+        <v>41.047564899999998</v>
       </c>
       <c r="C433">
-        <v>19.589540100000001</v>
+        <v>20.042275100000001</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="B434">
-        <v>40.884501999999998</v>
+        <v>40.078309300000001</v>
       </c>
       <c r="C434">
-        <v>19.589530700000001</v>
+        <v>20.197348600000002</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -5154,10 +5154,10 @@
         <v>3</v>
       </c>
       <c r="B435">
-        <v>40.706522499999998</v>
+        <v>42.039496300000003</v>
       </c>
       <c r="C435">
-        <v>20.792271899999999</v>
+        <v>19.524458299999999</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -5165,10 +5165,10 @@
         <v>3</v>
       </c>
       <c r="B436">
-        <v>40.7046469</v>
+        <v>41.879153100000003</v>
       </c>
       <c r="C436">
-        <v>20.7913256</v>
+        <v>19.637986999999999</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -5176,10 +5176,10 @@
         <v>3</v>
       </c>
       <c r="B437">
-        <v>40.942221099999998</v>
+        <v>40.793729499999998</v>
       </c>
       <c r="C437">
-        <v>19.5372837</v>
+        <v>19.679623299999999</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -5187,10 +5187,10 @@
         <v>3</v>
       </c>
       <c r="B438">
-        <v>40.921858800000003</v>
+        <v>40.792000700000003</v>
       </c>
       <c r="C438">
-        <v>19.536833900000001</v>
+        <v>19.680694299999999</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -5198,10 +5198,10 @@
         <v>3</v>
       </c>
       <c r="B439">
-        <v>40.706364499999999</v>
+        <v>40.814236800000003</v>
       </c>
       <c r="C439">
-        <v>20.792159300000002</v>
+        <v>19.647193300000001</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -5209,10 +5209,10 @@
         <v>3</v>
       </c>
       <c r="B440">
-        <v>40.960527200000001</v>
+        <v>40.812978100000002</v>
       </c>
       <c r="C440">
-        <v>19.521292200000001</v>
+        <v>19.649002100000001</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -5220,10 +5220,10 @@
         <v>3</v>
       </c>
       <c r="B441">
-        <v>40.923311599999998</v>
+        <v>40.812915400000001</v>
       </c>
       <c r="C441">
-        <v>19.537331099999999</v>
+        <v>19.648927</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -5231,10 +5231,10 @@
         <v>3</v>
       </c>
       <c r="B442">
-        <v>40.705325799999997</v>
+        <v>40.4983912</v>
       </c>
       <c r="C442">
-        <v>20.791675900000001</v>
+        <v>19.502630799999999</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -5242,10 +5242,10 @@
         <v>3</v>
       </c>
       <c r="B443">
-        <v>40.923311599999998</v>
+        <v>40.473160499999999</v>
       </c>
       <c r="C443">
-        <v>19.537331099999999</v>
+        <v>19.585739700000001</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -5253,10 +5253,10 @@
         <v>3</v>
       </c>
       <c r="B444">
-        <v>40.960527200000001</v>
+        <v>40.473179000000002</v>
       </c>
       <c r="C444">
-        <v>19.521292200000001</v>
+        <v>19.585709099999999</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -5264,10 +5264,10 @@
         <v>3</v>
       </c>
       <c r="B445">
-        <v>40.706411500000002</v>
+        <v>40.473179100000003</v>
       </c>
       <c r="C445">
-        <v>20.792268700000001</v>
+        <v>19.585701799999999</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -5275,10 +5275,10 @@
         <v>3</v>
       </c>
       <c r="B446">
-        <v>40.706332000000003</v>
+        <v>40.626729900000001</v>
       </c>
       <c r="C446">
-        <v>20.792128900000002</v>
+        <v>20.702078700000001</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -5286,10 +5286,10 @@
         <v>3</v>
       </c>
       <c r="B447">
-        <v>42.168859500000003</v>
+        <v>40.611211599999997</v>
       </c>
       <c r="C447">
-        <v>19.4817781</v>
+        <v>20.693585500000001</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -5297,10 +5297,10 @@
         <v>3</v>
       </c>
       <c r="B448">
-        <v>40.705536899999998</v>
+        <v>40.706411500000002</v>
       </c>
       <c r="C448">
-        <v>20.792016799999999</v>
+        <v>20.792268700000001</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -5308,10 +5308,10 @@
         <v>3</v>
       </c>
       <c r="B449">
-        <v>40.706282399999999</v>
+        <v>40.146357500000001</v>
       </c>
       <c r="C449">
-        <v>20.792267200000001</v>
+        <v>20.0885335</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -5319,10 +5319,10 @@
         <v>3</v>
       </c>
       <c r="B450">
-        <v>40.705341799999999</v>
+        <v>40.816021599999999</v>
       </c>
       <c r="C450">
-        <v>20.791884499999998</v>
+        <v>19.5005454</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -5330,10 +5330,10 @@
         <v>3</v>
       </c>
       <c r="B451">
-        <v>40.7061894</v>
+        <v>41.977897200000001</v>
       </c>
       <c r="C451">
-        <v>20.7921561</v>
+        <v>19.630003500000001</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -5341,10 +5341,10 @@
         <v>3</v>
       </c>
       <c r="B452">
-        <v>40.705005700000001</v>
+        <v>40.833285699999998</v>
       </c>
       <c r="C452">
-        <v>20.791491600000001</v>
+        <v>19.9020586</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -5352,10 +5352,10 @@
         <v>3</v>
       </c>
       <c r="B453">
-        <v>40.705502799999998</v>
+        <v>40.704615500000003</v>
       </c>
       <c r="C453">
-        <v>20.791700500000001</v>
+        <v>19.619128700000001</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="B454">
-        <v>40.704983800000001</v>
+        <v>40.704565899999999</v>
       </c>
       <c r="C454">
-        <v>20.791447999999999</v>
+        <v>19.619192099999999</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -5374,10 +5374,10 @@
         <v>3</v>
       </c>
       <c r="B455">
-        <v>40.617686800000001</v>
+        <v>40.704476700000001</v>
       </c>
       <c r="C455">
-        <v>20.7716612</v>
+        <v>19.6192666</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -5385,10 +5385,10 @@
         <v>3</v>
       </c>
       <c r="B456">
-        <v>40.704856100000001</v>
+        <v>42.3545771</v>
       </c>
       <c r="C456">
-        <v>20.791373499999999</v>
+        <v>20.097271200000002</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -5396,10 +5396,10 @@
         <v>3</v>
       </c>
       <c r="B457">
-        <v>40.7049685</v>
+        <v>42.362324800000003</v>
       </c>
       <c r="C457">
-        <v>20.7914374</v>
+        <v>20.073018999999999</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -5407,10 +5407,10 @@
         <v>3</v>
       </c>
       <c r="B458">
-        <v>40.704788999999998</v>
+        <v>42.003361200000001</v>
       </c>
       <c r="C458">
-        <v>20.791447999999999</v>
+        <v>19.613809499999999</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -5418,10 +5418,10 @@
         <v>3</v>
       </c>
       <c r="B459">
-        <v>42.357349300000003</v>
+        <v>41.078218900000003</v>
       </c>
       <c r="C459">
-        <v>20.0740762</v>
+        <v>20.040419700000001</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -5429,10 +5429,10 @@
         <v>3</v>
       </c>
       <c r="B460">
-        <v>42.357340499999999</v>
+        <v>40.869424700000003</v>
       </c>
       <c r="C460">
-        <v>20.074083600000002</v>
+        <v>19.7829792</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -5440,10 +5440,10 @@
         <v>3</v>
       </c>
       <c r="B461">
-        <v>40.704794900000003</v>
+        <v>42.033742500000002</v>
       </c>
       <c r="C461">
-        <v>20.7913055</v>
+        <v>19.568710899999999</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -5451,10 +5451,10 @@
         <v>3</v>
       </c>
       <c r="B462">
-        <v>41.028359100000003</v>
+        <v>42.048942599999997</v>
       </c>
       <c r="C462">
-        <v>19.991171099999999</v>
+        <v>19.568131399999999</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -5462,10 +5462,10 @@
         <v>3</v>
       </c>
       <c r="B463">
-        <v>40.7044158</v>
+        <v>41.077992700000003</v>
       </c>
       <c r="C463">
-        <v>20.791806900000001</v>
+        <v>20.038893300000002</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -5473,10 +5473,10 @@
         <v>3</v>
       </c>
       <c r="B464">
-        <v>41.028087900000003</v>
+        <v>41.0768676</v>
       </c>
       <c r="C464">
-        <v>19.9908085</v>
+        <v>20.038896000000001</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -5484,10 +5484,10 @@
         <v>3</v>
       </c>
       <c r="B465">
-        <v>40.713635799999999</v>
+        <v>41.077204100000003</v>
       </c>
       <c r="C465">
-        <v>19.619978799999998</v>
+        <v>20.0395121</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -5495,10 +5495,10 @@
         <v>3</v>
       </c>
       <c r="B466">
-        <v>40.713635600000003</v>
+        <v>40.958093900000001</v>
       </c>
       <c r="C466">
-        <v>19.619980099999999</v>
+        <v>20.004059900000001</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -5506,10 +5506,10 @@
         <v>3</v>
       </c>
       <c r="B467">
-        <v>40.713628900000003</v>
+        <v>41.921295299999997</v>
       </c>
       <c r="C467">
-        <v>19.619981899999999</v>
+        <v>19.600906299999998</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -5517,10 +5517,10 @@
         <v>3</v>
       </c>
       <c r="B468">
-        <v>40.713571999999999</v>
+        <v>41.879133899999999</v>
       </c>
       <c r="C468">
-        <v>19.620115500000001</v>
+        <v>19.6379625</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -5528,10 +5528,10 @@
         <v>3</v>
       </c>
       <c r="B469">
-        <v>40.706701799999998</v>
+        <v>42.007016299999997</v>
       </c>
       <c r="C469">
-        <v>19.619714800000001</v>
+        <v>19.6378035</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -5539,10 +5539,10 @@
         <v>3</v>
       </c>
       <c r="B470">
-        <v>40.706772299999997</v>
+        <v>40.814023800000001</v>
       </c>
       <c r="C470">
-        <v>19.6196372</v>
+        <v>19.647484200000001</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -5550,10 +5550,10 @@
         <v>3</v>
       </c>
       <c r="B471">
-        <v>40.706692400000001</v>
+        <v>40.473118300000003</v>
       </c>
       <c r="C471">
-        <v>19.619727300000001</v>
+        <v>19.585835800000002</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -5561,10 +5561,10 @@
         <v>3</v>
       </c>
       <c r="B472">
-        <v>40.7068023</v>
+        <v>40.473109600000001</v>
       </c>
       <c r="C472">
-        <v>19.619588400000001</v>
+        <v>19.585835899999999</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -5572,10 +5572,10 @@
         <v>3</v>
       </c>
       <c r="B473">
-        <v>42.362310999999998</v>
+        <v>40.473110800000001</v>
       </c>
       <c r="C473">
-        <v>20.0729486</v>
+        <v>19.585873200000002</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="B474">
-        <v>42.362290199999997</v>
+        <v>40.473167500000002</v>
       </c>
       <c r="C474">
-        <v>20.0729188</v>
+        <v>19.585747999999999</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -5594,10 +5594,10 @@
         <v>3</v>
       </c>
       <c r="B475">
-        <v>42.362548599999997</v>
+        <v>39.708763400000002</v>
       </c>
       <c r="C475">
-        <v>20.0736709</v>
+        <v>20.077130499999999</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -5605,10 +5605,10 @@
         <v>3</v>
       </c>
       <c r="B476">
-        <v>42.362232400000003</v>
+        <v>39.7247524</v>
       </c>
       <c r="C476">
-        <v>20.072844199999999</v>
+        <v>20.0605984</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -5616,10 +5616,10 @@
         <v>3</v>
       </c>
       <c r="B477">
-        <v>40.123410100000001</v>
+        <v>40.712713800000003</v>
       </c>
       <c r="C477">
-        <v>20.1118554</v>
+        <v>19.920248699999998</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -5627,10 +5627,10 @@
         <v>3</v>
       </c>
       <c r="B478">
-        <v>40.122214700000001</v>
+        <v>40.830768900000002</v>
       </c>
       <c r="C478">
-        <v>20.105774400000001</v>
+        <v>19.914750099999999</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -5638,10 +5638,10 @@
         <v>3</v>
       </c>
       <c r="B479">
-        <v>40.122556799999998</v>
+        <v>42.362548599999997</v>
       </c>
       <c r="C479">
-        <v>20.110113599999998</v>
+        <v>20.0736709</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -5649,10 +5649,10 @@
         <v>3</v>
       </c>
       <c r="B480">
-        <v>40.122549499999998</v>
+        <v>42.163769799999997</v>
       </c>
       <c r="C480">
-        <v>20.110094199999999</v>
+        <v>19.4654448</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -5660,10 +5660,10 @@
         <v>3</v>
       </c>
       <c r="B481">
-        <v>40.122547599999997</v>
+        <v>40.085411999999998</v>
       </c>
       <c r="C481">
-        <v>20.1100882</v>
+        <v>20.142689300000001</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -5671,10 +5671,10 @@
         <v>3</v>
       </c>
       <c r="B482">
-        <v>40.701578300000001</v>
+        <v>40.085411999999998</v>
       </c>
       <c r="C482">
-        <v>19.617272</v>
+        <v>20.142689300000001</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -5682,10 +5682,10 @@
         <v>3</v>
       </c>
       <c r="B483">
-        <v>40.701530200000001</v>
+        <v>41.977942400000003</v>
       </c>
       <c r="C483">
-        <v>19.617308300000001</v>
+        <v>19.6300211</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -5693,10 +5693,10 @@
         <v>3</v>
       </c>
       <c r="B484">
-        <v>40.707910900000002</v>
+        <v>40.713628900000003</v>
       </c>
       <c r="C484">
-        <v>19.639635800000001</v>
+        <v>19.619981899999999</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -5704,10 +5704,10 @@
         <v>3</v>
       </c>
       <c r="B485">
-        <v>40.707915800000002</v>
+        <v>40.713571999999999</v>
       </c>
       <c r="C485">
-        <v>19.6395126</v>
+        <v>19.620115500000001</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -5715,10 +5715,10 @@
         <v>3</v>
       </c>
       <c r="B486">
-        <v>40.707695800000003</v>
+        <v>41.697348599999998</v>
       </c>
       <c r="C486">
-        <v>19.639659000000002</v>
+        <v>20.3652677</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -5726,10 +5726,10 @@
         <v>3</v>
       </c>
       <c r="B487">
-        <v>40.706020799999997</v>
+        <v>39.724788699999998</v>
       </c>
       <c r="C487">
-        <v>19.639999100000001</v>
+        <v>20.060086500000001</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -5737,10 +5737,10 @@
         <v>3</v>
       </c>
       <c r="B488">
-        <v>40.1240138</v>
+        <v>40.726563599999999</v>
       </c>
       <c r="C488">
-        <v>20.1357748</v>
+        <v>19.918086200000001</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -5748,10 +5748,10 @@
         <v>3</v>
       </c>
       <c r="B489">
-        <v>40.699875400000003</v>
+        <v>40.992775199999997</v>
       </c>
       <c r="C489">
-        <v>19.6101435</v>
+        <v>20.009053399999999</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -5759,10 +5759,10 @@
         <v>3</v>
       </c>
       <c r="B490">
-        <v>40.700781900000003</v>
+        <v>40.751182999999997</v>
       </c>
       <c r="C490">
-        <v>19.612272000000001</v>
+        <v>19.738675400000002</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -5770,10 +5770,10 @@
         <v>3</v>
       </c>
       <c r="B491">
-        <v>40.719981300000001</v>
+        <v>40.751170500000001</v>
       </c>
       <c r="C491">
-        <v>19.6205645</v>
+        <v>19.7386877</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -5781,10 +5781,10 @@
         <v>3</v>
       </c>
       <c r="B492">
-        <v>40.721211199999999</v>
+        <v>40.792593199999999</v>
       </c>
       <c r="C492">
-        <v>19.621170599999999</v>
+        <v>19.680744900000001</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -5792,10 +5792,10 @@
         <v>3</v>
       </c>
       <c r="B493">
-        <v>40.723165199999997</v>
+        <v>40.812759700000001</v>
       </c>
       <c r="C493">
-        <v>19.621562600000001</v>
+        <v>19.6488929</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="B494">
-        <v>42.163769799999997</v>
+        <v>40.81344</v>
       </c>
       <c r="C494">
-        <v>19.4654448</v>
+        <v>19.648582399999999</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -5814,10 +5814,10 @@
         <v>3</v>
       </c>
       <c r="B495">
-        <v>40.723148199999997</v>
+        <v>40.872273999999997</v>
       </c>
       <c r="C495">
-        <v>19.6215419</v>
+        <v>19.7844531</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -5825,10 +5825,10 @@
         <v>3</v>
       </c>
       <c r="B496">
-        <v>40.085417300000003</v>
+        <v>40.473079800000001</v>
       </c>
       <c r="C496">
-        <v>20.1426938</v>
+        <v>19.5857904</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -5836,10 +5836,10 @@
         <v>3</v>
       </c>
       <c r="B497">
-        <v>40.085411999999998</v>
+        <v>40.7097604</v>
       </c>
       <c r="C497">
-        <v>20.142689300000001</v>
+        <v>19.9223955</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -5847,10 +5847,10 @@
         <v>3</v>
       </c>
       <c r="B498">
-        <v>40.085411999999998</v>
+        <v>40.833481800000001</v>
       </c>
       <c r="C498">
-        <v>20.142689300000001</v>
+        <v>19.905455100000001</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -5858,10 +5858,10 @@
         <v>3</v>
       </c>
       <c r="B499">
-        <v>40.085411999999998</v>
+        <v>41.028087900000003</v>
       </c>
       <c r="C499">
-        <v>20.142689300000001</v>
+        <v>19.9908085</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -5869,10 +5869,10 @@
         <v>3</v>
       </c>
       <c r="B500">
-        <v>40.0803966</v>
+        <v>40.751189599999996</v>
       </c>
       <c r="C500">
-        <v>20.138464599999999</v>
+        <v>19.738838399999999</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -5880,10 +5880,10 @@
         <v>3</v>
       </c>
       <c r="B501">
-        <v>40.971039699999999</v>
+        <v>40.791645199999998</v>
       </c>
       <c r="C501">
-        <v>20.004928100000001</v>
+        <v>19.880710100000002</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -5891,10 +5891,10 @@
         <v>3</v>
       </c>
       <c r="B502">
-        <v>40.983379999999997</v>
+        <v>41.015389999999996</v>
       </c>
       <c r="C502">
-        <v>20.0097433</v>
+        <v>20.0045033</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -5902,10 +5902,10 @@
         <v>3</v>
       </c>
       <c r="B503">
-        <v>41.003016700000003</v>
+        <v>40.833284999999997</v>
       </c>
       <c r="C503">
-        <v>20.017828099999999</v>
+        <v>19.9020449</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -5913,10 +5913,10 @@
         <v>3</v>
       </c>
       <c r="B504">
-        <v>41.015389999999996</v>
+        <v>41.077751599999999</v>
       </c>
       <c r="C504">
-        <v>20.0045033</v>
+        <v>20.039908</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -5924,10 +5924,10 @@
         <v>3</v>
       </c>
       <c r="B505">
-        <v>40.125408999999998</v>
+        <v>42.006993299999998</v>
       </c>
       <c r="C505">
-        <v>20.136428299999999</v>
+        <v>19.6379242</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -5935,10 +5935,10 @@
         <v>3</v>
       </c>
       <c r="B506">
-        <v>40.125190500000002</v>
+        <v>40.8335103</v>
       </c>
       <c r="C506">
-        <v>20.136147699999999</v>
+        <v>19.905443500000001</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -5946,10 +5946,10 @@
         <v>3</v>
       </c>
       <c r="B507">
-        <v>40.125254699999999</v>
+        <v>40.704670399999998</v>
       </c>
       <c r="C507">
-        <v>20.136188700000002</v>
+        <v>19.619252100000001</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -5957,10 +5957,10 @@
         <v>3</v>
       </c>
       <c r="B508">
-        <v>40.125625300000003</v>
+        <v>40.751467699999999</v>
       </c>
       <c r="C508">
-        <v>20.136190599999999</v>
+        <v>19.738703900000001</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -5968,10 +5968,10 @@
         <v>3</v>
       </c>
       <c r="B509">
-        <v>40.1256561</v>
+        <v>40.704609599999998</v>
       </c>
       <c r="C509">
-        <v>20.136201199999999</v>
+        <v>19.6190915</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -5979,10 +5979,10 @@
         <v>3</v>
       </c>
       <c r="B510">
-        <v>40.847952599999999</v>
+        <v>40.7512276</v>
       </c>
       <c r="C510">
-        <v>19.6384829</v>
+        <v>19.7387798</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -5990,10 +5990,10 @@
         <v>3</v>
       </c>
       <c r="B511">
-        <v>40.858810900000002</v>
+        <v>40.7506129</v>
       </c>
       <c r="C511">
-        <v>19.6468189</v>
+        <v>19.735813199999999</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -6001,10 +6001,10 @@
         <v>3</v>
       </c>
       <c r="B512">
-        <v>40.146357500000001</v>
+        <v>40.800268000000003</v>
       </c>
       <c r="C512">
-        <v>20.0885335</v>
+        <v>19.677620999999998</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -6012,10 +6012,10 @@
         <v>3</v>
       </c>
       <c r="B513">
-        <v>40.145546199999998</v>
+        <v>40.812794699999998</v>
       </c>
       <c r="C513">
-        <v>20.089397000000002</v>
+        <v>19.6491054</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="B514">
-        <v>40.141613</v>
+        <v>40.813196699999999</v>
       </c>
       <c r="C514">
-        <v>20.088227100000001</v>
+        <v>19.649304099999998</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -6034,10 +6034,10 @@
         <v>3</v>
       </c>
       <c r="B515">
-        <v>40.1443029</v>
+        <v>40.789669500000002</v>
       </c>
       <c r="C515">
-        <v>20.088320499999998</v>
+        <v>19.8810368</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -6045,10 +6045,10 @@
         <v>3</v>
       </c>
       <c r="B516">
-        <v>40.144500399999998</v>
+        <v>40.473116699999999</v>
       </c>
       <c r="C516">
-        <v>20.089192499999999</v>
+        <v>19.585831599999999</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -6056,10 +6056,10 @@
         <v>3</v>
       </c>
       <c r="B517">
-        <v>40.146357000000002</v>
+        <v>40.830765300000003</v>
       </c>
       <c r="C517">
-        <v>20.0885183</v>
+        <v>19.914642099999998</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -6067,10 +6067,10 @@
         <v>3</v>
       </c>
       <c r="B518">
-        <v>40.145260700000001</v>
+        <v>40.123410100000001</v>
       </c>
       <c r="C518">
-        <v>20.0883352</v>
+        <v>20.1118554</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -6078,10 +6078,10 @@
         <v>3</v>
       </c>
       <c r="B519">
-        <v>40.832867899999997</v>
+        <v>40.122214700000001</v>
       </c>
       <c r="C519">
-        <v>19.5192318</v>
+        <v>20.105774400000001</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -6089,10 +6089,10 @@
         <v>3</v>
       </c>
       <c r="B520">
-        <v>40.984084799999998</v>
+        <v>41.997448200000001</v>
       </c>
       <c r="C520">
-        <v>20.010112599999999</v>
+        <v>19.549888800000002</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -6100,10 +6100,10 @@
         <v>3</v>
       </c>
       <c r="B521">
-        <v>40.968437899999998</v>
+        <v>41.074863299999997</v>
       </c>
       <c r="C521">
-        <v>20.004564200000001</v>
+        <v>20.0440881</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -6111,10 +6111,10 @@
         <v>3</v>
       </c>
       <c r="B522">
-        <v>40.958093900000001</v>
+        <v>41.075422500000002</v>
       </c>
       <c r="C522">
-        <v>20.004059900000001</v>
+        <v>20.0454416</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -6122,10 +6122,10 @@
         <v>3</v>
       </c>
       <c r="B523">
-        <v>40.8251633</v>
+        <v>40.704571000000001</v>
       </c>
       <c r="C523">
-        <v>19.501712900000001</v>
+        <v>19.619212999999998</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -6133,10 +6133,10 @@
         <v>3</v>
       </c>
       <c r="B524">
-        <v>40.825159300000003</v>
+        <v>42.3625051</v>
       </c>
       <c r="C524">
-        <v>19.501710500000002</v>
+        <v>20.072873000000001</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -6144,10 +6144,10 @@
         <v>3</v>
       </c>
       <c r="B525">
-        <v>40.819353700000001</v>
+        <v>40.750646699999997</v>
       </c>
       <c r="C525">
-        <v>19.501025800000001</v>
+        <v>19.735970200000001</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -6155,10 +6155,10 @@
         <v>3</v>
       </c>
       <c r="B526">
-        <v>40.816021599999999</v>
+        <v>40.7513498</v>
       </c>
       <c r="C526">
-        <v>19.5005454</v>
+        <v>19.738493299999998</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -6166,10 +6166,10 @@
         <v>3</v>
       </c>
       <c r="B527">
-        <v>40.816017700000003</v>
+        <v>40.833230299999997</v>
       </c>
       <c r="C527">
-        <v>19.500545200000001</v>
+        <v>19.899614499999998</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -6177,10 +6177,10 @@
         <v>3</v>
       </c>
       <c r="B528">
-        <v>40.816024499999997</v>
+        <v>40.706903599999997</v>
       </c>
       <c r="C528">
-        <v>19.5004867</v>
+        <v>19.6428406</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -6188,10 +6188,10 @@
         <v>3</v>
       </c>
       <c r="B529">
-        <v>40.815624300000003</v>
+        <v>40.726554700000001</v>
       </c>
       <c r="C529">
-        <v>19.500920399999998</v>
+        <v>19.918095600000001</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -6199,10 +6199,10 @@
         <v>3</v>
       </c>
       <c r="B530">
-        <v>40.816299399999998</v>
+        <v>42.357340499999999</v>
       </c>
       <c r="C530">
-        <v>19.5016237</v>
+        <v>20.074083600000002</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -6210,10 +6210,10 @@
         <v>3</v>
       </c>
       <c r="B531">
-        <v>40.815844400000003</v>
+        <v>41.028359100000003</v>
       </c>
       <c r="C531">
-        <v>19.499451499999999</v>
+        <v>19.991171099999999</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -6221,10 +6221,10 @@
         <v>3</v>
       </c>
       <c r="B532">
-        <v>40.816145400000003</v>
+        <v>42.048980499999999</v>
       </c>
       <c r="C532">
-        <v>19.4993044</v>
+        <v>19.568137700000001</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -6232,10 +6232,10 @@
         <v>3</v>
       </c>
       <c r="B533">
-        <v>40.816376900000002</v>
+        <v>40.751299600000003</v>
       </c>
       <c r="C533">
-        <v>19.499282099999999</v>
+        <v>19.738922200000001</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="B534">
-        <v>40.816374099999997</v>
+        <v>40.813052599999999</v>
       </c>
       <c r="C534">
-        <v>19.499950599999998</v>
+        <v>19.648142199999999</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -6254,10 +6254,10 @@
         <v>3</v>
       </c>
       <c r="B535">
-        <v>40.145259699999997</v>
+        <v>40.703667000000003</v>
       </c>
       <c r="C535">
-        <v>20.0883316</v>
+        <v>19.618985299999999</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -6265,10 +6265,10 @@
         <v>3</v>
       </c>
       <c r="B536">
-        <v>41.024334899999999</v>
+        <v>40.7511966</v>
       </c>
       <c r="C536">
-        <v>19.990079000000001</v>
+        <v>19.738007400000001</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -6276,10 +6276,10 @@
         <v>3</v>
       </c>
       <c r="B537">
-        <v>40.992705899999997</v>
+        <v>40.751420600000003</v>
       </c>
       <c r="C537">
-        <v>20.008908900000002</v>
+        <v>19.738665600000001</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -6287,10 +6287,10 @@
         <v>3</v>
       </c>
       <c r="B538">
-        <v>40.993041300000002</v>
+        <v>40.703612100000001</v>
       </c>
       <c r="C538">
-        <v>20.009329900000001</v>
+        <v>19.619135199999999</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -6298,10 +6298,10 @@
         <v>3</v>
       </c>
       <c r="B539">
-        <v>40.992775199999997</v>
+        <v>40.814300000000003</v>
       </c>
       <c r="C539">
-        <v>20.009053399999999</v>
+        <v>19.647061000000001</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -6309,10 +6309,10 @@
         <v>3</v>
       </c>
       <c r="B540">
-        <v>40.992753100000002</v>
+        <v>40.7345404</v>
       </c>
       <c r="C540">
-        <v>20.008929500000001</v>
+        <v>19.950590500000001</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -6320,10 +6320,10 @@
         <v>3</v>
       </c>
       <c r="B541">
-        <v>41.697348599999998</v>
+        <v>40.732839200000001</v>
       </c>
       <c r="C541">
-        <v>20.3652677</v>
+        <v>19.951719700000002</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -6331,10 +6331,10 @@
         <v>3</v>
       </c>
       <c r="B542">
-        <v>41.6974752</v>
+        <v>40.719557299999998</v>
       </c>
       <c r="C542">
-        <v>20.365712200000001</v>
+        <v>19.929417300000001</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -6342,10 +6342,10 @@
         <v>3</v>
       </c>
       <c r="B543">
-        <v>41.697344899999997</v>
+        <v>40.831297599999999</v>
       </c>
       <c r="C543">
-        <v>20.3652804</v>
+        <v>19.914582800000002</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -6353,10 +6353,10 @@
         <v>3</v>
       </c>
       <c r="B544">
-        <v>41.028320399999998</v>
+        <v>40.145260700000001</v>
       </c>
       <c r="C544">
-        <v>19.991267400000002</v>
+        <v>20.0883352</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -6364,10 +6364,10 @@
         <v>3</v>
       </c>
       <c r="B545">
-        <v>41.6494499</v>
+        <v>41.960837699999999</v>
       </c>
       <c r="C545">
-        <v>20.457481600000001</v>
+        <v>19.6368799</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -6375,10 +6375,10 @@
         <v>3</v>
       </c>
       <c r="B546">
-        <v>41.6494097</v>
+        <v>42.006983400000003</v>
       </c>
       <c r="C546">
-        <v>20.457399500000001</v>
+        <v>19.637996999999999</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -6386,10 +6386,10 @@
         <v>3</v>
       </c>
       <c r="B547">
-        <v>41.6560354</v>
+        <v>40.473161300000001</v>
       </c>
       <c r="C547">
-        <v>20.434201300000002</v>
+        <v>19.585716300000001</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -6397,10 +6397,10 @@
         <v>3</v>
       </c>
       <c r="B548">
-        <v>41.608505999999998</v>
+        <v>40.793119599999997</v>
       </c>
       <c r="C548">
-        <v>20.470987600000001</v>
+        <v>19.8805601</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -6408,10 +6408,10 @@
         <v>3</v>
       </c>
       <c r="B549">
-        <v>41.654359100000001</v>
+        <v>40.789907700000001</v>
       </c>
       <c r="C549">
-        <v>20.436582000000001</v>
+        <v>19.880623700000001</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -6419,10 +6419,10 @@
         <v>3</v>
       </c>
       <c r="B550">
-        <v>41.654448299999999</v>
+        <v>39.707712100000002</v>
       </c>
       <c r="C550">
-        <v>20.43609</v>
+        <v>20.0789756</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -6430,10 +6430,10 @@
         <v>3</v>
       </c>
       <c r="B551">
-        <v>41.654629999999997</v>
+        <v>41.063969999999998</v>
       </c>
       <c r="C551">
-        <v>20.435296699999999</v>
+        <v>20.052781700000001</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -6441,10 +6441,10 @@
         <v>3</v>
       </c>
       <c r="B552">
-        <v>41.654047800000001</v>
+        <v>41.047287599999997</v>
       </c>
       <c r="C552">
-        <v>20.4345228</v>
+        <v>20.041661399999999</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -6452,10 +6452,10 @@
         <v>3</v>
       </c>
       <c r="B553">
-        <v>41.654052999999998</v>
+        <v>41.077283600000001</v>
       </c>
       <c r="C553">
-        <v>20.434523800000001</v>
+        <v>20.039661800000001</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -6463,10 +6463,10 @@
         <v>3</v>
       </c>
       <c r="B554">
-        <v>41.613504399999997</v>
+        <v>41.047779499999997</v>
       </c>
       <c r="C554">
-        <v>20.4782586</v>
+        <v>20.042402899999999</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -6474,10 +6474,10 @@
         <v>3</v>
       </c>
       <c r="B555">
-        <v>41.5688575</v>
+        <v>41.047760400000001</v>
       </c>
       <c r="C555">
-        <v>20.4444029</v>
+        <v>20.042171199999999</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -6485,10 +6485,10 @@
         <v>3</v>
       </c>
       <c r="B556">
-        <v>41.588593500000002</v>
+        <v>40.704149100000002</v>
       </c>
       <c r="C556">
-        <v>20.485208</v>
+        <v>19.6191657</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -6496,10 +6496,10 @@
         <v>3</v>
       </c>
       <c r="B557">
-        <v>40.833285699999998</v>
+        <v>40.704189800000002</v>
       </c>
       <c r="C557">
-        <v>19.9020586</v>
+        <v>19.619152199999998</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -6507,10 +6507,10 @@
         <v>3</v>
       </c>
       <c r="B558">
-        <v>40.833284999999997</v>
+        <v>40.799382899999998</v>
       </c>
       <c r="C558">
-        <v>19.9020449</v>
+        <v>19.677555699999999</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -6518,10 +6518,10 @@
         <v>3</v>
       </c>
       <c r="B559">
-        <v>41.0583569</v>
+        <v>40.812769600000003</v>
       </c>
       <c r="C559">
-        <v>20.041430099999999</v>
+        <v>19.6489549</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -6529,10 +6529,10 @@
         <v>3</v>
       </c>
       <c r="B560">
-        <v>41.053278300000002</v>
+        <v>40.869138</v>
       </c>
       <c r="C560">
-        <v>20.0521733</v>
+        <v>19.783284099999999</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -6540,10 +6540,10 @@
         <v>3</v>
       </c>
       <c r="B561">
-        <v>41.046672100000002</v>
+        <v>40.8691411</v>
       </c>
       <c r="C561">
-        <v>20.030432399999999</v>
+        <v>19.7828564</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -6551,10 +6551,10 @@
         <v>3</v>
       </c>
       <c r="B562">
-        <v>41.048037000000001</v>
+        <v>40.782726099999998</v>
       </c>
       <c r="C562">
-        <v>20.027214399999998</v>
+        <v>19.846120299999999</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -6562,10 +6562,10 @@
         <v>3</v>
       </c>
       <c r="B563">
-        <v>41.047044200000002</v>
+        <v>40.833263700000003</v>
       </c>
       <c r="C563">
-        <v>20.028777399999999</v>
+        <v>19.8994994</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -6573,10 +6573,10 @@
         <v>3</v>
       </c>
       <c r="B564">
-        <v>41.0474107</v>
+        <v>40.497632199999998</v>
       </c>
       <c r="C564">
-        <v>20.028795899999999</v>
+        <v>19.5034046</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="B565">
-        <v>41.067193400000001</v>
+        <v>40.5368244</v>
       </c>
       <c r="C565">
-        <v>20.052333099999998</v>
+        <v>19.5338207</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -6595,10 +6595,10 @@
         <v>3</v>
       </c>
       <c r="B566">
-        <v>41.052767099999997</v>
+        <v>40.473130300000001</v>
       </c>
       <c r="C566">
-        <v>20.051650599999999</v>
+        <v>19.585894100000001</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -6606,10 +6606,10 @@
         <v>3</v>
       </c>
       <c r="B567">
-        <v>41.037975500000002</v>
+        <v>40.473141599999998</v>
       </c>
       <c r="C567">
-        <v>20.012066799999999</v>
+        <v>19.585715</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -6617,10 +6617,10 @@
         <v>3</v>
       </c>
       <c r="B568">
-        <v>41.046809400000001</v>
+        <v>40.473178900000001</v>
       </c>
       <c r="C568">
-        <v>20.0292767</v>
+        <v>19.5857241</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -6628,10 +6628,10 @@
         <v>3</v>
       </c>
       <c r="B569">
-        <v>41.046804199999997</v>
+        <v>40.473168100000002</v>
       </c>
       <c r="C569">
-        <v>20.0292356</v>
+        <v>19.5856186</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -6639,10 +6639,10 @@
         <v>3</v>
       </c>
       <c r="B570">
-        <v>41.047955600000002</v>
+        <v>39.707901</v>
       </c>
       <c r="C570">
-        <v>20.027138000000001</v>
+        <v>20.079008600000002</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -6650,10 +6650,10 @@
         <v>3</v>
       </c>
       <c r="B571">
-        <v>41.047182499999998</v>
+        <v>42.354520000000001</v>
       </c>
       <c r="C571">
-        <v>20.027951099999999</v>
+        <v>20.09741</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -6661,10 +6661,10 @@
         <v>3</v>
       </c>
       <c r="B572">
-        <v>41.063969999999998</v>
+        <v>40.712850500000002</v>
       </c>
       <c r="C572">
-        <v>20.052781700000001</v>
+        <v>19.919983899999998</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -6672,10 +6672,10 @@
         <v>3</v>
       </c>
       <c r="B573">
-        <v>42.003242399999998</v>
+        <v>40.834567</v>
       </c>
       <c r="C573">
-        <v>19.613809100000001</v>
+        <v>19.905859599999999</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -6683,10 +6683,10 @@
         <v>3</v>
       </c>
       <c r="B574">
-        <v>42.003361200000001</v>
+        <v>40.834671499999999</v>
       </c>
       <c r="C574">
-        <v>19.613809499999999</v>
+        <v>19.905972599999998</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -6694,10 +6694,10 @@
         <v>3</v>
       </c>
       <c r="B575">
-        <v>42.003288699999999</v>
+        <v>40.833434599999997</v>
       </c>
       <c r="C575">
-        <v>19.613859699999999</v>
+        <v>19.905183699999998</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -6705,10 +6705,10 @@
         <v>3</v>
       </c>
       <c r="B576">
-        <v>42.006986099999999</v>
+        <v>40.719580399999998</v>
       </c>
       <c r="C576">
-        <v>19.6378609</v>
+        <v>19.929424300000001</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -6716,10 +6716,10 @@
         <v>3</v>
       </c>
       <c r="B577">
-        <v>42.007011400000003</v>
+        <v>40.831157099999999</v>
       </c>
       <c r="C577">
-        <v>19.637915899999999</v>
+        <v>19.9144322</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -6727,10 +6727,10 @@
         <v>3</v>
       </c>
       <c r="B578">
-        <v>42.007016299999997</v>
+        <v>40.831096199999998</v>
       </c>
       <c r="C578">
-        <v>19.6378035</v>
+        <v>19.914892399999999</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -6738,10 +6738,10 @@
         <v>3</v>
       </c>
       <c r="B579">
-        <v>41.997470800000002</v>
+        <v>40.704856100000001</v>
       </c>
       <c r="C579">
-        <v>19.549841600000001</v>
+        <v>20.791373499999999</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -6749,10 +6749,10 @@
         <v>3</v>
       </c>
       <c r="B580">
-        <v>41.997435000000003</v>
+        <v>42.048915200000003</v>
       </c>
       <c r="C580">
-        <v>19.5499048</v>
+        <v>19.568248799999999</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -6760,10 +6760,10 @@
         <v>3</v>
       </c>
       <c r="B581">
-        <v>41.997448200000001</v>
+        <v>40.081661699999998</v>
       </c>
       <c r="C581">
-        <v>19.549888800000002</v>
+        <v>20.141024900000001</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -6771,10 +6771,10 @@
         <v>3</v>
       </c>
       <c r="B582">
-        <v>41.997463400000001</v>
+        <v>41.977525200000002</v>
       </c>
       <c r="C582">
-        <v>19.549926500000002</v>
+        <v>19.628163799999999</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -6782,10 +6782,10 @@
         <v>3</v>
       </c>
       <c r="B583">
-        <v>41.997457599999997</v>
+        <v>40.732927199999999</v>
       </c>
       <c r="C583">
-        <v>19.5498808</v>
+        <v>19.9516952</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -6793,10 +6793,10 @@
         <v>3</v>
       </c>
       <c r="B584">
-        <v>41.997348100000004</v>
+        <v>40.703585799999999</v>
       </c>
       <c r="C584">
-        <v>19.549879000000001</v>
+        <v>19.619163400000001</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -6804,10 +6804,10 @@
         <v>3</v>
       </c>
       <c r="B585">
-        <v>41.997391100000002</v>
+        <v>40.719628499999999</v>
       </c>
       <c r="C585">
-        <v>19.5498838</v>
+        <v>19.9293005</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -6815,10 +6815,10 @@
         <v>3</v>
       </c>
       <c r="B586">
-        <v>41.997440599999997</v>
+        <v>40.830769400000001</v>
       </c>
       <c r="C586">
-        <v>19.5498826</v>
+        <v>19.9147502</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -6826,10 +6826,10 @@
         <v>3</v>
       </c>
       <c r="B587">
-        <v>41.978000899999998</v>
+        <v>40.706701799999998</v>
       </c>
       <c r="C587">
-        <v>19.6299104</v>
+        <v>19.619714800000001</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -6837,10 +6837,10 @@
         <v>3</v>
       </c>
       <c r="B588">
-        <v>41.9780205</v>
+        <v>40.706772299999997</v>
       </c>
       <c r="C588">
-        <v>19.629951899999998</v>
+        <v>19.6196372</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -6848,10 +6848,10 @@
         <v>3</v>
       </c>
       <c r="B589">
-        <v>41.977950399999997</v>
+        <v>41.075205500000003</v>
       </c>
       <c r="C589">
-        <v>19.630051699999999</v>
+        <v>20.044734600000002</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -6859,10 +6859,10 @@
         <v>3</v>
       </c>
       <c r="B590">
-        <v>41.977942400000003</v>
+        <v>41.075346099999997</v>
       </c>
       <c r="C590">
-        <v>19.6300211</v>
+        <v>20.0453467</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -6870,10 +6870,10 @@
         <v>3</v>
       </c>
       <c r="B591">
-        <v>41.977897200000001</v>
+        <v>40.751280299999998</v>
       </c>
       <c r="C591">
-        <v>19.630003500000001</v>
+        <v>19.738207200000002</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -6881,10 +6881,10 @@
         <v>3</v>
       </c>
       <c r="B592">
-        <v>41.977890600000002</v>
+        <v>40.751190999999999</v>
       </c>
       <c r="C592">
-        <v>19.630082699999999</v>
+        <v>19.738693099999999</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -6892,10 +6892,10 @@
         <v>3</v>
       </c>
       <c r="B593">
-        <v>41.966019899999999</v>
+        <v>40.751172500000003</v>
       </c>
       <c r="C593">
-        <v>19.6371605</v>
+        <v>19.738686399999999</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -6903,10 +6903,10 @@
         <v>3</v>
       </c>
       <c r="B594">
-        <v>41.960501399999998</v>
+        <v>40.787739700000003</v>
       </c>
       <c r="C594">
-        <v>19.636326100000002</v>
+        <v>19.890906300000001</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -6914,10 +6914,10 @@
         <v>3</v>
       </c>
       <c r="B595">
-        <v>41.960837699999999</v>
+        <v>40.716326299999999</v>
       </c>
       <c r="C595">
-        <v>19.6368799</v>
+        <v>19.920121099999999</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -6925,10 +6925,10 @@
         <v>3</v>
       </c>
       <c r="B596">
-        <v>41.9610725</v>
+        <v>40.715945499999997</v>
       </c>
       <c r="C596">
-        <v>19.636762600000001</v>
+        <v>19.936401100000001</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -6936,10 +6936,10 @@
         <v>3</v>
       </c>
       <c r="B597">
-        <v>41.960927499999997</v>
+        <v>40.706903599999997</v>
       </c>
       <c r="C597">
-        <v>19.636730700000001</v>
+        <v>19.6428406</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -6947,10 +6947,10 @@
         <v>3</v>
       </c>
       <c r="B598">
-        <v>41.977901099999997</v>
+        <v>40.7069276</v>
       </c>
       <c r="C598">
-        <v>19.630028200000002</v>
+        <v>19.642872400000002</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -6958,10 +6958,10 @@
         <v>3</v>
       </c>
       <c r="B599">
-        <v>41.977848100000003</v>
+        <v>40.831350700000002</v>
       </c>
       <c r="C599">
-        <v>19.6300536</v>
+        <v>19.9143708</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -6969,10 +6969,10 @@
         <v>3</v>
       </c>
       <c r="B600">
-        <v>41.0634637</v>
+        <v>40.146357000000002</v>
       </c>
       <c r="C600">
-        <v>19.976870600000002</v>
+        <v>20.0885183</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -6980,10 +6980,10 @@
         <v>3</v>
       </c>
       <c r="B601">
-        <v>41.063736900000002</v>
+        <v>40.984084799999998</v>
       </c>
       <c r="C601">
-        <v>19.976755600000001</v>
+        <v>20.010112599999999</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -6991,10 +6991,10 @@
         <v>3</v>
       </c>
       <c r="B602">
-        <v>41.063870600000001</v>
+        <v>40.871112699999998</v>
       </c>
       <c r="C602">
-        <v>19.976452900000002</v>
+        <v>19.783152999999999</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -7002,10 +7002,10 @@
         <v>3</v>
       </c>
       <c r="B603">
-        <v>41.066156399999997</v>
+        <v>40.732653800000001</v>
       </c>
       <c r="C603">
-        <v>19.978925700000001</v>
+        <v>19.9510702</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -7013,10 +7013,10 @@
         <v>3</v>
       </c>
       <c r="B604">
-        <v>41.066741700000001</v>
+        <v>40.833566300000001</v>
       </c>
       <c r="C604">
-        <v>19.977825800000002</v>
+        <v>19.905406899999999</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -7024,10 +7024,10 @@
         <v>3</v>
       </c>
       <c r="B605">
-        <v>41.065772199999998</v>
+        <v>40.704783300000003</v>
       </c>
       <c r="C605">
-        <v>19.978327</v>
+        <v>19.619214800000002</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -7035,10 +7035,10 @@
         <v>3</v>
       </c>
       <c r="B606">
-        <v>41.064894299999999</v>
+        <v>40.7505314</v>
       </c>
       <c r="C606">
-        <v>19.978616299999999</v>
+        <v>19.7357947</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -7046,10 +7046,10 @@
         <v>3</v>
       </c>
       <c r="B607">
-        <v>41.065923499999997</v>
+        <v>40.871076199999997</v>
       </c>
       <c r="C607">
-        <v>19.978878099999999</v>
+        <v>19.7829561</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -7057,10 +7057,10 @@
         <v>3</v>
       </c>
       <c r="B608">
-        <v>41.065883599999999</v>
+        <v>40.871468800000002</v>
       </c>
       <c r="C608">
-        <v>19.978474800000001</v>
+        <v>19.783245900000001</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -7068,10 +7068,10 @@
         <v>3</v>
       </c>
       <c r="B609">
-        <v>42.006983400000003</v>
+        <v>40.871464500000002</v>
       </c>
       <c r="C609">
-        <v>19.637996999999999</v>
+        <v>19.783217199999999</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -7079,10 +7079,10 @@
         <v>3</v>
       </c>
       <c r="B610">
-        <v>41.960529000000001</v>
+        <v>40.869686399999999</v>
       </c>
       <c r="C610">
-        <v>19.636325200000002</v>
+        <v>19.783105200000001</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -7090,10 +7090,10 @@
         <v>3</v>
       </c>
       <c r="B611">
-        <v>41.960741300000002</v>
+        <v>40.869193199999998</v>
       </c>
       <c r="C611">
-        <v>19.637025999999999</v>
+        <v>19.783314900000001</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -7101,10 +7101,10 @@
         <v>3</v>
       </c>
       <c r="B612">
-        <v>41.961001000000003</v>
+        <v>40.780792499999997</v>
       </c>
       <c r="C612">
-        <v>19.636742600000002</v>
+        <v>19.8458404</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -7112,10 +7112,10 @@
         <v>3</v>
       </c>
       <c r="B613">
-        <v>41.9610603</v>
+        <v>40.733013</v>
       </c>
       <c r="C613">
-        <v>19.6367856</v>
+        <v>19.951553499999999</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -7123,10 +7123,10 @@
         <v>3</v>
       </c>
       <c r="B614">
-        <v>41.977593900000002</v>
+        <v>40.733191099999999</v>
       </c>
       <c r="C614">
-        <v>19.628239799999999</v>
+        <v>19.951478300000002</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -7134,10 +7134,10 @@
         <v>3</v>
       </c>
       <c r="B615">
-        <v>41.977579400000003</v>
+        <v>40.7888181</v>
       </c>
       <c r="C615">
-        <v>19.628174900000001</v>
+        <v>19.885175499999999</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -7145,10 +7145,10 @@
         <v>3</v>
       </c>
       <c r="B616">
-        <v>41.977645699999997</v>
+        <v>40.833234599999997</v>
       </c>
       <c r="C616">
-        <v>19.628126200000001</v>
+        <v>19.899541899999999</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -7156,10 +7156,10 @@
         <v>3</v>
       </c>
       <c r="B617">
-        <v>41.977623800000003</v>
+        <v>40.793092000000001</v>
       </c>
       <c r="C617">
-        <v>19.628193199999998</v>
+        <v>19.880668799999999</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -7167,10 +7167,10 @@
         <v>3</v>
       </c>
       <c r="B618">
-        <v>41.977569799999998</v>
+        <v>40.790117000000002</v>
       </c>
       <c r="C618">
-        <v>19.628201099999998</v>
+        <v>19.880726899999999</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -7178,10 +7178,10 @@
         <v>3</v>
       </c>
       <c r="B619">
-        <v>41.977555799999998</v>
+        <v>42.361485600000002</v>
       </c>
       <c r="C619">
-        <v>19.6282277</v>
+        <v>20.076916300000001</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -7189,10 +7189,10 @@
         <v>3</v>
       </c>
       <c r="B620">
-        <v>41.977525200000002</v>
+        <v>40.719606499999998</v>
       </c>
       <c r="C620">
-        <v>19.628163799999999</v>
+        <v>19.929391500000001</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -7200,10 +7200,10 @@
         <v>3</v>
       </c>
       <c r="B621">
-        <v>41.977598800000003</v>
+        <v>40.8309292</v>
       </c>
       <c r="C621">
-        <v>19.628169499999998</v>
+        <v>19.915116999999999</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -7211,10 +7211,10 @@
         <v>3</v>
       </c>
       <c r="B622">
-        <v>41.062847400000003</v>
+        <v>40.832106899999999</v>
       </c>
       <c r="C622">
-        <v>19.989694499999999</v>
+        <v>19.9140172</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -7222,10 +7222,10 @@
         <v>3</v>
       </c>
       <c r="B623">
-        <v>41.066805700000003</v>
+        <v>41.075425500000001</v>
       </c>
       <c r="C623">
-        <v>19.982392000000001</v>
+        <v>20.045501000000002</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -7233,10 +7233,10 @@
         <v>3</v>
       </c>
       <c r="B624">
-        <v>41.069335000000002</v>
+        <v>40.704471499999997</v>
       </c>
       <c r="C624">
-        <v>19.984805000000001</v>
+        <v>19.619263400000001</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -7244,10 +7244,10 @@
         <v>3</v>
       </c>
       <c r="B625">
-        <v>41.069341999999999</v>
+        <v>40.751318699999999</v>
       </c>
       <c r="C625">
-        <v>19.984977300000001</v>
+        <v>19.738401700000001</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -7255,10 +7255,10 @@
         <v>3</v>
       </c>
       <c r="B626">
-        <v>41.0698966</v>
+        <v>40.782400500000001</v>
       </c>
       <c r="C626">
-        <v>19.985111199999999</v>
+        <v>19.846080400000002</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -7266,10 +7266,10 @@
         <v>3</v>
       </c>
       <c r="B627">
-        <v>41.0710658</v>
+        <v>40.704125400000002</v>
       </c>
       <c r="C627">
-        <v>19.985009600000001</v>
+        <v>19.619154300000002</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -7277,10 +7277,10 @@
         <v>3</v>
       </c>
       <c r="B628">
-        <v>42.048915200000003</v>
+        <v>40.705425499999997</v>
       </c>
       <c r="C628">
-        <v>19.568248799999999</v>
+        <v>19.619319699999998</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -7288,10 +7288,10 @@
         <v>3</v>
       </c>
       <c r="B629">
-        <v>42.048879900000003</v>
+        <v>40.869468500000004</v>
       </c>
       <c r="C629">
-        <v>19.5681832</v>
+        <v>19.783034700000002</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -7299,10 +7299,10 @@
         <v>3</v>
       </c>
       <c r="B630">
-        <v>42.033742500000002</v>
+        <v>40.7022032</v>
       </c>
       <c r="C630">
-        <v>19.568710899999999</v>
+        <v>19.6189903</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -7310,10 +7310,10 @@
         <v>3</v>
       </c>
       <c r="B631">
-        <v>42.048942599999997</v>
+        <v>40.704810999999999</v>
       </c>
       <c r="C631">
-        <v>19.568131399999999</v>
+        <v>19.619338899999999</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -7321,10 +7321,10 @@
         <v>3</v>
       </c>
       <c r="B632">
-        <v>42.048980499999999</v>
+        <v>40.704523600000002</v>
       </c>
       <c r="C632">
-        <v>19.568137700000001</v>
+        <v>19.619083100000001</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -7332,10 +7332,10 @@
         <v>3</v>
       </c>
       <c r="B633">
-        <v>42.033753400000002</v>
+        <v>40.782000600000003</v>
       </c>
       <c r="C633">
-        <v>19.568732600000001</v>
+        <v>19.846466800000002</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -7343,10 +7343,10 @@
         <v>3</v>
       </c>
       <c r="B634">
-        <v>42.027567699999999</v>
+        <v>40.733305600000001</v>
       </c>
       <c r="C634">
-        <v>19.548205200000002</v>
+        <v>19.951469899999999</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -7354,10 +7354,10 @@
         <v>3</v>
       </c>
       <c r="B635">
-        <v>42.027596099999997</v>
+        <v>40.732941099999998</v>
       </c>
       <c r="C635">
-        <v>19.548204399999999</v>
+        <v>19.9516831</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -7365,10 +7365,10 @@
         <v>3</v>
       </c>
       <c r="B636">
-        <v>42.028405399999997</v>
+        <v>41.074826899999998</v>
       </c>
       <c r="C636">
-        <v>19.548815999999999</v>
+        <v>20.0449196</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -7376,10 +7376,10 @@
         <v>3</v>
       </c>
       <c r="B637">
-        <v>41.047564899999998</v>
+        <v>41.072356499999998</v>
       </c>
       <c r="C637">
-        <v>20.042275100000001</v>
+        <v>20.040371700000001</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
@@ -7387,10 +7387,10 @@
         <v>3</v>
       </c>
       <c r="B638">
-        <v>41.047779499999997</v>
+        <v>41.074932799999999</v>
       </c>
       <c r="C638">
-        <v>20.042402899999999</v>
+        <v>20.044976500000001</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
@@ -7398,10 +7398,10 @@
         <v>3</v>
       </c>
       <c r="B639">
-        <v>41.072875500000002</v>
+        <v>40.782360599999997</v>
       </c>
       <c r="C639">
-        <v>20.041034799999998</v>
+        <v>19.846179500000002</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -7409,10 +7409,10 @@
         <v>3</v>
       </c>
       <c r="B640">
-        <v>41.074863299999997</v>
+        <v>40.751118599999998</v>
       </c>
       <c r="C640">
-        <v>20.0440881</v>
+        <v>19.736899399999999</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -7420,10 +7420,10 @@
         <v>3</v>
       </c>
       <c r="B641">
-        <v>41.075422500000002</v>
+        <v>40.733319299999998</v>
       </c>
       <c r="C641">
-        <v>20.0454416</v>
+        <v>19.951482299999999</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -7431,10 +7431,10 @@
         <v>3</v>
       </c>
       <c r="B642">
-        <v>41.075205500000003</v>
+        <v>40.789079600000001</v>
       </c>
       <c r="C642">
-        <v>20.044734600000002</v>
+        <v>19.8854723</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -7442,10 +7442,10 @@
         <v>3</v>
       </c>
       <c r="B643">
-        <v>41.074826899999998</v>
+        <v>40.7098473</v>
       </c>
       <c r="C643">
-        <v>20.0449196</v>
+        <v>19.922183700000001</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -7453,10 +7453,10 @@
         <v>3</v>
       </c>
       <c r="B644">
-        <v>41.047287599999997</v>
+        <v>40.7176027</v>
       </c>
       <c r="C644">
-        <v>20.041661399999999</v>
+        <v>19.928751299999998</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
@@ -7464,10 +7464,10 @@
         <v>3</v>
       </c>
       <c r="B645">
-        <v>41.047760400000001</v>
+        <v>40.719562000000003</v>
       </c>
       <c r="C645">
-        <v>20.042171199999999</v>
+        <v>19.929419800000002</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -7475,10 +7475,10 @@
         <v>3</v>
       </c>
       <c r="B646">
-        <v>41.072071700000002</v>
+        <v>40.719827299999999</v>
       </c>
       <c r="C646">
-        <v>20.041710699999999</v>
+        <v>19.929644700000001</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -7486,10 +7486,10 @@
         <v>3</v>
       </c>
       <c r="B647">
-        <v>41.072356499999998</v>
+        <v>40.871835799999999</v>
       </c>
       <c r="C647">
-        <v>20.040371700000001</v>
+        <v>19.7834355</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -7497,10 +7497,10 @@
         <v>3</v>
       </c>
       <c r="B648">
-        <v>41.075425500000001</v>
+        <v>40.833199800000003</v>
       </c>
       <c r="C648">
-        <v>20.045501000000002</v>
+        <v>19.899630399999999</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
@@ -7508,10 +7508,10 @@
         <v>3</v>
       </c>
       <c r="B649">
-        <v>41.075346099999997</v>
+        <v>40.791538600000003</v>
       </c>
       <c r="C649">
-        <v>20.0453467</v>
+        <v>19.880605800000001</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
@@ -7519,10 +7519,10 @@
         <v>3</v>
       </c>
       <c r="B650">
-        <v>41.074932799999999</v>
+        <v>40.751220500000002</v>
       </c>
       <c r="C650">
-        <v>20.044976500000001</v>
+        <v>19.7369381</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
@@ -7530,10 +7530,10 @@
         <v>3</v>
       </c>
       <c r="B651">
-        <v>41.078218900000003</v>
+        <v>40.751037400000001</v>
       </c>
       <c r="C651">
-        <v>20.040419700000001</v>
+        <v>19.738845300000001</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
@@ -7541,10 +7541,10 @@
         <v>3</v>
       </c>
       <c r="B652">
-        <v>41.077992700000003</v>
+        <v>40.733885000000001</v>
       </c>
       <c r="C652">
-        <v>20.038893300000002</v>
+        <v>19.952063599999999</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
@@ -7552,10 +7552,10 @@
         <v>3</v>
       </c>
       <c r="B653">
-        <v>41.077283600000001</v>
+        <v>40.704118700000002</v>
       </c>
       <c r="C653">
-        <v>20.039661800000001</v>
+        <v>19.619228199999998</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
@@ -7563,10 +7563,10 @@
         <v>3</v>
       </c>
       <c r="B654">
-        <v>41.077538199999999</v>
+        <v>40.704957999999998</v>
       </c>
       <c r="C654">
-        <v>20.040127900000002</v>
+        <v>19.619119999999999</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
@@ -7574,10 +7574,10 @@
         <v>3</v>
       </c>
       <c r="B655">
-        <v>41.0788777</v>
+        <v>40.704976000000002</v>
       </c>
       <c r="C655">
-        <v>20.039146299999999</v>
+        <v>19.619104</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
@@ -7585,10 +7585,10 @@
         <v>3</v>
       </c>
       <c r="B656">
-        <v>41.077751599999999</v>
+        <v>40.7036491</v>
       </c>
       <c r="C656">
-        <v>20.039908</v>
+        <v>19.618978899999998</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
@@ -7596,10 +7596,10 @@
         <v>3</v>
       </c>
       <c r="B657">
-        <v>41.0768676</v>
+        <v>40.704863600000003</v>
       </c>
       <c r="C657">
-        <v>20.038896000000001</v>
+        <v>19.619253199999999</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
@@ -7607,10 +7607,10 @@
         <v>3</v>
       </c>
       <c r="B658">
-        <v>41.077204100000003</v>
+        <v>40.705734999999997</v>
       </c>
       <c r="C658">
-        <v>20.0395121</v>
+        <v>19.619314200000002</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
@@ -7618,10 +7618,10 @@
         <v>3</v>
       </c>
       <c r="B659">
-        <v>41.077629700000003</v>
+        <v>40.751081200000002</v>
       </c>
       <c r="C659">
-        <v>20.040025199999999</v>
+        <v>19.738817300000001</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
@@ -7629,10 +7629,10 @@
         <v>3</v>
       </c>
       <c r="B660">
-        <v>41.078769000000001</v>
+        <v>40.800274700000003</v>
       </c>
       <c r="C660">
-        <v>20.038345899999999</v>
+        <v>19.677546700000001</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
@@ -7640,10 +7640,10 @@
         <v>3</v>
       </c>
       <c r="B661">
-        <v>42.027619700000002</v>
+        <v>40.792129600000003</v>
       </c>
       <c r="C661">
-        <v>19.548174299999999</v>
+        <v>19.6809233</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
@@ -7651,10 +7651,10 @@
         <v>3</v>
       </c>
       <c r="B662">
-        <v>42.027496599999999</v>
+        <v>40.7992445</v>
       </c>
       <c r="C662">
-        <v>19.548194500000001</v>
+        <v>19.677506300000001</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
@@ -7662,10 +7662,10 @@
         <v>3</v>
       </c>
       <c r="B663">
-        <v>42.0283807</v>
+        <v>40.813957600000002</v>
       </c>
       <c r="C663">
-        <v>19.548843000000002</v>
+        <v>19.6475692</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
@@ -7673,10 +7673,10 @@
         <v>3</v>
       </c>
       <c r="B664">
-        <v>42.040329300000003</v>
+        <v>40.8128083</v>
       </c>
       <c r="C664">
-        <v>19.5258304</v>
+        <v>19.649169000000001</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
@@ -7684,10 +7684,10 @@
         <v>3</v>
       </c>
       <c r="B665">
-        <v>42.039446900000002</v>
+        <v>40.8128703</v>
       </c>
       <c r="C665">
-        <v>19.5244815</v>
+        <v>19.6490656</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
@@ -7695,10 +7695,10 @@
         <v>3</v>
       </c>
       <c r="B666">
-        <v>42.040169800000001</v>
+        <v>40.8141064</v>
       </c>
       <c r="C666">
-        <v>19.5228927</v>
+        <v>19.647444</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
@@ -7706,10 +7706,10 @@
         <v>3</v>
       </c>
       <c r="B667">
-        <v>42.040343300000004</v>
+        <v>40.871474300000003</v>
       </c>
       <c r="C667">
-        <v>19.522110000000001</v>
+        <v>19.783778000000002</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
@@ -7717,10 +7717,10 @@
         <v>3</v>
       </c>
       <c r="B668">
-        <v>42.040287399999997</v>
+        <v>40.870344299999999</v>
       </c>
       <c r="C668">
-        <v>19.525865799999998</v>
+        <v>19.783258700000001</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
@@ -7728,10 +7728,10 @@
         <v>3</v>
       </c>
       <c r="B669">
-        <v>42.039496300000003</v>
+        <v>40.870428099999998</v>
       </c>
       <c r="C669">
-        <v>19.524458299999999</v>
+        <v>19.783260299999998</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
@@ -7739,10 +7739,10 @@
         <v>3</v>
       </c>
       <c r="B670">
-        <v>42.040169499999998</v>
+        <v>40.8720134</v>
       </c>
       <c r="C670">
-        <v>19.523026600000001</v>
+        <v>19.7832142</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
@@ -7750,10 +7750,10 @@
         <v>3</v>
       </c>
       <c r="B671">
-        <v>42.040445300000002</v>
+        <v>40.871400899999998</v>
       </c>
       <c r="C671">
-        <v>19.522058600000001</v>
+        <v>19.782747100000002</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
@@ -7761,10 +7761,10 @@
         <v>3</v>
       </c>
       <c r="B672">
-        <v>41.360628800000001</v>
+        <v>40.871583100000002</v>
       </c>
       <c r="C672">
-        <v>19.5641301</v>
+        <v>19.783349999999999</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
@@ -7772,10 +7772,901 @@
         <v>3</v>
       </c>
       <c r="B673">
-        <v>42.006993299999998</v>
+        <v>40.871504700000003</v>
       </c>
       <c r="C673">
-        <v>19.6379242</v>
+        <v>19.7832048</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B674">
+        <v>40.869821299999998</v>
+      </c>
+      <c r="C674">
+        <v>19.7831574</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B675">
+        <v>40.869734899999997</v>
+      </c>
+      <c r="C675">
+        <v>19.783295200000001</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B676">
+        <v>40.869276599999999</v>
+      </c>
+      <c r="C676">
+        <v>19.782949299999999</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B677">
+        <v>40.830548</v>
+      </c>
+      <c r="C677">
+        <v>19.9073438</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B678">
+        <v>40.782470400000001</v>
+      </c>
+      <c r="C678">
+        <v>19.845968500000001</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B679">
+        <v>40.782051500000001</v>
+      </c>
+      <c r="C679">
+        <v>19.846303200000001</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B680">
+        <v>40.780321899999997</v>
+      </c>
+      <c r="C680">
+        <v>19.844059900000001</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B681">
+        <v>40.782709699999998</v>
+      </c>
+      <c r="C681">
+        <v>19.846071200000001</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B682">
+        <v>40.782163599999997</v>
+      </c>
+      <c r="C682">
+        <v>19.8459675</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B683">
+        <v>40.782227499999998</v>
+      </c>
+      <c r="C683">
+        <v>19.8462967</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B684">
+        <v>40.780884899999997</v>
+      </c>
+      <c r="C684">
+        <v>19.845891099999999</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B685">
+        <v>40.733947100000002</v>
+      </c>
+      <c r="C685">
+        <v>19.9506865</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B686">
+        <v>40.733231799999999</v>
+      </c>
+      <c r="C686">
+        <v>19.951413800000001</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B687">
+        <v>40.833075899999997</v>
+      </c>
+      <c r="C687">
+        <v>19.899447800000001</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B688">
+        <v>40.787742299999998</v>
+      </c>
+      <c r="C688">
+        <v>19.891085400000001</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B689">
+        <v>40.793108699999998</v>
+      </c>
+      <c r="C689">
+        <v>19.880577800000001</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B690">
+        <v>40.791774599999997</v>
+      </c>
+      <c r="C690">
+        <v>19.880793300000001</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B691">
+        <v>40.791516399999999</v>
+      </c>
+      <c r="C691">
+        <v>19.880666600000001</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B692">
+        <v>40.789627500000002</v>
+      </c>
+      <c r="C692">
+        <v>19.881313200000001</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B693">
+        <v>40.789436000000002</v>
+      </c>
+      <c r="C693">
+        <v>19.8816652</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B694">
+        <v>40.716296900000003</v>
+      </c>
+      <c r="C694">
+        <v>19.920071</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B695">
+        <v>40.727244800000001</v>
+      </c>
+      <c r="C695">
+        <v>19.917643900000002</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B696">
+        <v>40.727240000000002</v>
+      </c>
+      <c r="C696">
+        <v>19.917599599999999</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B697">
+        <v>40.833536799999997</v>
+      </c>
+      <c r="C697">
+        <v>19.905182100000001</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B698">
+        <v>42.362232400000003</v>
+      </c>
+      <c r="C698">
+        <v>20.072844199999999</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B699">
+        <v>40.814226599999998</v>
+      </c>
+      <c r="C699">
+        <v>19.647311200000001</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B700">
+        <v>40.703691200000002</v>
+      </c>
+      <c r="C700">
+        <v>19.6190535</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B701">
+        <v>40.733415299999997</v>
+      </c>
+      <c r="C701">
+        <v>19.9512629</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B702">
+        <v>40.732599899999997</v>
+      </c>
+      <c r="C702">
+        <v>19.9510179</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B703">
+        <v>40.8335364</v>
+      </c>
+      <c r="C703">
+        <v>19.905429900000001</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B704">
+        <v>40.719831999999997</v>
+      </c>
+      <c r="C704">
+        <v>19.929725099999999</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B705">
+        <v>41.977901099999997</v>
+      </c>
+      <c r="C705">
+        <v>19.630028200000002</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B706">
+        <v>40.733367299999998</v>
+      </c>
+      <c r="C706">
+        <v>19.951059300000001</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B707">
+        <v>40.791510100000004</v>
+      </c>
+      <c r="C707">
+        <v>19.880604999999999</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B708">
+        <v>42.357396000000001</v>
+      </c>
+      <c r="C708">
+        <v>20.074011299999999</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B709">
+        <v>40.704489700000003</v>
+      </c>
+      <c r="C709">
+        <v>19.619166100000001</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B710">
+        <v>40.782972999999998</v>
+      </c>
+      <c r="C710">
+        <v>19.846183199999999</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B711">
+        <v>40.780359199999999</v>
+      </c>
+      <c r="C711">
+        <v>19.844028099999999</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B712">
+        <v>40.733176999999998</v>
+      </c>
+      <c r="C712">
+        <v>19.951240299999998</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B713">
+        <v>40.732582000000001</v>
+      </c>
+      <c r="C713">
+        <v>19.950976600000001</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B714">
+        <v>40.833088400000001</v>
+      </c>
+      <c r="C714">
+        <v>19.899494300000001</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B715">
+        <v>40.831402300000001</v>
+      </c>
+      <c r="C715">
+        <v>19.905214300000001</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B716">
+        <v>40.719552399999998</v>
+      </c>
+      <c r="C716">
+        <v>19.929415500000001</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B717">
+        <v>40.704486500000002</v>
+      </c>
+      <c r="C717">
+        <v>19.619259400000001</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B718">
+        <v>40.704162699999998</v>
+      </c>
+      <c r="C718">
+        <v>19.619131700000001</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B719">
+        <v>40.704430799999997</v>
+      </c>
+      <c r="C719">
+        <v>19.6191794</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B720">
+        <v>40.703620899999997</v>
+      </c>
+      <c r="C720">
+        <v>19.619142499999999</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B721">
+        <v>40.751191200000001</v>
+      </c>
+      <c r="C721">
+        <v>19.738752699999999</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B722">
+        <v>40.793060599999997</v>
+      </c>
+      <c r="C722">
+        <v>19.680487299999999</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B723">
+        <v>40.792164999999997</v>
+      </c>
+      <c r="C723">
+        <v>19.680548000000002</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B724">
+        <v>40.799134199999997</v>
+      </c>
+      <c r="C724">
+        <v>19.677496300000001</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B725">
+        <v>40.8142584</v>
+      </c>
+      <c r="C725">
+        <v>19.6472129</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B726">
+        <v>40.870192799999998</v>
+      </c>
+      <c r="C726">
+        <v>19.783277600000002</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B727">
+        <v>40.871401599999999</v>
+      </c>
+      <c r="C727">
+        <v>19.782639</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B728">
+        <v>40.871590599999998</v>
+      </c>
+      <c r="C728">
+        <v>19.7833446</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B729">
+        <v>40.872396999999999</v>
+      </c>
+      <c r="C729">
+        <v>19.784795200000001</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B730">
+        <v>40.823501200000003</v>
+      </c>
+      <c r="C730">
+        <v>19.914798600000001</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B731">
+        <v>40.7824545</v>
+      </c>
+      <c r="C731">
+        <v>19.846064599999998</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B732">
+        <v>40.781492299999996</v>
+      </c>
+      <c r="C732">
+        <v>19.846421899999999</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B733">
+        <v>40.780374399999999</v>
+      </c>
+      <c r="C733">
+        <v>19.844118999999999</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B734">
+        <v>40.731667899999998</v>
+      </c>
+      <c r="C734">
+        <v>19.9516496</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B735">
+        <v>40.733659000000003</v>
+      </c>
+      <c r="C735">
+        <v>19.950880300000001</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B736">
+        <v>40.732995699999996</v>
+      </c>
+      <c r="C736">
+        <v>19.951576599999999</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B737">
+        <v>40.733246200000004</v>
+      </c>
+      <c r="C737">
+        <v>19.951404499999999</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B738">
+        <v>40.732548899999998</v>
+      </c>
+      <c r="C738">
+        <v>19.951014300000001</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B739">
+        <v>40.788562300000002</v>
+      </c>
+      <c r="C739">
+        <v>19.889311500000002</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B740">
+        <v>40.788063200000003</v>
+      </c>
+      <c r="C740">
+        <v>19.889257300000001</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B741">
+        <v>40.793107499999998</v>
+      </c>
+      <c r="C741">
+        <v>19.880678100000001</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B742">
+        <v>40.793137399999999</v>
+      </c>
+      <c r="C742">
+        <v>19.8805704</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B743">
+        <v>40.789417100000001</v>
+      </c>
+      <c r="C743">
+        <v>19.882364899999999</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B744">
+        <v>40.831462999999999</v>
+      </c>
+      <c r="C744">
+        <v>19.9050999</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B745">
+        <v>40.831263900000003</v>
+      </c>
+      <c r="C745">
+        <v>19.914763099999998</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B746">
+        <v>40.704773500000002</v>
+      </c>
+      <c r="C746">
+        <v>19.6193016</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B747">
+        <v>40.872033199999997</v>
+      </c>
+      <c r="C747">
+        <v>19.7834088</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B748">
+        <v>40.823356099999998</v>
+      </c>
+      <c r="C748">
+        <v>19.914894700000001</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B749">
+        <v>40.782114800000002</v>
+      </c>
+      <c r="C749">
+        <v>19.846397700000001</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B750">
+        <v>40.814185299999998</v>
+      </c>
+      <c r="C750">
+        <v>19.647363299999999</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B751">
+        <v>40.813991700000003</v>
+      </c>
+      <c r="C751">
+        <v>19.648417999999999</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B752">
+        <v>40.813309699999998</v>
+      </c>
+      <c r="C752">
+        <v>19.648656599999999</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B753">
+        <v>40.733582599999998</v>
+      </c>
+      <c r="C753">
+        <v>19.951000499999999</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A754" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B754">
+        <v>42.362290199999997</v>
+      </c>
+      <c r="C754">
+        <v>20.0729188</v>
       </c>
     </row>
   </sheetData>
